--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579EF96-DC25-45A3-8BC2-44D1FB5A9E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCE13C-7B1B-42AB-99B5-7AE2B66F305B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,27 @@
   </si>
   <si>
     <t>Small</t>
+  </si>
+  <si>
+    <t>Pruned</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrant </t>
+  </si>
+  <si>
+    <t>Shade</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Bright</t>
   </si>
 </sst>
 </file>
@@ -419,16 +440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +476,17 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45787</v>
       </c>
@@ -480,8 +512,17 @@
       <c r="H2">
         <v>6</v>
       </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45787</v>
       </c>
@@ -507,8 +548,17 @@
       <c r="H3">
         <v>2</v>
       </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45787</v>
       </c>
@@ -534,8 +584,17 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45787</v>
       </c>
@@ -561,8 +620,17 @@
       <c r="H5">
         <v>3</v>
       </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45787</v>
       </c>
@@ -588,8 +656,17 @@
       <c r="H6">
         <v>3</v>
       </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45787</v>
       </c>
@@ -615,8 +692,17 @@
       <c r="H7">
         <v>2</v>
       </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45787</v>
       </c>
@@ -641,6 +727,15 @@
       </c>
       <c r="H8">
         <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCE13C-7B1B-42AB-99B5-7AE2B66F305B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD0E651-5B44-4E8A-8C01-B3C6BC20EC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD0E651-5B44-4E8A-8C01-B3C6BC20EC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E698AC-383F-4E2E-92D9-F6643739CC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="564" yWindow="4032" windowWidth="21156" windowHeight="7140" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,36 @@
   </si>
   <si>
     <t>Bright</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>UV</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Dew_Point</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Wind_Gust</t>
+  </si>
+  <si>
+    <t>Cloud_Cover</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>AQI</t>
+  </si>
+  <si>
+    <t>Pollen</t>
   </si>
 </sst>
 </file>
@@ -440,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="T9" sqref="T9:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +481,7 @@
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +515,35 @@
       <c r="K1" t="s">
         <v>17</v>
       </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45787</v>
       </c>
@@ -521,8 +578,35 @@
       <c r="K2" t="s">
         <v>18</v>
       </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>0.34</v>
+      </c>
+      <c r="N2">
+        <v>47</v>
+      </c>
+      <c r="O2">
+        <v>30.34</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>0.09</v>
+      </c>
+      <c r="R2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S2">
+        <v>51</v>
+      </c>
+      <c r="T2">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45787</v>
       </c>
@@ -539,7 +623,7 @@
         <v>73</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="0">E3-D3</f>
+        <f t="shared" ref="F3:F15" si="0">E3-D3</f>
         <v>24</v>
       </c>
       <c r="G3">
@@ -557,8 +641,35 @@
       <c r="K3" t="s">
         <v>19</v>
       </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>0.34</v>
+      </c>
+      <c r="N3">
+        <v>47</v>
+      </c>
+      <c r="O3">
+        <v>30.34</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>0.09</v>
+      </c>
+      <c r="R3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S3">
+        <v>51</v>
+      </c>
+      <c r="T3">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45787</v>
       </c>
@@ -593,8 +704,35 @@
       <c r="K4" t="s">
         <v>19</v>
       </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>0.34</v>
+      </c>
+      <c r="N4">
+        <v>47</v>
+      </c>
+      <c r="O4">
+        <v>30.34</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>0.09</v>
+      </c>
+      <c r="R4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S4">
+        <v>51</v>
+      </c>
+      <c r="T4">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45787</v>
       </c>
@@ -629,8 +767,35 @@
       <c r="K5" t="s">
         <v>20</v>
       </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>0.34</v>
+      </c>
+      <c r="N5">
+        <v>47</v>
+      </c>
+      <c r="O5">
+        <v>30.34</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>0.09</v>
+      </c>
+      <c r="R5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S5">
+        <v>51</v>
+      </c>
+      <c r="T5">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45787</v>
       </c>
@@ -665,8 +830,35 @@
       <c r="K6" t="s">
         <v>20</v>
       </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>0.34</v>
+      </c>
+      <c r="N6">
+        <v>47</v>
+      </c>
+      <c r="O6">
+        <v>30.34</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>0.09</v>
+      </c>
+      <c r="R6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S6">
+        <v>51</v>
+      </c>
+      <c r="T6">
+        <v>43</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45787</v>
       </c>
@@ -701,8 +893,35 @@
       <c r="K7" t="s">
         <v>18</v>
       </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>0.34</v>
+      </c>
+      <c r="N7">
+        <v>47</v>
+      </c>
+      <c r="O7">
+        <v>30.34</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>0.09</v>
+      </c>
+      <c r="R7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S7">
+        <v>51</v>
+      </c>
+      <c r="T7">
+        <v>43</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45787</v>
       </c>
@@ -736,6 +955,476 @@
       </c>
       <c r="K8" t="s">
         <v>19</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>0.34</v>
+      </c>
+      <c r="N8">
+        <v>47</v>
+      </c>
+      <c r="O8">
+        <v>30.34</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>0.09</v>
+      </c>
+      <c r="R8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S8">
+        <v>51</v>
+      </c>
+      <c r="T8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>0.35</v>
+      </c>
+      <c r="N9">
+        <v>49</v>
+      </c>
+      <c r="O9">
+        <v>30.25</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>0.1</v>
+      </c>
+      <c r="R9">
+        <v>9.9</v>
+      </c>
+      <c r="S9">
+        <v>52</v>
+      </c>
+      <c r="T9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>0.35</v>
+      </c>
+      <c r="N10">
+        <v>49</v>
+      </c>
+      <c r="O10">
+        <v>30.25</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>0.1</v>
+      </c>
+      <c r="R10">
+        <v>9.9</v>
+      </c>
+      <c r="S10">
+        <v>52</v>
+      </c>
+      <c r="T10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>0.35</v>
+      </c>
+      <c r="N11">
+        <v>49</v>
+      </c>
+      <c r="O11">
+        <v>30.25</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>0.1</v>
+      </c>
+      <c r="R11">
+        <v>9.9</v>
+      </c>
+      <c r="S11">
+        <v>52</v>
+      </c>
+      <c r="T11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>56</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>0.35</v>
+      </c>
+      <c r="N12">
+        <v>49</v>
+      </c>
+      <c r="O12">
+        <v>30.25</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>0.1</v>
+      </c>
+      <c r="R12">
+        <v>9.9</v>
+      </c>
+      <c r="S12">
+        <v>52</v>
+      </c>
+      <c r="T12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>0.35</v>
+      </c>
+      <c r="N13">
+        <v>49</v>
+      </c>
+      <c r="O13">
+        <v>30.25</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <v>0.1</v>
+      </c>
+      <c r="R13">
+        <v>9.9</v>
+      </c>
+      <c r="S13">
+        <v>52</v>
+      </c>
+      <c r="T13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>0.35</v>
+      </c>
+      <c r="N14">
+        <v>49</v>
+      </c>
+      <c r="O14">
+        <v>30.25</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>0.1</v>
+      </c>
+      <c r="R14">
+        <v>9.9</v>
+      </c>
+      <c r="S14">
+        <v>52</v>
+      </c>
+      <c r="T14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>0.35</v>
+      </c>
+      <c r="N15">
+        <v>49</v>
+      </c>
+      <c r="O15">
+        <v>30.25</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>0.1</v>
+      </c>
+      <c r="R15">
+        <v>9.9</v>
+      </c>
+      <c r="S15">
+        <v>52</v>
+      </c>
+      <c r="T15">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E698AC-383F-4E2E-92D9-F6643739CC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173024DA-B20A-4EF4-A944-5B761CB7FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="4032" windowWidth="21156" windowHeight="7140" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:T15"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
         <v>73</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F15" si="0">E3-D3</f>
+        <f t="shared" ref="F3:F22" si="0">E3-D3</f>
         <v>24</v>
       </c>
       <c r="G3">
@@ -1425,6 +1425,447 @@
       </c>
       <c r="T15">
         <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>0.33</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>0.42</v>
+      </c>
+      <c r="N16">
+        <v>51</v>
+      </c>
+      <c r="O16">
+        <v>30.2</v>
+      </c>
+      <c r="P16">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>0.36</v>
+      </c>
+      <c r="R16">
+        <v>9.9</v>
+      </c>
+      <c r="S16">
+        <v>53</v>
+      </c>
+      <c r="T16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>80</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>0.33</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>0.42</v>
+      </c>
+      <c r="N17">
+        <v>51</v>
+      </c>
+      <c r="O17">
+        <v>30.2</v>
+      </c>
+      <c r="P17">
+        <v>18</v>
+      </c>
+      <c r="Q17">
+        <v>0.36</v>
+      </c>
+      <c r="R17">
+        <v>9.9</v>
+      </c>
+      <c r="S17">
+        <v>53</v>
+      </c>
+      <c r="T17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>64</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>0.33</v>
+      </c>
+      <c r="H18">
+        <v>0.3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>0.42</v>
+      </c>
+      <c r="N18">
+        <v>51</v>
+      </c>
+      <c r="O18">
+        <v>30.2</v>
+      </c>
+      <c r="P18">
+        <v>18</v>
+      </c>
+      <c r="Q18">
+        <v>0.36</v>
+      </c>
+      <c r="R18">
+        <v>9.9</v>
+      </c>
+      <c r="S18">
+        <v>53</v>
+      </c>
+      <c r="T18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>64</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>0.33</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>0.42</v>
+      </c>
+      <c r="N19">
+        <v>51</v>
+      </c>
+      <c r="O19">
+        <v>30.2</v>
+      </c>
+      <c r="P19">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>0.36</v>
+      </c>
+      <c r="R19">
+        <v>9.9</v>
+      </c>
+      <c r="S19">
+        <v>53</v>
+      </c>
+      <c r="T19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>64</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>0.33</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>0.42</v>
+      </c>
+      <c r="N20">
+        <v>51</v>
+      </c>
+      <c r="O20">
+        <v>30.2</v>
+      </c>
+      <c r="P20">
+        <v>18</v>
+      </c>
+      <c r="Q20">
+        <v>0.36</v>
+      </c>
+      <c r="R20">
+        <v>9.9</v>
+      </c>
+      <c r="S20">
+        <v>53</v>
+      </c>
+      <c r="T20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>0.33</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>0.42</v>
+      </c>
+      <c r="N21">
+        <v>51</v>
+      </c>
+      <c r="O21">
+        <v>30.2</v>
+      </c>
+      <c r="P21">
+        <v>18</v>
+      </c>
+      <c r="Q21">
+        <v>0.36</v>
+      </c>
+      <c r="R21">
+        <v>9.9</v>
+      </c>
+      <c r="S21">
+        <v>53</v>
+      </c>
+      <c r="T21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>64</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>0.33</v>
+      </c>
+      <c r="H22">
+        <v>1.5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>0.42</v>
+      </c>
+      <c r="N22">
+        <v>51</v>
+      </c>
+      <c r="O22">
+        <v>30.2</v>
+      </c>
+      <c r="P22">
+        <v>18</v>
+      </c>
+      <c r="Q22">
+        <v>0.36</v>
+      </c>
+      <c r="R22">
+        <v>9.9</v>
+      </c>
+      <c r="S22">
+        <v>53</v>
+      </c>
+      <c r="T22">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173024DA-B20A-4EF4-A944-5B761CB7FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F10EF-CAF8-4886-92A1-A8BAFEC5B0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
         <v>73</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F22" si="0">E3-D3</f>
+        <f t="shared" ref="F3:F29" si="0">E3-D3</f>
         <v>24</v>
       </c>
       <c r="G3">
@@ -1866,6 +1866,450 @@
       </c>
       <c r="T22">
         <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>2.37</v>
+      </c>
+      <c r="H23">
+        <v>2.5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>0.97</v>
+      </c>
+      <c r="N23">
+        <v>64</v>
+      </c>
+      <c r="O23">
+        <v>29.87</v>
+      </c>
+      <c r="P23">
+        <v>19</v>
+      </c>
+      <c r="Q23">
+        <v>0.94</v>
+      </c>
+      <c r="R23">
+        <v>9.9</v>
+      </c>
+      <c r="S23">
+        <v>25</v>
+      </c>
+      <c r="T23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>61</v>
+      </c>
+      <c r="E24">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>2.37</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>0.97</v>
+      </c>
+      <c r="N24">
+        <v>64</v>
+      </c>
+      <c r="O24">
+        <v>29.87</v>
+      </c>
+      <c r="P24">
+        <v>19</v>
+      </c>
+      <c r="Q24">
+        <v>0.94</v>
+      </c>
+      <c r="R24">
+        <v>9.9</v>
+      </c>
+      <c r="S24">
+        <v>25</v>
+      </c>
+      <c r="T24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>61</v>
+      </c>
+      <c r="E25">
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>2.37</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>0.97</v>
+      </c>
+      <c r="N25">
+        <v>64</v>
+      </c>
+      <c r="O25">
+        <v>29.87</v>
+      </c>
+      <c r="P25">
+        <v>19</v>
+      </c>
+      <c r="Q25">
+        <v>0.94</v>
+      </c>
+      <c r="R25">
+        <v>9.9</v>
+      </c>
+      <c r="S25">
+        <v>25</v>
+      </c>
+      <c r="T25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>61</v>
+      </c>
+      <c r="E26">
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>2.37</v>
+      </c>
+      <c r="H26">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>0.97</v>
+      </c>
+      <c r="N26">
+        <v>64</v>
+      </c>
+      <c r="O26">
+        <v>29.87</v>
+      </c>
+      <c r="P26">
+        <v>19</v>
+      </c>
+      <c r="Q26">
+        <v>0.94</v>
+      </c>
+      <c r="R26">
+        <v>9.9</v>
+      </c>
+      <c r="S26">
+        <v>25</v>
+      </c>
+      <c r="T26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>61</v>
+      </c>
+      <c r="E27">
+        <v>66</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>2.37</v>
+      </c>
+      <c r="H27">
+        <v>0.25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>0.97</v>
+      </c>
+      <c r="N27">
+        <v>64</v>
+      </c>
+      <c r="O27">
+        <v>29.87</v>
+      </c>
+      <c r="P27">
+        <v>19</v>
+      </c>
+      <c r="Q27">
+        <v>0.94</v>
+      </c>
+      <c r="R27">
+        <v>9.9</v>
+      </c>
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>61</v>
+      </c>
+      <c r="E28">
+        <v>66</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>2.37</v>
+      </c>
+      <c r="H28">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>0.97</v>
+      </c>
+      <c r="N28">
+        <v>64</v>
+      </c>
+      <c r="O28">
+        <v>29.87</v>
+      </c>
+      <c r="P28">
+        <v>19</v>
+      </c>
+      <c r="Q28">
+        <v>0.94</v>
+      </c>
+      <c r="R28">
+        <v>9.9</v>
+      </c>
+      <c r="S28">
+        <v>25</v>
+      </c>
+      <c r="T28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>61</v>
+      </c>
+      <c r="E29">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>2.37</v>
+      </c>
+      <c r="H29">
+        <f>7/3</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>0.97</v>
+      </c>
+      <c r="N29">
+        <v>64</v>
+      </c>
+      <c r="O29">
+        <v>29.87</v>
+      </c>
+      <c r="P29">
+        <v>19</v>
+      </c>
+      <c r="Q29">
+        <v>0.94</v>
+      </c>
+      <c r="R29">
+        <v>9.9</v>
+      </c>
+      <c r="S29">
+        <v>25</v>
+      </c>
+      <c r="T29">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F10EF-CAF8-4886-92A1-A8BAFEC5B0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA6C158-F080-4E5A-9744-4D8EED01E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Pollen</t>
+  </si>
+  <si>
+    <t>Artifical Cut off of Friday, August 8th.</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +484,7 @@
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +545,11 @@
       <c r="T1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45787</v>
       </c>
@@ -560,7 +566,7 @@
         <v>73</v>
       </c>
       <c r="F2">
-        <f>E2-D2</f>
+        <f>ABS(D2-E2)</f>
         <v>24</v>
       </c>
       <c r="G2">
@@ -606,7 +612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45787</v>
       </c>
@@ -623,7 +629,7 @@
         <v>73</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F29" si="0">E3-D3</f>
+        <f t="shared" ref="F3:F43" si="0">ABS(D3-E3)</f>
         <v>24</v>
       </c>
       <c r="G3">
@@ -669,7 +675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45787</v>
       </c>
@@ -732,7 +738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45787</v>
       </c>
@@ -795,7 +801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45787</v>
       </c>
@@ -858,7 +864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45787</v>
       </c>
@@ -921,7 +927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45787</v>
       </c>
@@ -984,7 +990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45788</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45788</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45788</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45788</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45788</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45788</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45788</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45789</v>
       </c>
@@ -2310,6 +2316,890 @@
       </c>
       <c r="T29">
         <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>75</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>0.86</v>
+      </c>
+      <c r="N30">
+        <v>62</v>
+      </c>
+      <c r="O30">
+        <v>29.85</v>
+      </c>
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>0.95</v>
+      </c>
+      <c r="R30">
+        <v>9.9</v>
+      </c>
+      <c r="S30">
+        <v>23</v>
+      </c>
+      <c r="T30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>75</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>0.86</v>
+      </c>
+      <c r="N31">
+        <v>62</v>
+      </c>
+      <c r="O31">
+        <v>29.85</v>
+      </c>
+      <c r="P31">
+        <v>9</v>
+      </c>
+      <c r="Q31">
+        <v>0.95</v>
+      </c>
+      <c r="R31">
+        <v>9.9</v>
+      </c>
+      <c r="S31">
+        <v>23</v>
+      </c>
+      <c r="T31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>58</v>
+      </c>
+      <c r="E32">
+        <v>75</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>0.86</v>
+      </c>
+      <c r="N32">
+        <v>62</v>
+      </c>
+      <c r="O32">
+        <v>29.85</v>
+      </c>
+      <c r="P32">
+        <v>9</v>
+      </c>
+      <c r="Q32">
+        <v>0.95</v>
+      </c>
+      <c r="R32">
+        <v>9.9</v>
+      </c>
+      <c r="S32">
+        <v>23</v>
+      </c>
+      <c r="T32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>75</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>0.86</v>
+      </c>
+      <c r="N33">
+        <v>62</v>
+      </c>
+      <c r="O33">
+        <v>29.85</v>
+      </c>
+      <c r="P33">
+        <v>9</v>
+      </c>
+      <c r="Q33">
+        <v>0.95</v>
+      </c>
+      <c r="R33">
+        <v>9.9</v>
+      </c>
+      <c r="S33">
+        <v>23</v>
+      </c>
+      <c r="T33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>58</v>
+      </c>
+      <c r="E34">
+        <v>75</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>0.86</v>
+      </c>
+      <c r="N34">
+        <v>62</v>
+      </c>
+      <c r="O34">
+        <v>29.85</v>
+      </c>
+      <c r="P34">
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>0.95</v>
+      </c>
+      <c r="R34">
+        <v>9.9</v>
+      </c>
+      <c r="S34">
+        <v>23</v>
+      </c>
+      <c r="T34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>58</v>
+      </c>
+      <c r="E35">
+        <v>75</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>2.5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>0.86</v>
+      </c>
+      <c r="N35">
+        <v>62</v>
+      </c>
+      <c r="O35">
+        <v>29.85</v>
+      </c>
+      <c r="P35">
+        <v>9</v>
+      </c>
+      <c r="Q35">
+        <v>0.95</v>
+      </c>
+      <c r="R35">
+        <v>9.9</v>
+      </c>
+      <c r="S35">
+        <v>23</v>
+      </c>
+      <c r="T35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>58</v>
+      </c>
+      <c r="E36">
+        <v>75</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>0.25</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>0.86</v>
+      </c>
+      <c r="N36">
+        <v>62</v>
+      </c>
+      <c r="O36">
+        <v>29.85</v>
+      </c>
+      <c r="P36">
+        <v>9</v>
+      </c>
+      <c r="Q36">
+        <v>0.95</v>
+      </c>
+      <c r="R36">
+        <v>9.9</v>
+      </c>
+      <c r="S36">
+        <v>23</v>
+      </c>
+      <c r="T36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>58</v>
+      </c>
+      <c r="E37">
+        <v>75</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G37">
+        <v>0.15</v>
+      </c>
+      <c r="H37">
+        <v>0.75</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>0.6</v>
+      </c>
+      <c r="N37">
+        <v>63</v>
+      </c>
+      <c r="O37">
+        <v>29.81</v>
+      </c>
+      <c r="P37">
+        <v>9</v>
+      </c>
+      <c r="Q37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R37">
+        <v>9.9</v>
+      </c>
+      <c r="S37">
+        <v>21</v>
+      </c>
+      <c r="T37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>58</v>
+      </c>
+      <c r="E38">
+        <v>75</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G38">
+        <v>0.15</v>
+      </c>
+      <c r="H38">
+        <v>0.25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>0.6</v>
+      </c>
+      <c r="N38">
+        <v>63</v>
+      </c>
+      <c r="O38">
+        <v>29.81</v>
+      </c>
+      <c r="P38">
+        <v>9</v>
+      </c>
+      <c r="Q38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R38">
+        <v>9.9</v>
+      </c>
+      <c r="S38">
+        <v>21</v>
+      </c>
+      <c r="T38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>58</v>
+      </c>
+      <c r="E39">
+        <v>75</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G39">
+        <v>0.15</v>
+      </c>
+      <c r="H39">
+        <v>0.5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>0.6</v>
+      </c>
+      <c r="N39">
+        <v>63</v>
+      </c>
+      <c r="O39">
+        <v>29.81</v>
+      </c>
+      <c r="P39">
+        <v>9</v>
+      </c>
+      <c r="Q39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R39">
+        <v>9.9</v>
+      </c>
+      <c r="S39">
+        <v>21</v>
+      </c>
+      <c r="T39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>58</v>
+      </c>
+      <c r="E40">
+        <v>75</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G40">
+        <v>0.15</v>
+      </c>
+      <c r="H40">
+        <v>0.4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <v>0.6</v>
+      </c>
+      <c r="N40">
+        <v>63</v>
+      </c>
+      <c r="O40">
+        <v>29.81</v>
+      </c>
+      <c r="P40">
+        <v>9</v>
+      </c>
+      <c r="Q40">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R40">
+        <v>9.9</v>
+      </c>
+      <c r="S40">
+        <v>21</v>
+      </c>
+      <c r="T40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>58</v>
+      </c>
+      <c r="E41">
+        <v>75</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G41">
+        <v>0.15</v>
+      </c>
+      <c r="H41">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41">
+        <v>8</v>
+      </c>
+      <c r="M41">
+        <v>0.6</v>
+      </c>
+      <c r="N41">
+        <v>63</v>
+      </c>
+      <c r="O41">
+        <v>29.81</v>
+      </c>
+      <c r="P41">
+        <v>9</v>
+      </c>
+      <c r="Q41">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R41">
+        <v>9.9</v>
+      </c>
+      <c r="S41">
+        <v>21</v>
+      </c>
+      <c r="T41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>58</v>
+      </c>
+      <c r="E42">
+        <v>75</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G42">
+        <v>0.15</v>
+      </c>
+      <c r="H42">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>8</v>
+      </c>
+      <c r="M42">
+        <v>0.6</v>
+      </c>
+      <c r="N42">
+        <v>63</v>
+      </c>
+      <c r="O42">
+        <v>29.81</v>
+      </c>
+      <c r="P42">
+        <v>9</v>
+      </c>
+      <c r="Q42">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R42">
+        <v>9.9</v>
+      </c>
+      <c r="S42">
+        <v>21</v>
+      </c>
+      <c r="T42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>58</v>
+      </c>
+      <c r="E43">
+        <v>75</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G43">
+        <v>0.15</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+      <c r="M43">
+        <v>0.6</v>
+      </c>
+      <c r="N43">
+        <v>63</v>
+      </c>
+      <c r="O43">
+        <v>29.81</v>
+      </c>
+      <c r="P43">
+        <v>9</v>
+      </c>
+      <c r="Q43">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R43">
+        <v>9.9</v>
+      </c>
+      <c r="S43">
+        <v>21</v>
+      </c>
+      <c r="T43">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA6C158-F080-4E5A-9744-4D8EED01E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C715D084-F8B0-44F9-ABAB-757C29592DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="672" yWindow="2844" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +629,7 @@
         <v>73</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F43" si="0">ABS(D3-E3)</f>
+        <f t="shared" ref="F3:F50" si="0">ABS(D3-E3)</f>
         <v>24</v>
       </c>
       <c r="G3">
@@ -3200,6 +3200,447 @@
       </c>
       <c r="T43">
         <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>64</v>
+      </c>
+      <c r="E44">
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G44">
+        <v>0.17</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>0.67</v>
+      </c>
+      <c r="N44">
+        <v>67</v>
+      </c>
+      <c r="O44">
+        <v>29.74</v>
+      </c>
+      <c r="P44">
+        <v>26</v>
+      </c>
+      <c r="Q44">
+        <v>0.92</v>
+      </c>
+      <c r="R44">
+        <v>8.1</v>
+      </c>
+      <c r="S44">
+        <v>52</v>
+      </c>
+      <c r="T44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
+      <c r="E45">
+        <v>80</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>0.17</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>0.67</v>
+      </c>
+      <c r="N45">
+        <v>67</v>
+      </c>
+      <c r="O45">
+        <v>29.74</v>
+      </c>
+      <c r="P45">
+        <v>26</v>
+      </c>
+      <c r="Q45">
+        <v>0.92</v>
+      </c>
+      <c r="R45">
+        <v>8.1</v>
+      </c>
+      <c r="S45">
+        <v>52</v>
+      </c>
+      <c r="T45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>64</v>
+      </c>
+      <c r="E46">
+        <v>80</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>0.17</v>
+      </c>
+      <c r="H46">
+        <v>1.5</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <v>0.67</v>
+      </c>
+      <c r="N46">
+        <v>67</v>
+      </c>
+      <c r="O46">
+        <v>29.74</v>
+      </c>
+      <c r="P46">
+        <v>26</v>
+      </c>
+      <c r="Q46">
+        <v>0.92</v>
+      </c>
+      <c r="R46">
+        <v>8.1</v>
+      </c>
+      <c r="S46">
+        <v>52</v>
+      </c>
+      <c r="T46">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>64</v>
+      </c>
+      <c r="E47">
+        <v>80</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>0.17</v>
+      </c>
+      <c r="H47">
+        <v>0.5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>0.67</v>
+      </c>
+      <c r="N47">
+        <v>67</v>
+      </c>
+      <c r="O47">
+        <v>29.74</v>
+      </c>
+      <c r="P47">
+        <v>26</v>
+      </c>
+      <c r="Q47">
+        <v>0.92</v>
+      </c>
+      <c r="R47">
+        <v>8.1</v>
+      </c>
+      <c r="S47">
+        <v>52</v>
+      </c>
+      <c r="T47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>64</v>
+      </c>
+      <c r="E48">
+        <v>80</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>0.17</v>
+      </c>
+      <c r="H48">
+        <v>0.3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>0.67</v>
+      </c>
+      <c r="N48">
+        <v>67</v>
+      </c>
+      <c r="O48">
+        <v>29.74</v>
+      </c>
+      <c r="P48">
+        <v>26</v>
+      </c>
+      <c r="Q48">
+        <v>0.92</v>
+      </c>
+      <c r="R48">
+        <v>8.1</v>
+      </c>
+      <c r="S48">
+        <v>52</v>
+      </c>
+      <c r="T48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>64</v>
+      </c>
+      <c r="E49">
+        <v>80</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G49">
+        <v>0.17</v>
+      </c>
+      <c r="H49">
+        <v>0.2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>0.67</v>
+      </c>
+      <c r="N49">
+        <v>67</v>
+      </c>
+      <c r="O49">
+        <v>29.74</v>
+      </c>
+      <c r="P49">
+        <v>26</v>
+      </c>
+      <c r="Q49">
+        <v>0.92</v>
+      </c>
+      <c r="R49">
+        <v>8.1</v>
+      </c>
+      <c r="S49">
+        <v>52</v>
+      </c>
+      <c r="T49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>64</v>
+      </c>
+      <c r="E50">
+        <v>80</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>0.17</v>
+      </c>
+      <c r="H50">
+        <v>0.1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>0.67</v>
+      </c>
+      <c r="N50">
+        <v>67</v>
+      </c>
+      <c r="O50">
+        <v>29.74</v>
+      </c>
+      <c r="P50">
+        <v>26</v>
+      </c>
+      <c r="Q50">
+        <v>0.92</v>
+      </c>
+      <c r="R50">
+        <v>8.1</v>
+      </c>
+      <c r="S50">
+        <v>52</v>
+      </c>
+      <c r="T50">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C715D084-F8B0-44F9-ABAB-757C29592DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4877DE0F-42BE-49F7-B9D6-D4D09DC7C122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="2844" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
@@ -629,7 +629,7 @@
         <v>73</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F50" si="0">ABS(D3-E3)</f>
+        <f t="shared" ref="F3:F57" si="0">ABS(D3-E3)</f>
         <v>24</v>
       </c>
       <c r="G3">
@@ -3641,6 +3641,449 @@
       </c>
       <c r="T50">
         <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>55</v>
+      </c>
+      <c r="E51">
+        <v>75</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.5</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51">
+        <v>6</v>
+      </c>
+      <c r="M51">
+        <v>0.52</v>
+      </c>
+      <c r="N51">
+        <v>55</v>
+      </c>
+      <c r="O51">
+        <v>29.55</v>
+      </c>
+      <c r="P51">
+        <v>35</v>
+      </c>
+      <c r="Q51">
+        <v>0.76</v>
+      </c>
+      <c r="R51">
+        <v>9.9</v>
+      </c>
+      <c r="S51">
+        <v>43</v>
+      </c>
+      <c r="T51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>55</v>
+      </c>
+      <c r="E52">
+        <v>75</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <v>0.52</v>
+      </c>
+      <c r="N52">
+        <v>55</v>
+      </c>
+      <c r="O52">
+        <v>29.55</v>
+      </c>
+      <c r="P52">
+        <v>35</v>
+      </c>
+      <c r="Q52">
+        <v>0.76</v>
+      </c>
+      <c r="R52">
+        <v>9.9</v>
+      </c>
+      <c r="S52">
+        <v>43</v>
+      </c>
+      <c r="T52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>55</v>
+      </c>
+      <c r="E53">
+        <v>75</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+      <c r="M53">
+        <v>0.52</v>
+      </c>
+      <c r="N53">
+        <v>55</v>
+      </c>
+      <c r="O53">
+        <v>29.55</v>
+      </c>
+      <c r="P53">
+        <v>35</v>
+      </c>
+      <c r="Q53">
+        <v>0.76</v>
+      </c>
+      <c r="R53">
+        <v>9.9</v>
+      </c>
+      <c r="S53">
+        <v>43</v>
+      </c>
+      <c r="T53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>55</v>
+      </c>
+      <c r="E54">
+        <v>75</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>0.52</v>
+      </c>
+      <c r="N54">
+        <v>55</v>
+      </c>
+      <c r="O54">
+        <v>29.55</v>
+      </c>
+      <c r="P54">
+        <v>35</v>
+      </c>
+      <c r="Q54">
+        <v>0.76</v>
+      </c>
+      <c r="R54">
+        <v>9.9</v>
+      </c>
+      <c r="S54">
+        <v>43</v>
+      </c>
+      <c r="T54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>55</v>
+      </c>
+      <c r="E55">
+        <v>75</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>0.52</v>
+      </c>
+      <c r="N55">
+        <v>55</v>
+      </c>
+      <c r="O55">
+        <v>29.55</v>
+      </c>
+      <c r="P55">
+        <v>35</v>
+      </c>
+      <c r="Q55">
+        <v>0.76</v>
+      </c>
+      <c r="R55">
+        <v>9.9</v>
+      </c>
+      <c r="S55">
+        <v>43</v>
+      </c>
+      <c r="T55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>75</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>0.52</v>
+      </c>
+      <c r="N56">
+        <v>55</v>
+      </c>
+      <c r="O56">
+        <v>29.55</v>
+      </c>
+      <c r="P56">
+        <v>35</v>
+      </c>
+      <c r="Q56">
+        <v>0.76</v>
+      </c>
+      <c r="R56">
+        <v>9.9</v>
+      </c>
+      <c r="S56">
+        <v>43</v>
+      </c>
+      <c r="T56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>75</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>0.52</v>
+      </c>
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57">
+        <v>29.55</v>
+      </c>
+      <c r="P57">
+        <v>35</v>
+      </c>
+      <c r="Q57">
+        <v>0.76</v>
+      </c>
+      <c r="R57">
+        <v>9.9</v>
+      </c>
+      <c r="S57">
+        <v>43</v>
+      </c>
+      <c r="T57">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4877DE0F-42BE-49F7-B9D6-D4D09DC7C122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674EDBED-8D57-4D66-8D46-9B8FA15003A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="792" yWindow="3984" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58:P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +629,7 @@
         <v>73</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F57" si="0">ABS(D3-E3)</f>
+        <f t="shared" ref="F3:F64" si="0">ABS(D3-E3)</f>
         <v>24</v>
       </c>
       <c r="G3">
@@ -3664,7 +3664,7 @@
         <v>20</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H51">
         <v>0.5</v>
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -3790,7 +3790,7 @@
         <v>20</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H53">
         <f>1/3</f>
@@ -3854,7 +3854,7 @@
         <v>20</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H54">
         <f>2/3</f>
@@ -3918,7 +3918,7 @@
         <v>20</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H55">
         <v>0.1</v>
@@ -3981,7 +3981,7 @@
         <v>20</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H56">
         <v>0.1</v>
@@ -4044,7 +4044,7 @@
         <v>20</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -4084,6 +4084,447 @@
       </c>
       <c r="T57">
         <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>48</v>
+      </c>
+      <c r="E58">
+        <v>68</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N58">
+        <v>52</v>
+      </c>
+      <c r="O58">
+        <v>29.8</v>
+      </c>
+      <c r="P58">
+        <v>25</v>
+      </c>
+      <c r="Q58">
+        <v>0.85</v>
+      </c>
+      <c r="R58">
+        <v>9.9</v>
+      </c>
+      <c r="S58">
+        <v>26</v>
+      </c>
+      <c r="T58">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>48</v>
+      </c>
+      <c r="E59">
+        <v>68</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N59">
+        <v>52</v>
+      </c>
+      <c r="O59">
+        <v>29.8</v>
+      </c>
+      <c r="P59">
+        <v>25</v>
+      </c>
+      <c r="Q59">
+        <v>0.85</v>
+      </c>
+      <c r="R59">
+        <v>9.9</v>
+      </c>
+      <c r="S59">
+        <v>26</v>
+      </c>
+      <c r="T59">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>48</v>
+      </c>
+      <c r="E60">
+        <v>68</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.25</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N60">
+        <v>52</v>
+      </c>
+      <c r="O60">
+        <v>29.8</v>
+      </c>
+      <c r="P60">
+        <v>25</v>
+      </c>
+      <c r="Q60">
+        <v>0.85</v>
+      </c>
+      <c r="R60">
+        <v>9.9</v>
+      </c>
+      <c r="S60">
+        <v>26</v>
+      </c>
+      <c r="T60">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>48</v>
+      </c>
+      <c r="E61">
+        <v>68</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N61">
+        <v>52</v>
+      </c>
+      <c r="O61">
+        <v>29.8</v>
+      </c>
+      <c r="P61">
+        <v>25</v>
+      </c>
+      <c r="Q61">
+        <v>0.85</v>
+      </c>
+      <c r="R61">
+        <v>9.9</v>
+      </c>
+      <c r="S61">
+        <v>26</v>
+      </c>
+      <c r="T61">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>48</v>
+      </c>
+      <c r="E62">
+        <v>68</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N62">
+        <v>52</v>
+      </c>
+      <c r="O62">
+        <v>29.8</v>
+      </c>
+      <c r="P62">
+        <v>25</v>
+      </c>
+      <c r="Q62">
+        <v>0.85</v>
+      </c>
+      <c r="R62">
+        <v>9.9</v>
+      </c>
+      <c r="S62">
+        <v>26</v>
+      </c>
+      <c r="T62">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>48</v>
+      </c>
+      <c r="E63">
+        <v>68</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N63">
+        <v>52</v>
+      </c>
+      <c r="O63">
+        <v>29.8</v>
+      </c>
+      <c r="P63">
+        <v>25</v>
+      </c>
+      <c r="Q63">
+        <v>0.85</v>
+      </c>
+      <c r="R63">
+        <v>9.9</v>
+      </c>
+      <c r="S63">
+        <v>26</v>
+      </c>
+      <c r="T63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>48</v>
+      </c>
+      <c r="E64">
+        <v>68</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>3.5</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N64">
+        <v>52</v>
+      </c>
+      <c r="O64">
+        <v>29.8</v>
+      </c>
+      <c r="P64">
+        <v>25</v>
+      </c>
+      <c r="Q64">
+        <v>0.85</v>
+      </c>
+      <c r="R64">
+        <v>9.9</v>
+      </c>
+      <c r="S64">
+        <v>26</v>
+      </c>
+      <c r="T64">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674EDBED-8D57-4D66-8D46-9B8FA15003A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B308E6-3BB7-49B2-8065-7B0FB72FCDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="3984" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="1872" yWindow="2400" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58:P64"/>
+    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65:Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +629,7 @@
         <v>73</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F64" si="0">ABS(D3-E3)</f>
+        <f t="shared" ref="F3:F66" si="0">ABS(D3-E3)</f>
         <v>24</v>
       </c>
       <c r="G3">
@@ -4525,6 +4525,428 @@
       </c>
       <c r="T64">
         <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>44</v>
+      </c>
+      <c r="E65">
+        <v>66</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65">
+        <v>8</v>
+      </c>
+      <c r="M65">
+        <v>0.5</v>
+      </c>
+      <c r="N65">
+        <v>45</v>
+      </c>
+      <c r="O65">
+        <v>29.99</v>
+      </c>
+      <c r="P65">
+        <v>16</v>
+      </c>
+      <c r="Q65">
+        <v>0.27</v>
+      </c>
+      <c r="R65">
+        <v>9.9</v>
+      </c>
+      <c r="S65">
+        <v>34</v>
+      </c>
+      <c r="T65">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>44</v>
+      </c>
+      <c r="E66">
+        <v>66</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0.25</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66">
+        <v>8</v>
+      </c>
+      <c r="M66">
+        <v>0.5</v>
+      </c>
+      <c r="N66">
+        <v>45</v>
+      </c>
+      <c r="O66">
+        <v>29.99</v>
+      </c>
+      <c r="P66">
+        <v>16</v>
+      </c>
+      <c r="Q66">
+        <v>0.27</v>
+      </c>
+      <c r="R66">
+        <v>9.9</v>
+      </c>
+      <c r="S66">
+        <v>34</v>
+      </c>
+      <c r="T66">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>44</v>
+      </c>
+      <c r="E67">
+        <v>66</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F71" si="1">ABS(D67-E67)</f>
+        <v>22</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67">
+        <v>8</v>
+      </c>
+      <c r="M67">
+        <v>0.5</v>
+      </c>
+      <c r="N67">
+        <v>45</v>
+      </c>
+      <c r="O67">
+        <v>29.99</v>
+      </c>
+      <c r="P67">
+        <v>16</v>
+      </c>
+      <c r="Q67">
+        <v>0.27</v>
+      </c>
+      <c r="R67">
+        <v>9.9</v>
+      </c>
+      <c r="S67">
+        <v>34</v>
+      </c>
+      <c r="T67">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>44</v>
+      </c>
+      <c r="E68">
+        <v>66</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68">
+        <v>8</v>
+      </c>
+      <c r="M68">
+        <v>0.5</v>
+      </c>
+      <c r="N68">
+        <v>45</v>
+      </c>
+      <c r="O68">
+        <v>29.99</v>
+      </c>
+      <c r="P68">
+        <v>16</v>
+      </c>
+      <c r="Q68">
+        <v>0.27</v>
+      </c>
+      <c r="R68">
+        <v>9.9</v>
+      </c>
+      <c r="S68">
+        <v>34</v>
+      </c>
+      <c r="T68">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>44</v>
+      </c>
+      <c r="E69">
+        <v>66</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69">
+        <v>8</v>
+      </c>
+      <c r="M69">
+        <v>0.5</v>
+      </c>
+      <c r="N69">
+        <v>45</v>
+      </c>
+      <c r="O69">
+        <v>29.99</v>
+      </c>
+      <c r="P69">
+        <v>16</v>
+      </c>
+      <c r="Q69">
+        <v>0.27</v>
+      </c>
+      <c r="R69">
+        <v>9.9</v>
+      </c>
+      <c r="S69">
+        <v>34</v>
+      </c>
+      <c r="T69">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>44</v>
+      </c>
+      <c r="E70">
+        <v>66</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70">
+        <v>8</v>
+      </c>
+      <c r="M70">
+        <v>0.5</v>
+      </c>
+      <c r="N70">
+        <v>45</v>
+      </c>
+      <c r="O70">
+        <v>29.99</v>
+      </c>
+      <c r="P70">
+        <v>16</v>
+      </c>
+      <c r="Q70">
+        <v>0.27</v>
+      </c>
+      <c r="R70">
+        <v>9.9</v>
+      </c>
+      <c r="S70">
+        <v>34</v>
+      </c>
+      <c r="T70">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>44</v>
+      </c>
+      <c r="E71">
+        <v>66</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71">
+        <v>8</v>
+      </c>
+      <c r="M71">
+        <v>0.5</v>
+      </c>
+      <c r="N71">
+        <v>45</v>
+      </c>
+      <c r="O71">
+        <v>29.99</v>
+      </c>
+      <c r="P71">
+        <v>16</v>
+      </c>
+      <c r="Q71">
+        <v>0.27</v>
+      </c>
+      <c r="R71">
+        <v>9.9</v>
+      </c>
+      <c r="S71">
+        <v>34</v>
+      </c>
+      <c r="T71">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B308E6-3BB7-49B2-8065-7B0FB72FCDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AF9344-C895-4E22-BA3B-82E4A7221914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="2400" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="0" yWindow="2148" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65:Q71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4527,7 +4527,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45796</v>
+      </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
@@ -4587,7 +4590,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45796</v>
+      </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
@@ -4647,7 +4653,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45796</v>
+      </c>
       <c r="B67" t="s">
         <v>9</v>
       </c>
@@ -4708,7 +4717,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45796</v>
+      </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
@@ -4769,7 +4781,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45796</v>
+      </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
@@ -4829,7 +4844,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45796</v>
+      </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
@@ -4889,7 +4907,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45796</v>
+      </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AF9344-C895-4E22-BA3B-82E4A7221914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3188D377-D716-4073-B155-FFA63E412CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2148" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="228" yWindow="3696" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="R72" sqref="R72:R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4670,7 +4670,7 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F71" si="1">ABS(D67-E67)</f>
+        <f t="shared" ref="F67:F78" si="1">ABS(D67-E67)</f>
         <v>22</v>
       </c>
       <c r="G67">
@@ -4968,6 +4968,448 @@
       </c>
       <c r="T71">
         <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>54</v>
+      </c>
+      <c r="E72">
+        <v>66</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G72">
+        <v>1.06</v>
+      </c>
+      <c r="H72">
+        <v>0.5</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>0.46</v>
+      </c>
+      <c r="N72">
+        <v>43</v>
+      </c>
+      <c r="O72">
+        <v>29.9</v>
+      </c>
+      <c r="P72">
+        <v>10</v>
+      </c>
+      <c r="Q72">
+        <v>0.94</v>
+      </c>
+      <c r="R72">
+        <v>9.9</v>
+      </c>
+      <c r="S72">
+        <v>32</v>
+      </c>
+      <c r="T72">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>54</v>
+      </c>
+      <c r="E73">
+        <v>66</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G73">
+        <v>1.06</v>
+      </c>
+      <c r="H73">
+        <v>0.25</v>
+      </c>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>0.46</v>
+      </c>
+      <c r="N73">
+        <v>43</v>
+      </c>
+      <c r="O73">
+        <v>29.9</v>
+      </c>
+      <c r="P73">
+        <v>10</v>
+      </c>
+      <c r="Q73">
+        <v>0.94</v>
+      </c>
+      <c r="R73">
+        <v>9.9</v>
+      </c>
+      <c r="S73">
+        <v>32</v>
+      </c>
+      <c r="T73">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>54</v>
+      </c>
+      <c r="E74">
+        <v>66</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G74">
+        <v>1.06</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>0.46</v>
+      </c>
+      <c r="N74">
+        <v>43</v>
+      </c>
+      <c r="O74">
+        <v>29.9</v>
+      </c>
+      <c r="P74">
+        <v>10</v>
+      </c>
+      <c r="Q74">
+        <v>0.94</v>
+      </c>
+      <c r="R74">
+        <v>9.9</v>
+      </c>
+      <c r="S74">
+        <v>32</v>
+      </c>
+      <c r="T74">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>54</v>
+      </c>
+      <c r="E75">
+        <v>66</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G75">
+        <v>1.06</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+      <c r="K75" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>0.46</v>
+      </c>
+      <c r="N75">
+        <v>43</v>
+      </c>
+      <c r="O75">
+        <v>29.9</v>
+      </c>
+      <c r="P75">
+        <v>10</v>
+      </c>
+      <c r="Q75">
+        <v>0.94</v>
+      </c>
+      <c r="R75">
+        <v>9.9</v>
+      </c>
+      <c r="S75">
+        <v>32</v>
+      </c>
+      <c r="T75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>54</v>
+      </c>
+      <c r="E76">
+        <v>66</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G76">
+        <v>1.06</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>0.46</v>
+      </c>
+      <c r="N76">
+        <v>43</v>
+      </c>
+      <c r="O76">
+        <v>29.9</v>
+      </c>
+      <c r="P76">
+        <v>10</v>
+      </c>
+      <c r="Q76">
+        <v>0.94</v>
+      </c>
+      <c r="R76">
+        <v>9.9</v>
+      </c>
+      <c r="S76">
+        <v>32</v>
+      </c>
+      <c r="T76">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>54</v>
+      </c>
+      <c r="E77">
+        <v>66</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G77">
+        <v>1.06</v>
+      </c>
+      <c r="H77">
+        <v>3.5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>0.46</v>
+      </c>
+      <c r="N77">
+        <v>43</v>
+      </c>
+      <c r="O77">
+        <v>29.9</v>
+      </c>
+      <c r="P77">
+        <v>10</v>
+      </c>
+      <c r="Q77">
+        <v>0.94</v>
+      </c>
+      <c r="R77">
+        <v>9.9</v>
+      </c>
+      <c r="S77">
+        <v>32</v>
+      </c>
+      <c r="T77">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>54</v>
+      </c>
+      <c r="E78">
+        <v>66</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>1.06</v>
+      </c>
+      <c r="H78">
+        <f>25/3</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>0.46</v>
+      </c>
+      <c r="N78">
+        <v>43</v>
+      </c>
+      <c r="O78">
+        <v>29.9</v>
+      </c>
+      <c r="P78">
+        <v>10</v>
+      </c>
+      <c r="Q78">
+        <v>0.94</v>
+      </c>
+      <c r="R78">
+        <v>9.9</v>
+      </c>
+      <c r="S78">
+        <v>32</v>
+      </c>
+      <c r="T78">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3188D377-D716-4073-B155-FFA63E412CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00ED43E-3C04-4905-B5A0-5B040D36FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="3696" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="1200" yWindow="2028" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U78"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="R72" sqref="R72:R78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4670,7 +4670,7 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F78" si="1">ABS(D67-E67)</f>
+        <f t="shared" ref="F67:F85" si="1">ABS(D67-E67)</f>
         <v>22</v>
       </c>
       <c r="G67">
@@ -5410,6 +5410,447 @@
       </c>
       <c r="T78">
         <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>51</v>
+      </c>
+      <c r="E79">
+        <v>68</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G79">
+        <v>3.84</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>0.93</v>
+      </c>
+      <c r="N79">
+        <v>62</v>
+      </c>
+      <c r="O79">
+        <v>29.6</v>
+      </c>
+      <c r="P79">
+        <v>20</v>
+      </c>
+      <c r="Q79">
+        <v>0.93</v>
+      </c>
+      <c r="R79">
+        <v>7.5</v>
+      </c>
+      <c r="S79">
+        <v>30</v>
+      </c>
+      <c r="T79">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>51</v>
+      </c>
+      <c r="E80">
+        <v>68</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G80">
+        <v>3.84</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="K80" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>0.93</v>
+      </c>
+      <c r="N80">
+        <v>62</v>
+      </c>
+      <c r="O80">
+        <v>29.6</v>
+      </c>
+      <c r="P80">
+        <v>20</v>
+      </c>
+      <c r="Q80">
+        <v>0.93</v>
+      </c>
+      <c r="R80">
+        <v>7.5</v>
+      </c>
+      <c r="S80">
+        <v>30</v>
+      </c>
+      <c r="T80">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>51</v>
+      </c>
+      <c r="E81">
+        <v>68</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G81">
+        <v>3.84</v>
+      </c>
+      <c r="H81">
+        <v>3.5</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>0.93</v>
+      </c>
+      <c r="N81">
+        <v>62</v>
+      </c>
+      <c r="O81">
+        <v>29.6</v>
+      </c>
+      <c r="P81">
+        <v>20</v>
+      </c>
+      <c r="Q81">
+        <v>0.93</v>
+      </c>
+      <c r="R81">
+        <v>7.5</v>
+      </c>
+      <c r="S81">
+        <v>30</v>
+      </c>
+      <c r="T81">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>51</v>
+      </c>
+      <c r="E82">
+        <v>68</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G82">
+        <v>3.84</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>0.93</v>
+      </c>
+      <c r="N82">
+        <v>62</v>
+      </c>
+      <c r="O82">
+        <v>29.6</v>
+      </c>
+      <c r="P82">
+        <v>20</v>
+      </c>
+      <c r="Q82">
+        <v>0.93</v>
+      </c>
+      <c r="R82">
+        <v>7.5</v>
+      </c>
+      <c r="S82">
+        <v>30</v>
+      </c>
+      <c r="T82">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>51</v>
+      </c>
+      <c r="E83">
+        <v>68</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G83">
+        <v>3.84</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83">
+        <v>3</v>
+      </c>
+      <c r="K83" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>0.93</v>
+      </c>
+      <c r="N83">
+        <v>62</v>
+      </c>
+      <c r="O83">
+        <v>29.6</v>
+      </c>
+      <c r="P83">
+        <v>20</v>
+      </c>
+      <c r="Q83">
+        <v>0.93</v>
+      </c>
+      <c r="R83">
+        <v>7.5</v>
+      </c>
+      <c r="S83">
+        <v>30</v>
+      </c>
+      <c r="T83">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>51</v>
+      </c>
+      <c r="E84">
+        <v>68</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G84">
+        <v>3.84</v>
+      </c>
+      <c r="H84">
+        <v>0.5</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>0.93</v>
+      </c>
+      <c r="N84">
+        <v>62</v>
+      </c>
+      <c r="O84">
+        <v>29.6</v>
+      </c>
+      <c r="P84">
+        <v>20</v>
+      </c>
+      <c r="Q84">
+        <v>0.93</v>
+      </c>
+      <c r="R84">
+        <v>7.5</v>
+      </c>
+      <c r="S84">
+        <v>30</v>
+      </c>
+      <c r="T84">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>51</v>
+      </c>
+      <c r="E85">
+        <v>68</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G85">
+        <v>3.84</v>
+      </c>
+      <c r="H85">
+        <v>2.8</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>0.93</v>
+      </c>
+      <c r="N85">
+        <v>62</v>
+      </c>
+      <c r="O85">
+        <v>29.6</v>
+      </c>
+      <c r="P85">
+        <v>20</v>
+      </c>
+      <c r="Q85">
+        <v>0.93</v>
+      </c>
+      <c r="R85">
+        <v>7.5</v>
+      </c>
+      <c r="S85">
+        <v>30</v>
+      </c>
+      <c r="T85">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00ED43E-3C04-4905-B5A0-5B040D36FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17733BEA-5D8D-407A-9D48-7DD3B817C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2028" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="2148" yWindow="2040" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U85"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="T86" sqref="T86:T92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4670,7 +4670,7 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F85" si="1">ABS(D67-E67)</f>
+        <f t="shared" ref="F67:F92" si="1">ABS(D67-E67)</f>
         <v>22</v>
       </c>
       <c r="G67">
@@ -5851,6 +5851,448 @@
       </c>
       <c r="T85">
         <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>47</v>
+      </c>
+      <c r="E86">
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>1.35</v>
+      </c>
+      <c r="H86">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0.96</v>
+      </c>
+      <c r="N86">
+        <v>49</v>
+      </c>
+      <c r="O86">
+        <v>29.73</v>
+      </c>
+      <c r="P86">
+        <v>21</v>
+      </c>
+      <c r="Q86">
+        <v>0.96</v>
+      </c>
+      <c r="R86">
+        <v>8.1</v>
+      </c>
+      <c r="S86">
+        <v>21</v>
+      </c>
+      <c r="T86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>47</v>
+      </c>
+      <c r="E87">
+        <v>50</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>1.35</v>
+      </c>
+      <c r="H87">
+        <v>0.5</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>0.96</v>
+      </c>
+      <c r="N87">
+        <v>49</v>
+      </c>
+      <c r="O87">
+        <v>29.73</v>
+      </c>
+      <c r="P87">
+        <v>21</v>
+      </c>
+      <c r="Q87">
+        <v>0.96</v>
+      </c>
+      <c r="R87">
+        <v>8.1</v>
+      </c>
+      <c r="S87">
+        <v>21</v>
+      </c>
+      <c r="T87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>47</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>1.35</v>
+      </c>
+      <c r="H88">
+        <v>0.1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88">
+        <v>3</v>
+      </c>
+      <c r="K88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>0.96</v>
+      </c>
+      <c r="N88">
+        <v>49</v>
+      </c>
+      <c r="O88">
+        <v>29.73</v>
+      </c>
+      <c r="P88">
+        <v>21</v>
+      </c>
+      <c r="Q88">
+        <v>0.96</v>
+      </c>
+      <c r="R88">
+        <v>8.1</v>
+      </c>
+      <c r="S88">
+        <v>21</v>
+      </c>
+      <c r="T88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>47</v>
+      </c>
+      <c r="E89">
+        <v>50</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>1.35</v>
+      </c>
+      <c r="H89">
+        <v>0.25</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89">
+        <v>3</v>
+      </c>
+      <c r="K89" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>0.96</v>
+      </c>
+      <c r="N89">
+        <v>49</v>
+      </c>
+      <c r="O89">
+        <v>29.73</v>
+      </c>
+      <c r="P89">
+        <v>21</v>
+      </c>
+      <c r="Q89">
+        <v>0.96</v>
+      </c>
+      <c r="R89">
+        <v>8.1</v>
+      </c>
+      <c r="S89">
+        <v>21</v>
+      </c>
+      <c r="T89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>47</v>
+      </c>
+      <c r="E90">
+        <v>50</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>1.35</v>
+      </c>
+      <c r="H90">
+        <v>0.25</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>0.96</v>
+      </c>
+      <c r="N90">
+        <v>49</v>
+      </c>
+      <c r="O90">
+        <v>29.73</v>
+      </c>
+      <c r="P90">
+        <v>21</v>
+      </c>
+      <c r="Q90">
+        <v>0.96</v>
+      </c>
+      <c r="R90">
+        <v>8.1</v>
+      </c>
+      <c r="S90">
+        <v>21</v>
+      </c>
+      <c r="T90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>47</v>
+      </c>
+      <c r="E91">
+        <v>50</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>1.35</v>
+      </c>
+      <c r="H91">
+        <v>0.1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>0.96</v>
+      </c>
+      <c r="N91">
+        <v>49</v>
+      </c>
+      <c r="O91">
+        <v>29.73</v>
+      </c>
+      <c r="P91">
+        <v>21</v>
+      </c>
+      <c r="Q91">
+        <v>0.96</v>
+      </c>
+      <c r="R91">
+        <v>8.1</v>
+      </c>
+      <c r="S91">
+        <v>21</v>
+      </c>
+      <c r="T91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>47</v>
+      </c>
+      <c r="E92">
+        <v>50</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>1.35</v>
+      </c>
+      <c r="H92">
+        <v>2.25</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>0.96</v>
+      </c>
+      <c r="N92">
+        <v>49</v>
+      </c>
+      <c r="O92">
+        <v>29.73</v>
+      </c>
+      <c r="P92">
+        <v>21</v>
+      </c>
+      <c r="Q92">
+        <v>0.96</v>
+      </c>
+      <c r="R92">
+        <v>8.1</v>
+      </c>
+      <c r="S92">
+        <v>21</v>
+      </c>
+      <c r="T92">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17733BEA-5D8D-407A-9D48-7DD3B817C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480359AB-6BC6-4EA9-AC2D-93F4DF3A85FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2148" yWindow="2040" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="-408" yWindow="3492" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U92"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="T86" sqref="T86:T92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="P93" sqref="P93:P99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4670,7 +4670,7 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F92" si="1">ABS(D67-E67)</f>
+        <f t="shared" ref="F67:F99" si="1">ABS(D67-E67)</f>
         <v>22</v>
       </c>
       <c r="G67">
@@ -6293,6 +6293,447 @@
       </c>
       <c r="T92">
         <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>45</v>
+      </c>
+      <c r="E93">
+        <v>55</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>1.06</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>0.64</v>
+      </c>
+      <c r="N93">
+        <v>42</v>
+      </c>
+      <c r="O93">
+        <v>29.98</v>
+      </c>
+      <c r="P93">
+        <v>24</v>
+      </c>
+      <c r="Q93">
+        <v>0.9</v>
+      </c>
+      <c r="R93">
+        <v>9.9</v>
+      </c>
+      <c r="S93">
+        <v>23</v>
+      </c>
+      <c r="T93">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>45</v>
+      </c>
+      <c r="E94">
+        <v>55</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>1.06</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+      <c r="K94" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <v>0.64</v>
+      </c>
+      <c r="N94">
+        <v>42</v>
+      </c>
+      <c r="O94">
+        <v>29.98</v>
+      </c>
+      <c r="P94">
+        <v>24</v>
+      </c>
+      <c r="Q94">
+        <v>0.9</v>
+      </c>
+      <c r="R94">
+        <v>9.9</v>
+      </c>
+      <c r="S94">
+        <v>23</v>
+      </c>
+      <c r="T94">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>45</v>
+      </c>
+      <c r="E95">
+        <v>55</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>1.06</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95">
+        <v>7</v>
+      </c>
+      <c r="M95">
+        <v>0.64</v>
+      </c>
+      <c r="N95">
+        <v>42</v>
+      </c>
+      <c r="O95">
+        <v>29.98</v>
+      </c>
+      <c r="P95">
+        <v>24</v>
+      </c>
+      <c r="Q95">
+        <v>0.9</v>
+      </c>
+      <c r="R95">
+        <v>9.9</v>
+      </c>
+      <c r="S95">
+        <v>23</v>
+      </c>
+      <c r="T95">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>45</v>
+      </c>
+      <c r="E96">
+        <v>55</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>1.06</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96">
+        <v>7</v>
+      </c>
+      <c r="M96">
+        <v>0.64</v>
+      </c>
+      <c r="N96">
+        <v>42</v>
+      </c>
+      <c r="O96">
+        <v>29.98</v>
+      </c>
+      <c r="P96">
+        <v>24</v>
+      </c>
+      <c r="Q96">
+        <v>0.9</v>
+      </c>
+      <c r="R96">
+        <v>9.9</v>
+      </c>
+      <c r="S96">
+        <v>23</v>
+      </c>
+      <c r="T96">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>45</v>
+      </c>
+      <c r="E97">
+        <v>55</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>1.06</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>0.64</v>
+      </c>
+      <c r="N97">
+        <v>42</v>
+      </c>
+      <c r="O97">
+        <v>29.98</v>
+      </c>
+      <c r="P97">
+        <v>24</v>
+      </c>
+      <c r="Q97">
+        <v>0.9</v>
+      </c>
+      <c r="R97">
+        <v>9.9</v>
+      </c>
+      <c r="S97">
+        <v>23</v>
+      </c>
+      <c r="T97">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>45</v>
+      </c>
+      <c r="E98">
+        <v>55</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>1.06</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+      <c r="K98" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98">
+        <v>7</v>
+      </c>
+      <c r="M98">
+        <v>0.64</v>
+      </c>
+      <c r="N98">
+        <v>42</v>
+      </c>
+      <c r="O98">
+        <v>29.98</v>
+      </c>
+      <c r="P98">
+        <v>24</v>
+      </c>
+      <c r="Q98">
+        <v>0.9</v>
+      </c>
+      <c r="R98">
+        <v>9.9</v>
+      </c>
+      <c r="S98">
+        <v>23</v>
+      </c>
+      <c r="T98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>45</v>
+      </c>
+      <c r="E99">
+        <v>55</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>1.06</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99">
+        <v>7</v>
+      </c>
+      <c r="M99">
+        <v>0.64</v>
+      </c>
+      <c r="N99">
+        <v>42</v>
+      </c>
+      <c r="O99">
+        <v>29.98</v>
+      </c>
+      <c r="P99">
+        <v>24</v>
+      </c>
+      <c r="Q99">
+        <v>0.9</v>
+      </c>
+      <c r="R99">
+        <v>9.9</v>
+      </c>
+      <c r="S99">
+        <v>23</v>
+      </c>
+      <c r="T99">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480359AB-6BC6-4EA9-AC2D-93F4DF3A85FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF89275-09D5-4EE3-B854-8C6AA0B55A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-408" yWindow="3492" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="2028" yWindow="2136" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U99"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="P93" sqref="P93:P99"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="Q100" sqref="Q100:Q106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4670,7 +4670,7 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F99" si="1">ABS(D67-E67)</f>
+        <f t="shared" ref="F67:F106" si="1">ABS(D67-E67)</f>
         <v>22</v>
       </c>
       <c r="G67">
@@ -6734,6 +6734,449 @@
       </c>
       <c r="T99">
         <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>43</v>
+      </c>
+      <c r="E100">
+        <v>62</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G100">
+        <v>0.02</v>
+      </c>
+      <c r="H100">
+        <v>0.25</v>
+      </c>
+      <c r="I100" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N100">
+        <v>46</v>
+      </c>
+      <c r="O100">
+        <v>30.13</v>
+      </c>
+      <c r="P100">
+        <v>19</v>
+      </c>
+      <c r="Q100">
+        <v>0.71</v>
+      </c>
+      <c r="R100">
+        <v>9.9</v>
+      </c>
+      <c r="S100">
+        <v>20</v>
+      </c>
+      <c r="T100">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>43</v>
+      </c>
+      <c r="E101">
+        <v>62</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G101">
+        <v>0.02</v>
+      </c>
+      <c r="H101">
+        <v>0.5</v>
+      </c>
+      <c r="I101" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N101">
+        <v>46</v>
+      </c>
+      <c r="O101">
+        <v>30.13</v>
+      </c>
+      <c r="P101">
+        <v>19</v>
+      </c>
+      <c r="Q101">
+        <v>0.71</v>
+      </c>
+      <c r="R101">
+        <v>9.9</v>
+      </c>
+      <c r="S101">
+        <v>20</v>
+      </c>
+      <c r="T101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>43</v>
+      </c>
+      <c r="E102">
+        <v>62</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G102">
+        <v>0.02</v>
+      </c>
+      <c r="H102">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I102" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N102">
+        <v>46</v>
+      </c>
+      <c r="O102">
+        <v>30.13</v>
+      </c>
+      <c r="P102">
+        <v>19</v>
+      </c>
+      <c r="Q102">
+        <v>0.71</v>
+      </c>
+      <c r="R102">
+        <v>9.9</v>
+      </c>
+      <c r="S102">
+        <v>20</v>
+      </c>
+      <c r="T102">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>43</v>
+      </c>
+      <c r="E103">
+        <v>62</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G103">
+        <v>0.02</v>
+      </c>
+      <c r="H103">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I103" t="s">
+        <v>21</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
+      <c r="K103" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N103">
+        <v>46</v>
+      </c>
+      <c r="O103">
+        <v>30.13</v>
+      </c>
+      <c r="P103">
+        <v>19</v>
+      </c>
+      <c r="Q103">
+        <v>0.71</v>
+      </c>
+      <c r="R103">
+        <v>9.9</v>
+      </c>
+      <c r="S103">
+        <v>20</v>
+      </c>
+      <c r="T103">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>43</v>
+      </c>
+      <c r="E104">
+        <v>62</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G104">
+        <v>0.02</v>
+      </c>
+      <c r="H104">
+        <v>0.1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104">
+        <v>3</v>
+      </c>
+      <c r="K104" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N104">
+        <v>46</v>
+      </c>
+      <c r="O104">
+        <v>30.13</v>
+      </c>
+      <c r="P104">
+        <v>19</v>
+      </c>
+      <c r="Q104">
+        <v>0.71</v>
+      </c>
+      <c r="R104">
+        <v>9.9</v>
+      </c>
+      <c r="S104">
+        <v>20</v>
+      </c>
+      <c r="T104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105">
+        <v>43</v>
+      </c>
+      <c r="E105">
+        <v>62</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G105">
+        <v>0.02</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105">
+        <v>4</v>
+      </c>
+      <c r="K105" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N105">
+        <v>46</v>
+      </c>
+      <c r="O105">
+        <v>30.13</v>
+      </c>
+      <c r="P105">
+        <v>19</v>
+      </c>
+      <c r="Q105">
+        <v>0.71</v>
+      </c>
+      <c r="R105">
+        <v>9.9</v>
+      </c>
+      <c r="S105">
+        <v>20</v>
+      </c>
+      <c r="T105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>43</v>
+      </c>
+      <c r="E106">
+        <v>62</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G106">
+        <v>0.02</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106">
+        <v>3</v>
+      </c>
+      <c r="M106">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N106">
+        <v>46</v>
+      </c>
+      <c r="O106">
+        <v>30.13</v>
+      </c>
+      <c r="P106">
+        <v>19</v>
+      </c>
+      <c r="Q106">
+        <v>0.71</v>
+      </c>
+      <c r="R106">
+        <v>9.9</v>
+      </c>
+      <c r="S106">
+        <v>20</v>
+      </c>
+      <c r="T106">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF89275-09D5-4EE3-B854-8C6AA0B55A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742C208-F41E-4179-A9EA-233292305BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2028" yWindow="2136" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="1044" yWindow="2616" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U106"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="Q100" sqref="Q100:Q106"/>
+    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
+      <selection activeCell="Q107" sqref="Q107:Q113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4670,7 +4670,7 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F106" si="1">ABS(D67-E67)</f>
+        <f t="shared" ref="F67:F113" si="1">ABS(D67-E67)</f>
         <v>22</v>
       </c>
       <c r="G67">
@@ -7177,6 +7177,447 @@
       </c>
       <c r="T106">
         <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>43</v>
+      </c>
+      <c r="E107">
+        <v>64</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G107">
+        <v>0.01</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+      <c r="K107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107">
+        <v>8</v>
+      </c>
+      <c r="M107">
+        <v>0.5</v>
+      </c>
+      <c r="N107">
+        <v>44</v>
+      </c>
+      <c r="O107">
+        <v>30.22</v>
+      </c>
+      <c r="P107">
+        <v>14</v>
+      </c>
+      <c r="Q107">
+        <v>0.73</v>
+      </c>
+      <c r="R107">
+        <v>9.9</v>
+      </c>
+      <c r="S107">
+        <v>34</v>
+      </c>
+      <c r="T107">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108">
+        <v>43</v>
+      </c>
+      <c r="E108">
+        <v>64</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G108">
+        <v>0.01</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108">
+        <v>8</v>
+      </c>
+      <c r="M108">
+        <v>0.5</v>
+      </c>
+      <c r="N108">
+        <v>44</v>
+      </c>
+      <c r="O108">
+        <v>30.22</v>
+      </c>
+      <c r="P108">
+        <v>14</v>
+      </c>
+      <c r="Q108">
+        <v>0.73</v>
+      </c>
+      <c r="R108">
+        <v>9.9</v>
+      </c>
+      <c r="S108">
+        <v>34</v>
+      </c>
+      <c r="T108">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>43</v>
+      </c>
+      <c r="E109">
+        <v>64</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G109">
+        <v>0.01</v>
+      </c>
+      <c r="H109">
+        <v>0.1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109">
+        <v>3</v>
+      </c>
+      <c r="K109" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109">
+        <v>8</v>
+      </c>
+      <c r="M109">
+        <v>0.5</v>
+      </c>
+      <c r="N109">
+        <v>44</v>
+      </c>
+      <c r="O109">
+        <v>30.22</v>
+      </c>
+      <c r="P109">
+        <v>14</v>
+      </c>
+      <c r="Q109">
+        <v>0.73</v>
+      </c>
+      <c r="R109">
+        <v>9.9</v>
+      </c>
+      <c r="S109">
+        <v>34</v>
+      </c>
+      <c r="T109">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>43</v>
+      </c>
+      <c r="E110">
+        <v>64</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G110">
+        <v>0.01</v>
+      </c>
+      <c r="H110">
+        <v>0.25</v>
+      </c>
+      <c r="I110" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110">
+        <v>3</v>
+      </c>
+      <c r="K110" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110">
+        <v>8</v>
+      </c>
+      <c r="M110">
+        <v>0.5</v>
+      </c>
+      <c r="N110">
+        <v>44</v>
+      </c>
+      <c r="O110">
+        <v>30.22</v>
+      </c>
+      <c r="P110">
+        <v>14</v>
+      </c>
+      <c r="Q110">
+        <v>0.73</v>
+      </c>
+      <c r="R110">
+        <v>9.9</v>
+      </c>
+      <c r="S110">
+        <v>34</v>
+      </c>
+      <c r="T110">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>43</v>
+      </c>
+      <c r="E111">
+        <v>64</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G111">
+        <v>0.01</v>
+      </c>
+      <c r="H111">
+        <v>0.5</v>
+      </c>
+      <c r="I111" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111">
+        <v>3</v>
+      </c>
+      <c r="K111" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111">
+        <v>8</v>
+      </c>
+      <c r="M111">
+        <v>0.5</v>
+      </c>
+      <c r="N111">
+        <v>44</v>
+      </c>
+      <c r="O111">
+        <v>30.22</v>
+      </c>
+      <c r="P111">
+        <v>14</v>
+      </c>
+      <c r="Q111">
+        <v>0.73</v>
+      </c>
+      <c r="R111">
+        <v>9.9</v>
+      </c>
+      <c r="S111">
+        <v>34</v>
+      </c>
+      <c r="T111">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>43</v>
+      </c>
+      <c r="E112">
+        <v>64</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G112">
+        <v>0.01</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112">
+        <v>4</v>
+      </c>
+      <c r="K112" t="s">
+        <v>18</v>
+      </c>
+      <c r="L112">
+        <v>8</v>
+      </c>
+      <c r="M112">
+        <v>0.5</v>
+      </c>
+      <c r="N112">
+        <v>44</v>
+      </c>
+      <c r="O112">
+        <v>30.22</v>
+      </c>
+      <c r="P112">
+        <v>14</v>
+      </c>
+      <c r="Q112">
+        <v>0.73</v>
+      </c>
+      <c r="R112">
+        <v>9.9</v>
+      </c>
+      <c r="S112">
+        <v>34</v>
+      </c>
+      <c r="T112">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>43</v>
+      </c>
+      <c r="E113">
+        <v>64</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G113">
+        <v>0.01</v>
+      </c>
+      <c r="H113">
+        <v>1.35</v>
+      </c>
+      <c r="I113" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>20</v>
+      </c>
+      <c r="L113">
+        <v>8</v>
+      </c>
+      <c r="M113">
+        <v>0.5</v>
+      </c>
+      <c r="N113">
+        <v>44</v>
+      </c>
+      <c r="O113">
+        <v>30.22</v>
+      </c>
+      <c r="P113">
+        <v>14</v>
+      </c>
+      <c r="Q113">
+        <v>0.73</v>
+      </c>
+      <c r="R113">
+        <v>9.9</v>
+      </c>
+      <c r="S113">
+        <v>34</v>
+      </c>
+      <c r="T113">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742C208-F41E-4179-A9EA-233292305BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1149F5-12D9-44C2-83F5-3812405EEBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="2616" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U113"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
-      <selection activeCell="Q107" sqref="Q107:Q113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4670,7 +4670,7 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F113" si="1">ABS(D67-E67)</f>
+        <f t="shared" ref="F67:F120" si="1">ABS(D67-E67)</f>
         <v>22</v>
       </c>
       <c r="G67">
@@ -7618,6 +7618,447 @@
       </c>
       <c r="T113">
         <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114">
+        <v>52</v>
+      </c>
+      <c r="E114">
+        <v>70</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0.1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114" t="s">
+        <v>20</v>
+      </c>
+      <c r="L114">
+        <v>8</v>
+      </c>
+      <c r="M114">
+        <v>0.49</v>
+      </c>
+      <c r="N114">
+        <v>48</v>
+      </c>
+      <c r="O114">
+        <v>30.26</v>
+      </c>
+      <c r="P114">
+        <v>9</v>
+      </c>
+      <c r="Q114">
+        <v>0.1</v>
+      </c>
+      <c r="R114">
+        <v>9.9</v>
+      </c>
+      <c r="S114">
+        <v>27</v>
+      </c>
+      <c r="T114">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>52</v>
+      </c>
+      <c r="E115">
+        <v>70</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0.25</v>
+      </c>
+      <c r="I115" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115">
+        <v>3</v>
+      </c>
+      <c r="K115" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115">
+        <v>8</v>
+      </c>
+      <c r="M115">
+        <v>0.49</v>
+      </c>
+      <c r="N115">
+        <v>48</v>
+      </c>
+      <c r="O115">
+        <v>30.26</v>
+      </c>
+      <c r="P115">
+        <v>9</v>
+      </c>
+      <c r="Q115">
+        <v>0.1</v>
+      </c>
+      <c r="R115">
+        <v>9.9</v>
+      </c>
+      <c r="S115">
+        <v>27</v>
+      </c>
+      <c r="T115">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>52</v>
+      </c>
+      <c r="E116">
+        <v>70</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0.2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
+      <c r="K116" t="s">
+        <v>19</v>
+      </c>
+      <c r="L116">
+        <v>8</v>
+      </c>
+      <c r="M116">
+        <v>0.49</v>
+      </c>
+      <c r="N116">
+        <v>48</v>
+      </c>
+      <c r="O116">
+        <v>30.26</v>
+      </c>
+      <c r="P116">
+        <v>9</v>
+      </c>
+      <c r="Q116">
+        <v>0.1</v>
+      </c>
+      <c r="R116">
+        <v>9.9</v>
+      </c>
+      <c r="S116">
+        <v>27</v>
+      </c>
+      <c r="T116">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>52</v>
+      </c>
+      <c r="E117">
+        <v>70</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0.3</v>
+      </c>
+      <c r="I117" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117">
+        <v>3</v>
+      </c>
+      <c r="K117" t="s">
+        <v>19</v>
+      </c>
+      <c r="L117">
+        <v>8</v>
+      </c>
+      <c r="M117">
+        <v>0.49</v>
+      </c>
+      <c r="N117">
+        <v>48</v>
+      </c>
+      <c r="O117">
+        <v>30.26</v>
+      </c>
+      <c r="P117">
+        <v>9</v>
+      </c>
+      <c r="Q117">
+        <v>0.1</v>
+      </c>
+      <c r="R117">
+        <v>9.9</v>
+      </c>
+      <c r="S117">
+        <v>27</v>
+      </c>
+      <c r="T117">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>52</v>
+      </c>
+      <c r="E118">
+        <v>70</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118">
+        <v>3</v>
+      </c>
+      <c r="K118" t="s">
+        <v>19</v>
+      </c>
+      <c r="L118">
+        <v>8</v>
+      </c>
+      <c r="M118">
+        <v>0.49</v>
+      </c>
+      <c r="N118">
+        <v>48</v>
+      </c>
+      <c r="O118">
+        <v>30.26</v>
+      </c>
+      <c r="P118">
+        <v>9</v>
+      </c>
+      <c r="Q118">
+        <v>0.1</v>
+      </c>
+      <c r="R118">
+        <v>9.9</v>
+      </c>
+      <c r="S118">
+        <v>27</v>
+      </c>
+      <c r="T118">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <v>52</v>
+      </c>
+      <c r="E119">
+        <v>70</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0.1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>21</v>
+      </c>
+      <c r="J119">
+        <v>4</v>
+      </c>
+      <c r="K119" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119">
+        <v>8</v>
+      </c>
+      <c r="M119">
+        <v>0.49</v>
+      </c>
+      <c r="N119">
+        <v>48</v>
+      </c>
+      <c r="O119">
+        <v>30.26</v>
+      </c>
+      <c r="P119">
+        <v>9</v>
+      </c>
+      <c r="Q119">
+        <v>0.1</v>
+      </c>
+      <c r="R119">
+        <v>9.9</v>
+      </c>
+      <c r="S119">
+        <v>27</v>
+      </c>
+      <c r="T119">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>52</v>
+      </c>
+      <c r="E120">
+        <v>70</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1.2</v>
+      </c>
+      <c r="I120" t="s">
+        <v>21</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>20</v>
+      </c>
+      <c r="L120">
+        <v>8</v>
+      </c>
+      <c r="M120">
+        <v>0.49</v>
+      </c>
+      <c r="N120">
+        <v>48</v>
+      </c>
+      <c r="O120">
+        <v>30.26</v>
+      </c>
+      <c r="P120">
+        <v>9</v>
+      </c>
+      <c r="Q120">
+        <v>0.1</v>
+      </c>
+      <c r="R120">
+        <v>9.9</v>
+      </c>
+      <c r="S120">
+        <v>27</v>
+      </c>
+      <c r="T120">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1149F5-12D9-44C2-83F5-3812405EEBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA97DDF1-C4CE-42B6-A70C-B3B2A9CEE3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U120"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="U127" sqref="U127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4670,7 +4670,7 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F120" si="1">ABS(D67-E67)</f>
+        <f t="shared" ref="F67:F127" si="1">ABS(D67-E67)</f>
         <v>22</v>
       </c>
       <c r="G67">
@@ -8059,6 +8059,448 @@
       </c>
       <c r="T120">
         <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121">
+        <v>52</v>
+      </c>
+      <c r="E121">
+        <v>67</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G121">
+        <v>0.59</v>
+      </c>
+      <c r="H121">
+        <v>0.2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121" t="s">
+        <v>18</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>0.89</v>
+      </c>
+      <c r="N121">
+        <v>50</v>
+      </c>
+      <c r="O121">
+        <v>30.2</v>
+      </c>
+      <c r="P121">
+        <v>15</v>
+      </c>
+      <c r="Q121">
+        <v>0.95</v>
+      </c>
+      <c r="R121">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S121">
+        <v>35</v>
+      </c>
+      <c r="T121">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>52</v>
+      </c>
+      <c r="E122">
+        <v>67</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G122">
+        <v>0.59</v>
+      </c>
+      <c r="H122">
+        <v>0.1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122">
+        <v>3</v>
+      </c>
+      <c r="K122" t="s">
+        <v>18</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>0.89</v>
+      </c>
+      <c r="N122">
+        <v>50</v>
+      </c>
+      <c r="O122">
+        <v>30.2</v>
+      </c>
+      <c r="P122">
+        <v>15</v>
+      </c>
+      <c r="Q122">
+        <v>0.95</v>
+      </c>
+      <c r="R122">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S122">
+        <v>35</v>
+      </c>
+      <c r="T122">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123">
+        <v>52</v>
+      </c>
+      <c r="E123">
+        <v>67</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G123">
+        <v>0.59</v>
+      </c>
+      <c r="H123">
+        <v>0.2</v>
+      </c>
+      <c r="I123" t="s">
+        <v>21</v>
+      </c>
+      <c r="J123">
+        <v>3</v>
+      </c>
+      <c r="K123" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>0.89</v>
+      </c>
+      <c r="N123">
+        <v>50</v>
+      </c>
+      <c r="O123">
+        <v>30.2</v>
+      </c>
+      <c r="P123">
+        <v>15</v>
+      </c>
+      <c r="Q123">
+        <v>0.95</v>
+      </c>
+      <c r="R123">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S123">
+        <v>35</v>
+      </c>
+      <c r="T123">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>52</v>
+      </c>
+      <c r="E124">
+        <v>67</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G124">
+        <v>0.59</v>
+      </c>
+      <c r="H124">
+        <v>0.25</v>
+      </c>
+      <c r="I124" t="s">
+        <v>21</v>
+      </c>
+      <c r="J124">
+        <v>3</v>
+      </c>
+      <c r="K124" t="s">
+        <v>19</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>0.89</v>
+      </c>
+      <c r="N124">
+        <v>50</v>
+      </c>
+      <c r="O124">
+        <v>30.2</v>
+      </c>
+      <c r="P124">
+        <v>15</v>
+      </c>
+      <c r="Q124">
+        <v>0.95</v>
+      </c>
+      <c r="R124">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S124">
+        <v>35</v>
+      </c>
+      <c r="T124">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>52</v>
+      </c>
+      <c r="E125">
+        <v>67</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G125">
+        <v>0.59</v>
+      </c>
+      <c r="H125">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I125" t="s">
+        <v>21</v>
+      </c>
+      <c r="J125">
+        <v>3</v>
+      </c>
+      <c r="K125" t="s">
+        <v>20</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>0.89</v>
+      </c>
+      <c r="N125">
+        <v>50</v>
+      </c>
+      <c r="O125">
+        <v>30.2</v>
+      </c>
+      <c r="P125">
+        <v>15</v>
+      </c>
+      <c r="Q125">
+        <v>0.95</v>
+      </c>
+      <c r="R125">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S125">
+        <v>35</v>
+      </c>
+      <c r="T125">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>52</v>
+      </c>
+      <c r="E126">
+        <v>67</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G126">
+        <v>0.59</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>21</v>
+      </c>
+      <c r="J126">
+        <v>4</v>
+      </c>
+      <c r="K126" t="s">
+        <v>19</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>0.89</v>
+      </c>
+      <c r="N126">
+        <v>50</v>
+      </c>
+      <c r="O126">
+        <v>30.2</v>
+      </c>
+      <c r="P126">
+        <v>15</v>
+      </c>
+      <c r="Q126">
+        <v>0.95</v>
+      </c>
+      <c r="R126">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S126">
+        <v>35</v>
+      </c>
+      <c r="T126">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>52</v>
+      </c>
+      <c r="E127">
+        <v>67</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G127">
+        <v>0.59</v>
+      </c>
+      <c r="H127">
+        <v>0.75</v>
+      </c>
+      <c r="I127" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>0.89</v>
+      </c>
+      <c r="N127">
+        <v>50</v>
+      </c>
+      <c r="O127">
+        <v>30.2</v>
+      </c>
+      <c r="P127">
+        <v>15</v>
+      </c>
+      <c r="Q127">
+        <v>0.95</v>
+      </c>
+      <c r="R127">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S127">
+        <v>35</v>
+      </c>
+      <c r="T127">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA97DDF1-C4CE-42B6-A70C-B3B2A9CEE3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9D6BC9-1F14-4973-BCA6-255A7A4380D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="1236" yWindow="3048" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U127"/>
+  <dimension ref="A1:U141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="U127" sqref="U127"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="Q135" sqref="Q135:Q141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4670,7 +4670,7 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F127" si="1">ABS(D67-E67)</f>
+        <f t="shared" ref="F67:F130" si="1">ABS(D67-E67)</f>
         <v>22</v>
       </c>
       <c r="G67">
@@ -8501,6 +8501,889 @@
       </c>
       <c r="T127">
         <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>56</v>
+      </c>
+      <c r="E128">
+        <v>58</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>1.05</v>
+      </c>
+      <c r="H128">
+        <v>0.1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>21</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128" t="s">
+        <v>18</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>0.93</v>
+      </c>
+      <c r="N128">
+        <v>56</v>
+      </c>
+      <c r="O128">
+        <v>30.07</v>
+      </c>
+      <c r="P128">
+        <v>18</v>
+      </c>
+      <c r="Q128">
+        <v>0.95</v>
+      </c>
+      <c r="R128">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S128">
+        <v>26</v>
+      </c>
+      <c r="T128">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129">
+        <v>56</v>
+      </c>
+      <c r="E129">
+        <v>58</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>1.05</v>
+      </c>
+      <c r="H129">
+        <v>0.2</v>
+      </c>
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+      <c r="K129" t="s">
+        <v>19</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>0.93</v>
+      </c>
+      <c r="N129">
+        <v>56</v>
+      </c>
+      <c r="O129">
+        <v>30.07</v>
+      </c>
+      <c r="P129">
+        <v>18</v>
+      </c>
+      <c r="Q129">
+        <v>0.95</v>
+      </c>
+      <c r="R129">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S129">
+        <v>26</v>
+      </c>
+      <c r="T129">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130">
+        <v>56</v>
+      </c>
+      <c r="E130">
+        <v>58</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>1.05</v>
+      </c>
+      <c r="H130">
+        <v>0.3</v>
+      </c>
+      <c r="I130" t="s">
+        <v>21</v>
+      </c>
+      <c r="J130">
+        <v>3</v>
+      </c>
+      <c r="K130" t="s">
+        <v>19</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>0.93</v>
+      </c>
+      <c r="N130">
+        <v>56</v>
+      </c>
+      <c r="O130">
+        <v>30.07</v>
+      </c>
+      <c r="P130">
+        <v>18</v>
+      </c>
+      <c r="Q130">
+        <v>0.95</v>
+      </c>
+      <c r="R130">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S130">
+        <v>26</v>
+      </c>
+      <c r="T130">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131">
+        <v>56</v>
+      </c>
+      <c r="E131">
+        <v>58</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F141" si="2">ABS(D131-E131)</f>
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>1.05</v>
+      </c>
+      <c r="H131">
+        <v>0.2</v>
+      </c>
+      <c r="I131" t="s">
+        <v>21</v>
+      </c>
+      <c r="J131">
+        <v>3</v>
+      </c>
+      <c r="K131" t="s">
+        <v>18</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>0.93</v>
+      </c>
+      <c r="N131">
+        <v>56</v>
+      </c>
+      <c r="O131">
+        <v>30.07</v>
+      </c>
+      <c r="P131">
+        <v>18</v>
+      </c>
+      <c r="Q131">
+        <v>0.95</v>
+      </c>
+      <c r="R131">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S131">
+        <v>26</v>
+      </c>
+      <c r="T131">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>56</v>
+      </c>
+      <c r="E132">
+        <v>58</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>1.05</v>
+      </c>
+      <c r="H132">
+        <v>0.5</v>
+      </c>
+      <c r="I132" t="s">
+        <v>21</v>
+      </c>
+      <c r="J132">
+        <v>3</v>
+      </c>
+      <c r="K132" t="s">
+        <v>19</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>0.93</v>
+      </c>
+      <c r="N132">
+        <v>56</v>
+      </c>
+      <c r="O132">
+        <v>30.07</v>
+      </c>
+      <c r="P132">
+        <v>18</v>
+      </c>
+      <c r="Q132">
+        <v>0.95</v>
+      </c>
+      <c r="R132">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S132">
+        <v>26</v>
+      </c>
+      <c r="T132">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <v>56</v>
+      </c>
+      <c r="E133">
+        <v>58</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>1.05</v>
+      </c>
+      <c r="H133">
+        <v>0.2</v>
+      </c>
+      <c r="I133" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133">
+        <v>4</v>
+      </c>
+      <c r="K133" t="s">
+        <v>18</v>
+      </c>
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>0.93</v>
+      </c>
+      <c r="N133">
+        <v>56</v>
+      </c>
+      <c r="O133">
+        <v>30.07</v>
+      </c>
+      <c r="P133">
+        <v>18</v>
+      </c>
+      <c r="Q133">
+        <v>0.95</v>
+      </c>
+      <c r="R133">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S133">
+        <v>26</v>
+      </c>
+      <c r="T133">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>56</v>
+      </c>
+      <c r="E134">
+        <v>58</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>1.05</v>
+      </c>
+      <c r="H134">
+        <v>0.15</v>
+      </c>
+      <c r="I134" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>0.93</v>
+      </c>
+      <c r="N134">
+        <v>56</v>
+      </c>
+      <c r="O134">
+        <v>30.07</v>
+      </c>
+      <c r="P134">
+        <v>18</v>
+      </c>
+      <c r="Q134">
+        <v>0.95</v>
+      </c>
+      <c r="R134">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S134">
+        <v>26</v>
+      </c>
+      <c r="T134">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135">
+        <v>56</v>
+      </c>
+      <c r="E135">
+        <v>71</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G135">
+        <v>0.27</v>
+      </c>
+      <c r="H135">
+        <v>0.2</v>
+      </c>
+      <c r="I135" t="s">
+        <v>21</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135" t="s">
+        <v>18</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>0.68</v>
+      </c>
+      <c r="N135">
+        <v>60</v>
+      </c>
+      <c r="O135">
+        <v>29.99</v>
+      </c>
+      <c r="P135">
+        <v>15</v>
+      </c>
+      <c r="Q135">
+        <v>0.83</v>
+      </c>
+      <c r="R135">
+        <v>9.9</v>
+      </c>
+      <c r="S135">
+        <v>35</v>
+      </c>
+      <c r="T135">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>56</v>
+      </c>
+      <c r="E136">
+        <v>71</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G136">
+        <v>0.27</v>
+      </c>
+      <c r="H136">
+        <v>0.5</v>
+      </c>
+      <c r="I136" t="s">
+        <v>21</v>
+      </c>
+      <c r="J136">
+        <v>3</v>
+      </c>
+      <c r="K136" t="s">
+        <v>20</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>0.68</v>
+      </c>
+      <c r="N136">
+        <v>60</v>
+      </c>
+      <c r="O136">
+        <v>29.99</v>
+      </c>
+      <c r="P136">
+        <v>15</v>
+      </c>
+      <c r="Q136">
+        <v>0.83</v>
+      </c>
+      <c r="R136">
+        <v>9.9</v>
+      </c>
+      <c r="S136">
+        <v>35</v>
+      </c>
+      <c r="T136">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137">
+        <v>56</v>
+      </c>
+      <c r="E137">
+        <v>71</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G137">
+        <v>0.27</v>
+      </c>
+      <c r="H137">
+        <v>0.13</v>
+      </c>
+      <c r="I137" t="s">
+        <v>21</v>
+      </c>
+      <c r="J137">
+        <v>3</v>
+      </c>
+      <c r="K137" t="s">
+        <v>20</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>0.68</v>
+      </c>
+      <c r="N137">
+        <v>60</v>
+      </c>
+      <c r="O137">
+        <v>29.99</v>
+      </c>
+      <c r="P137">
+        <v>15</v>
+      </c>
+      <c r="Q137">
+        <v>0.83</v>
+      </c>
+      <c r="R137">
+        <v>9.9</v>
+      </c>
+      <c r="S137">
+        <v>35</v>
+      </c>
+      <c r="T137">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <v>56</v>
+      </c>
+      <c r="E138">
+        <v>71</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G138">
+        <v>0.27</v>
+      </c>
+      <c r="H138">
+        <v>0.6</v>
+      </c>
+      <c r="I138" t="s">
+        <v>21</v>
+      </c>
+      <c r="J138">
+        <v>3</v>
+      </c>
+      <c r="K138" t="s">
+        <v>19</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>0.68</v>
+      </c>
+      <c r="N138">
+        <v>60</v>
+      </c>
+      <c r="O138">
+        <v>29.99</v>
+      </c>
+      <c r="P138">
+        <v>15</v>
+      </c>
+      <c r="Q138">
+        <v>0.83</v>
+      </c>
+      <c r="R138">
+        <v>9.9</v>
+      </c>
+      <c r="S138">
+        <v>35</v>
+      </c>
+      <c r="T138">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>56</v>
+      </c>
+      <c r="E139">
+        <v>71</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G139">
+        <v>0.27</v>
+      </c>
+      <c r="H139">
+        <v>1.25</v>
+      </c>
+      <c r="I139" t="s">
+        <v>21</v>
+      </c>
+      <c r="J139">
+        <v>3</v>
+      </c>
+      <c r="K139" t="s">
+        <v>19</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>0.68</v>
+      </c>
+      <c r="N139">
+        <v>60</v>
+      </c>
+      <c r="O139">
+        <v>29.99</v>
+      </c>
+      <c r="P139">
+        <v>15</v>
+      </c>
+      <c r="Q139">
+        <v>0.83</v>
+      </c>
+      <c r="R139">
+        <v>9.9</v>
+      </c>
+      <c r="S139">
+        <v>35</v>
+      </c>
+      <c r="T139">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140">
+        <v>56</v>
+      </c>
+      <c r="E140">
+        <v>71</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G140">
+        <v>0.27</v>
+      </c>
+      <c r="H140">
+        <v>0.8</v>
+      </c>
+      <c r="I140" t="s">
+        <v>21</v>
+      </c>
+      <c r="J140">
+        <v>4</v>
+      </c>
+      <c r="K140" t="s">
+        <v>18</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>0.68</v>
+      </c>
+      <c r="N140">
+        <v>60</v>
+      </c>
+      <c r="O140">
+        <v>29.99</v>
+      </c>
+      <c r="P140">
+        <v>15</v>
+      </c>
+      <c r="Q140">
+        <v>0.83</v>
+      </c>
+      <c r="R140">
+        <v>9.9</v>
+      </c>
+      <c r="S140">
+        <v>35</v>
+      </c>
+      <c r="T140">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>56</v>
+      </c>
+      <c r="E141">
+        <v>71</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G141">
+        <v>0.27</v>
+      </c>
+      <c r="H141">
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I141" t="s">
+        <v>21</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141" t="s">
+        <v>19</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>0.68</v>
+      </c>
+      <c r="N141">
+        <v>60</v>
+      </c>
+      <c r="O141">
+        <v>29.99</v>
+      </c>
+      <c r="P141">
+        <v>15</v>
+      </c>
+      <c r="Q141">
+        <v>0.83</v>
+      </c>
+      <c r="R141">
+        <v>9.9</v>
+      </c>
+      <c r="S141">
+        <v>35</v>
+      </c>
+      <c r="T141">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9D6BC9-1F14-4973-BCA6-255A7A4380D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A471B-38DE-4ADD-954B-7D2CD2C91A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1236" yWindow="3048" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="1116" yWindow="876" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U141"/>
+  <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="Q135" sqref="Q135:Q141"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="N142" sqref="N142:N148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,7 +8709,7 @@
         <v>58</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F141" si="2">ABS(D131-E131)</f>
+        <f t="shared" ref="F131:F148" si="2">ABS(D131-E131)</f>
         <v>2</v>
       </c>
       <c r="G131">
@@ -8946,7 +8946,7 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B136" t="s">
         <v>9</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B137" t="s">
         <v>9</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B138" t="s">
         <v>9</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B139" t="s">
         <v>9</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B140" t="s">
         <v>9</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
@@ -9384,6 +9384,450 @@
       </c>
       <c r="T141">
         <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142">
+        <v>54</v>
+      </c>
+      <c r="E142">
+        <v>65</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G142">
+        <v>0.87</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142" t="s">
+        <v>18</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>0.9</v>
+      </c>
+      <c r="N142">
+        <v>58</v>
+      </c>
+      <c r="O142">
+        <v>29.71</v>
+      </c>
+      <c r="P142">
+        <v>8</v>
+      </c>
+      <c r="Q142">
+        <v>0.94</v>
+      </c>
+      <c r="R142">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S142">
+        <v>35</v>
+      </c>
+      <c r="T142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>54</v>
+      </c>
+      <c r="E143">
+        <v>65</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G143">
+        <v>0.87</v>
+      </c>
+      <c r="H143">
+        <v>1.5</v>
+      </c>
+      <c r="I143" t="s">
+        <v>21</v>
+      </c>
+      <c r="J143">
+        <v>3</v>
+      </c>
+      <c r="K143" t="s">
+        <v>19</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>0.9</v>
+      </c>
+      <c r="N143">
+        <v>58</v>
+      </c>
+      <c r="O143">
+        <v>29.71</v>
+      </c>
+      <c r="P143">
+        <v>8</v>
+      </c>
+      <c r="Q143">
+        <v>0.94</v>
+      </c>
+      <c r="R143">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S143">
+        <v>35</v>
+      </c>
+      <c r="T143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144">
+        <v>54</v>
+      </c>
+      <c r="E144">
+        <v>65</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G144">
+        <v>0.87</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144" t="s">
+        <v>21</v>
+      </c>
+      <c r="J144">
+        <v>3</v>
+      </c>
+      <c r="K144" t="s">
+        <v>19</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>0.9</v>
+      </c>
+      <c r="N144">
+        <v>58</v>
+      </c>
+      <c r="O144">
+        <v>29.71</v>
+      </c>
+      <c r="P144">
+        <v>8</v>
+      </c>
+      <c r="Q144">
+        <v>0.94</v>
+      </c>
+      <c r="R144">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S144">
+        <v>35</v>
+      </c>
+      <c r="T144">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>54</v>
+      </c>
+      <c r="E145">
+        <v>65</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G145">
+        <v>0.87</v>
+      </c>
+      <c r="H145">
+        <v>1.03</v>
+      </c>
+      <c r="I145" t="s">
+        <v>21</v>
+      </c>
+      <c r="J145">
+        <v>3</v>
+      </c>
+      <c r="K145" t="s">
+        <v>18</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>0.9</v>
+      </c>
+      <c r="N145">
+        <v>58</v>
+      </c>
+      <c r="O145">
+        <v>29.71</v>
+      </c>
+      <c r="P145">
+        <v>8</v>
+      </c>
+      <c r="Q145">
+        <v>0.94</v>
+      </c>
+      <c r="R145">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S145">
+        <v>35</v>
+      </c>
+      <c r="T145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>54</v>
+      </c>
+      <c r="E146">
+        <v>65</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G146">
+        <v>0.87</v>
+      </c>
+      <c r="H146">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I146" t="s">
+        <v>21</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
+      </c>
+      <c r="K146" t="s">
+        <v>19</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>0.9</v>
+      </c>
+      <c r="N146">
+        <v>58</v>
+      </c>
+      <c r="O146">
+        <v>29.71</v>
+      </c>
+      <c r="P146">
+        <v>8</v>
+      </c>
+      <c r="Q146">
+        <v>0.94</v>
+      </c>
+      <c r="R146">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S146">
+        <v>35</v>
+      </c>
+      <c r="T146">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147">
+        <v>54</v>
+      </c>
+      <c r="E147">
+        <v>65</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G147">
+        <v>0.87</v>
+      </c>
+      <c r="H147">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I147" t="s">
+        <v>21</v>
+      </c>
+      <c r="J147">
+        <v>4</v>
+      </c>
+      <c r="K147" t="s">
+        <v>18</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>0.9</v>
+      </c>
+      <c r="N147">
+        <v>58</v>
+      </c>
+      <c r="O147">
+        <v>29.71</v>
+      </c>
+      <c r="P147">
+        <v>8</v>
+      </c>
+      <c r="Q147">
+        <v>0.94</v>
+      </c>
+      <c r="R147">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S147">
+        <v>35</v>
+      </c>
+      <c r="T147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>54</v>
+      </c>
+      <c r="E148">
+        <v>65</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>0.87</v>
+      </c>
+      <c r="H148">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I148" t="s">
+        <v>21</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148" t="s">
+        <v>18</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>0.9</v>
+      </c>
+      <c r="N148">
+        <v>58</v>
+      </c>
+      <c r="O148">
+        <v>29.71</v>
+      </c>
+      <c r="P148">
+        <v>8</v>
+      </c>
+      <c r="Q148">
+        <v>0.94</v>
+      </c>
+      <c r="R148">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S148">
+        <v>35</v>
+      </c>
+      <c r="T148">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A471B-38DE-4ADD-954B-7D2CD2C91A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B21A55-DDB3-4201-B19F-95BE915FF520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="876" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="1248" yWindow="2424" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U148"/>
+  <dimension ref="A1:U162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="N142" sqref="N142:N148"/>
+    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
+      <selection activeCell="T149" sqref="T149:T162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,7 +8709,7 @@
         <v>58</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F148" si="2">ABS(D131-E131)</f>
+        <f t="shared" ref="F131:F162" si="2">ABS(D131-E131)</f>
         <v>2</v>
       </c>
       <c r="G131">
@@ -9828,6 +9828,891 @@
       </c>
       <c r="T148">
         <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149">
+        <v>43</v>
+      </c>
+      <c r="E149">
+        <v>58</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G149">
+        <v>1.02</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149" t="s">
+        <v>20</v>
+      </c>
+      <c r="L149">
+        <v>5</v>
+      </c>
+      <c r="M149">
+        <v>0.73</v>
+      </c>
+      <c r="N149">
+        <v>48</v>
+      </c>
+      <c r="O149">
+        <v>29.81</v>
+      </c>
+      <c r="P149">
+        <v>15</v>
+      </c>
+      <c r="Q149">
+        <v>0.87</v>
+      </c>
+      <c r="R149">
+        <v>8.9</v>
+      </c>
+      <c r="S149">
+        <v>39</v>
+      </c>
+      <c r="T149">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>43</v>
+      </c>
+      <c r="E150">
+        <v>58</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G150">
+        <v>1.02</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150" t="s">
+        <v>21</v>
+      </c>
+      <c r="J150">
+        <v>3</v>
+      </c>
+      <c r="K150" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150">
+        <v>5</v>
+      </c>
+      <c r="M150">
+        <v>0.73</v>
+      </c>
+      <c r="N150">
+        <v>48</v>
+      </c>
+      <c r="O150">
+        <v>29.81</v>
+      </c>
+      <c r="P150">
+        <v>15</v>
+      </c>
+      <c r="Q150">
+        <v>0.87</v>
+      </c>
+      <c r="R150">
+        <v>8.9</v>
+      </c>
+      <c r="S150">
+        <v>39</v>
+      </c>
+      <c r="T150">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <v>43</v>
+      </c>
+      <c r="E151">
+        <v>58</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G151">
+        <v>1.02</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>21</v>
+      </c>
+      <c r="J151">
+        <v>3</v>
+      </c>
+      <c r="K151" t="s">
+        <v>18</v>
+      </c>
+      <c r="L151">
+        <v>5</v>
+      </c>
+      <c r="M151">
+        <v>0.73</v>
+      </c>
+      <c r="N151">
+        <v>48</v>
+      </c>
+      <c r="O151">
+        <v>29.81</v>
+      </c>
+      <c r="P151">
+        <v>15</v>
+      </c>
+      <c r="Q151">
+        <v>0.87</v>
+      </c>
+      <c r="R151">
+        <v>8.9</v>
+      </c>
+      <c r="S151">
+        <v>39</v>
+      </c>
+      <c r="T151">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>43</v>
+      </c>
+      <c r="E152">
+        <v>58</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G152">
+        <v>1.02</v>
+      </c>
+      <c r="H152">
+        <v>5</v>
+      </c>
+      <c r="I152" t="s">
+        <v>21</v>
+      </c>
+      <c r="J152">
+        <v>3</v>
+      </c>
+      <c r="K152" t="s">
+        <v>19</v>
+      </c>
+      <c r="L152">
+        <v>5</v>
+      </c>
+      <c r="M152">
+        <v>0.73</v>
+      </c>
+      <c r="N152">
+        <v>48</v>
+      </c>
+      <c r="O152">
+        <v>29.81</v>
+      </c>
+      <c r="P152">
+        <v>15</v>
+      </c>
+      <c r="Q152">
+        <v>0.87</v>
+      </c>
+      <c r="R152">
+        <v>8.9</v>
+      </c>
+      <c r="S152">
+        <v>39</v>
+      </c>
+      <c r="T152">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>43</v>
+      </c>
+      <c r="E153">
+        <v>58</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G153">
+        <v>1.02</v>
+      </c>
+      <c r="H153">
+        <v>6</v>
+      </c>
+      <c r="I153" t="s">
+        <v>21</v>
+      </c>
+      <c r="J153">
+        <v>3</v>
+      </c>
+      <c r="K153" t="s">
+        <v>19</v>
+      </c>
+      <c r="L153">
+        <v>5</v>
+      </c>
+      <c r="M153">
+        <v>0.73</v>
+      </c>
+      <c r="N153">
+        <v>48</v>
+      </c>
+      <c r="O153">
+        <v>29.81</v>
+      </c>
+      <c r="P153">
+        <v>15</v>
+      </c>
+      <c r="Q153">
+        <v>0.87</v>
+      </c>
+      <c r="R153">
+        <v>8.9</v>
+      </c>
+      <c r="S153">
+        <v>39</v>
+      </c>
+      <c r="T153">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154">
+        <v>43</v>
+      </c>
+      <c r="E154">
+        <v>58</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G154">
+        <v>1.02</v>
+      </c>
+      <c r="H154">
+        <v>0.75</v>
+      </c>
+      <c r="I154" t="s">
+        <v>21</v>
+      </c>
+      <c r="J154">
+        <v>4</v>
+      </c>
+      <c r="K154" t="s">
+        <v>18</v>
+      </c>
+      <c r="L154">
+        <v>5</v>
+      </c>
+      <c r="M154">
+        <v>0.73</v>
+      </c>
+      <c r="N154">
+        <v>48</v>
+      </c>
+      <c r="O154">
+        <v>29.81</v>
+      </c>
+      <c r="P154">
+        <v>15</v>
+      </c>
+      <c r="Q154">
+        <v>0.87</v>
+      </c>
+      <c r="R154">
+        <v>8.9</v>
+      </c>
+      <c r="S154">
+        <v>39</v>
+      </c>
+      <c r="T154">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155">
+        <v>43</v>
+      </c>
+      <c r="E155">
+        <v>58</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G155">
+        <v>1.02</v>
+      </c>
+      <c r="H155">
+        <v>1.2</v>
+      </c>
+      <c r="I155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155" t="s">
+        <v>20</v>
+      </c>
+      <c r="L155">
+        <v>5</v>
+      </c>
+      <c r="M155">
+        <v>0.73</v>
+      </c>
+      <c r="N155">
+        <v>48</v>
+      </c>
+      <c r="O155">
+        <v>29.81</v>
+      </c>
+      <c r="P155">
+        <v>15</v>
+      </c>
+      <c r="Q155">
+        <v>0.87</v>
+      </c>
+      <c r="R155">
+        <v>8.9</v>
+      </c>
+      <c r="S155">
+        <v>39</v>
+      </c>
+      <c r="T155">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156">
+        <v>44</v>
+      </c>
+      <c r="E156">
+        <v>66</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G156">
+        <v>0.01</v>
+      </c>
+      <c r="H156">
+        <v>0.5</v>
+      </c>
+      <c r="I156" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156" t="s">
+        <v>19</v>
+      </c>
+      <c r="L156">
+        <v>7</v>
+      </c>
+      <c r="M156">
+        <v>0.45</v>
+      </c>
+      <c r="N156">
+        <v>44</v>
+      </c>
+      <c r="O156">
+        <v>29.88</v>
+      </c>
+      <c r="P156">
+        <v>15</v>
+      </c>
+      <c r="Q156">
+        <v>0.17</v>
+      </c>
+      <c r="R156">
+        <v>9.9</v>
+      </c>
+      <c r="S156">
+        <v>39</v>
+      </c>
+      <c r="T156">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <v>44</v>
+      </c>
+      <c r="E157">
+        <v>66</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G157">
+        <v>0.01</v>
+      </c>
+      <c r="H157">
+        <v>0.25</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157">
+        <v>3</v>
+      </c>
+      <c r="K157" t="s">
+        <v>20</v>
+      </c>
+      <c r="L157">
+        <v>7</v>
+      </c>
+      <c r="M157">
+        <v>0.45</v>
+      </c>
+      <c r="N157">
+        <v>44</v>
+      </c>
+      <c r="O157">
+        <v>29.88</v>
+      </c>
+      <c r="P157">
+        <v>15</v>
+      </c>
+      <c r="Q157">
+        <v>0.17</v>
+      </c>
+      <c r="R157">
+        <v>9.9</v>
+      </c>
+      <c r="S157">
+        <v>39</v>
+      </c>
+      <c r="T157">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158">
+        <v>44</v>
+      </c>
+      <c r="E158">
+        <v>66</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G158">
+        <v>0.01</v>
+      </c>
+      <c r="H158">
+        <v>0.1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158">
+        <v>3</v>
+      </c>
+      <c r="K158" t="s">
+        <v>19</v>
+      </c>
+      <c r="L158">
+        <v>7</v>
+      </c>
+      <c r="M158">
+        <v>0.45</v>
+      </c>
+      <c r="N158">
+        <v>44</v>
+      </c>
+      <c r="O158">
+        <v>29.88</v>
+      </c>
+      <c r="P158">
+        <v>15</v>
+      </c>
+      <c r="Q158">
+        <v>0.17</v>
+      </c>
+      <c r="R158">
+        <v>9.9</v>
+      </c>
+      <c r="S158">
+        <v>39</v>
+      </c>
+      <c r="T158">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>44</v>
+      </c>
+      <c r="E159">
+        <v>66</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G159">
+        <v>0.01</v>
+      </c>
+      <c r="H159">
+        <v>0.25</v>
+      </c>
+      <c r="I159" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159">
+        <v>3</v>
+      </c>
+      <c r="K159" t="s">
+        <v>18</v>
+      </c>
+      <c r="L159">
+        <v>7</v>
+      </c>
+      <c r="M159">
+        <v>0.45</v>
+      </c>
+      <c r="N159">
+        <v>44</v>
+      </c>
+      <c r="O159">
+        <v>29.88</v>
+      </c>
+      <c r="P159">
+        <v>15</v>
+      </c>
+      <c r="Q159">
+        <v>0.17</v>
+      </c>
+      <c r="R159">
+        <v>9.9</v>
+      </c>
+      <c r="S159">
+        <v>39</v>
+      </c>
+      <c r="T159">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>44</v>
+      </c>
+      <c r="E160">
+        <v>66</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G160">
+        <v>0.01</v>
+      </c>
+      <c r="H160">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I160" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160">
+        <v>3</v>
+      </c>
+      <c r="K160" t="s">
+        <v>20</v>
+      </c>
+      <c r="L160">
+        <v>7</v>
+      </c>
+      <c r="M160">
+        <v>0.45</v>
+      </c>
+      <c r="N160">
+        <v>44</v>
+      </c>
+      <c r="O160">
+        <v>29.88</v>
+      </c>
+      <c r="P160">
+        <v>15</v>
+      </c>
+      <c r="Q160">
+        <v>0.17</v>
+      </c>
+      <c r="R160">
+        <v>9.9</v>
+      </c>
+      <c r="S160">
+        <v>39</v>
+      </c>
+      <c r="T160">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161">
+        <v>44</v>
+      </c>
+      <c r="E161">
+        <v>66</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G161">
+        <v>0.01</v>
+      </c>
+      <c r="H161">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I161" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161">
+        <v>4</v>
+      </c>
+      <c r="K161" t="s">
+        <v>18</v>
+      </c>
+      <c r="L161">
+        <v>7</v>
+      </c>
+      <c r="M161">
+        <v>0.45</v>
+      </c>
+      <c r="N161">
+        <v>44</v>
+      </c>
+      <c r="O161">
+        <v>29.88</v>
+      </c>
+      <c r="P161">
+        <v>15</v>
+      </c>
+      <c r="Q161">
+        <v>0.17</v>
+      </c>
+      <c r="R161">
+        <v>9.9</v>
+      </c>
+      <c r="S161">
+        <v>39</v>
+      </c>
+      <c r="T161">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>44</v>
+      </c>
+      <c r="E162">
+        <v>66</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G162">
+        <v>0.01</v>
+      </c>
+      <c r="H162">
+        <f>8/3</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="I162" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162" t="s">
+        <v>19</v>
+      </c>
+      <c r="L162">
+        <v>7</v>
+      </c>
+      <c r="M162">
+        <v>0.45</v>
+      </c>
+      <c r="N162">
+        <v>44</v>
+      </c>
+      <c r="O162">
+        <v>29.88</v>
+      </c>
+      <c r="P162">
+        <v>15</v>
+      </c>
+      <c r="Q162">
+        <v>0.17</v>
+      </c>
+      <c r="R162">
+        <v>9.9</v>
+      </c>
+      <c r="S162">
+        <v>39</v>
+      </c>
+      <c r="T162">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B21A55-DDB3-4201-B19F-95BE915FF520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B554E3-F84B-4B81-B3D1-8F7ACED9B4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1248" yWindow="2424" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U162"/>
+  <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
-      <selection activeCell="T149" sqref="T149:T162"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="O163" sqref="O163:O169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,7 +8709,7 @@
         <v>58</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F162" si="2">ABS(D131-E131)</f>
+        <f t="shared" ref="F131:F169" si="2">ABS(D131-E131)</f>
         <v>2</v>
       </c>
       <c r="G131">
@@ -10713,6 +10713,447 @@
       </c>
       <c r="T162">
         <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163">
+        <v>52</v>
+      </c>
+      <c r="E163">
+        <v>73</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0.1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>21</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163" t="s">
+        <v>20</v>
+      </c>
+      <c r="L163">
+        <v>9</v>
+      </c>
+      <c r="M163">
+        <v>0.4</v>
+      </c>
+      <c r="N163">
+        <v>48</v>
+      </c>
+      <c r="O163">
+        <v>30.04</v>
+      </c>
+      <c r="P163">
+        <v>18</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>9.9</v>
+      </c>
+      <c r="S163">
+        <v>54</v>
+      </c>
+      <c r="T163">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>52</v>
+      </c>
+      <c r="E164">
+        <v>73</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0.2</v>
+      </c>
+      <c r="I164" t="s">
+        <v>21</v>
+      </c>
+      <c r="J164">
+        <v>3</v>
+      </c>
+      <c r="K164" t="s">
+        <v>19</v>
+      </c>
+      <c r="L164">
+        <v>9</v>
+      </c>
+      <c r="M164">
+        <v>0.4</v>
+      </c>
+      <c r="N164">
+        <v>48</v>
+      </c>
+      <c r="O164">
+        <v>30.04</v>
+      </c>
+      <c r="P164">
+        <v>18</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>9.9</v>
+      </c>
+      <c r="S164">
+        <v>54</v>
+      </c>
+      <c r="T164">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165">
+        <v>52</v>
+      </c>
+      <c r="E165">
+        <v>73</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0.15</v>
+      </c>
+      <c r="I165" t="s">
+        <v>21</v>
+      </c>
+      <c r="J165">
+        <v>3</v>
+      </c>
+      <c r="K165" t="s">
+        <v>18</v>
+      </c>
+      <c r="L165">
+        <v>9</v>
+      </c>
+      <c r="M165">
+        <v>0.4</v>
+      </c>
+      <c r="N165">
+        <v>48</v>
+      </c>
+      <c r="O165">
+        <v>30.04</v>
+      </c>
+      <c r="P165">
+        <v>18</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>9.9</v>
+      </c>
+      <c r="S165">
+        <v>54</v>
+      </c>
+      <c r="T165">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>52</v>
+      </c>
+      <c r="E166">
+        <v>73</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0.25</v>
+      </c>
+      <c r="I166" t="s">
+        <v>21</v>
+      </c>
+      <c r="J166">
+        <v>3</v>
+      </c>
+      <c r="K166" t="s">
+        <v>18</v>
+      </c>
+      <c r="L166">
+        <v>9</v>
+      </c>
+      <c r="M166">
+        <v>0.4</v>
+      </c>
+      <c r="N166">
+        <v>48</v>
+      </c>
+      <c r="O166">
+        <v>30.04</v>
+      </c>
+      <c r="P166">
+        <v>18</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>9.9</v>
+      </c>
+      <c r="S166">
+        <v>54</v>
+      </c>
+      <c r="T166">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>52</v>
+      </c>
+      <c r="E167">
+        <v>73</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>21</v>
+      </c>
+      <c r="J167">
+        <v>3</v>
+      </c>
+      <c r="K167" t="s">
+        <v>19</v>
+      </c>
+      <c r="L167">
+        <v>9</v>
+      </c>
+      <c r="M167">
+        <v>0.4</v>
+      </c>
+      <c r="N167">
+        <v>48</v>
+      </c>
+      <c r="O167">
+        <v>30.04</v>
+      </c>
+      <c r="P167">
+        <v>18</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>9.9</v>
+      </c>
+      <c r="S167">
+        <v>54</v>
+      </c>
+      <c r="T167">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168">
+        <v>52</v>
+      </c>
+      <c r="E168">
+        <v>73</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1.35</v>
+      </c>
+      <c r="I168" t="s">
+        <v>21</v>
+      </c>
+      <c r="J168">
+        <v>4</v>
+      </c>
+      <c r="K168" t="s">
+        <v>19</v>
+      </c>
+      <c r="L168">
+        <v>9</v>
+      </c>
+      <c r="M168">
+        <v>0.4</v>
+      </c>
+      <c r="N168">
+        <v>48</v>
+      </c>
+      <c r="O168">
+        <v>30.04</v>
+      </c>
+      <c r="P168">
+        <v>18</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>9.9</v>
+      </c>
+      <c r="S168">
+        <v>54</v>
+      </c>
+      <c r="T168">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>52</v>
+      </c>
+      <c r="E169">
+        <v>73</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>2.5</v>
+      </c>
+      <c r="I169" t="s">
+        <v>21</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169" t="s">
+        <v>20</v>
+      </c>
+      <c r="L169">
+        <v>9</v>
+      </c>
+      <c r="M169">
+        <v>0.4</v>
+      </c>
+      <c r="N169">
+        <v>48</v>
+      </c>
+      <c r="O169">
+        <v>30.04</v>
+      </c>
+      <c r="P169">
+        <v>18</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>9.9</v>
+      </c>
+      <c r="S169">
+        <v>54</v>
+      </c>
+      <c r="T169">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B554E3-F84B-4B81-B3D1-8F7ACED9B4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BAD48E-0D4C-4DCA-8BE5-EF6A593965D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1248" yWindow="2424" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:U176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="O163" sqref="O163:O169"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,7 +8709,7 @@
         <v>58</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F169" si="2">ABS(D131-E131)</f>
+        <f t="shared" ref="F131:F176" si="2">ABS(D131-E131)</f>
         <v>2</v>
       </c>
       <c r="G131">
@@ -11154,6 +11154,447 @@
       </c>
       <c r="T169">
         <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170">
+        <v>64</v>
+      </c>
+      <c r="E170">
+        <v>83</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0.1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>21</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="K170" t="s">
+        <v>19</v>
+      </c>
+      <c r="L170">
+        <v>8</v>
+      </c>
+      <c r="M170">
+        <v>0.37</v>
+      </c>
+      <c r="N170">
+        <v>54</v>
+      </c>
+      <c r="O170">
+        <v>30.1</v>
+      </c>
+      <c r="P170">
+        <v>11</v>
+      </c>
+      <c r="Q170">
+        <v>0.04</v>
+      </c>
+      <c r="R170">
+        <v>9.9</v>
+      </c>
+      <c r="S170">
+        <v>54</v>
+      </c>
+      <c r="T170">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>64</v>
+      </c>
+      <c r="E171">
+        <v>83</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0.2</v>
+      </c>
+      <c r="I171" t="s">
+        <v>21</v>
+      </c>
+      <c r="J171">
+        <v>3</v>
+      </c>
+      <c r="K171" t="s">
+        <v>20</v>
+      </c>
+      <c r="L171">
+        <v>8</v>
+      </c>
+      <c r="M171">
+        <v>0.37</v>
+      </c>
+      <c r="N171">
+        <v>54</v>
+      </c>
+      <c r="O171">
+        <v>30.1</v>
+      </c>
+      <c r="P171">
+        <v>11</v>
+      </c>
+      <c r="Q171">
+        <v>0.04</v>
+      </c>
+      <c r="R171">
+        <v>9.9</v>
+      </c>
+      <c r="S171">
+        <v>54</v>
+      </c>
+      <c r="T171">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172">
+        <v>64</v>
+      </c>
+      <c r="E172">
+        <v>83</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0.1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>21</v>
+      </c>
+      <c r="J172">
+        <v>3</v>
+      </c>
+      <c r="K172" t="s">
+        <v>20</v>
+      </c>
+      <c r="L172">
+        <v>8</v>
+      </c>
+      <c r="M172">
+        <v>0.37</v>
+      </c>
+      <c r="N172">
+        <v>54</v>
+      </c>
+      <c r="O172">
+        <v>30.1</v>
+      </c>
+      <c r="P172">
+        <v>11</v>
+      </c>
+      <c r="Q172">
+        <v>0.04</v>
+      </c>
+      <c r="R172">
+        <v>9.9</v>
+      </c>
+      <c r="S172">
+        <v>54</v>
+      </c>
+      <c r="T172">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173">
+        <v>64</v>
+      </c>
+      <c r="E173">
+        <v>83</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0.3</v>
+      </c>
+      <c r="I173" t="s">
+        <v>21</v>
+      </c>
+      <c r="J173">
+        <v>3</v>
+      </c>
+      <c r="K173" t="s">
+        <v>20</v>
+      </c>
+      <c r="L173">
+        <v>8</v>
+      </c>
+      <c r="M173">
+        <v>0.37</v>
+      </c>
+      <c r="N173">
+        <v>54</v>
+      </c>
+      <c r="O173">
+        <v>30.1</v>
+      </c>
+      <c r="P173">
+        <v>11</v>
+      </c>
+      <c r="Q173">
+        <v>0.04</v>
+      </c>
+      <c r="R173">
+        <v>9.9</v>
+      </c>
+      <c r="S173">
+        <v>54</v>
+      </c>
+      <c r="T173">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174">
+        <v>64</v>
+      </c>
+      <c r="E174">
+        <v>83</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0.25</v>
+      </c>
+      <c r="I174" t="s">
+        <v>21</v>
+      </c>
+      <c r="J174">
+        <v>3</v>
+      </c>
+      <c r="K174" t="s">
+        <v>20</v>
+      </c>
+      <c r="L174">
+        <v>8</v>
+      </c>
+      <c r="M174">
+        <v>0.37</v>
+      </c>
+      <c r="N174">
+        <v>54</v>
+      </c>
+      <c r="O174">
+        <v>30.1</v>
+      </c>
+      <c r="P174">
+        <v>11</v>
+      </c>
+      <c r="Q174">
+        <v>0.04</v>
+      </c>
+      <c r="R174">
+        <v>9.9</v>
+      </c>
+      <c r="S174">
+        <v>54</v>
+      </c>
+      <c r="T174">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175">
+        <v>64</v>
+      </c>
+      <c r="E175">
+        <v>83</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0.5</v>
+      </c>
+      <c r="I175" t="s">
+        <v>21</v>
+      </c>
+      <c r="J175">
+        <v>4</v>
+      </c>
+      <c r="K175" t="s">
+        <v>20</v>
+      </c>
+      <c r="L175">
+        <v>8</v>
+      </c>
+      <c r="M175">
+        <v>0.37</v>
+      </c>
+      <c r="N175">
+        <v>54</v>
+      </c>
+      <c r="O175">
+        <v>30.1</v>
+      </c>
+      <c r="P175">
+        <v>11</v>
+      </c>
+      <c r="Q175">
+        <v>0.04</v>
+      </c>
+      <c r="R175">
+        <v>9.9</v>
+      </c>
+      <c r="S175">
+        <v>54</v>
+      </c>
+      <c r="T175">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176">
+        <v>64</v>
+      </c>
+      <c r="E176">
+        <v>83</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I176" t="s">
+        <v>21</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" t="s">
+        <v>18</v>
+      </c>
+      <c r="L176">
+        <v>8</v>
+      </c>
+      <c r="M176">
+        <v>0.37</v>
+      </c>
+      <c r="N176">
+        <v>54</v>
+      </c>
+      <c r="O176">
+        <v>30.1</v>
+      </c>
+      <c r="P176">
+        <v>11</v>
+      </c>
+      <c r="Q176">
+        <v>0.04</v>
+      </c>
+      <c r="R176">
+        <v>9.9</v>
+      </c>
+      <c r="S176">
+        <v>54</v>
+      </c>
+      <c r="T176">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BAD48E-0D4C-4DCA-8BE5-EF6A593965D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133B430-4341-4197-886B-7DA7397E00ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="2424" windowWidth="21156" windowHeight="7128" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="1548" yWindow="2400" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U176"/>
+  <dimension ref="A1:U183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="O177" sqref="O177:O183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,7 +8709,7 @@
         <v>58</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F176" si="2">ABS(D131-E131)</f>
+        <f t="shared" ref="F131:F183" si="2">ABS(D131-E131)</f>
         <v>2</v>
       </c>
       <c r="G131">
@@ -11594,6 +11594,447 @@
         <v>54</v>
       </c>
       <c r="T176">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177">
+        <v>66</v>
+      </c>
+      <c r="E177">
+        <v>87</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0.1</v>
+      </c>
+      <c r="I177" t="s">
+        <v>21</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
+      </c>
+      <c r="K177" t="s">
+        <v>20</v>
+      </c>
+      <c r="L177">
+        <v>7</v>
+      </c>
+      <c r="M177">
+        <v>0.48</v>
+      </c>
+      <c r="N177">
+        <v>64</v>
+      </c>
+      <c r="O177">
+        <v>30.14</v>
+      </c>
+      <c r="P177">
+        <v>18</v>
+      </c>
+      <c r="Q177">
+        <v>0.43</v>
+      </c>
+      <c r="R177">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S177">
+        <v>70</v>
+      </c>
+      <c r="T177">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178">
+        <v>66</v>
+      </c>
+      <c r="E178">
+        <v>87</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0.1</v>
+      </c>
+      <c r="I178" t="s">
+        <v>21</v>
+      </c>
+      <c r="J178">
+        <v>3</v>
+      </c>
+      <c r="K178" t="s">
+        <v>20</v>
+      </c>
+      <c r="L178">
+        <v>7</v>
+      </c>
+      <c r="M178">
+        <v>0.48</v>
+      </c>
+      <c r="N178">
+        <v>64</v>
+      </c>
+      <c r="O178">
+        <v>30.14</v>
+      </c>
+      <c r="P178">
+        <v>18</v>
+      </c>
+      <c r="Q178">
+        <v>0.43</v>
+      </c>
+      <c r="R178">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S178">
+        <v>70</v>
+      </c>
+      <c r="T178">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179">
+        <v>66</v>
+      </c>
+      <c r="E179">
+        <v>87</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0.2</v>
+      </c>
+      <c r="I179" t="s">
+        <v>21</v>
+      </c>
+      <c r="J179">
+        <v>3</v>
+      </c>
+      <c r="K179" t="s">
+        <v>20</v>
+      </c>
+      <c r="L179">
+        <v>7</v>
+      </c>
+      <c r="M179">
+        <v>0.48</v>
+      </c>
+      <c r="N179">
+        <v>64</v>
+      </c>
+      <c r="O179">
+        <v>30.14</v>
+      </c>
+      <c r="P179">
+        <v>18</v>
+      </c>
+      <c r="Q179">
+        <v>0.43</v>
+      </c>
+      <c r="R179">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S179">
+        <v>70</v>
+      </c>
+      <c r="T179">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180">
+        <v>66</v>
+      </c>
+      <c r="E180">
+        <v>87</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0.3</v>
+      </c>
+      <c r="I180" t="s">
+        <v>21</v>
+      </c>
+      <c r="J180">
+        <v>3</v>
+      </c>
+      <c r="K180" t="s">
+        <v>19</v>
+      </c>
+      <c r="L180">
+        <v>7</v>
+      </c>
+      <c r="M180">
+        <v>0.48</v>
+      </c>
+      <c r="N180">
+        <v>64</v>
+      </c>
+      <c r="O180">
+        <v>30.14</v>
+      </c>
+      <c r="P180">
+        <v>18</v>
+      </c>
+      <c r="Q180">
+        <v>0.43</v>
+      </c>
+      <c r="R180">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S180">
+        <v>70</v>
+      </c>
+      <c r="T180">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181">
+        <v>66</v>
+      </c>
+      <c r="E181">
+        <v>87</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0.25</v>
+      </c>
+      <c r="I181" t="s">
+        <v>21</v>
+      </c>
+      <c r="J181">
+        <v>3</v>
+      </c>
+      <c r="K181" t="s">
+        <v>19</v>
+      </c>
+      <c r="L181">
+        <v>7</v>
+      </c>
+      <c r="M181">
+        <v>0.48</v>
+      </c>
+      <c r="N181">
+        <v>64</v>
+      </c>
+      <c r="O181">
+        <v>30.14</v>
+      </c>
+      <c r="P181">
+        <v>18</v>
+      </c>
+      <c r="Q181">
+        <v>0.43</v>
+      </c>
+      <c r="R181">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S181">
+        <v>70</v>
+      </c>
+      <c r="T181">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182">
+        <v>66</v>
+      </c>
+      <c r="E182">
+        <v>87</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>21</v>
+      </c>
+      <c r="J182">
+        <v>4</v>
+      </c>
+      <c r="K182" t="s">
+        <v>20</v>
+      </c>
+      <c r="L182">
+        <v>7</v>
+      </c>
+      <c r="M182">
+        <v>0.48</v>
+      </c>
+      <c r="N182">
+        <v>64</v>
+      </c>
+      <c r="O182">
+        <v>30.14</v>
+      </c>
+      <c r="P182">
+        <v>18</v>
+      </c>
+      <c r="Q182">
+        <v>0.43</v>
+      </c>
+      <c r="R182">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S182">
+        <v>70</v>
+      </c>
+      <c r="T182">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183">
+        <v>66</v>
+      </c>
+      <c r="E183">
+        <v>87</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0.9</v>
+      </c>
+      <c r="I183" t="s">
+        <v>21</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183" t="s">
+        <v>19</v>
+      </c>
+      <c r="L183">
+        <v>7</v>
+      </c>
+      <c r="M183">
+        <v>0.48</v>
+      </c>
+      <c r="N183">
+        <v>64</v>
+      </c>
+      <c r="O183">
+        <v>30.14</v>
+      </c>
+      <c r="P183">
+        <v>18</v>
+      </c>
+      <c r="Q183">
+        <v>0.43</v>
+      </c>
+      <c r="R183">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S183">
+        <v>70</v>
+      </c>
+      <c r="T183">
         <v>38</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133B430-4341-4197-886B-7DA7397E00ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8D796-F64C-4C08-96FE-CD3A12A43877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1548" yWindow="2400" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="420" yWindow="3276" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U183"/>
+  <dimension ref="A1:U190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="O177" sqref="O177:O183"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="N188" sqref="N188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,7 +8709,7 @@
         <v>58</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F183" si="2">ABS(D131-E131)</f>
+        <f t="shared" ref="F131:F190" si="2">ABS(D131-E131)</f>
         <v>2</v>
       </c>
       <c r="G131">
@@ -12036,6 +12036,449 @@
       </c>
       <c r="T183">
         <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184">
+        <v>65</v>
+      </c>
+      <c r="E184">
+        <v>84</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G184">
+        <v>0.91</v>
+      </c>
+      <c r="H184">
+        <v>0.1</v>
+      </c>
+      <c r="I184" t="s">
+        <v>21</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184" t="s">
+        <v>19</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>0.71</v>
+      </c>
+      <c r="N184">
+        <v>66</v>
+      </c>
+      <c r="O184">
+        <v>29.99</v>
+      </c>
+      <c r="P184">
+        <v>10</v>
+      </c>
+      <c r="Q184">
+        <v>0.85</v>
+      </c>
+      <c r="R184">
+        <v>9.9</v>
+      </c>
+      <c r="S184">
+        <v>84</v>
+      </c>
+      <c r="T184">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185">
+        <v>65</v>
+      </c>
+      <c r="E185">
+        <v>84</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G185">
+        <v>0.91</v>
+      </c>
+      <c r="H185">
+        <v>0.25</v>
+      </c>
+      <c r="I185" t="s">
+        <v>21</v>
+      </c>
+      <c r="J185">
+        <v>3</v>
+      </c>
+      <c r="K185" t="s">
+        <v>19</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>0.71</v>
+      </c>
+      <c r="N185">
+        <v>66</v>
+      </c>
+      <c r="O185">
+        <v>29.99</v>
+      </c>
+      <c r="P185">
+        <v>10</v>
+      </c>
+      <c r="Q185">
+        <v>0.85</v>
+      </c>
+      <c r="R185">
+        <v>9.9</v>
+      </c>
+      <c r="S185">
+        <v>84</v>
+      </c>
+      <c r="T185">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186">
+        <v>65</v>
+      </c>
+      <c r="E186">
+        <v>84</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G186">
+        <v>0.91</v>
+      </c>
+      <c r="H186">
+        <v>0.2</v>
+      </c>
+      <c r="I186" t="s">
+        <v>21</v>
+      </c>
+      <c r="J186">
+        <v>3</v>
+      </c>
+      <c r="K186" t="s">
+        <v>18</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>0.71</v>
+      </c>
+      <c r="N186">
+        <v>66</v>
+      </c>
+      <c r="O186">
+        <v>29.99</v>
+      </c>
+      <c r="P186">
+        <v>10</v>
+      </c>
+      <c r="Q186">
+        <v>0.85</v>
+      </c>
+      <c r="R186">
+        <v>9.9</v>
+      </c>
+      <c r="S186">
+        <v>84</v>
+      </c>
+      <c r="T186">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187">
+        <v>65</v>
+      </c>
+      <c r="E187">
+        <v>84</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G187">
+        <v>0.91</v>
+      </c>
+      <c r="H187">
+        <v>0.3</v>
+      </c>
+      <c r="I187" t="s">
+        <v>21</v>
+      </c>
+      <c r="J187">
+        <v>3</v>
+      </c>
+      <c r="K187" t="s">
+        <v>19</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
+      <c r="M187">
+        <v>0.71</v>
+      </c>
+      <c r="N187">
+        <v>66</v>
+      </c>
+      <c r="O187">
+        <v>29.99</v>
+      </c>
+      <c r="P187">
+        <v>10</v>
+      </c>
+      <c r="Q187">
+        <v>0.85</v>
+      </c>
+      <c r="R187">
+        <v>9.9</v>
+      </c>
+      <c r="S187">
+        <v>84</v>
+      </c>
+      <c r="T187">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188">
+        <v>65</v>
+      </c>
+      <c r="E188">
+        <v>84</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G188">
+        <v>0.91</v>
+      </c>
+      <c r="H188">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I188" t="s">
+        <v>21</v>
+      </c>
+      <c r="J188">
+        <v>3</v>
+      </c>
+      <c r="K188" t="s">
+        <v>18</v>
+      </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
+      <c r="M188">
+        <v>0.71</v>
+      </c>
+      <c r="N188">
+        <v>66</v>
+      </c>
+      <c r="O188">
+        <v>29.99</v>
+      </c>
+      <c r="P188">
+        <v>10</v>
+      </c>
+      <c r="Q188">
+        <v>0.85</v>
+      </c>
+      <c r="R188">
+        <v>9.9</v>
+      </c>
+      <c r="S188">
+        <v>84</v>
+      </c>
+      <c r="T188">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189">
+        <v>65</v>
+      </c>
+      <c r="E189">
+        <v>84</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G189">
+        <v>0.91</v>
+      </c>
+      <c r="H189">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I189" t="s">
+        <v>21</v>
+      </c>
+      <c r="J189">
+        <v>4</v>
+      </c>
+      <c r="K189" t="s">
+        <v>18</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>0.71</v>
+      </c>
+      <c r="N189">
+        <v>66</v>
+      </c>
+      <c r="O189">
+        <v>29.99</v>
+      </c>
+      <c r="P189">
+        <v>10</v>
+      </c>
+      <c r="Q189">
+        <v>0.85</v>
+      </c>
+      <c r="R189">
+        <v>9.9</v>
+      </c>
+      <c r="S189">
+        <v>84</v>
+      </c>
+      <c r="T189">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>65</v>
+      </c>
+      <c r="E190">
+        <v>84</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G190">
+        <v>0.91</v>
+      </c>
+      <c r="H190">
+        <v>0.75</v>
+      </c>
+      <c r="I190" t="s">
+        <v>21</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190" t="s">
+        <v>20</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>0.71</v>
+      </c>
+      <c r="N190">
+        <v>66</v>
+      </c>
+      <c r="O190">
+        <v>29.99</v>
+      </c>
+      <c r="P190">
+        <v>10</v>
+      </c>
+      <c r="Q190">
+        <v>0.85</v>
+      </c>
+      <c r="R190">
+        <v>9.9</v>
+      </c>
+      <c r="S190">
+        <v>84</v>
+      </c>
+      <c r="T190">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8D796-F64C-4C08-96FE-CD3A12A43877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCB50E-9366-430C-B57C-EBD571B09B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="3276" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="1284" yWindow="2508" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U190"/>
+  <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="N188" sqref="N188"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="N191" sqref="N191:N197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,7 +8709,7 @@
         <v>58</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F190" si="2">ABS(D131-E131)</f>
+        <f t="shared" ref="F131:F194" si="2">ABS(D131-E131)</f>
         <v>2</v>
       </c>
       <c r="G131">
@@ -12479,6 +12479,447 @@
       </c>
       <c r="T190">
         <v>40</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191">
+        <v>65</v>
+      </c>
+      <c r="E191">
+        <v>77</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G191">
+        <v>5.57</v>
+      </c>
+      <c r="H191">
+        <v>0.1</v>
+      </c>
+      <c r="I191" t="s">
+        <v>15</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191" t="s">
+        <v>18</v>
+      </c>
+      <c r="L191">
+        <v>7</v>
+      </c>
+      <c r="M191">
+        <v>0.82</v>
+      </c>
+      <c r="N191">
+        <v>69</v>
+      </c>
+      <c r="O191">
+        <v>29.87</v>
+      </c>
+      <c r="P191">
+        <v>9</v>
+      </c>
+      <c r="Q191">
+        <v>0.83</v>
+      </c>
+      <c r="R191">
+        <v>5.7</v>
+      </c>
+      <c r="S191">
+        <v>68</v>
+      </c>
+      <c r="T191">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192">
+        <v>65</v>
+      </c>
+      <c r="E192">
+        <v>77</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G192">
+        <v>5.57</v>
+      </c>
+      <c r="H192">
+        <v>0.25</v>
+      </c>
+      <c r="I192" t="s">
+        <v>15</v>
+      </c>
+      <c r="J192">
+        <v>3</v>
+      </c>
+      <c r="K192" t="s">
+        <v>18</v>
+      </c>
+      <c r="L192">
+        <v>7</v>
+      </c>
+      <c r="M192">
+        <v>0.82</v>
+      </c>
+      <c r="N192">
+        <v>69</v>
+      </c>
+      <c r="O192">
+        <v>29.87</v>
+      </c>
+      <c r="P192">
+        <v>9</v>
+      </c>
+      <c r="Q192">
+        <v>0.83</v>
+      </c>
+      <c r="R192">
+        <v>5.7</v>
+      </c>
+      <c r="S192">
+        <v>68</v>
+      </c>
+      <c r="T192">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193">
+        <v>65</v>
+      </c>
+      <c r="E193">
+        <v>77</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G193">
+        <v>5.57</v>
+      </c>
+      <c r="H193">
+        <v>0.35</v>
+      </c>
+      <c r="I193" t="s">
+        <v>15</v>
+      </c>
+      <c r="J193">
+        <v>3</v>
+      </c>
+      <c r="K193" t="s">
+        <v>18</v>
+      </c>
+      <c r="L193">
+        <v>7</v>
+      </c>
+      <c r="M193">
+        <v>0.82</v>
+      </c>
+      <c r="N193">
+        <v>69</v>
+      </c>
+      <c r="O193">
+        <v>29.87</v>
+      </c>
+      <c r="P193">
+        <v>9</v>
+      </c>
+      <c r="Q193">
+        <v>0.83</v>
+      </c>
+      <c r="R193">
+        <v>5.7</v>
+      </c>
+      <c r="S193">
+        <v>68</v>
+      </c>
+      <c r="T193">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194">
+        <v>65</v>
+      </c>
+      <c r="E194">
+        <v>77</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G194">
+        <v>5.57</v>
+      </c>
+      <c r="H194">
+        <v>0.4</v>
+      </c>
+      <c r="I194" t="s">
+        <v>15</v>
+      </c>
+      <c r="J194">
+        <v>3</v>
+      </c>
+      <c r="K194" t="s">
+        <v>18</v>
+      </c>
+      <c r="L194">
+        <v>7</v>
+      </c>
+      <c r="M194">
+        <v>0.82</v>
+      </c>
+      <c r="N194">
+        <v>69</v>
+      </c>
+      <c r="O194">
+        <v>29.87</v>
+      </c>
+      <c r="P194">
+        <v>9</v>
+      </c>
+      <c r="Q194">
+        <v>0.83</v>
+      </c>
+      <c r="R194">
+        <v>5.7</v>
+      </c>
+      <c r="S194">
+        <v>68</v>
+      </c>
+      <c r="T194">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>65</v>
+      </c>
+      <c r="E195">
+        <v>77</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F197" si="3">ABS(D195-E195)</f>
+        <v>12</v>
+      </c>
+      <c r="G195">
+        <v>5.57</v>
+      </c>
+      <c r="H195">
+        <v>0.5</v>
+      </c>
+      <c r="I195" t="s">
+        <v>15</v>
+      </c>
+      <c r="J195">
+        <v>3</v>
+      </c>
+      <c r="K195" t="s">
+        <v>19</v>
+      </c>
+      <c r="L195">
+        <v>7</v>
+      </c>
+      <c r="M195">
+        <v>0.82</v>
+      </c>
+      <c r="N195">
+        <v>69</v>
+      </c>
+      <c r="O195">
+        <v>29.87</v>
+      </c>
+      <c r="P195">
+        <v>9</v>
+      </c>
+      <c r="Q195">
+        <v>0.83</v>
+      </c>
+      <c r="R195">
+        <v>5.7</v>
+      </c>
+      <c r="S195">
+        <v>68</v>
+      </c>
+      <c r="T195">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196">
+        <v>65</v>
+      </c>
+      <c r="E196">
+        <v>77</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G196">
+        <v>5.57</v>
+      </c>
+      <c r="H196">
+        <v>0.1</v>
+      </c>
+      <c r="I196" t="s">
+        <v>15</v>
+      </c>
+      <c r="J196">
+        <v>4</v>
+      </c>
+      <c r="K196" t="s">
+        <v>19</v>
+      </c>
+      <c r="L196">
+        <v>7</v>
+      </c>
+      <c r="M196">
+        <v>0.82</v>
+      </c>
+      <c r="N196">
+        <v>69</v>
+      </c>
+      <c r="O196">
+        <v>29.87</v>
+      </c>
+      <c r="P196">
+        <v>9</v>
+      </c>
+      <c r="Q196">
+        <v>0.83</v>
+      </c>
+      <c r="R196">
+        <v>5.7</v>
+      </c>
+      <c r="S196">
+        <v>68</v>
+      </c>
+      <c r="T196">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197">
+        <v>65</v>
+      </c>
+      <c r="E197">
+        <v>77</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G197">
+        <v>5.57</v>
+      </c>
+      <c r="H197">
+        <v>1.25</v>
+      </c>
+      <c r="I197" t="s">
+        <v>15</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197" t="s">
+        <v>18</v>
+      </c>
+      <c r="L197">
+        <v>7</v>
+      </c>
+      <c r="M197">
+        <v>0.82</v>
+      </c>
+      <c r="N197">
+        <v>69</v>
+      </c>
+      <c r="O197">
+        <v>29.87</v>
+      </c>
+      <c r="P197">
+        <v>9</v>
+      </c>
+      <c r="Q197">
+        <v>0.83</v>
+      </c>
+      <c r="R197">
+        <v>5.7</v>
+      </c>
+      <c r="S197">
+        <v>68</v>
+      </c>
+      <c r="T197">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCB50E-9366-430C-B57C-EBD571B09B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33408C-B527-45AD-AFE3-107B15463D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="2508" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="912" yWindow="1188" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U197"/>
+  <dimension ref="A1:U204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="N191" sqref="N191:N197"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12750,7 +12750,7 @@
         <v>77</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F197" si="3">ABS(D195-E195)</f>
+        <f t="shared" ref="F195:F204" si="3">ABS(D195-E195)</f>
         <v>12</v>
       </c>
       <c r="G195">
@@ -12920,6 +12920,455 @@
       </c>
       <c r="T197">
         <v>47</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198">
+        <v>64</v>
+      </c>
+      <c r="E198">
+        <v>77</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G198">
+        <f>1.37+0.62</f>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="H198">
+        <v>0.2</v>
+      </c>
+      <c r="I198" t="s">
+        <v>15</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198" t="s">
+        <v>18</v>
+      </c>
+      <c r="L198">
+        <v>4</v>
+      </c>
+      <c r="M198">
+        <v>0.73</v>
+      </c>
+      <c r="N198">
+        <v>65</v>
+      </c>
+      <c r="O198">
+        <v>29.82</v>
+      </c>
+      <c r="P198">
+        <v>5</v>
+      </c>
+      <c r="Q198">
+        <v>0.83</v>
+      </c>
+      <c r="R198">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S198">
+        <v>55</v>
+      </c>
+      <c r="T198">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199">
+        <v>64</v>
+      </c>
+      <c r="E199">
+        <v>77</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G199">
+        <f t="shared" ref="G199:G204" si="4">1.37+0.62</f>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="H199">
+        <v>0.3</v>
+      </c>
+      <c r="I199" t="s">
+        <v>15</v>
+      </c>
+      <c r="J199">
+        <v>3</v>
+      </c>
+      <c r="K199" t="s">
+        <v>18</v>
+      </c>
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>0.73</v>
+      </c>
+      <c r="N199">
+        <v>65</v>
+      </c>
+      <c r="O199">
+        <v>29.82</v>
+      </c>
+      <c r="P199">
+        <v>5</v>
+      </c>
+      <c r="Q199">
+        <v>0.83</v>
+      </c>
+      <c r="R199">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S199">
+        <v>55</v>
+      </c>
+      <c r="T199">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200">
+        <v>64</v>
+      </c>
+      <c r="E200">
+        <v>77</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="4"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="H200">
+        <v>1.5</v>
+      </c>
+      <c r="I200" t="s">
+        <v>15</v>
+      </c>
+      <c r="J200">
+        <v>3</v>
+      </c>
+      <c r="K200" t="s">
+        <v>18</v>
+      </c>
+      <c r="L200">
+        <v>4</v>
+      </c>
+      <c r="M200">
+        <v>0.73</v>
+      </c>
+      <c r="N200">
+        <v>65</v>
+      </c>
+      <c r="O200">
+        <v>29.82</v>
+      </c>
+      <c r="P200">
+        <v>5</v>
+      </c>
+      <c r="Q200">
+        <v>0.83</v>
+      </c>
+      <c r="R200">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S200">
+        <v>55</v>
+      </c>
+      <c r="T200">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201">
+        <v>64</v>
+      </c>
+      <c r="E201">
+        <v>77</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="4"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="H201">
+        <v>1.25</v>
+      </c>
+      <c r="I201" t="s">
+        <v>15</v>
+      </c>
+      <c r="J201">
+        <v>3</v>
+      </c>
+      <c r="K201" t="s">
+        <v>19</v>
+      </c>
+      <c r="L201">
+        <v>4</v>
+      </c>
+      <c r="M201">
+        <v>0.73</v>
+      </c>
+      <c r="N201">
+        <v>65</v>
+      </c>
+      <c r="O201">
+        <v>29.82</v>
+      </c>
+      <c r="P201">
+        <v>5</v>
+      </c>
+      <c r="Q201">
+        <v>0.83</v>
+      </c>
+      <c r="R201">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S201">
+        <v>55</v>
+      </c>
+      <c r="T201">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>64</v>
+      </c>
+      <c r="E202">
+        <v>77</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="4"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="H202">
+        <v>0.5</v>
+      </c>
+      <c r="I202" t="s">
+        <v>15</v>
+      </c>
+      <c r="J202">
+        <v>3</v>
+      </c>
+      <c r="K202" t="s">
+        <v>19</v>
+      </c>
+      <c r="L202">
+        <v>4</v>
+      </c>
+      <c r="M202">
+        <v>0.73</v>
+      </c>
+      <c r="N202">
+        <v>65</v>
+      </c>
+      <c r="O202">
+        <v>29.82</v>
+      </c>
+      <c r="P202">
+        <v>5</v>
+      </c>
+      <c r="Q202">
+        <v>0.83</v>
+      </c>
+      <c r="R202">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S202">
+        <v>55</v>
+      </c>
+      <c r="T202">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203">
+        <v>64</v>
+      </c>
+      <c r="E203">
+        <v>77</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="4"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="H203">
+        <v>0.75</v>
+      </c>
+      <c r="I203" t="s">
+        <v>15</v>
+      </c>
+      <c r="J203">
+        <v>4</v>
+      </c>
+      <c r="K203" t="s">
+        <v>20</v>
+      </c>
+      <c r="L203">
+        <v>4</v>
+      </c>
+      <c r="M203">
+        <v>0.73</v>
+      </c>
+      <c r="N203">
+        <v>65</v>
+      </c>
+      <c r="O203">
+        <v>29.82</v>
+      </c>
+      <c r="P203">
+        <v>5</v>
+      </c>
+      <c r="Q203">
+        <v>0.83</v>
+      </c>
+      <c r="R203">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S203">
+        <v>55</v>
+      </c>
+      <c r="T203">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204">
+        <v>64</v>
+      </c>
+      <c r="E204">
+        <v>77</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="4"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="H204">
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I204" t="s">
+        <v>15</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204" t="s">
+        <v>19</v>
+      </c>
+      <c r="L204">
+        <v>4</v>
+      </c>
+      <c r="M204">
+        <v>0.73</v>
+      </c>
+      <c r="N204">
+        <v>65</v>
+      </c>
+      <c r="O204">
+        <v>29.82</v>
+      </c>
+      <c r="P204">
+        <v>5</v>
+      </c>
+      <c r="Q204">
+        <v>0.83</v>
+      </c>
+      <c r="R204">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S204">
+        <v>55</v>
+      </c>
+      <c r="T204">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33408C-B527-45AD-AFE3-107B15463D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A7C83F-5C77-44E0-8EE2-C11BA0790E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="1188" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U204"/>
+  <dimension ref="A1:U211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12750,7 +12750,7 @@
         <v>77</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F204" si="3">ABS(D195-E195)</f>
+        <f t="shared" ref="F195:F211" si="3">ABS(D195-E195)</f>
         <v>12</v>
       </c>
       <c r="G195">
@@ -13369,6 +13369,447 @@
       </c>
       <c r="T204">
         <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205">
+        <v>63</v>
+      </c>
+      <c r="E205">
+        <v>68</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G205">
+        <v>1.31</v>
+      </c>
+      <c r="H205">
+        <v>0.35</v>
+      </c>
+      <c r="I205" t="s">
+        <v>21</v>
+      </c>
+      <c r="J205">
+        <v>2</v>
+      </c>
+      <c r="K205" t="s">
+        <v>18</v>
+      </c>
+      <c r="L205">
+        <v>7</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>68</v>
+      </c>
+      <c r="O205">
+        <v>29.64</v>
+      </c>
+      <c r="P205">
+        <v>13</v>
+      </c>
+      <c r="Q205">
+        <v>0.91</v>
+      </c>
+      <c r="R205">
+        <v>3</v>
+      </c>
+      <c r="S205">
+        <v>100</v>
+      </c>
+      <c r="T205">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206">
+        <v>63</v>
+      </c>
+      <c r="E206">
+        <v>68</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G206">
+        <v>1.31</v>
+      </c>
+      <c r="H206">
+        <v>0.5</v>
+      </c>
+      <c r="I206" t="s">
+        <v>21</v>
+      </c>
+      <c r="J206">
+        <v>3</v>
+      </c>
+      <c r="K206" t="s">
+        <v>18</v>
+      </c>
+      <c r="L206">
+        <v>7</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>68</v>
+      </c>
+      <c r="O206">
+        <v>29.64</v>
+      </c>
+      <c r="P206">
+        <v>13</v>
+      </c>
+      <c r="Q206">
+        <v>0.91</v>
+      </c>
+      <c r="R206">
+        <v>3</v>
+      </c>
+      <c r="S206">
+        <v>100</v>
+      </c>
+      <c r="T206">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207">
+        <v>63</v>
+      </c>
+      <c r="E207">
+        <v>68</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G207">
+        <v>1.31</v>
+      </c>
+      <c r="H207">
+        <v>0.75</v>
+      </c>
+      <c r="I207" t="s">
+        <v>21</v>
+      </c>
+      <c r="J207">
+        <v>3</v>
+      </c>
+      <c r="K207" t="s">
+        <v>19</v>
+      </c>
+      <c r="L207">
+        <v>7</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>68</v>
+      </c>
+      <c r="O207">
+        <v>29.64</v>
+      </c>
+      <c r="P207">
+        <v>13</v>
+      </c>
+      <c r="Q207">
+        <v>0.91</v>
+      </c>
+      <c r="R207">
+        <v>3</v>
+      </c>
+      <c r="S207">
+        <v>100</v>
+      </c>
+      <c r="T207">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>63</v>
+      </c>
+      <c r="E208">
+        <v>68</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G208">
+        <v>1.31</v>
+      </c>
+      <c r="H208">
+        <v>1.5</v>
+      </c>
+      <c r="I208" t="s">
+        <v>21</v>
+      </c>
+      <c r="J208">
+        <v>3</v>
+      </c>
+      <c r="K208" t="s">
+        <v>19</v>
+      </c>
+      <c r="L208">
+        <v>7</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>68</v>
+      </c>
+      <c r="O208">
+        <v>29.64</v>
+      </c>
+      <c r="P208">
+        <v>13</v>
+      </c>
+      <c r="Q208">
+        <v>0.91</v>
+      </c>
+      <c r="R208">
+        <v>3</v>
+      </c>
+      <c r="S208">
+        <v>100</v>
+      </c>
+      <c r="T208">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209">
+        <v>63</v>
+      </c>
+      <c r="E209">
+        <v>68</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G209">
+        <v>1.31</v>
+      </c>
+      <c r="H209">
+        <v>2.35</v>
+      </c>
+      <c r="I209" t="s">
+        <v>21</v>
+      </c>
+      <c r="J209">
+        <v>3</v>
+      </c>
+      <c r="K209" t="s">
+        <v>20</v>
+      </c>
+      <c r="L209">
+        <v>7</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>68</v>
+      </c>
+      <c r="O209">
+        <v>29.64</v>
+      </c>
+      <c r="P209">
+        <v>13</v>
+      </c>
+      <c r="Q209">
+        <v>0.91</v>
+      </c>
+      <c r="R209">
+        <v>3</v>
+      </c>
+      <c r="S209">
+        <v>100</v>
+      </c>
+      <c r="T209">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210">
+        <v>63</v>
+      </c>
+      <c r="E210">
+        <v>68</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G210">
+        <v>1.31</v>
+      </c>
+      <c r="H210">
+        <v>0.75</v>
+      </c>
+      <c r="I210" t="s">
+        <v>21</v>
+      </c>
+      <c r="J210">
+        <v>4</v>
+      </c>
+      <c r="K210" t="s">
+        <v>18</v>
+      </c>
+      <c r="L210">
+        <v>7</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>68</v>
+      </c>
+      <c r="O210">
+        <v>29.64</v>
+      </c>
+      <c r="P210">
+        <v>13</v>
+      </c>
+      <c r="Q210">
+        <v>0.91</v>
+      </c>
+      <c r="R210">
+        <v>3</v>
+      </c>
+      <c r="S210">
+        <v>100</v>
+      </c>
+      <c r="T210">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211">
+        <v>63</v>
+      </c>
+      <c r="E211">
+        <v>68</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G211">
+        <v>1.31</v>
+      </c>
+      <c r="H211">
+        <v>3.75</v>
+      </c>
+      <c r="I211" t="s">
+        <v>21</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211" t="s">
+        <v>19</v>
+      </c>
+      <c r="L211">
+        <v>7</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>68</v>
+      </c>
+      <c r="O211">
+        <v>29.64</v>
+      </c>
+      <c r="P211">
+        <v>13</v>
+      </c>
+      <c r="Q211">
+        <v>0.91</v>
+      </c>
+      <c r="R211">
+        <v>3</v>
+      </c>
+      <c r="S211">
+        <v>100</v>
+      </c>
+      <c r="T211">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A7C83F-5C77-44E0-8EE2-C11BA0790E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA84E6-4180-4021-87D1-14736EBB1CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U211"/>
+  <dimension ref="A1:U218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="I219" sqref="I219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12750,7 +12750,7 @@
         <v>77</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F211" si="3">ABS(D195-E195)</f>
+        <f t="shared" ref="F195:F218" si="3">ABS(D195-E195)</f>
         <v>12</v>
       </c>
       <c r="G195">
@@ -13810,6 +13810,447 @@
       </c>
       <c r="T211">
         <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212">
+        <v>63</v>
+      </c>
+      <c r="E212">
+        <v>77</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G212">
+        <v>1.52</v>
+      </c>
+      <c r="H212">
+        <v>0.4</v>
+      </c>
+      <c r="I212" t="s">
+        <v>21</v>
+      </c>
+      <c r="J212">
+        <v>2</v>
+      </c>
+      <c r="K212" t="s">
+        <v>18</v>
+      </c>
+      <c r="L212">
+        <v>5</v>
+      </c>
+      <c r="M212">
+        <v>0.76</v>
+      </c>
+      <c r="N212">
+        <v>65</v>
+      </c>
+      <c r="O212">
+        <v>29.77</v>
+      </c>
+      <c r="P212">
+        <v>17</v>
+      </c>
+      <c r="Q212">
+        <v>0.85</v>
+      </c>
+      <c r="R212">
+        <v>9.9</v>
+      </c>
+      <c r="S212">
+        <v>50</v>
+      </c>
+      <c r="T212">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213">
+        <v>63</v>
+      </c>
+      <c r="E213">
+        <v>77</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G213">
+        <v>1.52</v>
+      </c>
+      <c r="H213">
+        <v>0.5</v>
+      </c>
+      <c r="I213" t="s">
+        <v>21</v>
+      </c>
+      <c r="J213">
+        <v>3</v>
+      </c>
+      <c r="K213" t="s">
+        <v>18</v>
+      </c>
+      <c r="L213">
+        <v>5</v>
+      </c>
+      <c r="M213">
+        <v>0.76</v>
+      </c>
+      <c r="N213">
+        <v>65</v>
+      </c>
+      <c r="O213">
+        <v>29.77</v>
+      </c>
+      <c r="P213">
+        <v>17</v>
+      </c>
+      <c r="Q213">
+        <v>0.85</v>
+      </c>
+      <c r="R213">
+        <v>9.9</v>
+      </c>
+      <c r="S213">
+        <v>50</v>
+      </c>
+      <c r="T213">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214">
+        <v>63</v>
+      </c>
+      <c r="E214">
+        <v>77</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G214">
+        <v>1.52</v>
+      </c>
+      <c r="H214">
+        <v>0.6</v>
+      </c>
+      <c r="I214" t="s">
+        <v>21</v>
+      </c>
+      <c r="J214">
+        <v>3</v>
+      </c>
+      <c r="K214" t="s">
+        <v>19</v>
+      </c>
+      <c r="L214">
+        <v>5</v>
+      </c>
+      <c r="M214">
+        <v>0.76</v>
+      </c>
+      <c r="N214">
+        <v>65</v>
+      </c>
+      <c r="O214">
+        <v>29.77</v>
+      </c>
+      <c r="P214">
+        <v>17</v>
+      </c>
+      <c r="Q214">
+        <v>0.85</v>
+      </c>
+      <c r="R214">
+        <v>9.9</v>
+      </c>
+      <c r="S214">
+        <v>50</v>
+      </c>
+      <c r="T214">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215">
+        <v>63</v>
+      </c>
+      <c r="E215">
+        <v>77</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G215">
+        <v>1.52</v>
+      </c>
+      <c r="H215">
+        <v>1.5</v>
+      </c>
+      <c r="I215" t="s">
+        <v>21</v>
+      </c>
+      <c r="J215">
+        <v>3</v>
+      </c>
+      <c r="K215" t="s">
+        <v>20</v>
+      </c>
+      <c r="L215">
+        <v>5</v>
+      </c>
+      <c r="M215">
+        <v>0.76</v>
+      </c>
+      <c r="N215">
+        <v>65</v>
+      </c>
+      <c r="O215">
+        <v>29.77</v>
+      </c>
+      <c r="P215">
+        <v>17</v>
+      </c>
+      <c r="Q215">
+        <v>0.85</v>
+      </c>
+      <c r="R215">
+        <v>9.9</v>
+      </c>
+      <c r="S215">
+        <v>50</v>
+      </c>
+      <c r="T215">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216">
+        <v>63</v>
+      </c>
+      <c r="E216">
+        <v>77</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G216">
+        <v>1.52</v>
+      </c>
+      <c r="H216">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I216" t="s">
+        <v>21</v>
+      </c>
+      <c r="J216">
+        <v>3</v>
+      </c>
+      <c r="K216" t="s">
+        <v>19</v>
+      </c>
+      <c r="L216">
+        <v>5</v>
+      </c>
+      <c r="M216">
+        <v>0.76</v>
+      </c>
+      <c r="N216">
+        <v>65</v>
+      </c>
+      <c r="O216">
+        <v>29.77</v>
+      </c>
+      <c r="P216">
+        <v>17</v>
+      </c>
+      <c r="Q216">
+        <v>0.85</v>
+      </c>
+      <c r="R216">
+        <v>9.9</v>
+      </c>
+      <c r="S216">
+        <v>50</v>
+      </c>
+      <c r="T216">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217">
+        <v>63</v>
+      </c>
+      <c r="E217">
+        <v>77</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G217">
+        <v>1.52</v>
+      </c>
+      <c r="H217">
+        <v>1.2</v>
+      </c>
+      <c r="I217" t="s">
+        <v>21</v>
+      </c>
+      <c r="J217">
+        <v>4</v>
+      </c>
+      <c r="K217" t="s">
+        <v>19</v>
+      </c>
+      <c r="L217">
+        <v>5</v>
+      </c>
+      <c r="M217">
+        <v>0.76</v>
+      </c>
+      <c r="N217">
+        <v>65</v>
+      </c>
+      <c r="O217">
+        <v>29.77</v>
+      </c>
+      <c r="P217">
+        <v>17</v>
+      </c>
+      <c r="Q217">
+        <v>0.85</v>
+      </c>
+      <c r="R217">
+        <v>9.9</v>
+      </c>
+      <c r="S217">
+        <v>50</v>
+      </c>
+      <c r="T217">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218">
+        <v>63</v>
+      </c>
+      <c r="E218">
+        <v>77</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G218">
+        <v>1.52</v>
+      </c>
+      <c r="H218">
+        <v>5</v>
+      </c>
+      <c r="I218" t="s">
+        <v>21</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218" t="s">
+        <v>18</v>
+      </c>
+      <c r="L218">
+        <v>5</v>
+      </c>
+      <c r="M218">
+        <v>0.76</v>
+      </c>
+      <c r="N218">
+        <v>65</v>
+      </c>
+      <c r="O218">
+        <v>29.77</v>
+      </c>
+      <c r="P218">
+        <v>17</v>
+      </c>
+      <c r="Q218">
+        <v>0.85</v>
+      </c>
+      <c r="R218">
+        <v>9.9</v>
+      </c>
+      <c r="S218">
+        <v>50</v>
+      </c>
+      <c r="T218">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA84E6-4180-4021-87D1-14736EBB1CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2CD7CA-A15D-4B39-8E13-399327E7D74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="468" yWindow="1200" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U218"/>
+  <dimension ref="A1:U232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="I219" sqref="I219"/>
+    <sheetView tabSelected="1" topLeftCell="B218" workbookViewId="0">
+      <selection activeCell="Q225" sqref="Q225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14201,17 +14201,17 @@
         <v>12</v>
       </c>
       <c r="D218">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E218">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F218">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G218">
-        <v>1.52</v>
+        <v>0.25</v>
       </c>
       <c r="H218">
         <v>5</v>
@@ -14251,6 +14251,888 @@
       </c>
       <c r="T218">
         <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219">
+        <v>55</v>
+      </c>
+      <c r="E219">
+        <v>75</v>
+      </c>
+      <c r="F219">
+        <f t="shared" ref="F219:F232" si="5">ABS(D219-E219)</f>
+        <v>20</v>
+      </c>
+      <c r="G219">
+        <v>0.25</v>
+      </c>
+      <c r="H219">
+        <v>0.3</v>
+      </c>
+      <c r="I219" t="s">
+        <v>21</v>
+      </c>
+      <c r="J219">
+        <v>2</v>
+      </c>
+      <c r="K219" t="s">
+        <v>19</v>
+      </c>
+      <c r="L219">
+        <v>6</v>
+      </c>
+      <c r="M219">
+        <v>0.76</v>
+      </c>
+      <c r="N219">
+        <v>65</v>
+      </c>
+      <c r="O219">
+        <v>29.77</v>
+      </c>
+      <c r="P219">
+        <v>17</v>
+      </c>
+      <c r="Q219">
+        <v>0.75</v>
+      </c>
+      <c r="R219">
+        <v>9.9</v>
+      </c>
+      <c r="S219">
+        <v>50</v>
+      </c>
+      <c r="T219">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220">
+        <v>55</v>
+      </c>
+      <c r="E220">
+        <v>75</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G220">
+        <v>0.25</v>
+      </c>
+      <c r="H220">
+        <v>0.3</v>
+      </c>
+      <c r="I220" t="s">
+        <v>21</v>
+      </c>
+      <c r="J220">
+        <v>3</v>
+      </c>
+      <c r="K220" t="s">
+        <v>20</v>
+      </c>
+      <c r="L220">
+        <v>6</v>
+      </c>
+      <c r="M220">
+        <v>0.76</v>
+      </c>
+      <c r="N220">
+        <v>65</v>
+      </c>
+      <c r="O220">
+        <v>29.77</v>
+      </c>
+      <c r="P220">
+        <v>17</v>
+      </c>
+      <c r="Q220">
+        <v>0.75</v>
+      </c>
+      <c r="R220">
+        <v>9.9</v>
+      </c>
+      <c r="S220">
+        <v>50</v>
+      </c>
+      <c r="T220">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221">
+        <v>55</v>
+      </c>
+      <c r="E221">
+        <v>75</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G221">
+        <v>0.25</v>
+      </c>
+      <c r="H221">
+        <v>0.3</v>
+      </c>
+      <c r="I221" t="s">
+        <v>21</v>
+      </c>
+      <c r="J221">
+        <v>3</v>
+      </c>
+      <c r="K221" t="s">
+        <v>19</v>
+      </c>
+      <c r="L221">
+        <v>6</v>
+      </c>
+      <c r="M221">
+        <v>0.76</v>
+      </c>
+      <c r="N221">
+        <v>65</v>
+      </c>
+      <c r="O221">
+        <v>29.77</v>
+      </c>
+      <c r="P221">
+        <v>17</v>
+      </c>
+      <c r="Q221">
+        <v>0.75</v>
+      </c>
+      <c r="R221">
+        <v>9.9</v>
+      </c>
+      <c r="S221">
+        <v>50</v>
+      </c>
+      <c r="T221">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222">
+        <v>55</v>
+      </c>
+      <c r="E222">
+        <v>75</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G222">
+        <v>0.25</v>
+      </c>
+      <c r="H222">
+        <v>0.4</v>
+      </c>
+      <c r="I222" t="s">
+        <v>21</v>
+      </c>
+      <c r="J222">
+        <v>3</v>
+      </c>
+      <c r="K222" t="s">
+        <v>20</v>
+      </c>
+      <c r="L222">
+        <v>6</v>
+      </c>
+      <c r="M222">
+        <v>0.76</v>
+      </c>
+      <c r="N222">
+        <v>65</v>
+      </c>
+      <c r="O222">
+        <v>29.77</v>
+      </c>
+      <c r="P222">
+        <v>17</v>
+      </c>
+      <c r="Q222">
+        <v>0.75</v>
+      </c>
+      <c r="R222">
+        <v>9.9</v>
+      </c>
+      <c r="S222">
+        <v>50</v>
+      </c>
+      <c r="T222">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223">
+        <v>55</v>
+      </c>
+      <c r="E223">
+        <v>75</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G223">
+        <v>0.25</v>
+      </c>
+      <c r="H223">
+        <v>0.5</v>
+      </c>
+      <c r="I223" t="s">
+        <v>21</v>
+      </c>
+      <c r="J223">
+        <v>3</v>
+      </c>
+      <c r="K223" t="s">
+        <v>20</v>
+      </c>
+      <c r="L223">
+        <v>6</v>
+      </c>
+      <c r="M223">
+        <v>0.76</v>
+      </c>
+      <c r="N223">
+        <v>65</v>
+      </c>
+      <c r="O223">
+        <v>29.77</v>
+      </c>
+      <c r="P223">
+        <v>17</v>
+      </c>
+      <c r="Q223">
+        <v>0.75</v>
+      </c>
+      <c r="R223">
+        <v>9.9</v>
+      </c>
+      <c r="S223">
+        <v>50</v>
+      </c>
+      <c r="T223">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224">
+        <v>55</v>
+      </c>
+      <c r="E224">
+        <v>75</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G224">
+        <v>0.25</v>
+      </c>
+      <c r="H224">
+        <v>0.75</v>
+      </c>
+      <c r="I224" t="s">
+        <v>21</v>
+      </c>
+      <c r="J224">
+        <v>4</v>
+      </c>
+      <c r="K224" t="s">
+        <v>19</v>
+      </c>
+      <c r="L224">
+        <v>6</v>
+      </c>
+      <c r="M224">
+        <v>0.76</v>
+      </c>
+      <c r="N224">
+        <v>65</v>
+      </c>
+      <c r="O224">
+        <v>29.77</v>
+      </c>
+      <c r="P224">
+        <v>17</v>
+      </c>
+      <c r="Q224">
+        <v>0.75</v>
+      </c>
+      <c r="R224">
+        <v>9.9</v>
+      </c>
+      <c r="S224">
+        <v>50</v>
+      </c>
+      <c r="T224">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B225" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225">
+        <v>55</v>
+      </c>
+      <c r="E225">
+        <v>75</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G225">
+        <v>0.25</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225" t="s">
+        <v>21</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225" t="s">
+        <v>19</v>
+      </c>
+      <c r="L225">
+        <v>6</v>
+      </c>
+      <c r="M225">
+        <v>0.76</v>
+      </c>
+      <c r="N225">
+        <v>65</v>
+      </c>
+      <c r="O225">
+        <v>29.77</v>
+      </c>
+      <c r="P225">
+        <v>17</v>
+      </c>
+      <c r="Q225">
+        <v>0.75</v>
+      </c>
+      <c r="R225">
+        <v>9.9</v>
+      </c>
+      <c r="S225">
+        <v>50</v>
+      </c>
+      <c r="T225">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226">
+        <v>55</v>
+      </c>
+      <c r="E226">
+        <v>75</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226" t="s">
+        <v>21</v>
+      </c>
+      <c r="J226">
+        <v>2</v>
+      </c>
+      <c r="K226" t="s">
+        <v>19</v>
+      </c>
+      <c r="L226">
+        <v>7</v>
+      </c>
+      <c r="M226">
+        <v>0.5</v>
+      </c>
+      <c r="N226">
+        <v>59</v>
+      </c>
+      <c r="O226">
+        <v>30.13</v>
+      </c>
+      <c r="P226">
+        <v>15</v>
+      </c>
+      <c r="Q226">
+        <v>0.05</v>
+      </c>
+      <c r="R226">
+        <v>9.9</v>
+      </c>
+      <c r="S226">
+        <v>63</v>
+      </c>
+      <c r="T226">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227">
+        <v>55</v>
+      </c>
+      <c r="E227">
+        <v>75</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227" t="s">
+        <v>21</v>
+      </c>
+      <c r="J227">
+        <v>3</v>
+      </c>
+      <c r="K227" t="s">
+        <v>19</v>
+      </c>
+      <c r="L227">
+        <v>7</v>
+      </c>
+      <c r="M227">
+        <v>0.5</v>
+      </c>
+      <c r="N227">
+        <v>59</v>
+      </c>
+      <c r="O227">
+        <v>30.13</v>
+      </c>
+      <c r="P227">
+        <v>15</v>
+      </c>
+      <c r="Q227">
+        <v>0.05</v>
+      </c>
+      <c r="R227">
+        <v>9.9</v>
+      </c>
+      <c r="S227">
+        <v>63</v>
+      </c>
+      <c r="T227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228">
+        <v>55</v>
+      </c>
+      <c r="E228">
+        <v>75</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0.1</v>
+      </c>
+      <c r="I228" t="s">
+        <v>21</v>
+      </c>
+      <c r="J228">
+        <v>3</v>
+      </c>
+      <c r="K228" t="s">
+        <v>18</v>
+      </c>
+      <c r="L228">
+        <v>7</v>
+      </c>
+      <c r="M228">
+        <v>0.5</v>
+      </c>
+      <c r="N228">
+        <v>59</v>
+      </c>
+      <c r="O228">
+        <v>30.13</v>
+      </c>
+      <c r="P228">
+        <v>15</v>
+      </c>
+      <c r="Q228">
+        <v>0.05</v>
+      </c>
+      <c r="R228">
+        <v>9.9</v>
+      </c>
+      <c r="S228">
+        <v>63</v>
+      </c>
+      <c r="T228">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229">
+        <v>55</v>
+      </c>
+      <c r="E229">
+        <v>75</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0.2</v>
+      </c>
+      <c r="I229" t="s">
+        <v>21</v>
+      </c>
+      <c r="J229">
+        <v>3</v>
+      </c>
+      <c r="K229" t="s">
+        <v>20</v>
+      </c>
+      <c r="L229">
+        <v>7</v>
+      </c>
+      <c r="M229">
+        <v>0.5</v>
+      </c>
+      <c r="N229">
+        <v>59</v>
+      </c>
+      <c r="O229">
+        <v>30.13</v>
+      </c>
+      <c r="P229">
+        <v>15</v>
+      </c>
+      <c r="Q229">
+        <v>0.05</v>
+      </c>
+      <c r="R229">
+        <v>9.9</v>
+      </c>
+      <c r="S229">
+        <v>63</v>
+      </c>
+      <c r="T229">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230">
+        <v>55</v>
+      </c>
+      <c r="E230">
+        <v>75</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0.2</v>
+      </c>
+      <c r="I230" t="s">
+        <v>21</v>
+      </c>
+      <c r="J230">
+        <v>3</v>
+      </c>
+      <c r="K230" t="s">
+        <v>20</v>
+      </c>
+      <c r="L230">
+        <v>7</v>
+      </c>
+      <c r="M230">
+        <v>0.5</v>
+      </c>
+      <c r="N230">
+        <v>59</v>
+      </c>
+      <c r="O230">
+        <v>30.13</v>
+      </c>
+      <c r="P230">
+        <v>15</v>
+      </c>
+      <c r="Q230">
+        <v>0.05</v>
+      </c>
+      <c r="R230">
+        <v>9.9</v>
+      </c>
+      <c r="S230">
+        <v>63</v>
+      </c>
+      <c r="T230">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231">
+        <v>55</v>
+      </c>
+      <c r="E231">
+        <v>75</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0.5</v>
+      </c>
+      <c r="I231" t="s">
+        <v>21</v>
+      </c>
+      <c r="J231">
+        <v>4</v>
+      </c>
+      <c r="K231" t="s">
+        <v>20</v>
+      </c>
+      <c r="L231">
+        <v>7</v>
+      </c>
+      <c r="M231">
+        <v>0.5</v>
+      </c>
+      <c r="N231">
+        <v>59</v>
+      </c>
+      <c r="O231">
+        <v>30.13</v>
+      </c>
+      <c r="P231">
+        <v>15</v>
+      </c>
+      <c r="Q231">
+        <v>0.05</v>
+      </c>
+      <c r="R231">
+        <v>9.9</v>
+      </c>
+      <c r="S231">
+        <v>63</v>
+      </c>
+      <c r="T231">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B232" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232">
+        <v>55</v>
+      </c>
+      <c r="E232">
+        <v>75</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>1.25</v>
+      </c>
+      <c r="I232" t="s">
+        <v>21</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232" t="s">
+        <v>19</v>
+      </c>
+      <c r="L232">
+        <v>7</v>
+      </c>
+      <c r="M232">
+        <v>0.5</v>
+      </c>
+      <c r="N232">
+        <v>59</v>
+      </c>
+      <c r="O232">
+        <v>30.13</v>
+      </c>
+      <c r="P232">
+        <v>15</v>
+      </c>
+      <c r="Q232">
+        <v>0.05</v>
+      </c>
+      <c r="R232">
+        <v>9.9</v>
+      </c>
+      <c r="S232">
+        <v>63</v>
+      </c>
+      <c r="T232">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2CD7CA-A15D-4B39-8E13-399327E7D74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADF7754-7589-41B5-93AB-700351D3731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="1200" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U232"/>
+  <dimension ref="A1:U239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B218" workbookViewId="0">
-      <selection activeCell="Q225" sqref="Q225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14270,7 +14270,7 @@
         <v>75</v>
       </c>
       <c r="F219">
-        <f t="shared" ref="F219:F232" si="5">ABS(D219-E219)</f>
+        <f t="shared" ref="F219:F239" si="5">ABS(D219-E219)</f>
         <v>20</v>
       </c>
       <c r="G219">
@@ -15133,6 +15133,447 @@
       </c>
       <c r="T232">
         <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233">
+        <v>66</v>
+      </c>
+      <c r="E233">
+        <v>85</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233" t="s">
+        <v>21</v>
+      </c>
+      <c r="J233">
+        <v>2</v>
+      </c>
+      <c r="K233" t="s">
+        <v>20</v>
+      </c>
+      <c r="L233">
+        <v>8</v>
+      </c>
+      <c r="M233">
+        <v>0.5</v>
+      </c>
+      <c r="N233">
+        <v>64</v>
+      </c>
+      <c r="O233">
+        <v>30.08</v>
+      </c>
+      <c r="P233">
+        <v>10</v>
+      </c>
+      <c r="Q233">
+        <v>0.08</v>
+      </c>
+      <c r="R233">
+        <v>9.9</v>
+      </c>
+      <c r="S233">
+        <v>73</v>
+      </c>
+      <c r="T233">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <v>66</v>
+      </c>
+      <c r="E234">
+        <v>85</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234" t="s">
+        <v>21</v>
+      </c>
+      <c r="J234">
+        <v>3</v>
+      </c>
+      <c r="K234" t="s">
+        <v>20</v>
+      </c>
+      <c r="L234">
+        <v>8</v>
+      </c>
+      <c r="M234">
+        <v>0.5</v>
+      </c>
+      <c r="N234">
+        <v>64</v>
+      </c>
+      <c r="O234">
+        <v>30.08</v>
+      </c>
+      <c r="P234">
+        <v>10</v>
+      </c>
+      <c r="Q234">
+        <v>0.08</v>
+      </c>
+      <c r="R234">
+        <v>9.9</v>
+      </c>
+      <c r="S234">
+        <v>73</v>
+      </c>
+      <c r="T234">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235">
+        <v>66</v>
+      </c>
+      <c r="E235">
+        <v>85</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235" t="s">
+        <v>21</v>
+      </c>
+      <c r="J235">
+        <v>3</v>
+      </c>
+      <c r="K235" t="s">
+        <v>19</v>
+      </c>
+      <c r="L235">
+        <v>8</v>
+      </c>
+      <c r="M235">
+        <v>0.5</v>
+      </c>
+      <c r="N235">
+        <v>64</v>
+      </c>
+      <c r="O235">
+        <v>30.08</v>
+      </c>
+      <c r="P235">
+        <v>10</v>
+      </c>
+      <c r="Q235">
+        <v>0.08</v>
+      </c>
+      <c r="R235">
+        <v>9.9</v>
+      </c>
+      <c r="S235">
+        <v>73</v>
+      </c>
+      <c r="T235">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B236" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236">
+        <v>66</v>
+      </c>
+      <c r="E236">
+        <v>85</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0.1</v>
+      </c>
+      <c r="I236" t="s">
+        <v>21</v>
+      </c>
+      <c r="J236">
+        <v>3</v>
+      </c>
+      <c r="K236" t="s">
+        <v>20</v>
+      </c>
+      <c r="L236">
+        <v>8</v>
+      </c>
+      <c r="M236">
+        <v>0.5</v>
+      </c>
+      <c r="N236">
+        <v>64</v>
+      </c>
+      <c r="O236">
+        <v>30.08</v>
+      </c>
+      <c r="P236">
+        <v>10</v>
+      </c>
+      <c r="Q236">
+        <v>0.08</v>
+      </c>
+      <c r="R236">
+        <v>9.9</v>
+      </c>
+      <c r="S236">
+        <v>73</v>
+      </c>
+      <c r="T236">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237">
+        <v>66</v>
+      </c>
+      <c r="E237">
+        <v>85</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0.1</v>
+      </c>
+      <c r="I237" t="s">
+        <v>21</v>
+      </c>
+      <c r="J237">
+        <v>3</v>
+      </c>
+      <c r="K237" t="s">
+        <v>20</v>
+      </c>
+      <c r="L237">
+        <v>8</v>
+      </c>
+      <c r="M237">
+        <v>0.5</v>
+      </c>
+      <c r="N237">
+        <v>64</v>
+      </c>
+      <c r="O237">
+        <v>30.08</v>
+      </c>
+      <c r="P237">
+        <v>10</v>
+      </c>
+      <c r="Q237">
+        <v>0.08</v>
+      </c>
+      <c r="R237">
+        <v>9.9</v>
+      </c>
+      <c r="S237">
+        <v>73</v>
+      </c>
+      <c r="T237">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B238" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238">
+        <v>66</v>
+      </c>
+      <c r="E238">
+        <v>85</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0.25</v>
+      </c>
+      <c r="I238" t="s">
+        <v>21</v>
+      </c>
+      <c r="J238">
+        <v>4</v>
+      </c>
+      <c r="K238" t="s">
+        <v>20</v>
+      </c>
+      <c r="L238">
+        <v>8</v>
+      </c>
+      <c r="M238">
+        <v>0.5</v>
+      </c>
+      <c r="N238">
+        <v>64</v>
+      </c>
+      <c r="O238">
+        <v>30.08</v>
+      </c>
+      <c r="P238">
+        <v>10</v>
+      </c>
+      <c r="Q238">
+        <v>0.08</v>
+      </c>
+      <c r="R238">
+        <v>9.9</v>
+      </c>
+      <c r="S238">
+        <v>73</v>
+      </c>
+      <c r="T238">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B239" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239">
+        <v>66</v>
+      </c>
+      <c r="E239">
+        <v>85</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0.75</v>
+      </c>
+      <c r="I239" t="s">
+        <v>21</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239" t="s">
+        <v>20</v>
+      </c>
+      <c r="L239">
+        <v>8</v>
+      </c>
+      <c r="M239">
+        <v>0.5</v>
+      </c>
+      <c r="N239">
+        <v>64</v>
+      </c>
+      <c r="O239">
+        <v>30.08</v>
+      </c>
+      <c r="P239">
+        <v>10</v>
+      </c>
+      <c r="Q239">
+        <v>0.08</v>
+      </c>
+      <c r="R239">
+        <v>9.9</v>
+      </c>
+      <c r="S239">
+        <v>73</v>
+      </c>
+      <c r="T239">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADF7754-7589-41B5-93AB-700351D3731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A0CBF-7331-41B7-BBEA-13F7FA2D4763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U239"/>
+  <dimension ref="A1:U246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="O240" sqref="O240:O246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14270,7 +14270,7 @@
         <v>75</v>
       </c>
       <c r="F219">
-        <f t="shared" ref="F219:F239" si="5">ABS(D219-E219)</f>
+        <f t="shared" ref="F219:F246" si="5">ABS(D219-E219)</f>
         <v>20</v>
       </c>
       <c r="G219">
@@ -15574,6 +15574,447 @@
       </c>
       <c r="T239">
         <v>46</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240">
+        <v>68</v>
+      </c>
+      <c r="E240">
+        <v>82</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G240">
+        <v>0.68</v>
+      </c>
+      <c r="H240">
+        <v>0.1</v>
+      </c>
+      <c r="I240" t="s">
+        <v>21</v>
+      </c>
+      <c r="J240">
+        <v>2</v>
+      </c>
+      <c r="K240" t="s">
+        <v>19</v>
+      </c>
+      <c r="L240">
+        <v>6</v>
+      </c>
+      <c r="M240">
+        <v>0.67</v>
+      </c>
+      <c r="N240">
+        <v>68</v>
+      </c>
+      <c r="O240">
+        <v>30.02</v>
+      </c>
+      <c r="P240">
+        <v>9</v>
+      </c>
+      <c r="Q240">
+        <v>0.65</v>
+      </c>
+      <c r="R240">
+        <v>8.1</v>
+      </c>
+      <c r="S240">
+        <v>85</v>
+      </c>
+      <c r="T240">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241">
+        <v>68</v>
+      </c>
+      <c r="E241">
+        <v>82</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G241">
+        <v>0.68</v>
+      </c>
+      <c r="H241">
+        <v>0.2</v>
+      </c>
+      <c r="I241" t="s">
+        <v>21</v>
+      </c>
+      <c r="J241">
+        <v>3</v>
+      </c>
+      <c r="K241" t="s">
+        <v>19</v>
+      </c>
+      <c r="L241">
+        <v>6</v>
+      </c>
+      <c r="M241">
+        <v>0.67</v>
+      </c>
+      <c r="N241">
+        <v>68</v>
+      </c>
+      <c r="O241">
+        <v>30.02</v>
+      </c>
+      <c r="P241">
+        <v>9</v>
+      </c>
+      <c r="Q241">
+        <v>0.65</v>
+      </c>
+      <c r="R241">
+        <v>8.1</v>
+      </c>
+      <c r="S241">
+        <v>85</v>
+      </c>
+      <c r="T241">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242">
+        <v>68</v>
+      </c>
+      <c r="E242">
+        <v>82</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G242">
+        <v>0.68</v>
+      </c>
+      <c r="H242">
+        <v>0.2</v>
+      </c>
+      <c r="I242" t="s">
+        <v>21</v>
+      </c>
+      <c r="J242">
+        <v>3</v>
+      </c>
+      <c r="K242" t="s">
+        <v>18</v>
+      </c>
+      <c r="L242">
+        <v>6</v>
+      </c>
+      <c r="M242">
+        <v>0.67</v>
+      </c>
+      <c r="N242">
+        <v>68</v>
+      </c>
+      <c r="O242">
+        <v>30.02</v>
+      </c>
+      <c r="P242">
+        <v>9</v>
+      </c>
+      <c r="Q242">
+        <v>0.65</v>
+      </c>
+      <c r="R242">
+        <v>8.1</v>
+      </c>
+      <c r="S242">
+        <v>85</v>
+      </c>
+      <c r="T242">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B243" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243">
+        <v>68</v>
+      </c>
+      <c r="E243">
+        <v>82</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G243">
+        <v>0.68</v>
+      </c>
+      <c r="H243">
+        <v>0.25</v>
+      </c>
+      <c r="I243" t="s">
+        <v>21</v>
+      </c>
+      <c r="J243">
+        <v>3</v>
+      </c>
+      <c r="K243" t="s">
+        <v>19</v>
+      </c>
+      <c r="L243">
+        <v>6</v>
+      </c>
+      <c r="M243">
+        <v>0.67</v>
+      </c>
+      <c r="N243">
+        <v>68</v>
+      </c>
+      <c r="O243">
+        <v>30.02</v>
+      </c>
+      <c r="P243">
+        <v>9</v>
+      </c>
+      <c r="Q243">
+        <v>0.65</v>
+      </c>
+      <c r="R243">
+        <v>8.1</v>
+      </c>
+      <c r="S243">
+        <v>85</v>
+      </c>
+      <c r="T243">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244">
+        <v>68</v>
+      </c>
+      <c r="E244">
+        <v>82</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G244">
+        <v>0.68</v>
+      </c>
+      <c r="H244">
+        <v>0.25</v>
+      </c>
+      <c r="I244" t="s">
+        <v>21</v>
+      </c>
+      <c r="J244">
+        <v>3</v>
+      </c>
+      <c r="K244" t="s">
+        <v>20</v>
+      </c>
+      <c r="L244">
+        <v>6</v>
+      </c>
+      <c r="M244">
+        <v>0.67</v>
+      </c>
+      <c r="N244">
+        <v>68</v>
+      </c>
+      <c r="O244">
+        <v>30.02</v>
+      </c>
+      <c r="P244">
+        <v>9</v>
+      </c>
+      <c r="Q244">
+        <v>0.65</v>
+      </c>
+      <c r="R244">
+        <v>8.1</v>
+      </c>
+      <c r="S244">
+        <v>85</v>
+      </c>
+      <c r="T244">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B245" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245">
+        <v>68</v>
+      </c>
+      <c r="E245">
+        <v>82</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G245">
+        <v>0.68</v>
+      </c>
+      <c r="H245">
+        <v>0.3</v>
+      </c>
+      <c r="I245" t="s">
+        <v>21</v>
+      </c>
+      <c r="J245">
+        <v>4</v>
+      </c>
+      <c r="K245" t="s">
+        <v>20</v>
+      </c>
+      <c r="L245">
+        <v>6</v>
+      </c>
+      <c r="M245">
+        <v>0.67</v>
+      </c>
+      <c r="N245">
+        <v>68</v>
+      </c>
+      <c r="O245">
+        <v>30.02</v>
+      </c>
+      <c r="P245">
+        <v>9</v>
+      </c>
+      <c r="Q245">
+        <v>0.65</v>
+      </c>
+      <c r="R245">
+        <v>8.1</v>
+      </c>
+      <c r="S245">
+        <v>85</v>
+      </c>
+      <c r="T245">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B246" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246">
+        <v>68</v>
+      </c>
+      <c r="E246">
+        <v>82</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G246">
+        <v>0.68</v>
+      </c>
+      <c r="H246">
+        <v>1.25</v>
+      </c>
+      <c r="I246" t="s">
+        <v>21</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246" t="s">
+        <v>19</v>
+      </c>
+      <c r="L246">
+        <v>6</v>
+      </c>
+      <c r="M246">
+        <v>0.67</v>
+      </c>
+      <c r="N246">
+        <v>68</v>
+      </c>
+      <c r="O246">
+        <v>30.02</v>
+      </c>
+      <c r="P246">
+        <v>9</v>
+      </c>
+      <c r="Q246">
+        <v>0.65</v>
+      </c>
+      <c r="R246">
+        <v>8.1</v>
+      </c>
+      <c r="S246">
+        <v>85</v>
+      </c>
+      <c r="T246">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A0CBF-7331-41B7-BBEA-13F7FA2D4763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546114B6-4941-496D-BAFE-4FC4F7344910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:U246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="O240" sqref="O240:O246"/>
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15578,7 +15578,7 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
@@ -15641,7 +15641,7 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B241" t="s">
         <v>9</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B242" t="s">
         <v>9</v>
@@ -15767,7 +15767,7 @@
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B243" t="s">
         <v>9</v>
@@ -15830,7 +15830,7 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B244" t="s">
         <v>9</v>
@@ -15893,7 +15893,7 @@
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B245" t="s">
         <v>9</v>
@@ -15956,7 +15956,7 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B246" t="s">
         <v>10</v>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546114B6-4941-496D-BAFE-4FC4F7344910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E3ED8-D54A-4E16-B44D-681F2ECBA197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U246"/>
+  <dimension ref="A1:U260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14270,7 +14270,7 @@
         <v>75</v>
       </c>
       <c r="F219">
-        <f t="shared" ref="F219:F246" si="5">ABS(D219-E219)</f>
+        <f t="shared" ref="F219:F260" si="5">ABS(D219-E219)</f>
         <v>20</v>
       </c>
       <c r="G219">
@@ -16015,6 +16015,888 @@
       </c>
       <c r="T246">
         <v>32</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247">
+        <v>68</v>
+      </c>
+      <c r="E247">
+        <v>79</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G247">
+        <v>2.37</v>
+      </c>
+      <c r="H247">
+        <v>0.3</v>
+      </c>
+      <c r="I247" t="s">
+        <v>21</v>
+      </c>
+      <c r="J247">
+        <v>2</v>
+      </c>
+      <c r="K247" t="s">
+        <v>18</v>
+      </c>
+      <c r="L247">
+        <v>6</v>
+      </c>
+      <c r="M247">
+        <v>0.91</v>
+      </c>
+      <c r="N247">
+        <v>72</v>
+      </c>
+      <c r="O247">
+        <v>30</v>
+      </c>
+      <c r="P247">
+        <v>11</v>
+      </c>
+      <c r="Q247">
+        <v>0.98</v>
+      </c>
+      <c r="R247">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S247">
+        <v>46</v>
+      </c>
+      <c r="T247">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248">
+        <v>68</v>
+      </c>
+      <c r="E248">
+        <v>79</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G248">
+        <v>2.37</v>
+      </c>
+      <c r="H248">
+        <v>0.6</v>
+      </c>
+      <c r="I248" t="s">
+        <v>21</v>
+      </c>
+      <c r="J248">
+        <v>3</v>
+      </c>
+      <c r="K248" t="s">
+        <v>18</v>
+      </c>
+      <c r="L248">
+        <v>6</v>
+      </c>
+      <c r="M248">
+        <v>0.91</v>
+      </c>
+      <c r="N248">
+        <v>72</v>
+      </c>
+      <c r="O248">
+        <v>30</v>
+      </c>
+      <c r="P248">
+        <v>11</v>
+      </c>
+      <c r="Q248">
+        <v>0.98</v>
+      </c>
+      <c r="R248">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S248">
+        <v>46</v>
+      </c>
+      <c r="T248">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249">
+        <v>68</v>
+      </c>
+      <c r="E249">
+        <v>79</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G249">
+        <v>2.37</v>
+      </c>
+      <c r="H249">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I249" t="s">
+        <v>21</v>
+      </c>
+      <c r="J249">
+        <v>3</v>
+      </c>
+      <c r="K249" t="s">
+        <v>18</v>
+      </c>
+      <c r="L249">
+        <v>6</v>
+      </c>
+      <c r="M249">
+        <v>0.91</v>
+      </c>
+      <c r="N249">
+        <v>72</v>
+      </c>
+      <c r="O249">
+        <v>30</v>
+      </c>
+      <c r="P249">
+        <v>11</v>
+      </c>
+      <c r="Q249">
+        <v>0.98</v>
+      </c>
+      <c r="R249">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S249">
+        <v>46</v>
+      </c>
+      <c r="T249">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250">
+        <v>68</v>
+      </c>
+      <c r="E250">
+        <v>79</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G250">
+        <v>2.37</v>
+      </c>
+      <c r="H250">
+        <v>0.8</v>
+      </c>
+      <c r="I250" t="s">
+        <v>21</v>
+      </c>
+      <c r="J250">
+        <v>3</v>
+      </c>
+      <c r="K250" t="s">
+        <v>19</v>
+      </c>
+      <c r="L250">
+        <v>6</v>
+      </c>
+      <c r="M250">
+        <v>0.91</v>
+      </c>
+      <c r="N250">
+        <v>72</v>
+      </c>
+      <c r="O250">
+        <v>30</v>
+      </c>
+      <c r="P250">
+        <v>11</v>
+      </c>
+      <c r="Q250">
+        <v>0.98</v>
+      </c>
+      <c r="R250">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S250">
+        <v>46</v>
+      </c>
+      <c r="T250">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251">
+        <v>68</v>
+      </c>
+      <c r="E251">
+        <v>79</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G251">
+        <v>2.37</v>
+      </c>
+      <c r="H251">
+        <v>0.9</v>
+      </c>
+      <c r="I251" t="s">
+        <v>21</v>
+      </c>
+      <c r="J251">
+        <v>3</v>
+      </c>
+      <c r="K251" t="s">
+        <v>19</v>
+      </c>
+      <c r="L251">
+        <v>6</v>
+      </c>
+      <c r="M251">
+        <v>0.91</v>
+      </c>
+      <c r="N251">
+        <v>72</v>
+      </c>
+      <c r="O251">
+        <v>30</v>
+      </c>
+      <c r="P251">
+        <v>11</v>
+      </c>
+      <c r="Q251">
+        <v>0.98</v>
+      </c>
+      <c r="R251">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S251">
+        <v>46</v>
+      </c>
+      <c r="T251">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252">
+        <v>68</v>
+      </c>
+      <c r="E252">
+        <v>79</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G252">
+        <v>2.37</v>
+      </c>
+      <c r="H252">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I252" t="s">
+        <v>21</v>
+      </c>
+      <c r="J252">
+        <v>4</v>
+      </c>
+      <c r="K252" t="s">
+        <v>20</v>
+      </c>
+      <c r="L252">
+        <v>6</v>
+      </c>
+      <c r="M252">
+        <v>0.91</v>
+      </c>
+      <c r="N252">
+        <v>72</v>
+      </c>
+      <c r="O252">
+        <v>30</v>
+      </c>
+      <c r="P252">
+        <v>11</v>
+      </c>
+      <c r="Q252">
+        <v>0.98</v>
+      </c>
+      <c r="R252">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S252">
+        <v>46</v>
+      </c>
+      <c r="T252">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253">
+        <v>68</v>
+      </c>
+      <c r="E253">
+        <v>79</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G253">
+        <v>2.37</v>
+      </c>
+      <c r="H253">
+        <v>4</v>
+      </c>
+      <c r="I253" t="s">
+        <v>21</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253" t="s">
+        <v>20</v>
+      </c>
+      <c r="L253">
+        <v>6</v>
+      </c>
+      <c r="M253">
+        <v>0.91</v>
+      </c>
+      <c r="N253">
+        <v>72</v>
+      </c>
+      <c r="O253">
+        <v>30</v>
+      </c>
+      <c r="P253">
+        <v>11</v>
+      </c>
+      <c r="Q253">
+        <v>0.98</v>
+      </c>
+      <c r="R253">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S253">
+        <v>46</v>
+      </c>
+      <c r="T253">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254">
+        <v>64</v>
+      </c>
+      <c r="E254">
+        <v>77</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G254">
+        <v>2.37</v>
+      </c>
+      <c r="H254">
+        <v>0.25</v>
+      </c>
+      <c r="I254" t="s">
+        <v>21</v>
+      </c>
+      <c r="J254">
+        <v>2</v>
+      </c>
+      <c r="K254" t="s">
+        <v>18</v>
+      </c>
+      <c r="L254">
+        <v>5</v>
+      </c>
+      <c r="M254">
+        <v>0.85</v>
+      </c>
+      <c r="N254">
+        <v>71</v>
+      </c>
+      <c r="O254">
+        <v>30</v>
+      </c>
+      <c r="P254">
+        <v>11</v>
+      </c>
+      <c r="Q254">
+        <v>0.94</v>
+      </c>
+      <c r="R254">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S254">
+        <v>46</v>
+      </c>
+      <c r="T254">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255">
+        <v>64</v>
+      </c>
+      <c r="E255">
+        <v>77</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G255">
+        <v>2.37</v>
+      </c>
+      <c r="H255">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I255" t="s">
+        <v>21</v>
+      </c>
+      <c r="J255">
+        <v>3</v>
+      </c>
+      <c r="K255" t="s">
+        <v>18</v>
+      </c>
+      <c r="L255">
+        <v>5</v>
+      </c>
+      <c r="M255">
+        <v>0.85</v>
+      </c>
+      <c r="N255">
+        <v>71</v>
+      </c>
+      <c r="O255">
+        <v>30</v>
+      </c>
+      <c r="P255">
+        <v>11</v>
+      </c>
+      <c r="Q255">
+        <v>0.94</v>
+      </c>
+      <c r="R255">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S255">
+        <v>46</v>
+      </c>
+      <c r="T255">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256">
+        <v>64</v>
+      </c>
+      <c r="E256">
+        <v>77</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G256">
+        <v>2.37</v>
+      </c>
+      <c r="H256">
+        <v>0.6</v>
+      </c>
+      <c r="I256" t="s">
+        <v>21</v>
+      </c>
+      <c r="J256">
+        <v>3</v>
+      </c>
+      <c r="K256" t="s">
+        <v>19</v>
+      </c>
+      <c r="L256">
+        <v>5</v>
+      </c>
+      <c r="M256">
+        <v>0.85</v>
+      </c>
+      <c r="N256">
+        <v>71</v>
+      </c>
+      <c r="O256">
+        <v>30</v>
+      </c>
+      <c r="P256">
+        <v>11</v>
+      </c>
+      <c r="Q256">
+        <v>0.94</v>
+      </c>
+      <c r="R256">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S256">
+        <v>46</v>
+      </c>
+      <c r="T256">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257">
+        <v>77</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G257">
+        <v>2.37</v>
+      </c>
+      <c r="H257">
+        <v>0.75</v>
+      </c>
+      <c r="I257" t="s">
+        <v>21</v>
+      </c>
+      <c r="J257">
+        <v>3</v>
+      </c>
+      <c r="K257" t="s">
+        <v>19</v>
+      </c>
+      <c r="L257">
+        <v>5</v>
+      </c>
+      <c r="M257">
+        <v>0.85</v>
+      </c>
+      <c r="N257">
+        <v>71</v>
+      </c>
+      <c r="O257">
+        <v>30</v>
+      </c>
+      <c r="P257">
+        <v>11</v>
+      </c>
+      <c r="Q257">
+        <v>0.94</v>
+      </c>
+      <c r="R257">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S257">
+        <v>46</v>
+      </c>
+      <c r="T257">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258">
+        <v>64</v>
+      </c>
+      <c r="E258">
+        <v>77</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G258">
+        <v>2.37</v>
+      </c>
+      <c r="H258">
+        <v>0.8</v>
+      </c>
+      <c r="I258" t="s">
+        <v>21</v>
+      </c>
+      <c r="J258">
+        <v>3</v>
+      </c>
+      <c r="K258" t="s">
+        <v>19</v>
+      </c>
+      <c r="L258">
+        <v>5</v>
+      </c>
+      <c r="M258">
+        <v>0.85</v>
+      </c>
+      <c r="N258">
+        <v>71</v>
+      </c>
+      <c r="O258">
+        <v>30</v>
+      </c>
+      <c r="P258">
+        <v>11</v>
+      </c>
+      <c r="Q258">
+        <v>0.94</v>
+      </c>
+      <c r="R258">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S258">
+        <v>46</v>
+      </c>
+      <c r="T258">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259">
+        <v>64</v>
+      </c>
+      <c r="E259">
+        <v>77</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G259">
+        <v>2.37</v>
+      </c>
+      <c r="H259">
+        <v>2</v>
+      </c>
+      <c r="I259" t="s">
+        <v>21</v>
+      </c>
+      <c r="J259">
+        <v>4</v>
+      </c>
+      <c r="K259" t="s">
+        <v>18</v>
+      </c>
+      <c r="L259">
+        <v>5</v>
+      </c>
+      <c r="M259">
+        <v>0.85</v>
+      </c>
+      <c r="N259">
+        <v>71</v>
+      </c>
+      <c r="O259">
+        <v>30</v>
+      </c>
+      <c r="P259">
+        <v>11</v>
+      </c>
+      <c r="Q259">
+        <v>0.94</v>
+      </c>
+      <c r="R259">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S259">
+        <v>46</v>
+      </c>
+      <c r="T259">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260">
+        <v>64</v>
+      </c>
+      <c r="E260">
+        <v>77</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G260">
+        <v>2.37</v>
+      </c>
+      <c r="H260">
+        <v>4.5</v>
+      </c>
+      <c r="I260" t="s">
+        <v>21</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260" t="s">
+        <v>19</v>
+      </c>
+      <c r="L260">
+        <v>5</v>
+      </c>
+      <c r="M260">
+        <v>0.85</v>
+      </c>
+      <c r="N260">
+        <v>71</v>
+      </c>
+      <c r="O260">
+        <v>30</v>
+      </c>
+      <c r="P260">
+        <v>11</v>
+      </c>
+      <c r="Q260">
+        <v>0.94</v>
+      </c>
+      <c r="R260">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S260">
+        <v>46</v>
+      </c>
+      <c r="T260">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E3ED8-D54A-4E16-B44D-681F2ECBA197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9A108-80AA-49B7-88D3-9BDC9ADAC8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U260"/>
+  <dimension ref="A1:U267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
@@ -14270,7 +14270,7 @@
         <v>75</v>
       </c>
       <c r="F219">
-        <f t="shared" ref="F219:F260" si="5">ABS(D219-E219)</f>
+        <f t="shared" ref="F219:F267" si="5">ABS(D219-E219)</f>
         <v>20</v>
       </c>
       <c r="G219">
@@ -16897,6 +16897,447 @@
       </c>
       <c r="T260">
         <v>40</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" t="s">
+        <v>11</v>
+      </c>
+      <c r="D261">
+        <v>67</v>
+      </c>
+      <c r="E261">
+        <v>74</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G261">
+        <v>0.49</v>
+      </c>
+      <c r="H261">
+        <v>0.1</v>
+      </c>
+      <c r="I261" t="s">
+        <v>21</v>
+      </c>
+      <c r="J261">
+        <v>2</v>
+      </c>
+      <c r="K261" t="s">
+        <v>19</v>
+      </c>
+      <c r="L261">
+        <v>4</v>
+      </c>
+      <c r="M261">
+        <v>0.85</v>
+      </c>
+      <c r="N261">
+        <v>69</v>
+      </c>
+      <c r="O261">
+        <v>30.01</v>
+      </c>
+      <c r="P261">
+        <v>5</v>
+      </c>
+      <c r="Q261">
+        <v>0.81</v>
+      </c>
+      <c r="R261">
+        <v>9.9</v>
+      </c>
+      <c r="S261">
+        <v>22</v>
+      </c>
+      <c r="T261">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262">
+        <v>67</v>
+      </c>
+      <c r="E262">
+        <v>74</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G262">
+        <v>0.49</v>
+      </c>
+      <c r="H262">
+        <v>0.1</v>
+      </c>
+      <c r="I262" t="s">
+        <v>21</v>
+      </c>
+      <c r="J262">
+        <v>3</v>
+      </c>
+      <c r="K262" t="s">
+        <v>19</v>
+      </c>
+      <c r="L262">
+        <v>4</v>
+      </c>
+      <c r="M262">
+        <v>0.85</v>
+      </c>
+      <c r="N262">
+        <v>69</v>
+      </c>
+      <c r="O262">
+        <v>30.01</v>
+      </c>
+      <c r="P262">
+        <v>5</v>
+      </c>
+      <c r="Q262">
+        <v>0.81</v>
+      </c>
+      <c r="R262">
+        <v>9.9</v>
+      </c>
+      <c r="S262">
+        <v>22</v>
+      </c>
+      <c r="T262">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263">
+        <v>67</v>
+      </c>
+      <c r="E263">
+        <v>74</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G263">
+        <v>0.49</v>
+      </c>
+      <c r="H263">
+        <v>0.2</v>
+      </c>
+      <c r="I263" t="s">
+        <v>21</v>
+      </c>
+      <c r="J263">
+        <v>3</v>
+      </c>
+      <c r="K263" t="s">
+        <v>19</v>
+      </c>
+      <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>0.85</v>
+      </c>
+      <c r="N263">
+        <v>69</v>
+      </c>
+      <c r="O263">
+        <v>30.01</v>
+      </c>
+      <c r="P263">
+        <v>5</v>
+      </c>
+      <c r="Q263">
+        <v>0.81</v>
+      </c>
+      <c r="R263">
+        <v>9.9</v>
+      </c>
+      <c r="S263">
+        <v>22</v>
+      </c>
+      <c r="T263">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B264" t="s">
+        <v>9</v>
+      </c>
+      <c r="C264" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264">
+        <v>67</v>
+      </c>
+      <c r="E264">
+        <v>74</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G264">
+        <v>0.49</v>
+      </c>
+      <c r="H264">
+        <v>0.3</v>
+      </c>
+      <c r="I264" t="s">
+        <v>21</v>
+      </c>
+      <c r="J264">
+        <v>3</v>
+      </c>
+      <c r="K264" t="s">
+        <v>20</v>
+      </c>
+      <c r="L264">
+        <v>4</v>
+      </c>
+      <c r="M264">
+        <v>0.85</v>
+      </c>
+      <c r="N264">
+        <v>69</v>
+      </c>
+      <c r="O264">
+        <v>30.01</v>
+      </c>
+      <c r="P264">
+        <v>5</v>
+      </c>
+      <c r="Q264">
+        <v>0.81</v>
+      </c>
+      <c r="R264">
+        <v>9.9</v>
+      </c>
+      <c r="S264">
+        <v>22</v>
+      </c>
+      <c r="T264">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265">
+        <v>67</v>
+      </c>
+      <c r="E265">
+        <v>74</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G265">
+        <v>0.49</v>
+      </c>
+      <c r="H265">
+        <v>0.25</v>
+      </c>
+      <c r="I265" t="s">
+        <v>21</v>
+      </c>
+      <c r="J265">
+        <v>3</v>
+      </c>
+      <c r="K265" t="s">
+        <v>20</v>
+      </c>
+      <c r="L265">
+        <v>4</v>
+      </c>
+      <c r="M265">
+        <v>0.85</v>
+      </c>
+      <c r="N265">
+        <v>69</v>
+      </c>
+      <c r="O265">
+        <v>30.01</v>
+      </c>
+      <c r="P265">
+        <v>5</v>
+      </c>
+      <c r="Q265">
+        <v>0.81</v>
+      </c>
+      <c r="R265">
+        <v>9.9</v>
+      </c>
+      <c r="S265">
+        <v>22</v>
+      </c>
+      <c r="T265">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" t="s">
+        <v>11</v>
+      </c>
+      <c r="D266">
+        <v>67</v>
+      </c>
+      <c r="E266">
+        <v>74</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G266">
+        <v>0.49</v>
+      </c>
+      <c r="H266">
+        <v>0.25</v>
+      </c>
+      <c r="I266" t="s">
+        <v>21</v>
+      </c>
+      <c r="J266">
+        <v>4</v>
+      </c>
+      <c r="K266" t="s">
+        <v>19</v>
+      </c>
+      <c r="L266">
+        <v>4</v>
+      </c>
+      <c r="M266">
+        <v>0.85</v>
+      </c>
+      <c r="N266">
+        <v>69</v>
+      </c>
+      <c r="O266">
+        <v>30.01</v>
+      </c>
+      <c r="P266">
+        <v>5</v>
+      </c>
+      <c r="Q266">
+        <v>0.81</v>
+      </c>
+      <c r="R266">
+        <v>9.9</v>
+      </c>
+      <c r="S266">
+        <v>22</v>
+      </c>
+      <c r="T266">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B267" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267">
+        <v>67</v>
+      </c>
+      <c r="E267">
+        <v>74</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G267">
+        <v>0.49</v>
+      </c>
+      <c r="H267">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I267" t="s">
+        <v>21</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267" t="s">
+        <v>18</v>
+      </c>
+      <c r="L267">
+        <v>4</v>
+      </c>
+      <c r="M267">
+        <v>0.85</v>
+      </c>
+      <c r="N267">
+        <v>69</v>
+      </c>
+      <c r="O267">
+        <v>30.01</v>
+      </c>
+      <c r="P267">
+        <v>5</v>
+      </c>
+      <c r="Q267">
+        <v>0.81</v>
+      </c>
+      <c r="R267">
+        <v>9.9</v>
+      </c>
+      <c r="S267">
+        <v>22</v>
+      </c>
+      <c r="T267">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9A108-80AA-49B7-88D3-9BDC9ADAC8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA0ED67-4B08-4EFC-84F0-65CBC344D2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U267"/>
+  <dimension ref="A1:U274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
@@ -14270,7 +14270,7 @@
         <v>75</v>
       </c>
       <c r="F219">
-        <f t="shared" ref="F219:F267" si="5">ABS(D219-E219)</f>
+        <f t="shared" ref="F219:F274" si="5">ABS(D219-E219)</f>
         <v>20</v>
       </c>
       <c r="G219">
@@ -17338,6 +17338,447 @@
       </c>
       <c r="T267">
         <v>39</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B268" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" t="s">
+        <v>11</v>
+      </c>
+      <c r="D268">
+        <v>70</v>
+      </c>
+      <c r="E268">
+        <v>77</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G268">
+        <v>2.52</v>
+      </c>
+      <c r="H268">
+        <v>0.3</v>
+      </c>
+      <c r="I268" t="s">
+        <v>21</v>
+      </c>
+      <c r="J268">
+        <v>2</v>
+      </c>
+      <c r="K268" t="s">
+        <v>19</v>
+      </c>
+      <c r="L268">
+        <v>8</v>
+      </c>
+      <c r="M268">
+        <v>0.84</v>
+      </c>
+      <c r="N268">
+        <v>72</v>
+      </c>
+      <c r="O268">
+        <v>29.88</v>
+      </c>
+      <c r="P268">
+        <v>8</v>
+      </c>
+      <c r="Q268">
+        <v>0.76</v>
+      </c>
+      <c r="R268">
+        <v>9.9</v>
+      </c>
+      <c r="S268">
+        <v>31</v>
+      </c>
+      <c r="T268">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B269" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269">
+        <v>70</v>
+      </c>
+      <c r="E269">
+        <v>77</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G269">
+        <v>2.52</v>
+      </c>
+      <c r="H269">
+        <v>0.6</v>
+      </c>
+      <c r="I269" t="s">
+        <v>21</v>
+      </c>
+      <c r="J269">
+        <v>3</v>
+      </c>
+      <c r="K269" t="s">
+        <v>18</v>
+      </c>
+      <c r="L269">
+        <v>8</v>
+      </c>
+      <c r="M269">
+        <v>0.84</v>
+      </c>
+      <c r="N269">
+        <v>72</v>
+      </c>
+      <c r="O269">
+        <v>29.88</v>
+      </c>
+      <c r="P269">
+        <v>8</v>
+      </c>
+      <c r="Q269">
+        <v>0.76</v>
+      </c>
+      <c r="R269">
+        <v>9.9</v>
+      </c>
+      <c r="S269">
+        <v>31</v>
+      </c>
+      <c r="T269">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B270" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270">
+        <v>70</v>
+      </c>
+      <c r="E270">
+        <v>77</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G270">
+        <v>2.52</v>
+      </c>
+      <c r="H270">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I270" t="s">
+        <v>21</v>
+      </c>
+      <c r="J270">
+        <v>3</v>
+      </c>
+      <c r="K270" t="s">
+        <v>19</v>
+      </c>
+      <c r="L270">
+        <v>8</v>
+      </c>
+      <c r="M270">
+        <v>0.84</v>
+      </c>
+      <c r="N270">
+        <v>72</v>
+      </c>
+      <c r="O270">
+        <v>29.88</v>
+      </c>
+      <c r="P270">
+        <v>8</v>
+      </c>
+      <c r="Q270">
+        <v>0.76</v>
+      </c>
+      <c r="R270">
+        <v>9.9</v>
+      </c>
+      <c r="S270">
+        <v>31</v>
+      </c>
+      <c r="T270">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271">
+        <v>70</v>
+      </c>
+      <c r="E271">
+        <v>77</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G271">
+        <v>2.52</v>
+      </c>
+      <c r="H271">
+        <v>0.8</v>
+      </c>
+      <c r="I271" t="s">
+        <v>21</v>
+      </c>
+      <c r="J271">
+        <v>3</v>
+      </c>
+      <c r="K271" t="s">
+        <v>18</v>
+      </c>
+      <c r="L271">
+        <v>8</v>
+      </c>
+      <c r="M271">
+        <v>0.84</v>
+      </c>
+      <c r="N271">
+        <v>72</v>
+      </c>
+      <c r="O271">
+        <v>29.88</v>
+      </c>
+      <c r="P271">
+        <v>8</v>
+      </c>
+      <c r="Q271">
+        <v>0.76</v>
+      </c>
+      <c r="R271">
+        <v>9.9</v>
+      </c>
+      <c r="S271">
+        <v>31</v>
+      </c>
+      <c r="T271">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B272" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272">
+        <v>70</v>
+      </c>
+      <c r="E272">
+        <v>77</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G272">
+        <v>2.52</v>
+      </c>
+      <c r="H272">
+        <v>0.75</v>
+      </c>
+      <c r="I272" t="s">
+        <v>21</v>
+      </c>
+      <c r="J272">
+        <v>3</v>
+      </c>
+      <c r="K272" t="s">
+        <v>20</v>
+      </c>
+      <c r="L272">
+        <v>8</v>
+      </c>
+      <c r="M272">
+        <v>0.84</v>
+      </c>
+      <c r="N272">
+        <v>72</v>
+      </c>
+      <c r="O272">
+        <v>29.88</v>
+      </c>
+      <c r="P272">
+        <v>8</v>
+      </c>
+      <c r="Q272">
+        <v>0.76</v>
+      </c>
+      <c r="R272">
+        <v>9.9</v>
+      </c>
+      <c r="S272">
+        <v>31</v>
+      </c>
+      <c r="T272">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273">
+        <v>70</v>
+      </c>
+      <c r="E273">
+        <v>77</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G273">
+        <v>2.52</v>
+      </c>
+      <c r="H273">
+        <v>2</v>
+      </c>
+      <c r="I273" t="s">
+        <v>21</v>
+      </c>
+      <c r="J273">
+        <v>4</v>
+      </c>
+      <c r="K273" t="s">
+        <v>19</v>
+      </c>
+      <c r="L273">
+        <v>8</v>
+      </c>
+      <c r="M273">
+        <v>0.84</v>
+      </c>
+      <c r="N273">
+        <v>72</v>
+      </c>
+      <c r="O273">
+        <v>29.88</v>
+      </c>
+      <c r="P273">
+        <v>8</v>
+      </c>
+      <c r="Q273">
+        <v>0.76</v>
+      </c>
+      <c r="R273">
+        <v>9.9</v>
+      </c>
+      <c r="S273">
+        <v>31</v>
+      </c>
+      <c r="T273">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B274" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274">
+        <v>70</v>
+      </c>
+      <c r="E274">
+        <v>77</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G274">
+        <v>2.52</v>
+      </c>
+      <c r="H274">
+        <v>5</v>
+      </c>
+      <c r="I274" t="s">
+        <v>21</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274" t="s">
+        <v>19</v>
+      </c>
+      <c r="L274">
+        <v>8</v>
+      </c>
+      <c r="M274">
+        <v>0.84</v>
+      </c>
+      <c r="N274">
+        <v>72</v>
+      </c>
+      <c r="O274">
+        <v>29.88</v>
+      </c>
+      <c r="P274">
+        <v>8</v>
+      </c>
+      <c r="Q274">
+        <v>0.76</v>
+      </c>
+      <c r="R274">
+        <v>9.9</v>
+      </c>
+      <c r="S274">
+        <v>31</v>
+      </c>
+      <c r="T274">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA0ED67-4B08-4EFC-84F0-65CBC344D2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19998D4-57E1-4A0F-8413-562459F37F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U274"/>
+  <dimension ref="A1:U288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14270,7 +14270,7 @@
         <v>75</v>
       </c>
       <c r="F219">
-        <f t="shared" ref="F219:F274" si="5">ABS(D219-E219)</f>
+        <f t="shared" ref="F219:F282" si="5">ABS(D219-E219)</f>
         <v>20</v>
       </c>
       <c r="G219">
@@ -17779,6 +17779,889 @@
       </c>
       <c r="T274">
         <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B275" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275">
+        <v>69</v>
+      </c>
+      <c r="E275">
+        <v>82</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G275">
+        <v>3.75</v>
+      </c>
+      <c r="H275">
+        <v>0.6</v>
+      </c>
+      <c r="I275" t="s">
+        <v>21</v>
+      </c>
+      <c r="J275">
+        <v>2</v>
+      </c>
+      <c r="K275" t="s">
+        <v>18</v>
+      </c>
+      <c r="L275">
+        <v>8</v>
+      </c>
+      <c r="M275">
+        <v>0.82</v>
+      </c>
+      <c r="N275">
+        <v>66</v>
+      </c>
+      <c r="O275">
+        <v>29.85</v>
+      </c>
+      <c r="P275">
+        <v>12</v>
+      </c>
+      <c r="Q275">
+        <v>0.85</v>
+      </c>
+      <c r="R275">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S275">
+        <v>35</v>
+      </c>
+      <c r="T275">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276">
+        <v>69</v>
+      </c>
+      <c r="E276">
+        <v>82</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G276">
+        <v>3.75</v>
+      </c>
+      <c r="H276">
+        <v>0.9</v>
+      </c>
+      <c r="I276" t="s">
+        <v>21</v>
+      </c>
+      <c r="J276">
+        <v>3</v>
+      </c>
+      <c r="K276" t="s">
+        <v>18</v>
+      </c>
+      <c r="L276">
+        <v>8</v>
+      </c>
+      <c r="M276">
+        <v>0.82</v>
+      </c>
+      <c r="N276">
+        <v>66</v>
+      </c>
+      <c r="O276">
+        <v>29.85</v>
+      </c>
+      <c r="P276">
+        <v>12</v>
+      </c>
+      <c r="Q276">
+        <v>0.85</v>
+      </c>
+      <c r="R276">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S276">
+        <v>35</v>
+      </c>
+      <c r="T276">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B277" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277">
+        <v>69</v>
+      </c>
+      <c r="E277">
+        <v>82</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G277">
+        <v>3.75</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277" t="s">
+        <v>21</v>
+      </c>
+      <c r="J277">
+        <v>3</v>
+      </c>
+      <c r="K277" t="s">
+        <v>18</v>
+      </c>
+      <c r="L277">
+        <v>8</v>
+      </c>
+      <c r="M277">
+        <v>0.82</v>
+      </c>
+      <c r="N277">
+        <v>66</v>
+      </c>
+      <c r="O277">
+        <v>29.85</v>
+      </c>
+      <c r="P277">
+        <v>12</v>
+      </c>
+      <c r="Q277">
+        <v>0.85</v>
+      </c>
+      <c r="R277">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S277">
+        <v>35</v>
+      </c>
+      <c r="T277">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278">
+        <v>69</v>
+      </c>
+      <c r="E278">
+        <v>82</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G278">
+        <v>3.75</v>
+      </c>
+      <c r="H278">
+        <v>1.5</v>
+      </c>
+      <c r="I278" t="s">
+        <v>21</v>
+      </c>
+      <c r="J278">
+        <v>3</v>
+      </c>
+      <c r="K278" t="s">
+        <v>18</v>
+      </c>
+      <c r="L278">
+        <v>8</v>
+      </c>
+      <c r="M278">
+        <v>0.82</v>
+      </c>
+      <c r="N278">
+        <v>66</v>
+      </c>
+      <c r="O278">
+        <v>29.85</v>
+      </c>
+      <c r="P278">
+        <v>12</v>
+      </c>
+      <c r="Q278">
+        <v>0.85</v>
+      </c>
+      <c r="R278">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S278">
+        <v>35</v>
+      </c>
+      <c r="T278">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279">
+        <v>69</v>
+      </c>
+      <c r="E279">
+        <v>82</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G279">
+        <v>3.75</v>
+      </c>
+      <c r="H279">
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I279" t="s">
+        <v>21</v>
+      </c>
+      <c r="J279">
+        <v>3</v>
+      </c>
+      <c r="K279" t="s">
+        <v>18</v>
+      </c>
+      <c r="L279">
+        <v>8</v>
+      </c>
+      <c r="M279">
+        <v>0.82</v>
+      </c>
+      <c r="N279">
+        <v>66</v>
+      </c>
+      <c r="O279">
+        <v>29.85</v>
+      </c>
+      <c r="P279">
+        <v>12</v>
+      </c>
+      <c r="Q279">
+        <v>0.85</v>
+      </c>
+      <c r="R279">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S279">
+        <v>35</v>
+      </c>
+      <c r="T279">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" t="s">
+        <v>11</v>
+      </c>
+      <c r="D280">
+        <v>69</v>
+      </c>
+      <c r="E280">
+        <v>82</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G280">
+        <v>3.75</v>
+      </c>
+      <c r="H280">
+        <v>4</v>
+      </c>
+      <c r="I280" t="s">
+        <v>21</v>
+      </c>
+      <c r="J280">
+        <v>4</v>
+      </c>
+      <c r="K280" t="s">
+        <v>18</v>
+      </c>
+      <c r="L280">
+        <v>8</v>
+      </c>
+      <c r="M280">
+        <v>0.82</v>
+      </c>
+      <c r="N280">
+        <v>66</v>
+      </c>
+      <c r="O280">
+        <v>29.85</v>
+      </c>
+      <c r="P280">
+        <v>12</v>
+      </c>
+      <c r="Q280">
+        <v>0.85</v>
+      </c>
+      <c r="R280">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S280">
+        <v>35</v>
+      </c>
+      <c r="T280">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B281" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281">
+        <v>69</v>
+      </c>
+      <c r="E281">
+        <v>82</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G281">
+        <v>3.75</v>
+      </c>
+      <c r="H281">
+        <v>5.6</v>
+      </c>
+      <c r="I281" t="s">
+        <v>21</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281" t="s">
+        <v>18</v>
+      </c>
+      <c r="L281">
+        <v>8</v>
+      </c>
+      <c r="M281">
+        <v>0.82</v>
+      </c>
+      <c r="N281">
+        <v>66</v>
+      </c>
+      <c r="O281">
+        <v>29.85</v>
+      </c>
+      <c r="P281">
+        <v>12</v>
+      </c>
+      <c r="Q281">
+        <v>0.85</v>
+      </c>
+      <c r="R281">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S281">
+        <v>35</v>
+      </c>
+      <c r="T281">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B282" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" t="s">
+        <v>11</v>
+      </c>
+      <c r="D282">
+        <v>58</v>
+      </c>
+      <c r="E282">
+        <v>78</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G282">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H282">
+        <v>0.1</v>
+      </c>
+      <c r="I282" t="s">
+        <v>21</v>
+      </c>
+      <c r="J282">
+        <v>2</v>
+      </c>
+      <c r="K282" t="s">
+        <v>18</v>
+      </c>
+      <c r="L282">
+        <v>8</v>
+      </c>
+      <c r="M282">
+        <v>0.82</v>
+      </c>
+      <c r="N282">
+        <v>66</v>
+      </c>
+      <c r="O282">
+        <v>29.76</v>
+      </c>
+      <c r="P282">
+        <v>27</v>
+      </c>
+      <c r="Q282">
+        <v>0.9</v>
+      </c>
+      <c r="R282">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S282">
+        <v>37</v>
+      </c>
+      <c r="T282">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B283" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283">
+        <v>58</v>
+      </c>
+      <c r="E283">
+        <v>78</v>
+      </c>
+      <c r="F283">
+        <f t="shared" ref="F283:F288" si="6">ABS(D283-E283)</f>
+        <v>20</v>
+      </c>
+      <c r="G283">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H283">
+        <v>0.25</v>
+      </c>
+      <c r="I283" t="s">
+        <v>21</v>
+      </c>
+      <c r="J283">
+        <v>3</v>
+      </c>
+      <c r="K283" t="s">
+        <v>18</v>
+      </c>
+      <c r="L283">
+        <v>8</v>
+      </c>
+      <c r="M283">
+        <v>0.82</v>
+      </c>
+      <c r="N283">
+        <v>66</v>
+      </c>
+      <c r="O283">
+        <v>29.76</v>
+      </c>
+      <c r="P283">
+        <v>27</v>
+      </c>
+      <c r="Q283">
+        <v>0.9</v>
+      </c>
+      <c r="R283">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S283">
+        <v>37</v>
+      </c>
+      <c r="T283">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" t="s">
+        <v>13</v>
+      </c>
+      <c r="D284">
+        <v>58</v>
+      </c>
+      <c r="E284">
+        <v>78</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G284">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H284">
+        <v>0.4</v>
+      </c>
+      <c r="I284" t="s">
+        <v>21</v>
+      </c>
+      <c r="J284">
+        <v>3</v>
+      </c>
+      <c r="K284" t="s">
+        <v>18</v>
+      </c>
+      <c r="L284">
+        <v>8</v>
+      </c>
+      <c r="M284">
+        <v>0.82</v>
+      </c>
+      <c r="N284">
+        <v>66</v>
+      </c>
+      <c r="O284">
+        <v>29.76</v>
+      </c>
+      <c r="P284">
+        <v>27</v>
+      </c>
+      <c r="Q284">
+        <v>0.9</v>
+      </c>
+      <c r="R284">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S284">
+        <v>37</v>
+      </c>
+      <c r="T284">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B285" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285">
+        <v>58</v>
+      </c>
+      <c r="E285">
+        <v>78</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G285">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H285">
+        <v>0.65</v>
+      </c>
+      <c r="I285" t="s">
+        <v>21</v>
+      </c>
+      <c r="J285">
+        <v>3</v>
+      </c>
+      <c r="K285" t="s">
+        <v>18</v>
+      </c>
+      <c r="L285">
+        <v>8</v>
+      </c>
+      <c r="M285">
+        <v>0.82</v>
+      </c>
+      <c r="N285">
+        <v>66</v>
+      </c>
+      <c r="O285">
+        <v>29.76</v>
+      </c>
+      <c r="P285">
+        <v>27</v>
+      </c>
+      <c r="Q285">
+        <v>0.9</v>
+      </c>
+      <c r="R285">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S285">
+        <v>37</v>
+      </c>
+      <c r="T285">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B286" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286">
+        <v>58</v>
+      </c>
+      <c r="E286">
+        <v>78</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G286">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H286">
+        <v>0.7</v>
+      </c>
+      <c r="I286" t="s">
+        <v>21</v>
+      </c>
+      <c r="J286">
+        <v>3</v>
+      </c>
+      <c r="K286" t="s">
+        <v>18</v>
+      </c>
+      <c r="L286">
+        <v>8</v>
+      </c>
+      <c r="M286">
+        <v>0.82</v>
+      </c>
+      <c r="N286">
+        <v>66</v>
+      </c>
+      <c r="O286">
+        <v>29.76</v>
+      </c>
+      <c r="P286">
+        <v>27</v>
+      </c>
+      <c r="Q286">
+        <v>0.9</v>
+      </c>
+      <c r="R286">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S286">
+        <v>37</v>
+      </c>
+      <c r="T286">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B287" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" t="s">
+        <v>11</v>
+      </c>
+      <c r="D287">
+        <v>58</v>
+      </c>
+      <c r="E287">
+        <v>78</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G287">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H287">
+        <v>1.5</v>
+      </c>
+      <c r="I287" t="s">
+        <v>21</v>
+      </c>
+      <c r="J287">
+        <v>4</v>
+      </c>
+      <c r="K287" t="s">
+        <v>18</v>
+      </c>
+      <c r="L287">
+        <v>8</v>
+      </c>
+      <c r="M287">
+        <v>0.82</v>
+      </c>
+      <c r="N287">
+        <v>66</v>
+      </c>
+      <c r="O287">
+        <v>29.76</v>
+      </c>
+      <c r="P287">
+        <v>27</v>
+      </c>
+      <c r="Q287">
+        <v>0.9</v>
+      </c>
+      <c r="R287">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S287">
+        <v>37</v>
+      </c>
+      <c r="T287">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288">
+        <v>58</v>
+      </c>
+      <c r="E288">
+        <v>78</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G288">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H288">
+        <v>3</v>
+      </c>
+      <c r="I288" t="s">
+        <v>21</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288" t="s">
+        <v>18</v>
+      </c>
+      <c r="L288">
+        <v>8</v>
+      </c>
+      <c r="M288">
+        <v>0.82</v>
+      </c>
+      <c r="N288">
+        <v>66</v>
+      </c>
+      <c r="O288">
+        <v>29.76</v>
+      </c>
+      <c r="P288">
+        <v>27</v>
+      </c>
+      <c r="Q288">
+        <v>0.9</v>
+      </c>
+      <c r="R288">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S288">
+        <v>37</v>
+      </c>
+      <c r="T288">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19998D4-57E1-4A0F-8413-562459F37F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600A45E-8840-4AC9-81EA-38B062BFEFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U288"/>
+  <dimension ref="A1:U309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18303,7 +18303,7 @@
         <v>78</v>
       </c>
       <c r="F283">
-        <f t="shared" ref="F283:F288" si="6">ABS(D283-E283)</f>
+        <f t="shared" ref="F283:F309" si="6">ABS(D283-E283)</f>
         <v>20</v>
       </c>
       <c r="G283">
@@ -18662,6 +18662,1329 @@
       </c>
       <c r="T288">
         <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B289" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289">
+        <v>70</v>
+      </c>
+      <c r="E289">
+        <v>85</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289" t="s">
+        <v>21</v>
+      </c>
+      <c r="J289">
+        <v>2</v>
+      </c>
+      <c r="K289" t="s">
+        <v>20</v>
+      </c>
+      <c r="L289">
+        <v>7</v>
+      </c>
+      <c r="M289">
+        <v>0.65</v>
+      </c>
+      <c r="N289">
+        <v>70</v>
+      </c>
+      <c r="O289">
+        <v>29.98</v>
+      </c>
+      <c r="P289">
+        <v>5</v>
+      </c>
+      <c r="Q289">
+        <v>0.2</v>
+      </c>
+      <c r="R289">
+        <v>9.9</v>
+      </c>
+      <c r="S289">
+        <v>50</v>
+      </c>
+      <c r="T289">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290">
+        <v>70</v>
+      </c>
+      <c r="E290">
+        <v>85</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0.1</v>
+      </c>
+      <c r="I290" t="s">
+        <v>21</v>
+      </c>
+      <c r="J290">
+        <v>3</v>
+      </c>
+      <c r="K290" t="s">
+        <v>19</v>
+      </c>
+      <c r="L290">
+        <v>7</v>
+      </c>
+      <c r="M290">
+        <v>0.65</v>
+      </c>
+      <c r="N290">
+        <v>70</v>
+      </c>
+      <c r="O290">
+        <v>29.98</v>
+      </c>
+      <c r="P290">
+        <v>5</v>
+      </c>
+      <c r="Q290">
+        <v>0.2</v>
+      </c>
+      <c r="R290">
+        <v>9.9</v>
+      </c>
+      <c r="S290">
+        <v>50</v>
+      </c>
+      <c r="T290">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291">
+        <v>70</v>
+      </c>
+      <c r="E291">
+        <v>85</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0.2</v>
+      </c>
+      <c r="I291" t="s">
+        <v>21</v>
+      </c>
+      <c r="J291">
+        <v>3</v>
+      </c>
+      <c r="K291" t="s">
+        <v>19</v>
+      </c>
+      <c r="L291">
+        <v>7</v>
+      </c>
+      <c r="M291">
+        <v>0.65</v>
+      </c>
+      <c r="N291">
+        <v>70</v>
+      </c>
+      <c r="O291">
+        <v>29.98</v>
+      </c>
+      <c r="P291">
+        <v>5</v>
+      </c>
+      <c r="Q291">
+        <v>0.2</v>
+      </c>
+      <c r="R291">
+        <v>9.9</v>
+      </c>
+      <c r="S291">
+        <v>50</v>
+      </c>
+      <c r="T291">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292">
+        <v>70</v>
+      </c>
+      <c r="E292">
+        <v>85</v>
+      </c>
+      <c r="F292">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0.2</v>
+      </c>
+      <c r="I292" t="s">
+        <v>21</v>
+      </c>
+      <c r="J292">
+        <v>3</v>
+      </c>
+      <c r="K292" t="s">
+        <v>19</v>
+      </c>
+      <c r="L292">
+        <v>7</v>
+      </c>
+      <c r="M292">
+        <v>0.65</v>
+      </c>
+      <c r="N292">
+        <v>70</v>
+      </c>
+      <c r="O292">
+        <v>29.98</v>
+      </c>
+      <c r="P292">
+        <v>5</v>
+      </c>
+      <c r="Q292">
+        <v>0.2</v>
+      </c>
+      <c r="R292">
+        <v>9.9</v>
+      </c>
+      <c r="S292">
+        <v>50</v>
+      </c>
+      <c r="T292">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B293" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293">
+        <v>70</v>
+      </c>
+      <c r="E293">
+        <v>85</v>
+      </c>
+      <c r="F293">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0.5</v>
+      </c>
+      <c r="I293" t="s">
+        <v>21</v>
+      </c>
+      <c r="J293">
+        <v>3</v>
+      </c>
+      <c r="K293" t="s">
+        <v>20</v>
+      </c>
+      <c r="L293">
+        <v>7</v>
+      </c>
+      <c r="M293">
+        <v>0.65</v>
+      </c>
+      <c r="N293">
+        <v>70</v>
+      </c>
+      <c r="O293">
+        <v>29.98</v>
+      </c>
+      <c r="P293">
+        <v>5</v>
+      </c>
+      <c r="Q293">
+        <v>0.2</v>
+      </c>
+      <c r="R293">
+        <v>9.9</v>
+      </c>
+      <c r="S293">
+        <v>50</v>
+      </c>
+      <c r="T293">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" t="s">
+        <v>11</v>
+      </c>
+      <c r="D294">
+        <v>70</v>
+      </c>
+      <c r="E294">
+        <v>85</v>
+      </c>
+      <c r="F294">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294" t="s">
+        <v>21</v>
+      </c>
+      <c r="J294">
+        <v>4</v>
+      </c>
+      <c r="K294" t="s">
+        <v>20</v>
+      </c>
+      <c r="L294">
+        <v>7</v>
+      </c>
+      <c r="M294">
+        <v>0.65</v>
+      </c>
+      <c r="N294">
+        <v>70</v>
+      </c>
+      <c r="O294">
+        <v>29.98</v>
+      </c>
+      <c r="P294">
+        <v>5</v>
+      </c>
+      <c r="Q294">
+        <v>0.2</v>
+      </c>
+      <c r="R294">
+        <v>9.9</v>
+      </c>
+      <c r="S294">
+        <v>50</v>
+      </c>
+      <c r="T294">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B295" t="s">
+        <v>10</v>
+      </c>
+      <c r="C295" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295">
+        <v>70</v>
+      </c>
+      <c r="E295">
+        <v>85</v>
+      </c>
+      <c r="F295">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295" t="s">
+        <v>21</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295" t="s">
+        <v>20</v>
+      </c>
+      <c r="L295">
+        <v>7</v>
+      </c>
+      <c r="M295">
+        <v>0.65</v>
+      </c>
+      <c r="N295">
+        <v>70</v>
+      </c>
+      <c r="O295">
+        <v>29.98</v>
+      </c>
+      <c r="P295">
+        <v>5</v>
+      </c>
+      <c r="Q295">
+        <v>0.2</v>
+      </c>
+      <c r="R295">
+        <v>9.9</v>
+      </c>
+      <c r="S295">
+        <v>50</v>
+      </c>
+      <c r="T295">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B296" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296">
+        <v>70</v>
+      </c>
+      <c r="E296">
+        <v>87</v>
+      </c>
+      <c r="F296">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296" t="s">
+        <v>15</v>
+      </c>
+      <c r="J296">
+        <v>2</v>
+      </c>
+      <c r="K296" t="s">
+        <v>19</v>
+      </c>
+      <c r="L296">
+        <v>9</v>
+      </c>
+      <c r="M296">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N296">
+        <v>70</v>
+      </c>
+      <c r="O296">
+        <v>30.02</v>
+      </c>
+      <c r="P296">
+        <v>15</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>9.9</v>
+      </c>
+      <c r="S296">
+        <v>45</v>
+      </c>
+      <c r="T296">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B297" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297">
+        <v>70</v>
+      </c>
+      <c r="E297">
+        <v>87</v>
+      </c>
+      <c r="F297">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0.1</v>
+      </c>
+      <c r="I297" t="s">
+        <v>15</v>
+      </c>
+      <c r="J297">
+        <v>3</v>
+      </c>
+      <c r="K297" t="s">
+        <v>20</v>
+      </c>
+      <c r="L297">
+        <v>9</v>
+      </c>
+      <c r="M297">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N297">
+        <v>70</v>
+      </c>
+      <c r="O297">
+        <v>30.02</v>
+      </c>
+      <c r="P297">
+        <v>15</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>9.9</v>
+      </c>
+      <c r="S297">
+        <v>45</v>
+      </c>
+      <c r="T297">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B298" t="s">
+        <v>9</v>
+      </c>
+      <c r="C298" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298">
+        <v>70</v>
+      </c>
+      <c r="E298">
+        <v>87</v>
+      </c>
+      <c r="F298">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0.2</v>
+      </c>
+      <c r="I298" t="s">
+        <v>15</v>
+      </c>
+      <c r="J298">
+        <v>3</v>
+      </c>
+      <c r="K298" t="s">
+        <v>19</v>
+      </c>
+      <c r="L298">
+        <v>9</v>
+      </c>
+      <c r="M298">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N298">
+        <v>70</v>
+      </c>
+      <c r="O298">
+        <v>30.02</v>
+      </c>
+      <c r="P298">
+        <v>15</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>9.9</v>
+      </c>
+      <c r="S298">
+        <v>45</v>
+      </c>
+      <c r="T298">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B299" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299">
+        <v>70</v>
+      </c>
+      <c r="E299">
+        <v>87</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0.4</v>
+      </c>
+      <c r="I299" t="s">
+        <v>15</v>
+      </c>
+      <c r="J299">
+        <v>3</v>
+      </c>
+      <c r="K299" t="s">
+        <v>20</v>
+      </c>
+      <c r="L299">
+        <v>9</v>
+      </c>
+      <c r="M299">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N299">
+        <v>70</v>
+      </c>
+      <c r="O299">
+        <v>30.02</v>
+      </c>
+      <c r="P299">
+        <v>15</v>
+      </c>
+      <c r="Q299">
+        <v>0</v>
+      </c>
+      <c r="R299">
+        <v>9.9</v>
+      </c>
+      <c r="S299">
+        <v>45</v>
+      </c>
+      <c r="T299">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300">
+        <v>70</v>
+      </c>
+      <c r="E300">
+        <v>87</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0.5</v>
+      </c>
+      <c r="I300" t="s">
+        <v>15</v>
+      </c>
+      <c r="J300">
+        <v>3</v>
+      </c>
+      <c r="K300" t="s">
+        <v>20</v>
+      </c>
+      <c r="L300">
+        <v>9</v>
+      </c>
+      <c r="M300">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N300">
+        <v>70</v>
+      </c>
+      <c r="O300">
+        <v>30.02</v>
+      </c>
+      <c r="P300">
+        <v>15</v>
+      </c>
+      <c r="Q300">
+        <v>0</v>
+      </c>
+      <c r="R300">
+        <v>9.9</v>
+      </c>
+      <c r="S300">
+        <v>45</v>
+      </c>
+      <c r="T300">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B301" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
+      <c r="D301">
+        <v>70</v>
+      </c>
+      <c r="E301">
+        <v>87</v>
+      </c>
+      <c r="F301">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301" t="s">
+        <v>15</v>
+      </c>
+      <c r="J301">
+        <v>4</v>
+      </c>
+      <c r="K301" t="s">
+        <v>20</v>
+      </c>
+      <c r="L301">
+        <v>9</v>
+      </c>
+      <c r="M301">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N301">
+        <v>70</v>
+      </c>
+      <c r="O301">
+        <v>30.02</v>
+      </c>
+      <c r="P301">
+        <v>15</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <v>9.9</v>
+      </c>
+      <c r="S301">
+        <v>45</v>
+      </c>
+      <c r="T301">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B302" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302">
+        <v>70</v>
+      </c>
+      <c r="E302">
+        <v>87</v>
+      </c>
+      <c r="F302">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302" t="s">
+        <v>15</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+      <c r="K302" t="s">
+        <v>19</v>
+      </c>
+      <c r="L302">
+        <v>9</v>
+      </c>
+      <c r="M302">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N302">
+        <v>70</v>
+      </c>
+      <c r="O302">
+        <v>30.02</v>
+      </c>
+      <c r="P302">
+        <v>15</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <v>9.9</v>
+      </c>
+      <c r="S302">
+        <v>45</v>
+      </c>
+      <c r="T302">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" t="s">
+        <v>11</v>
+      </c>
+      <c r="D303">
+        <v>72</v>
+      </c>
+      <c r="E303">
+        <v>92</v>
+      </c>
+      <c r="F303">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0.1</v>
+      </c>
+      <c r="I303" t="s">
+        <v>21</v>
+      </c>
+      <c r="J303">
+        <v>2</v>
+      </c>
+      <c r="K303" t="s">
+        <v>19</v>
+      </c>
+      <c r="L303">
+        <v>9</v>
+      </c>
+      <c r="M303">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N303">
+        <v>74</v>
+      </c>
+      <c r="O303">
+        <v>30.13</v>
+      </c>
+      <c r="P303">
+        <v>12</v>
+      </c>
+      <c r="Q303">
+        <v>0.11</v>
+      </c>
+      <c r="R303">
+        <v>9.9</v>
+      </c>
+      <c r="S303">
+        <v>53</v>
+      </c>
+      <c r="T303">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304">
+        <v>72</v>
+      </c>
+      <c r="E304">
+        <v>92</v>
+      </c>
+      <c r="F304">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0.4</v>
+      </c>
+      <c r="I304" t="s">
+        <v>21</v>
+      </c>
+      <c r="J304">
+        <v>3</v>
+      </c>
+      <c r="K304" t="s">
+        <v>19</v>
+      </c>
+      <c r="L304">
+        <v>9</v>
+      </c>
+      <c r="M304">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N304">
+        <v>74</v>
+      </c>
+      <c r="O304">
+        <v>30.13</v>
+      </c>
+      <c r="P304">
+        <v>12</v>
+      </c>
+      <c r="Q304">
+        <v>0.11</v>
+      </c>
+      <c r="R304">
+        <v>9.9</v>
+      </c>
+      <c r="S304">
+        <v>53</v>
+      </c>
+      <c r="T304">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B305" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" t="s">
+        <v>13</v>
+      </c>
+      <c r="D305">
+        <v>72</v>
+      </c>
+      <c r="E305">
+        <v>92</v>
+      </c>
+      <c r="F305">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305" t="s">
+        <v>21</v>
+      </c>
+      <c r="J305">
+        <v>3</v>
+      </c>
+      <c r="K305" t="s">
+        <v>20</v>
+      </c>
+      <c r="L305">
+        <v>9</v>
+      </c>
+      <c r="M305">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N305">
+        <v>74</v>
+      </c>
+      <c r="O305">
+        <v>30.13</v>
+      </c>
+      <c r="P305">
+        <v>12</v>
+      </c>
+      <c r="Q305">
+        <v>0.11</v>
+      </c>
+      <c r="R305">
+        <v>9.9</v>
+      </c>
+      <c r="S305">
+        <v>53</v>
+      </c>
+      <c r="T305">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B306" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306">
+        <v>72</v>
+      </c>
+      <c r="E306">
+        <v>92</v>
+      </c>
+      <c r="F306">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0.2</v>
+      </c>
+      <c r="I306" t="s">
+        <v>21</v>
+      </c>
+      <c r="J306">
+        <v>3</v>
+      </c>
+      <c r="K306" t="s">
+        <v>18</v>
+      </c>
+      <c r="L306">
+        <v>9</v>
+      </c>
+      <c r="M306">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N306">
+        <v>74</v>
+      </c>
+      <c r="O306">
+        <v>30.13</v>
+      </c>
+      <c r="P306">
+        <v>12</v>
+      </c>
+      <c r="Q306">
+        <v>0.11</v>
+      </c>
+      <c r="R306">
+        <v>9.9</v>
+      </c>
+      <c r="S306">
+        <v>53</v>
+      </c>
+      <c r="T306">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B307" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307">
+        <v>72</v>
+      </c>
+      <c r="E307">
+        <v>92</v>
+      </c>
+      <c r="F307">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307" t="s">
+        <v>21</v>
+      </c>
+      <c r="J307">
+        <v>3</v>
+      </c>
+      <c r="K307" t="s">
+        <v>19</v>
+      </c>
+      <c r="L307">
+        <v>9</v>
+      </c>
+      <c r="M307">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N307">
+        <v>74</v>
+      </c>
+      <c r="O307">
+        <v>30.13</v>
+      </c>
+      <c r="P307">
+        <v>12</v>
+      </c>
+      <c r="Q307">
+        <v>0.11</v>
+      </c>
+      <c r="R307">
+        <v>9.9</v>
+      </c>
+      <c r="S307">
+        <v>53</v>
+      </c>
+      <c r="T307">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B308" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" t="s">
+        <v>11</v>
+      </c>
+      <c r="D308">
+        <v>72</v>
+      </c>
+      <c r="E308">
+        <v>92</v>
+      </c>
+      <c r="F308">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>0.5</v>
+      </c>
+      <c r="I308" t="s">
+        <v>21</v>
+      </c>
+      <c r="J308">
+        <v>4</v>
+      </c>
+      <c r="K308" t="s">
+        <v>20</v>
+      </c>
+      <c r="L308">
+        <v>9</v>
+      </c>
+      <c r="M308">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N308">
+        <v>74</v>
+      </c>
+      <c r="O308">
+        <v>30.13</v>
+      </c>
+      <c r="P308">
+        <v>12</v>
+      </c>
+      <c r="Q308">
+        <v>0.11</v>
+      </c>
+      <c r="R308">
+        <v>9.9</v>
+      </c>
+      <c r="S308">
+        <v>53</v>
+      </c>
+      <c r="T308">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B309" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309">
+        <v>72</v>
+      </c>
+      <c r="E309">
+        <v>92</v>
+      </c>
+      <c r="F309">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309" t="s">
+        <v>21</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+      <c r="K309" t="s">
+        <v>20</v>
+      </c>
+      <c r="L309">
+        <v>9</v>
+      </c>
+      <c r="M309">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N309">
+        <v>74</v>
+      </c>
+      <c r="O309">
+        <v>30.13</v>
+      </c>
+      <c r="P309">
+        <v>12</v>
+      </c>
+      <c r="Q309">
+        <v>0.11</v>
+      </c>
+      <c r="R309">
+        <v>9.9</v>
+      </c>
+      <c r="S309">
+        <v>53</v>
+      </c>
+      <c r="T309">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600A45E-8840-4AC9-81EA-38B062BFEFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FFB41E-3E9B-4A42-BF78-C56AE9BDB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U309"/>
+  <dimension ref="A1:U316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="I317" sqref="I317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18303,7 +18303,7 @@
         <v>78</v>
       </c>
       <c r="F283">
-        <f t="shared" ref="F283:F309" si="6">ABS(D283-E283)</f>
+        <f t="shared" ref="F283:F316" si="6">ABS(D283-E283)</f>
         <v>20</v>
       </c>
       <c r="G283">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="s">
         <v>21</v>
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="s">
         <v>21</v>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I302" t="s">
         <v>15</v>
@@ -19985,6 +19985,447 @@
       </c>
       <c r="T309">
         <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B310" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310">
+        <v>72</v>
+      </c>
+      <c r="E310">
+        <v>94</v>
+      </c>
+      <c r="F310">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310" t="s">
+        <v>15</v>
+      </c>
+      <c r="J310">
+        <v>2</v>
+      </c>
+      <c r="K310" t="s">
+        <v>20</v>
+      </c>
+      <c r="L310">
+        <v>9</v>
+      </c>
+      <c r="M310">
+        <v>0.54</v>
+      </c>
+      <c r="N310">
+        <v>73</v>
+      </c>
+      <c r="O310">
+        <v>30.19</v>
+      </c>
+      <c r="P310">
+        <v>10</v>
+      </c>
+      <c r="Q310">
+        <v>0.06</v>
+      </c>
+      <c r="R310">
+        <v>9.9</v>
+      </c>
+      <c r="S310">
+        <v>60</v>
+      </c>
+      <c r="T310">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311">
+        <v>72</v>
+      </c>
+      <c r="E311">
+        <v>94</v>
+      </c>
+      <c r="F311">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0.1</v>
+      </c>
+      <c r="I311" t="s">
+        <v>15</v>
+      </c>
+      <c r="J311">
+        <v>3</v>
+      </c>
+      <c r="K311" t="s">
+        <v>19</v>
+      </c>
+      <c r="L311">
+        <v>9</v>
+      </c>
+      <c r="M311">
+        <v>0.54</v>
+      </c>
+      <c r="N311">
+        <v>73</v>
+      </c>
+      <c r="O311">
+        <v>30.19</v>
+      </c>
+      <c r="P311">
+        <v>10</v>
+      </c>
+      <c r="Q311">
+        <v>0.06</v>
+      </c>
+      <c r="R311">
+        <v>9.9</v>
+      </c>
+      <c r="S311">
+        <v>60</v>
+      </c>
+      <c r="T311">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312">
+        <v>72</v>
+      </c>
+      <c r="E312">
+        <v>94</v>
+      </c>
+      <c r="F312">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0.1</v>
+      </c>
+      <c r="I312" t="s">
+        <v>15</v>
+      </c>
+      <c r="J312">
+        <v>3</v>
+      </c>
+      <c r="K312" t="s">
+        <v>20</v>
+      </c>
+      <c r="L312">
+        <v>9</v>
+      </c>
+      <c r="M312">
+        <v>0.54</v>
+      </c>
+      <c r="N312">
+        <v>73</v>
+      </c>
+      <c r="O312">
+        <v>30.19</v>
+      </c>
+      <c r="P312">
+        <v>10</v>
+      </c>
+      <c r="Q312">
+        <v>0.06</v>
+      </c>
+      <c r="R312">
+        <v>9.9</v>
+      </c>
+      <c r="S312">
+        <v>60</v>
+      </c>
+      <c r="T312">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B313" t="s">
+        <v>9</v>
+      </c>
+      <c r="C313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313">
+        <v>72</v>
+      </c>
+      <c r="E313">
+        <v>94</v>
+      </c>
+      <c r="F313">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313" t="s">
+        <v>15</v>
+      </c>
+      <c r="J313">
+        <v>3</v>
+      </c>
+      <c r="K313" t="s">
+        <v>19</v>
+      </c>
+      <c r="L313">
+        <v>9</v>
+      </c>
+      <c r="M313">
+        <v>0.54</v>
+      </c>
+      <c r="N313">
+        <v>73</v>
+      </c>
+      <c r="O313">
+        <v>30.19</v>
+      </c>
+      <c r="P313">
+        <v>10</v>
+      </c>
+      <c r="Q313">
+        <v>0.06</v>
+      </c>
+      <c r="R313">
+        <v>9.9</v>
+      </c>
+      <c r="S313">
+        <v>60</v>
+      </c>
+      <c r="T313">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B314" t="s">
+        <v>9</v>
+      </c>
+      <c r="C314" t="s">
+        <v>12</v>
+      </c>
+      <c r="D314">
+        <v>72</v>
+      </c>
+      <c r="E314">
+        <v>94</v>
+      </c>
+      <c r="F314">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>0.2</v>
+      </c>
+      <c r="I314" t="s">
+        <v>15</v>
+      </c>
+      <c r="J314">
+        <v>3</v>
+      </c>
+      <c r="K314" t="s">
+        <v>20</v>
+      </c>
+      <c r="L314">
+        <v>9</v>
+      </c>
+      <c r="M314">
+        <v>0.54</v>
+      </c>
+      <c r="N314">
+        <v>73</v>
+      </c>
+      <c r="O314">
+        <v>30.19</v>
+      </c>
+      <c r="P314">
+        <v>10</v>
+      </c>
+      <c r="Q314">
+        <v>0.06</v>
+      </c>
+      <c r="R314">
+        <v>9.9</v>
+      </c>
+      <c r="S314">
+        <v>60</v>
+      </c>
+      <c r="T314">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B315" t="s">
+        <v>9</v>
+      </c>
+      <c r="C315" t="s">
+        <v>11</v>
+      </c>
+      <c r="D315">
+        <v>72</v>
+      </c>
+      <c r="E315">
+        <v>94</v>
+      </c>
+      <c r="F315">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>0.3</v>
+      </c>
+      <c r="I315" t="s">
+        <v>15</v>
+      </c>
+      <c r="J315">
+        <v>4</v>
+      </c>
+      <c r="K315" t="s">
+        <v>19</v>
+      </c>
+      <c r="L315">
+        <v>9</v>
+      </c>
+      <c r="M315">
+        <v>0.54</v>
+      </c>
+      <c r="N315">
+        <v>73</v>
+      </c>
+      <c r="O315">
+        <v>30.19</v>
+      </c>
+      <c r="P315">
+        <v>10</v>
+      </c>
+      <c r="Q315">
+        <v>0.06</v>
+      </c>
+      <c r="R315">
+        <v>9.9</v>
+      </c>
+      <c r="S315">
+        <v>60</v>
+      </c>
+      <c r="T315">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B316" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" t="s">
+        <v>12</v>
+      </c>
+      <c r="D316">
+        <v>72</v>
+      </c>
+      <c r="E316">
+        <v>94</v>
+      </c>
+      <c r="F316">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0.5</v>
+      </c>
+      <c r="I316" t="s">
+        <v>15</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316" t="s">
+        <v>20</v>
+      </c>
+      <c r="L316">
+        <v>9</v>
+      </c>
+      <c r="M316">
+        <v>0.54</v>
+      </c>
+      <c r="N316">
+        <v>73</v>
+      </c>
+      <c r="O316">
+        <v>30.19</v>
+      </c>
+      <c r="P316">
+        <v>10</v>
+      </c>
+      <c r="Q316">
+        <v>0.06</v>
+      </c>
+      <c r="R316">
+        <v>9.9</v>
+      </c>
+      <c r="S316">
+        <v>60</v>
+      </c>
+      <c r="T316">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FFB41E-3E9B-4A42-BF78-C56AE9BDB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD098DDB-DD5E-48B3-9096-2158AE0E51BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U316"/>
+  <dimension ref="A1:U330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="I317" sqref="I317"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="N324" sqref="N324:N330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18303,7 +18303,7 @@
         <v>78</v>
       </c>
       <c r="F283">
-        <f t="shared" ref="F283:F316" si="6">ABS(D283-E283)</f>
+        <f t="shared" ref="F283:F330" si="6">ABS(D283-E283)</f>
         <v>20</v>
       </c>
       <c r="G283">
@@ -20426,6 +20426,888 @@
       </c>
       <c r="T316">
         <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B317" t="s">
+        <v>8</v>
+      </c>
+      <c r="C317" t="s">
+        <v>11</v>
+      </c>
+      <c r="D317">
+        <v>74</v>
+      </c>
+      <c r="E317">
+        <v>96</v>
+      </c>
+      <c r="F317">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0.1</v>
+      </c>
+      <c r="I317" t="s">
+        <v>21</v>
+      </c>
+      <c r="J317">
+        <v>2</v>
+      </c>
+      <c r="K317" t="s">
+        <v>20</v>
+      </c>
+      <c r="L317">
+        <v>10</v>
+      </c>
+      <c r="M317">
+        <v>0.52</v>
+      </c>
+      <c r="N317">
+        <v>71</v>
+      </c>
+      <c r="O317">
+        <v>30.16</v>
+      </c>
+      <c r="P317">
+        <v>9</v>
+      </c>
+      <c r="Q317">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R317">
+        <v>9.9</v>
+      </c>
+      <c r="S317">
+        <v>54</v>
+      </c>
+      <c r="T317">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B318" t="s">
+        <v>9</v>
+      </c>
+      <c r="C318" t="s">
+        <v>12</v>
+      </c>
+      <c r="D318">
+        <v>74</v>
+      </c>
+      <c r="E318">
+        <v>96</v>
+      </c>
+      <c r="F318">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>0.2</v>
+      </c>
+      <c r="I318" t="s">
+        <v>21</v>
+      </c>
+      <c r="J318">
+        <v>3</v>
+      </c>
+      <c r="K318" t="s">
+        <v>20</v>
+      </c>
+      <c r="L318">
+        <v>10</v>
+      </c>
+      <c r="M318">
+        <v>0.52</v>
+      </c>
+      <c r="N318">
+        <v>71</v>
+      </c>
+      <c r="O318">
+        <v>30.16</v>
+      </c>
+      <c r="P318">
+        <v>9</v>
+      </c>
+      <c r="Q318">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R318">
+        <v>9.9</v>
+      </c>
+      <c r="S318">
+        <v>54</v>
+      </c>
+      <c r="T318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B319" t="s">
+        <v>9</v>
+      </c>
+      <c r="C319" t="s">
+        <v>13</v>
+      </c>
+      <c r="D319">
+        <v>74</v>
+      </c>
+      <c r="E319">
+        <v>96</v>
+      </c>
+      <c r="F319">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319" t="s">
+        <v>21</v>
+      </c>
+      <c r="J319">
+        <v>3</v>
+      </c>
+      <c r="K319" t="s">
+        <v>19</v>
+      </c>
+      <c r="L319">
+        <v>10</v>
+      </c>
+      <c r="M319">
+        <v>0.52</v>
+      </c>
+      <c r="N319">
+        <v>71</v>
+      </c>
+      <c r="O319">
+        <v>30.16</v>
+      </c>
+      <c r="P319">
+        <v>9</v>
+      </c>
+      <c r="Q319">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R319">
+        <v>9.9</v>
+      </c>
+      <c r="S319">
+        <v>54</v>
+      </c>
+      <c r="T319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B320" t="s">
+        <v>9</v>
+      </c>
+      <c r="C320" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320">
+        <v>74</v>
+      </c>
+      <c r="E320">
+        <v>96</v>
+      </c>
+      <c r="F320">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320" t="s">
+        <v>21</v>
+      </c>
+      <c r="J320">
+        <v>3</v>
+      </c>
+      <c r="K320" t="s">
+        <v>20</v>
+      </c>
+      <c r="L320">
+        <v>10</v>
+      </c>
+      <c r="M320">
+        <v>0.52</v>
+      </c>
+      <c r="N320">
+        <v>71</v>
+      </c>
+      <c r="O320">
+        <v>30.16</v>
+      </c>
+      <c r="P320">
+        <v>9</v>
+      </c>
+      <c r="Q320">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R320">
+        <v>9.9</v>
+      </c>
+      <c r="S320">
+        <v>54</v>
+      </c>
+      <c r="T320">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B321" t="s">
+        <v>9</v>
+      </c>
+      <c r="C321" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321">
+        <v>74</v>
+      </c>
+      <c r="E321">
+        <v>96</v>
+      </c>
+      <c r="F321">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>0.1</v>
+      </c>
+      <c r="I321" t="s">
+        <v>21</v>
+      </c>
+      <c r="J321">
+        <v>3</v>
+      </c>
+      <c r="K321" t="s">
+        <v>20</v>
+      </c>
+      <c r="L321">
+        <v>10</v>
+      </c>
+      <c r="M321">
+        <v>0.52</v>
+      </c>
+      <c r="N321">
+        <v>71</v>
+      </c>
+      <c r="O321">
+        <v>30.16</v>
+      </c>
+      <c r="P321">
+        <v>9</v>
+      </c>
+      <c r="Q321">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R321">
+        <v>9.9</v>
+      </c>
+      <c r="S321">
+        <v>54</v>
+      </c>
+      <c r="T321">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B322" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322">
+        <v>74</v>
+      </c>
+      <c r="E322">
+        <v>96</v>
+      </c>
+      <c r="F322">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>0.5</v>
+      </c>
+      <c r="I322" t="s">
+        <v>21</v>
+      </c>
+      <c r="J322">
+        <v>4</v>
+      </c>
+      <c r="K322" t="s">
+        <v>20</v>
+      </c>
+      <c r="L322">
+        <v>10</v>
+      </c>
+      <c r="M322">
+        <v>0.52</v>
+      </c>
+      <c r="N322">
+        <v>71</v>
+      </c>
+      <c r="O322">
+        <v>30.16</v>
+      </c>
+      <c r="P322">
+        <v>9</v>
+      </c>
+      <c r="Q322">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R322">
+        <v>9.9</v>
+      </c>
+      <c r="S322">
+        <v>54</v>
+      </c>
+      <c r="T322">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323">
+        <v>74</v>
+      </c>
+      <c r="E323">
+        <v>96</v>
+      </c>
+      <c r="F323">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0.3</v>
+      </c>
+      <c r="I323" t="s">
+        <v>21</v>
+      </c>
+      <c r="J323">
+        <v>1</v>
+      </c>
+      <c r="K323" t="s">
+        <v>20</v>
+      </c>
+      <c r="L323">
+        <v>10</v>
+      </c>
+      <c r="M323">
+        <v>0.52</v>
+      </c>
+      <c r="N323">
+        <v>71</v>
+      </c>
+      <c r="O323">
+        <v>30.16</v>
+      </c>
+      <c r="P323">
+        <v>9</v>
+      </c>
+      <c r="Q323">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R323">
+        <v>9.9</v>
+      </c>
+      <c r="S323">
+        <v>54</v>
+      </c>
+      <c r="T323">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
+      <c r="D324">
+        <v>73</v>
+      </c>
+      <c r="E324">
+        <v>91</v>
+      </c>
+      <c r="F324">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324" t="s">
+        <v>21</v>
+      </c>
+      <c r="J324">
+        <v>2</v>
+      </c>
+      <c r="K324" t="s">
+        <v>19</v>
+      </c>
+      <c r="L324">
+        <v>8</v>
+      </c>
+      <c r="M324">
+        <v>0.5</v>
+      </c>
+      <c r="N324">
+        <v>70</v>
+      </c>
+      <c r="O324">
+        <v>30.14</v>
+      </c>
+      <c r="P324">
+        <v>14</v>
+      </c>
+      <c r="Q324">
+        <v>0.61</v>
+      </c>
+      <c r="R324">
+        <v>9.9</v>
+      </c>
+      <c r="S324">
+        <v>62</v>
+      </c>
+      <c r="T324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B325" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325">
+        <v>73</v>
+      </c>
+      <c r="E325">
+        <v>91</v>
+      </c>
+      <c r="F325">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325" t="s">
+        <v>21</v>
+      </c>
+      <c r="J325">
+        <v>3</v>
+      </c>
+      <c r="K325" t="s">
+        <v>19</v>
+      </c>
+      <c r="L325">
+        <v>8</v>
+      </c>
+      <c r="M325">
+        <v>0.5</v>
+      </c>
+      <c r="N325">
+        <v>70</v>
+      </c>
+      <c r="O325">
+        <v>30.14</v>
+      </c>
+      <c r="P325">
+        <v>14</v>
+      </c>
+      <c r="Q325">
+        <v>0.61</v>
+      </c>
+      <c r="R325">
+        <v>9.9</v>
+      </c>
+      <c r="S325">
+        <v>62</v>
+      </c>
+      <c r="T325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B326" t="s">
+        <v>9</v>
+      </c>
+      <c r="C326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326">
+        <v>73</v>
+      </c>
+      <c r="E326">
+        <v>91</v>
+      </c>
+      <c r="F326">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326" t="s">
+        <v>21</v>
+      </c>
+      <c r="J326">
+        <v>3</v>
+      </c>
+      <c r="K326" t="s">
+        <v>20</v>
+      </c>
+      <c r="L326">
+        <v>8</v>
+      </c>
+      <c r="M326">
+        <v>0.5</v>
+      </c>
+      <c r="N326">
+        <v>70</v>
+      </c>
+      <c r="O326">
+        <v>30.14</v>
+      </c>
+      <c r="P326">
+        <v>14</v>
+      </c>
+      <c r="Q326">
+        <v>0.61</v>
+      </c>
+      <c r="R326">
+        <v>9.9</v>
+      </c>
+      <c r="S326">
+        <v>62</v>
+      </c>
+      <c r="T326">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B327" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327">
+        <v>73</v>
+      </c>
+      <c r="E327">
+        <v>91</v>
+      </c>
+      <c r="F327">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0.1</v>
+      </c>
+      <c r="I327" t="s">
+        <v>21</v>
+      </c>
+      <c r="J327">
+        <v>3</v>
+      </c>
+      <c r="K327" t="s">
+        <v>20</v>
+      </c>
+      <c r="L327">
+        <v>8</v>
+      </c>
+      <c r="M327">
+        <v>0.5</v>
+      </c>
+      <c r="N327">
+        <v>70</v>
+      </c>
+      <c r="O327">
+        <v>30.14</v>
+      </c>
+      <c r="P327">
+        <v>14</v>
+      </c>
+      <c r="Q327">
+        <v>0.61</v>
+      </c>
+      <c r="R327">
+        <v>9.9</v>
+      </c>
+      <c r="S327">
+        <v>62</v>
+      </c>
+      <c r="T327">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B328" t="s">
+        <v>9</v>
+      </c>
+      <c r="C328" t="s">
+        <v>12</v>
+      </c>
+      <c r="D328">
+        <v>73</v>
+      </c>
+      <c r="E328">
+        <v>91</v>
+      </c>
+      <c r="F328">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>0.1</v>
+      </c>
+      <c r="I328" t="s">
+        <v>21</v>
+      </c>
+      <c r="J328">
+        <v>3</v>
+      </c>
+      <c r="K328" t="s">
+        <v>20</v>
+      </c>
+      <c r="L328">
+        <v>8</v>
+      </c>
+      <c r="M328">
+        <v>0.5</v>
+      </c>
+      <c r="N328">
+        <v>70</v>
+      </c>
+      <c r="O328">
+        <v>30.14</v>
+      </c>
+      <c r="P328">
+        <v>14</v>
+      </c>
+      <c r="Q328">
+        <v>0.61</v>
+      </c>
+      <c r="R328">
+        <v>9.9</v>
+      </c>
+      <c r="S328">
+        <v>62</v>
+      </c>
+      <c r="T328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B329" t="s">
+        <v>9</v>
+      </c>
+      <c r="C329" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329">
+        <v>73</v>
+      </c>
+      <c r="E329">
+        <v>91</v>
+      </c>
+      <c r="F329">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>0.4</v>
+      </c>
+      <c r="I329" t="s">
+        <v>21</v>
+      </c>
+      <c r="J329">
+        <v>4</v>
+      </c>
+      <c r="K329" t="s">
+        <v>19</v>
+      </c>
+      <c r="L329">
+        <v>8</v>
+      </c>
+      <c r="M329">
+        <v>0.5</v>
+      </c>
+      <c r="N329">
+        <v>70</v>
+      </c>
+      <c r="O329">
+        <v>30.14</v>
+      </c>
+      <c r="P329">
+        <v>14</v>
+      </c>
+      <c r="Q329">
+        <v>0.61</v>
+      </c>
+      <c r="R329">
+        <v>9.9</v>
+      </c>
+      <c r="S329">
+        <v>62</v>
+      </c>
+      <c r="T329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B330" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330">
+        <v>73</v>
+      </c>
+      <c r="E330">
+        <v>91</v>
+      </c>
+      <c r="F330">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>0.2</v>
+      </c>
+      <c r="I330" t="s">
+        <v>21</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+      <c r="K330" t="s">
+        <v>20</v>
+      </c>
+      <c r="L330">
+        <v>8</v>
+      </c>
+      <c r="M330">
+        <v>0.5</v>
+      </c>
+      <c r="N330">
+        <v>70</v>
+      </c>
+      <c r="O330">
+        <v>30.14</v>
+      </c>
+      <c r="P330">
+        <v>14</v>
+      </c>
+      <c r="Q330">
+        <v>0.61</v>
+      </c>
+      <c r="R330">
+        <v>9.9</v>
+      </c>
+      <c r="S330">
+        <v>62</v>
+      </c>
+      <c r="T330">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD098DDB-DD5E-48B3-9096-2158AE0E51BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DAF1D0-FD21-493D-A391-820D4C81D76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U330"/>
+  <dimension ref="A1:U337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="N324" sqref="N324:N330"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="I338" sqref="I338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18303,7 +18303,7 @@
         <v>78</v>
       </c>
       <c r="F283">
-        <f t="shared" ref="F283:F330" si="6">ABS(D283-E283)</f>
+        <f t="shared" ref="F283:F337" si="6">ABS(D283-E283)</f>
         <v>20</v>
       </c>
       <c r="G283">
@@ -21308,6 +21308,447 @@
       </c>
       <c r="T330">
         <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B331" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331">
+        <v>72</v>
+      </c>
+      <c r="E331">
+        <v>91</v>
+      </c>
+      <c r="F331">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G331">
+        <v>0.22</v>
+      </c>
+      <c r="H331">
+        <v>0.2</v>
+      </c>
+      <c r="I331" t="s">
+        <v>15</v>
+      </c>
+      <c r="J331">
+        <v>2</v>
+      </c>
+      <c r="K331" t="s">
+        <v>20</v>
+      </c>
+      <c r="L331">
+        <v>9</v>
+      </c>
+      <c r="M331">
+        <v>0.59</v>
+      </c>
+      <c r="N331">
+        <v>74</v>
+      </c>
+      <c r="O331">
+        <v>30.01</v>
+      </c>
+      <c r="P331">
+        <v>8</v>
+      </c>
+      <c r="Q331">
+        <v>0.5</v>
+      </c>
+      <c r="R331">
+        <v>9.9</v>
+      </c>
+      <c r="S331">
+        <v>51</v>
+      </c>
+      <c r="T331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B332" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332">
+        <v>72</v>
+      </c>
+      <c r="E332">
+        <v>91</v>
+      </c>
+      <c r="F332">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G332">
+        <v>0.22</v>
+      </c>
+      <c r="H332">
+        <v>0.3</v>
+      </c>
+      <c r="I332" t="s">
+        <v>15</v>
+      </c>
+      <c r="J332">
+        <v>3</v>
+      </c>
+      <c r="K332" t="s">
+        <v>20</v>
+      </c>
+      <c r="L332">
+        <v>9</v>
+      </c>
+      <c r="M332">
+        <v>0.59</v>
+      </c>
+      <c r="N332">
+        <v>74</v>
+      </c>
+      <c r="O332">
+        <v>30.01</v>
+      </c>
+      <c r="P332">
+        <v>8</v>
+      </c>
+      <c r="Q332">
+        <v>0.5</v>
+      </c>
+      <c r="R332">
+        <v>9.9</v>
+      </c>
+      <c r="S332">
+        <v>51</v>
+      </c>
+      <c r="T332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B333" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333">
+        <v>72</v>
+      </c>
+      <c r="E333">
+        <v>91</v>
+      </c>
+      <c r="F333">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G333">
+        <v>0.22</v>
+      </c>
+      <c r="H333">
+        <v>0.25</v>
+      </c>
+      <c r="I333" t="s">
+        <v>15</v>
+      </c>
+      <c r="J333">
+        <v>3</v>
+      </c>
+      <c r="K333" t="s">
+        <v>18</v>
+      </c>
+      <c r="L333">
+        <v>9</v>
+      </c>
+      <c r="M333">
+        <v>0.59</v>
+      </c>
+      <c r="N333">
+        <v>74</v>
+      </c>
+      <c r="O333">
+        <v>30.01</v>
+      </c>
+      <c r="P333">
+        <v>8</v>
+      </c>
+      <c r="Q333">
+        <v>0.5</v>
+      </c>
+      <c r="R333">
+        <v>9.9</v>
+      </c>
+      <c r="S333">
+        <v>51</v>
+      </c>
+      <c r="T333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B334" t="s">
+        <v>9</v>
+      </c>
+      <c r="C334" t="s">
+        <v>12</v>
+      </c>
+      <c r="D334">
+        <v>72</v>
+      </c>
+      <c r="E334">
+        <v>91</v>
+      </c>
+      <c r="F334">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G334">
+        <v>0.22</v>
+      </c>
+      <c r="H334">
+        <v>0.4</v>
+      </c>
+      <c r="I334" t="s">
+        <v>15</v>
+      </c>
+      <c r="J334">
+        <v>3</v>
+      </c>
+      <c r="K334" t="s">
+        <v>20</v>
+      </c>
+      <c r="L334">
+        <v>9</v>
+      </c>
+      <c r="M334">
+        <v>0.59</v>
+      </c>
+      <c r="N334">
+        <v>74</v>
+      </c>
+      <c r="O334">
+        <v>30.01</v>
+      </c>
+      <c r="P334">
+        <v>8</v>
+      </c>
+      <c r="Q334">
+        <v>0.5</v>
+      </c>
+      <c r="R334">
+        <v>9.9</v>
+      </c>
+      <c r="S334">
+        <v>51</v>
+      </c>
+      <c r="T334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B335" t="s">
+        <v>9</v>
+      </c>
+      <c r="C335" t="s">
+        <v>12</v>
+      </c>
+      <c r="D335">
+        <v>72</v>
+      </c>
+      <c r="E335">
+        <v>91</v>
+      </c>
+      <c r="F335">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G335">
+        <v>0.22</v>
+      </c>
+      <c r="H335">
+        <v>0.5</v>
+      </c>
+      <c r="I335" t="s">
+        <v>15</v>
+      </c>
+      <c r="J335">
+        <v>3</v>
+      </c>
+      <c r="K335" t="s">
+        <v>18</v>
+      </c>
+      <c r="L335">
+        <v>9</v>
+      </c>
+      <c r="M335">
+        <v>0.59</v>
+      </c>
+      <c r="N335">
+        <v>74</v>
+      </c>
+      <c r="O335">
+        <v>30.01</v>
+      </c>
+      <c r="P335">
+        <v>8</v>
+      </c>
+      <c r="Q335">
+        <v>0.5</v>
+      </c>
+      <c r="R335">
+        <v>9.9</v>
+      </c>
+      <c r="S335">
+        <v>51</v>
+      </c>
+      <c r="T335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B336" t="s">
+        <v>9</v>
+      </c>
+      <c r="C336" t="s">
+        <v>11</v>
+      </c>
+      <c r="D336">
+        <v>72</v>
+      </c>
+      <c r="E336">
+        <v>91</v>
+      </c>
+      <c r="F336">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G336">
+        <v>0.22</v>
+      </c>
+      <c r="H336">
+        <v>0.8</v>
+      </c>
+      <c r="I336" t="s">
+        <v>15</v>
+      </c>
+      <c r="J336">
+        <v>4</v>
+      </c>
+      <c r="K336" t="s">
+        <v>19</v>
+      </c>
+      <c r="L336">
+        <v>9</v>
+      </c>
+      <c r="M336">
+        <v>0.59</v>
+      </c>
+      <c r="N336">
+        <v>74</v>
+      </c>
+      <c r="O336">
+        <v>30.01</v>
+      </c>
+      <c r="P336">
+        <v>8</v>
+      </c>
+      <c r="Q336">
+        <v>0.5</v>
+      </c>
+      <c r="R336">
+        <v>9.9</v>
+      </c>
+      <c r="S336">
+        <v>51</v>
+      </c>
+      <c r="T336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B337" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337">
+        <v>72</v>
+      </c>
+      <c r="E337">
+        <v>91</v>
+      </c>
+      <c r="F337">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G337">
+        <v>0.22</v>
+      </c>
+      <c r="H337">
+        <v>1.2</v>
+      </c>
+      <c r="I337" t="s">
+        <v>15</v>
+      </c>
+      <c r="J337">
+        <v>1</v>
+      </c>
+      <c r="K337" t="s">
+        <v>20</v>
+      </c>
+      <c r="L337">
+        <v>9</v>
+      </c>
+      <c r="M337">
+        <v>0.59</v>
+      </c>
+      <c r="N337">
+        <v>74</v>
+      </c>
+      <c r="O337">
+        <v>30.01</v>
+      </c>
+      <c r="P337">
+        <v>8</v>
+      </c>
+      <c r="Q337">
+        <v>0.5</v>
+      </c>
+      <c r="R337">
+        <v>9.9</v>
+      </c>
+      <c r="S337">
+        <v>51</v>
+      </c>
+      <c r="T337">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DAF1D0-FD21-493D-A391-820D4C81D76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A4D4A8-F562-473F-AE29-2688F550A01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U337"/>
+  <dimension ref="A1:U344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="I338" sqref="I338"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="R338" sqref="R338:R344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18303,7 +18303,7 @@
         <v>78</v>
       </c>
       <c r="F283">
-        <f t="shared" ref="F283:F337" si="6">ABS(D283-E283)</f>
+        <f t="shared" ref="F283:F344" si="6">ABS(D283-E283)</f>
         <v>20</v>
       </c>
       <c r="G283">
@@ -21748,6 +21748,447 @@
         <v>51</v>
       </c>
       <c r="T337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B338" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" t="s">
+        <v>11</v>
+      </c>
+      <c r="D338">
+        <v>72</v>
+      </c>
+      <c r="E338">
+        <v>86</v>
+      </c>
+      <c r="F338">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G338">
+        <v>0.11</v>
+      </c>
+      <c r="H338">
+        <v>0.2</v>
+      </c>
+      <c r="I338" t="s">
+        <v>21</v>
+      </c>
+      <c r="J338">
+        <v>2</v>
+      </c>
+      <c r="K338" t="s">
+        <v>20</v>
+      </c>
+      <c r="L338">
+        <v>8</v>
+      </c>
+      <c r="M338">
+        <v>0.65</v>
+      </c>
+      <c r="N338">
+        <v>73</v>
+      </c>
+      <c r="O338">
+        <v>30.04</v>
+      </c>
+      <c r="P338">
+        <v>13</v>
+      </c>
+      <c r="Q338">
+        <v>0.49</v>
+      </c>
+      <c r="R338">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S338">
+        <v>50</v>
+      </c>
+      <c r="T338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B339" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339" t="s">
+        <v>12</v>
+      </c>
+      <c r="D339">
+        <v>72</v>
+      </c>
+      <c r="E339">
+        <v>86</v>
+      </c>
+      <c r="F339">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G339">
+        <v>0.11</v>
+      </c>
+      <c r="H339">
+        <v>0.2</v>
+      </c>
+      <c r="I339" t="s">
+        <v>21</v>
+      </c>
+      <c r="J339">
+        <v>3</v>
+      </c>
+      <c r="K339" t="s">
+        <v>20</v>
+      </c>
+      <c r="L339">
+        <v>8</v>
+      </c>
+      <c r="M339">
+        <v>0.65</v>
+      </c>
+      <c r="N339">
+        <v>73</v>
+      </c>
+      <c r="O339">
+        <v>30.04</v>
+      </c>
+      <c r="P339">
+        <v>13</v>
+      </c>
+      <c r="Q339">
+        <v>0.49</v>
+      </c>
+      <c r="R339">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S339">
+        <v>50</v>
+      </c>
+      <c r="T339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340" t="s">
+        <v>13</v>
+      </c>
+      <c r="D340">
+        <v>72</v>
+      </c>
+      <c r="E340">
+        <v>86</v>
+      </c>
+      <c r="F340">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G340">
+        <v>0.11</v>
+      </c>
+      <c r="H340">
+        <v>0.15</v>
+      </c>
+      <c r="I340" t="s">
+        <v>21</v>
+      </c>
+      <c r="J340">
+        <v>3</v>
+      </c>
+      <c r="K340" t="s">
+        <v>19</v>
+      </c>
+      <c r="L340">
+        <v>8</v>
+      </c>
+      <c r="M340">
+        <v>0.65</v>
+      </c>
+      <c r="N340">
+        <v>73</v>
+      </c>
+      <c r="O340">
+        <v>30.04</v>
+      </c>
+      <c r="P340">
+        <v>13</v>
+      </c>
+      <c r="Q340">
+        <v>0.49</v>
+      </c>
+      <c r="R340">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S340">
+        <v>50</v>
+      </c>
+      <c r="T340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B341" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341" t="s">
+        <v>12</v>
+      </c>
+      <c r="D341">
+        <v>72</v>
+      </c>
+      <c r="E341">
+        <v>86</v>
+      </c>
+      <c r="F341">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G341">
+        <v>0.11</v>
+      </c>
+      <c r="H341">
+        <v>0.2</v>
+      </c>
+      <c r="I341" t="s">
+        <v>21</v>
+      </c>
+      <c r="J341">
+        <v>3</v>
+      </c>
+      <c r="K341" t="s">
+        <v>19</v>
+      </c>
+      <c r="L341">
+        <v>8</v>
+      </c>
+      <c r="M341">
+        <v>0.65</v>
+      </c>
+      <c r="N341">
+        <v>73</v>
+      </c>
+      <c r="O341">
+        <v>30.04</v>
+      </c>
+      <c r="P341">
+        <v>13</v>
+      </c>
+      <c r="Q341">
+        <v>0.49</v>
+      </c>
+      <c r="R341">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S341">
+        <v>50</v>
+      </c>
+      <c r="T341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B342" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342">
+        <v>72</v>
+      </c>
+      <c r="E342">
+        <v>86</v>
+      </c>
+      <c r="F342">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G342">
+        <v>0.11</v>
+      </c>
+      <c r="H342">
+        <v>0.1</v>
+      </c>
+      <c r="I342" t="s">
+        <v>21</v>
+      </c>
+      <c r="J342">
+        <v>3</v>
+      </c>
+      <c r="K342" t="s">
+        <v>20</v>
+      </c>
+      <c r="L342">
+        <v>8</v>
+      </c>
+      <c r="M342">
+        <v>0.65</v>
+      </c>
+      <c r="N342">
+        <v>73</v>
+      </c>
+      <c r="O342">
+        <v>30.04</v>
+      </c>
+      <c r="P342">
+        <v>13</v>
+      </c>
+      <c r="Q342">
+        <v>0.49</v>
+      </c>
+      <c r="R342">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S342">
+        <v>50</v>
+      </c>
+      <c r="T342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B343" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343" t="s">
+        <v>11</v>
+      </c>
+      <c r="D343">
+        <v>72</v>
+      </c>
+      <c r="E343">
+        <v>86</v>
+      </c>
+      <c r="F343">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G343">
+        <v>0.11</v>
+      </c>
+      <c r="H343">
+        <v>0.4</v>
+      </c>
+      <c r="I343" t="s">
+        <v>21</v>
+      </c>
+      <c r="J343">
+        <v>4</v>
+      </c>
+      <c r="K343" t="s">
+        <v>18</v>
+      </c>
+      <c r="L343">
+        <v>8</v>
+      </c>
+      <c r="M343">
+        <v>0.65</v>
+      </c>
+      <c r="N343">
+        <v>73</v>
+      </c>
+      <c r="O343">
+        <v>30.04</v>
+      </c>
+      <c r="P343">
+        <v>13</v>
+      </c>
+      <c r="Q343">
+        <v>0.49</v>
+      </c>
+      <c r="R343">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S343">
+        <v>50</v>
+      </c>
+      <c r="T343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" t="s">
+        <v>12</v>
+      </c>
+      <c r="D344">
+        <v>72</v>
+      </c>
+      <c r="E344">
+        <v>86</v>
+      </c>
+      <c r="F344">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G344">
+        <v>0.11</v>
+      </c>
+      <c r="H344">
+        <v>0.95</v>
+      </c>
+      <c r="I344" t="s">
+        <v>21</v>
+      </c>
+      <c r="J344">
+        <v>1</v>
+      </c>
+      <c r="K344" t="s">
+        <v>18</v>
+      </c>
+      <c r="L344">
+        <v>8</v>
+      </c>
+      <c r="M344">
+        <v>0.65</v>
+      </c>
+      <c r="N344">
+        <v>73</v>
+      </c>
+      <c r="O344">
+        <v>30.04</v>
+      </c>
+      <c r="P344">
+        <v>13</v>
+      </c>
+      <c r="Q344">
+        <v>0.49</v>
+      </c>
+      <c r="R344">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S344">
+        <v>50</v>
+      </c>
+      <c r="T344">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A4D4A8-F562-473F-AE29-2688F550A01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC57A182-945F-45DE-B917-BD84439F920D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U344"/>
+  <dimension ref="A1:U351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="R338" sqref="R338:R344"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18303,7 +18303,7 @@
         <v>78</v>
       </c>
       <c r="F283">
-        <f t="shared" ref="F283:F344" si="6">ABS(D283-E283)</f>
+        <f t="shared" ref="F283:F346" si="6">ABS(D283-E283)</f>
         <v>20</v>
       </c>
       <c r="G283">
@@ -22189,6 +22189,447 @@
         <v>50</v>
       </c>
       <c r="T344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B345" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" t="s">
+        <v>11</v>
+      </c>
+      <c r="D345">
+        <v>69</v>
+      </c>
+      <c r="E345">
+        <v>82</v>
+      </c>
+      <c r="F345">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="G345">
+        <v>5.57</v>
+      </c>
+      <c r="H345">
+        <v>0.6</v>
+      </c>
+      <c r="I345" t="s">
+        <v>21</v>
+      </c>
+      <c r="J345">
+        <v>2</v>
+      </c>
+      <c r="K345" t="s">
+        <v>18</v>
+      </c>
+      <c r="L345">
+        <v>8</v>
+      </c>
+      <c r="M345">
+        <v>0.94</v>
+      </c>
+      <c r="N345">
+        <v>71</v>
+      </c>
+      <c r="O345">
+        <v>30.03</v>
+      </c>
+      <c r="P345">
+        <v>6</v>
+      </c>
+      <c r="Q345">
+        <v>0.78</v>
+      </c>
+      <c r="R345">
+        <v>5.3</v>
+      </c>
+      <c r="S345">
+        <v>47</v>
+      </c>
+      <c r="T345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B346" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346" t="s">
+        <v>12</v>
+      </c>
+      <c r="D346">
+        <v>69</v>
+      </c>
+      <c r="E346">
+        <v>82</v>
+      </c>
+      <c r="F346">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="G346">
+        <v>5.57</v>
+      </c>
+      <c r="H346">
+        <v>1.2</v>
+      </c>
+      <c r="I346" t="s">
+        <v>21</v>
+      </c>
+      <c r="J346">
+        <v>3</v>
+      </c>
+      <c r="K346" t="s">
+        <v>18</v>
+      </c>
+      <c r="L346">
+        <v>8</v>
+      </c>
+      <c r="M346">
+        <v>0.94</v>
+      </c>
+      <c r="N346">
+        <v>71</v>
+      </c>
+      <c r="O346">
+        <v>30.03</v>
+      </c>
+      <c r="P346">
+        <v>6</v>
+      </c>
+      <c r="Q346">
+        <v>0.78</v>
+      </c>
+      <c r="R346">
+        <v>5.3</v>
+      </c>
+      <c r="S346">
+        <v>47</v>
+      </c>
+      <c r="T346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B347" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347" t="s">
+        <v>13</v>
+      </c>
+      <c r="D347">
+        <v>69</v>
+      </c>
+      <c r="E347">
+        <v>82</v>
+      </c>
+      <c r="F347">
+        <f t="shared" ref="F347:F351" si="7">ABS(D347-E347)</f>
+        <v>13</v>
+      </c>
+      <c r="G347">
+        <v>5.57</v>
+      </c>
+      <c r="H347">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I347" t="s">
+        <v>21</v>
+      </c>
+      <c r="J347">
+        <v>3</v>
+      </c>
+      <c r="K347" t="s">
+        <v>18</v>
+      </c>
+      <c r="L347">
+        <v>8</v>
+      </c>
+      <c r="M347">
+        <v>0.94</v>
+      </c>
+      <c r="N347">
+        <v>71</v>
+      </c>
+      <c r="O347">
+        <v>30.03</v>
+      </c>
+      <c r="P347">
+        <v>6</v>
+      </c>
+      <c r="Q347">
+        <v>0.78</v>
+      </c>
+      <c r="R347">
+        <v>5.3</v>
+      </c>
+      <c r="S347">
+        <v>47</v>
+      </c>
+      <c r="T347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B348" t="s">
+        <v>9</v>
+      </c>
+      <c r="C348" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348">
+        <v>69</v>
+      </c>
+      <c r="E348">
+        <v>82</v>
+      </c>
+      <c r="F348">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="G348">
+        <v>5.57</v>
+      </c>
+      <c r="H348">
+        <v>1.6</v>
+      </c>
+      <c r="I348" t="s">
+        <v>21</v>
+      </c>
+      <c r="J348">
+        <v>3</v>
+      </c>
+      <c r="K348" t="s">
+        <v>18</v>
+      </c>
+      <c r="L348">
+        <v>8</v>
+      </c>
+      <c r="M348">
+        <v>0.94</v>
+      </c>
+      <c r="N348">
+        <v>71</v>
+      </c>
+      <c r="O348">
+        <v>30.03</v>
+      </c>
+      <c r="P348">
+        <v>6</v>
+      </c>
+      <c r="Q348">
+        <v>0.78</v>
+      </c>
+      <c r="R348">
+        <v>5.3</v>
+      </c>
+      <c r="S348">
+        <v>47</v>
+      </c>
+      <c r="T348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B349" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349">
+        <v>69</v>
+      </c>
+      <c r="E349">
+        <v>82</v>
+      </c>
+      <c r="F349">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="G349">
+        <v>5.57</v>
+      </c>
+      <c r="H349">
+        <v>1.5</v>
+      </c>
+      <c r="I349" t="s">
+        <v>21</v>
+      </c>
+      <c r="J349">
+        <v>3</v>
+      </c>
+      <c r="K349" t="s">
+        <v>18</v>
+      </c>
+      <c r="L349">
+        <v>8</v>
+      </c>
+      <c r="M349">
+        <v>0.94</v>
+      </c>
+      <c r="N349">
+        <v>71</v>
+      </c>
+      <c r="O349">
+        <v>30.03</v>
+      </c>
+      <c r="P349">
+        <v>6</v>
+      </c>
+      <c r="Q349">
+        <v>0.78</v>
+      </c>
+      <c r="R349">
+        <v>5.3</v>
+      </c>
+      <c r="S349">
+        <v>47</v>
+      </c>
+      <c r="T349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B350" t="s">
+        <v>9</v>
+      </c>
+      <c r="C350" t="s">
+        <v>11</v>
+      </c>
+      <c r="D350">
+        <v>69</v>
+      </c>
+      <c r="E350">
+        <v>82</v>
+      </c>
+      <c r="F350">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="G350">
+        <v>5.57</v>
+      </c>
+      <c r="H350">
+        <v>4</v>
+      </c>
+      <c r="I350" t="s">
+        <v>21</v>
+      </c>
+      <c r="J350">
+        <v>4</v>
+      </c>
+      <c r="K350" t="s">
+        <v>18</v>
+      </c>
+      <c r="L350">
+        <v>8</v>
+      </c>
+      <c r="M350">
+        <v>0.94</v>
+      </c>
+      <c r="N350">
+        <v>71</v>
+      </c>
+      <c r="O350">
+        <v>30.03</v>
+      </c>
+      <c r="P350">
+        <v>6</v>
+      </c>
+      <c r="Q350">
+        <v>0.78</v>
+      </c>
+      <c r="R350">
+        <v>5.3</v>
+      </c>
+      <c r="S350">
+        <v>47</v>
+      </c>
+      <c r="T350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B351" t="s">
+        <v>10</v>
+      </c>
+      <c r="C351" t="s">
+        <v>12</v>
+      </c>
+      <c r="D351">
+        <v>69</v>
+      </c>
+      <c r="E351">
+        <v>82</v>
+      </c>
+      <c r="F351">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="G351">
+        <v>5.57</v>
+      </c>
+      <c r="H351">
+        <v>10</v>
+      </c>
+      <c r="I351" t="s">
+        <v>21</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351" t="s">
+        <v>18</v>
+      </c>
+      <c r="L351">
+        <v>8</v>
+      </c>
+      <c r="M351">
+        <v>0.94</v>
+      </c>
+      <c r="N351">
+        <v>71</v>
+      </c>
+      <c r="O351">
+        <v>30.03</v>
+      </c>
+      <c r="P351">
+        <v>6</v>
+      </c>
+      <c r="Q351">
+        <v>0.78</v>
+      </c>
+      <c r="R351">
+        <v>5.3</v>
+      </c>
+      <c r="S351">
+        <v>47</v>
+      </c>
+      <c r="T351">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC57A182-945F-45DE-B917-BD84439F920D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F1D8B-ACD6-4787-BF76-4D85CA26E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U351"/>
+  <dimension ref="A1:U358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="P359" sqref="P359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22335,7 +22335,7 @@
         <v>82</v>
       </c>
       <c r="F347">
-        <f t="shared" ref="F347:F351" si="7">ABS(D347-E347)</f>
+        <f t="shared" ref="F347:F358" si="7">ABS(D347-E347)</f>
         <v>13</v>
       </c>
       <c r="G347">
@@ -22630,6 +22630,447 @@
         <v>47</v>
       </c>
       <c r="T351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>45837</v>
+      </c>
+      <c r="B352" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352" t="s">
+        <v>11</v>
+      </c>
+      <c r="D352">
+        <v>71</v>
+      </c>
+      <c r="E352">
+        <v>86</v>
+      </c>
+      <c r="F352">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="G352">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H352">
+        <v>0.3</v>
+      </c>
+      <c r="I352" t="s">
+        <v>15</v>
+      </c>
+      <c r="J352">
+        <v>2</v>
+      </c>
+      <c r="K352" t="s">
+        <v>19</v>
+      </c>
+      <c r="L352">
+        <v>8</v>
+      </c>
+      <c r="M352">
+        <v>0.61</v>
+      </c>
+      <c r="N352">
+        <v>71</v>
+      </c>
+      <c r="O352">
+        <v>30.01</v>
+      </c>
+      <c r="P352">
+        <v>6</v>
+      </c>
+      <c r="Q352">
+        <v>0.1</v>
+      </c>
+      <c r="R352">
+        <v>9.9</v>
+      </c>
+      <c r="S352">
+        <v>48</v>
+      </c>
+      <c r="T352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>45837</v>
+      </c>
+      <c r="B353" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353" t="s">
+        <v>12</v>
+      </c>
+      <c r="D353">
+        <v>71</v>
+      </c>
+      <c r="E353">
+        <v>86</v>
+      </c>
+      <c r="F353">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="G353">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H353">
+        <v>0.3</v>
+      </c>
+      <c r="I353" t="s">
+        <v>15</v>
+      </c>
+      <c r="J353">
+        <v>3</v>
+      </c>
+      <c r="K353" t="s">
+        <v>20</v>
+      </c>
+      <c r="L353">
+        <v>8</v>
+      </c>
+      <c r="M353">
+        <v>0.61</v>
+      </c>
+      <c r="N353">
+        <v>71</v>
+      </c>
+      <c r="O353">
+        <v>30.01</v>
+      </c>
+      <c r="P353">
+        <v>6</v>
+      </c>
+      <c r="Q353">
+        <v>0.1</v>
+      </c>
+      <c r="R353">
+        <v>9.9</v>
+      </c>
+      <c r="S353">
+        <v>48</v>
+      </c>
+      <c r="T353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>45837</v>
+      </c>
+      <c r="B354" t="s">
+        <v>9</v>
+      </c>
+      <c r="C354" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354">
+        <v>71</v>
+      </c>
+      <c r="E354">
+        <v>86</v>
+      </c>
+      <c r="F354">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="G354">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H354">
+        <v>0.3</v>
+      </c>
+      <c r="I354" t="s">
+        <v>15</v>
+      </c>
+      <c r="J354">
+        <v>3</v>
+      </c>
+      <c r="K354" t="s">
+        <v>20</v>
+      </c>
+      <c r="L354">
+        <v>8</v>
+      </c>
+      <c r="M354">
+        <v>0.61</v>
+      </c>
+      <c r="N354">
+        <v>71</v>
+      </c>
+      <c r="O354">
+        <v>30.01</v>
+      </c>
+      <c r="P354">
+        <v>6</v>
+      </c>
+      <c r="Q354">
+        <v>0.1</v>
+      </c>
+      <c r="R354">
+        <v>9.9</v>
+      </c>
+      <c r="S354">
+        <v>48</v>
+      </c>
+      <c r="T354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>45837</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355">
+        <v>71</v>
+      </c>
+      <c r="E355">
+        <v>86</v>
+      </c>
+      <c r="F355">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="G355">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H355">
+        <v>0.6</v>
+      </c>
+      <c r="I355" t="s">
+        <v>15</v>
+      </c>
+      <c r="J355">
+        <v>3</v>
+      </c>
+      <c r="K355" t="s">
+        <v>19</v>
+      </c>
+      <c r="L355">
+        <v>8</v>
+      </c>
+      <c r="M355">
+        <v>0.61</v>
+      </c>
+      <c r="N355">
+        <v>71</v>
+      </c>
+      <c r="O355">
+        <v>30.01</v>
+      </c>
+      <c r="P355">
+        <v>6</v>
+      </c>
+      <c r="Q355">
+        <v>0.1</v>
+      </c>
+      <c r="R355">
+        <v>9.9</v>
+      </c>
+      <c r="S355">
+        <v>48</v>
+      </c>
+      <c r="T355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>45837</v>
+      </c>
+      <c r="B356" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356">
+        <v>71</v>
+      </c>
+      <c r="E356">
+        <v>86</v>
+      </c>
+      <c r="F356">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="G356">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H356">
+        <v>0.5</v>
+      </c>
+      <c r="I356" t="s">
+        <v>15</v>
+      </c>
+      <c r="J356">
+        <v>3</v>
+      </c>
+      <c r="K356" t="s">
+        <v>19</v>
+      </c>
+      <c r="L356">
+        <v>8</v>
+      </c>
+      <c r="M356">
+        <v>0.61</v>
+      </c>
+      <c r="N356">
+        <v>71</v>
+      </c>
+      <c r="O356">
+        <v>30.01</v>
+      </c>
+      <c r="P356">
+        <v>6</v>
+      </c>
+      <c r="Q356">
+        <v>0.1</v>
+      </c>
+      <c r="R356">
+        <v>9.9</v>
+      </c>
+      <c r="S356">
+        <v>48</v>
+      </c>
+      <c r="T356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>45837</v>
+      </c>
+      <c r="B357" t="s">
+        <v>9</v>
+      </c>
+      <c r="C357" t="s">
+        <v>11</v>
+      </c>
+      <c r="D357">
+        <v>71</v>
+      </c>
+      <c r="E357">
+        <v>86</v>
+      </c>
+      <c r="F357">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="G357">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H357">
+        <v>0.7</v>
+      </c>
+      <c r="I357" t="s">
+        <v>15</v>
+      </c>
+      <c r="J357">
+        <v>4</v>
+      </c>
+      <c r="K357" t="s">
+        <v>18</v>
+      </c>
+      <c r="L357">
+        <v>8</v>
+      </c>
+      <c r="M357">
+        <v>0.61</v>
+      </c>
+      <c r="N357">
+        <v>71</v>
+      </c>
+      <c r="O357">
+        <v>30.01</v>
+      </c>
+      <c r="P357">
+        <v>6</v>
+      </c>
+      <c r="Q357">
+        <v>0.1</v>
+      </c>
+      <c r="R357">
+        <v>9.9</v>
+      </c>
+      <c r="S357">
+        <v>48</v>
+      </c>
+      <c r="T357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>45837</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" t="s">
+        <v>12</v>
+      </c>
+      <c r="D358">
+        <v>71</v>
+      </c>
+      <c r="E358">
+        <v>86</v>
+      </c>
+      <c r="F358">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="G358">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H358">
+        <v>1.25</v>
+      </c>
+      <c r="I358" t="s">
+        <v>15</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358" t="s">
+        <v>19</v>
+      </c>
+      <c r="L358">
+        <v>8</v>
+      </c>
+      <c r="M358">
+        <v>0.61</v>
+      </c>
+      <c r="N358">
+        <v>71</v>
+      </c>
+      <c r="O358">
+        <v>30.01</v>
+      </c>
+      <c r="P358">
+        <v>6</v>
+      </c>
+      <c r="Q358">
+        <v>0.1</v>
+      </c>
+      <c r="R358">
+        <v>9.9</v>
+      </c>
+      <c r="S358">
+        <v>48</v>
+      </c>
+      <c r="T358">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F1D8B-ACD6-4787-BF76-4D85CA26E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23BAA2D-FE53-4062-8822-3F5D3C4823DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U358"/>
+  <dimension ref="A1:U365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="P359" sqref="P359"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="G366" sqref="G366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22335,7 +22335,7 @@
         <v>82</v>
       </c>
       <c r="F347">
-        <f t="shared" ref="F347:F358" si="7">ABS(D347-E347)</f>
+        <f t="shared" ref="F347:F366" si="7">ABS(D347-E347)</f>
         <v>13</v>
       </c>
       <c r="G347">
@@ -23071,6 +23071,447 @@
         <v>48</v>
       </c>
       <c r="T358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B359" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359">
+        <v>72</v>
+      </c>
+      <c r="E359">
+        <v>84</v>
+      </c>
+      <c r="F359">
+        <f>ABS(D359-E359)</f>
+        <v>12</v>
+      </c>
+      <c r="G359">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H359">
+        <v>0.3</v>
+      </c>
+      <c r="I359" t="s">
+        <v>15</v>
+      </c>
+      <c r="J359">
+        <v>2</v>
+      </c>
+      <c r="K359" t="s">
+        <v>20</v>
+      </c>
+      <c r="L359">
+        <v>7</v>
+      </c>
+      <c r="M359">
+        <v>0.74</v>
+      </c>
+      <c r="N359">
+        <v>74</v>
+      </c>
+      <c r="O359">
+        <v>29.98</v>
+      </c>
+      <c r="P359">
+        <v>12</v>
+      </c>
+      <c r="Q359">
+        <v>0.62</v>
+      </c>
+      <c r="R359">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S359">
+        <v>53</v>
+      </c>
+      <c r="T359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B360" t="s">
+        <v>9</v>
+      </c>
+      <c r="C360" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360">
+        <v>72</v>
+      </c>
+      <c r="E360">
+        <v>84</v>
+      </c>
+      <c r="F360">
+        <f>ABS(D360-E360)</f>
+        <v>12</v>
+      </c>
+      <c r="G360">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H360">
+        <v>0.35</v>
+      </c>
+      <c r="I360" t="s">
+        <v>15</v>
+      </c>
+      <c r="J360">
+        <v>3</v>
+      </c>
+      <c r="K360" t="s">
+        <v>20</v>
+      </c>
+      <c r="L360">
+        <v>7</v>
+      </c>
+      <c r="M360">
+        <v>0.74</v>
+      </c>
+      <c r="N360">
+        <v>74</v>
+      </c>
+      <c r="O360">
+        <v>29.98</v>
+      </c>
+      <c r="P360">
+        <v>12</v>
+      </c>
+      <c r="Q360">
+        <v>0.62</v>
+      </c>
+      <c r="R360">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S360">
+        <v>53</v>
+      </c>
+      <c r="T360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B361" t="s">
+        <v>9</v>
+      </c>
+      <c r="C361" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361">
+        <v>72</v>
+      </c>
+      <c r="E361">
+        <v>84</v>
+      </c>
+      <c r="F361">
+        <f>ABS(D361-E361)</f>
+        <v>12</v>
+      </c>
+      <c r="G361">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H361">
+        <v>0.35</v>
+      </c>
+      <c r="I361" t="s">
+        <v>15</v>
+      </c>
+      <c r="J361">
+        <v>3</v>
+      </c>
+      <c r="K361" t="s">
+        <v>19</v>
+      </c>
+      <c r="L361">
+        <v>7</v>
+      </c>
+      <c r="M361">
+        <v>0.74</v>
+      </c>
+      <c r="N361">
+        <v>74</v>
+      </c>
+      <c r="O361">
+        <v>29.98</v>
+      </c>
+      <c r="P361">
+        <v>12</v>
+      </c>
+      <c r="Q361">
+        <v>0.62</v>
+      </c>
+      <c r="R361">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S361">
+        <v>53</v>
+      </c>
+      <c r="T361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B362" t="s">
+        <v>9</v>
+      </c>
+      <c r="C362" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362">
+        <v>72</v>
+      </c>
+      <c r="E362">
+        <v>84</v>
+      </c>
+      <c r="F362">
+        <f>ABS(D362-E362)</f>
+        <v>12</v>
+      </c>
+      <c r="G362">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H362">
+        <v>0.5</v>
+      </c>
+      <c r="I362" t="s">
+        <v>15</v>
+      </c>
+      <c r="J362">
+        <v>3</v>
+      </c>
+      <c r="K362" t="s">
+        <v>19</v>
+      </c>
+      <c r="L362">
+        <v>7</v>
+      </c>
+      <c r="M362">
+        <v>0.74</v>
+      </c>
+      <c r="N362">
+        <v>74</v>
+      </c>
+      <c r="O362">
+        <v>29.98</v>
+      </c>
+      <c r="P362">
+        <v>12</v>
+      </c>
+      <c r="Q362">
+        <v>0.62</v>
+      </c>
+      <c r="R362">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S362">
+        <v>53</v>
+      </c>
+      <c r="T362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B363" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363" t="s">
+        <v>12</v>
+      </c>
+      <c r="D363">
+        <v>72</v>
+      </c>
+      <c r="E363">
+        <v>84</v>
+      </c>
+      <c r="F363">
+        <f>ABS(D363-E363)</f>
+        <v>12</v>
+      </c>
+      <c r="G363">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H363">
+        <v>0.6</v>
+      </c>
+      <c r="I363" t="s">
+        <v>15</v>
+      </c>
+      <c r="J363">
+        <v>3</v>
+      </c>
+      <c r="K363" t="s">
+        <v>20</v>
+      </c>
+      <c r="L363">
+        <v>7</v>
+      </c>
+      <c r="M363">
+        <v>0.74</v>
+      </c>
+      <c r="N363">
+        <v>74</v>
+      </c>
+      <c r="O363">
+        <v>29.98</v>
+      </c>
+      <c r="P363">
+        <v>12</v>
+      </c>
+      <c r="Q363">
+        <v>0.62</v>
+      </c>
+      <c r="R363">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S363">
+        <v>53</v>
+      </c>
+      <c r="T363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B364" t="s">
+        <v>9</v>
+      </c>
+      <c r="C364" t="s">
+        <v>11</v>
+      </c>
+      <c r="D364">
+        <v>72</v>
+      </c>
+      <c r="E364">
+        <v>84</v>
+      </c>
+      <c r="F364">
+        <f>ABS(D364-E364)</f>
+        <v>12</v>
+      </c>
+      <c r="G364">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H364">
+        <v>0.7</v>
+      </c>
+      <c r="I364" t="s">
+        <v>15</v>
+      </c>
+      <c r="J364">
+        <v>4</v>
+      </c>
+      <c r="K364" t="s">
+        <v>19</v>
+      </c>
+      <c r="L364">
+        <v>7</v>
+      </c>
+      <c r="M364">
+        <v>0.74</v>
+      </c>
+      <c r="N364">
+        <v>74</v>
+      </c>
+      <c r="O364">
+        <v>29.98</v>
+      </c>
+      <c r="P364">
+        <v>12</v>
+      </c>
+      <c r="Q364">
+        <v>0.62</v>
+      </c>
+      <c r="R364">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S364">
+        <v>53</v>
+      </c>
+      <c r="T364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B365" t="s">
+        <v>10</v>
+      </c>
+      <c r="C365" t="s">
+        <v>12</v>
+      </c>
+      <c r="D365">
+        <v>72</v>
+      </c>
+      <c r="E365">
+        <v>84</v>
+      </c>
+      <c r="F365">
+        <f>ABS(D365-E365)</f>
+        <v>12</v>
+      </c>
+      <c r="G365">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H365">
+        <v>1.3</v>
+      </c>
+      <c r="I365" t="s">
+        <v>15</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365" t="s">
+        <v>20</v>
+      </c>
+      <c r="L365">
+        <v>7</v>
+      </c>
+      <c r="M365">
+        <v>0.74</v>
+      </c>
+      <c r="N365">
+        <v>74</v>
+      </c>
+      <c r="O365">
+        <v>29.98</v>
+      </c>
+      <c r="P365">
+        <v>12</v>
+      </c>
+      <c r="Q365">
+        <v>0.62</v>
+      </c>
+      <c r="R365">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S365">
+        <v>53</v>
+      </c>
+      <c r="T365">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23BAA2D-FE53-4062-8822-3F5D3C4823DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361DD602-BD4F-41AA-A10B-2738613B4A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U365"/>
+  <dimension ref="A1:U379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="G366" sqref="G366"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="Q373" sqref="Q373:Q379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22335,7 +22335,7 @@
         <v>82</v>
       </c>
       <c r="F347">
-        <f t="shared" ref="F347:F366" si="7">ABS(D347-E347)</f>
+        <f t="shared" ref="F347:F358" si="7">ABS(D347-E347)</f>
         <v>13</v>
       </c>
       <c r="G347">
@@ -23091,7 +23091,7 @@
         <v>84</v>
       </c>
       <c r="F359">
-        <f>ABS(D359-E359)</f>
+        <f t="shared" ref="F359:F379" si="8">ABS(D359-E359)</f>
         <v>12</v>
       </c>
       <c r="G359">
@@ -23154,7 +23154,7 @@
         <v>84</v>
       </c>
       <c r="F360">
-        <f>ABS(D360-E360)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G360">
@@ -23217,7 +23217,7 @@
         <v>84</v>
       </c>
       <c r="F361">
-        <f>ABS(D361-E361)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G361">
@@ -23280,7 +23280,7 @@
         <v>84</v>
       </c>
       <c r="F362">
-        <f>ABS(D362-E362)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G362">
@@ -23343,7 +23343,7 @@
         <v>84</v>
       </c>
       <c r="F363">
-        <f>ABS(D363-E363)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G363">
@@ -23406,7 +23406,7 @@
         <v>84</v>
       </c>
       <c r="F364">
-        <f>ABS(D364-E364)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G364">
@@ -23469,7 +23469,7 @@
         <v>84</v>
       </c>
       <c r="F365">
-        <f>ABS(D365-E365)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G365">
@@ -23512,6 +23512,888 @@
         <v>53</v>
       </c>
       <c r="T365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B366" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" t="s">
+        <v>11</v>
+      </c>
+      <c r="D366">
+        <v>67</v>
+      </c>
+      <c r="E366">
+        <v>78</v>
+      </c>
+      <c r="F366">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="G366">
+        <v>0.5</v>
+      </c>
+      <c r="H366">
+        <v>0.2</v>
+      </c>
+      <c r="I366" t="s">
+        <v>21</v>
+      </c>
+      <c r="J366">
+        <v>2</v>
+      </c>
+      <c r="K366" t="s">
+        <v>18</v>
+      </c>
+      <c r="L366">
+        <v>6</v>
+      </c>
+      <c r="M366">
+        <v>0.67</v>
+      </c>
+      <c r="N366">
+        <v>70</v>
+      </c>
+      <c r="O366">
+        <v>29.99</v>
+      </c>
+      <c r="P366">
+        <v>13</v>
+      </c>
+      <c r="Q366">
+        <v>0.78</v>
+      </c>
+      <c r="R366">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S366">
+        <v>49</v>
+      </c>
+      <c r="T366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B367" t="s">
+        <v>9</v>
+      </c>
+      <c r="C367" t="s">
+        <v>12</v>
+      </c>
+      <c r="D367">
+        <v>67</v>
+      </c>
+      <c r="E367">
+        <v>78</v>
+      </c>
+      <c r="F367">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="G367">
+        <v>0.5</v>
+      </c>
+      <c r="H367">
+        <v>0.1</v>
+      </c>
+      <c r="I367" t="s">
+        <v>21</v>
+      </c>
+      <c r="J367">
+        <v>3</v>
+      </c>
+      <c r="K367" t="s">
+        <v>18</v>
+      </c>
+      <c r="L367">
+        <v>6</v>
+      </c>
+      <c r="M367">
+        <v>0.67</v>
+      </c>
+      <c r="N367">
+        <v>70</v>
+      </c>
+      <c r="O367">
+        <v>29.99</v>
+      </c>
+      <c r="P367">
+        <v>13</v>
+      </c>
+      <c r="Q367">
+        <v>0.78</v>
+      </c>
+      <c r="R367">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S367">
+        <v>49</v>
+      </c>
+      <c r="T367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B368" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368" t="s">
+        <v>13</v>
+      </c>
+      <c r="D368">
+        <v>67</v>
+      </c>
+      <c r="E368">
+        <v>78</v>
+      </c>
+      <c r="F368">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="G368">
+        <v>0.5</v>
+      </c>
+      <c r="H368">
+        <v>0.2</v>
+      </c>
+      <c r="I368" t="s">
+        <v>21</v>
+      </c>
+      <c r="J368">
+        <v>3</v>
+      </c>
+      <c r="K368" t="s">
+        <v>19</v>
+      </c>
+      <c r="L368">
+        <v>6</v>
+      </c>
+      <c r="M368">
+        <v>0.67</v>
+      </c>
+      <c r="N368">
+        <v>70</v>
+      </c>
+      <c r="O368">
+        <v>29.99</v>
+      </c>
+      <c r="P368">
+        <v>13</v>
+      </c>
+      <c r="Q368">
+        <v>0.78</v>
+      </c>
+      <c r="R368">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S368">
+        <v>49</v>
+      </c>
+      <c r="T368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B369" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369">
+        <v>67</v>
+      </c>
+      <c r="E369">
+        <v>78</v>
+      </c>
+      <c r="F369">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="G369">
+        <v>0.5</v>
+      </c>
+      <c r="H369">
+        <v>0.25</v>
+      </c>
+      <c r="I369" t="s">
+        <v>21</v>
+      </c>
+      <c r="J369">
+        <v>3</v>
+      </c>
+      <c r="K369" t="s">
+        <v>19</v>
+      </c>
+      <c r="L369">
+        <v>6</v>
+      </c>
+      <c r="M369">
+        <v>0.67</v>
+      </c>
+      <c r="N369">
+        <v>70</v>
+      </c>
+      <c r="O369">
+        <v>29.99</v>
+      </c>
+      <c r="P369">
+        <v>13</v>
+      </c>
+      <c r="Q369">
+        <v>0.78</v>
+      </c>
+      <c r="R369">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S369">
+        <v>49</v>
+      </c>
+      <c r="T369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B370" t="s">
+        <v>9</v>
+      </c>
+      <c r="C370" t="s">
+        <v>12</v>
+      </c>
+      <c r="D370">
+        <v>67</v>
+      </c>
+      <c r="E370">
+        <v>78</v>
+      </c>
+      <c r="F370">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="G370">
+        <v>0.5</v>
+      </c>
+      <c r="H370">
+        <v>0.3</v>
+      </c>
+      <c r="I370" t="s">
+        <v>21</v>
+      </c>
+      <c r="J370">
+        <v>3</v>
+      </c>
+      <c r="K370" t="s">
+        <v>20</v>
+      </c>
+      <c r="L370">
+        <v>6</v>
+      </c>
+      <c r="M370">
+        <v>0.67</v>
+      </c>
+      <c r="N370">
+        <v>70</v>
+      </c>
+      <c r="O370">
+        <v>29.99</v>
+      </c>
+      <c r="P370">
+        <v>13</v>
+      </c>
+      <c r="Q370">
+        <v>0.78</v>
+      </c>
+      <c r="R370">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S370">
+        <v>49</v>
+      </c>
+      <c r="T370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B371" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371" t="s">
+        <v>11</v>
+      </c>
+      <c r="D371">
+        <v>67</v>
+      </c>
+      <c r="E371">
+        <v>78</v>
+      </c>
+      <c r="F371">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="G371">
+        <v>0.5</v>
+      </c>
+      <c r="H371">
+        <v>0.3</v>
+      </c>
+      <c r="I371" t="s">
+        <v>21</v>
+      </c>
+      <c r="J371">
+        <v>4</v>
+      </c>
+      <c r="K371" t="s">
+        <v>20</v>
+      </c>
+      <c r="L371">
+        <v>6</v>
+      </c>
+      <c r="M371">
+        <v>0.67</v>
+      </c>
+      <c r="N371">
+        <v>70</v>
+      </c>
+      <c r="O371">
+        <v>29.99</v>
+      </c>
+      <c r="P371">
+        <v>13</v>
+      </c>
+      <c r="Q371">
+        <v>0.78</v>
+      </c>
+      <c r="R371">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S371">
+        <v>49</v>
+      </c>
+      <c r="T371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B372" t="s">
+        <v>10</v>
+      </c>
+      <c r="C372" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372">
+        <v>67</v>
+      </c>
+      <c r="E372">
+        <v>78</v>
+      </c>
+      <c r="F372">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="G372">
+        <v>0.5</v>
+      </c>
+      <c r="H372">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I372" t="s">
+        <v>21</v>
+      </c>
+      <c r="J372">
+        <v>1</v>
+      </c>
+      <c r="K372" t="s">
+        <v>19</v>
+      </c>
+      <c r="L372">
+        <v>6</v>
+      </c>
+      <c r="M372">
+        <v>0.67</v>
+      </c>
+      <c r="N372">
+        <v>70</v>
+      </c>
+      <c r="O372">
+        <v>29.99</v>
+      </c>
+      <c r="P372">
+        <v>13</v>
+      </c>
+      <c r="Q372">
+        <v>0.78</v>
+      </c>
+      <c r="R372">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S372">
+        <v>49</v>
+      </c>
+      <c r="T372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B373" t="s">
+        <v>8</v>
+      </c>
+      <c r="C373" t="s">
+        <v>11</v>
+      </c>
+      <c r="D373">
+        <v>65</v>
+      </c>
+      <c r="E373">
+        <v>84</v>
+      </c>
+      <c r="F373">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373" t="s">
+        <v>21</v>
+      </c>
+      <c r="J373">
+        <v>2</v>
+      </c>
+      <c r="K373" t="s">
+        <v>19</v>
+      </c>
+      <c r="L373">
+        <v>9</v>
+      </c>
+      <c r="M373">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N373">
+        <v>66</v>
+      </c>
+      <c r="O373">
+        <v>29.99</v>
+      </c>
+      <c r="P373">
+        <v>9</v>
+      </c>
+      <c r="Q373">
+        <v>0.36</v>
+      </c>
+      <c r="R373">
+        <v>9.9</v>
+      </c>
+      <c r="S373">
+        <v>45</v>
+      </c>
+      <c r="T373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B374" t="s">
+        <v>9</v>
+      </c>
+      <c r="C374" t="s">
+        <v>12</v>
+      </c>
+      <c r="D374">
+        <v>65</v>
+      </c>
+      <c r="E374">
+        <v>84</v>
+      </c>
+      <c r="F374">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374" t="s">
+        <v>21</v>
+      </c>
+      <c r="J374">
+        <v>3</v>
+      </c>
+      <c r="K374" t="s">
+        <v>19</v>
+      </c>
+      <c r="L374">
+        <v>9</v>
+      </c>
+      <c r="M374">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N374">
+        <v>66</v>
+      </c>
+      <c r="O374">
+        <v>29.99</v>
+      </c>
+      <c r="P374">
+        <v>9</v>
+      </c>
+      <c r="Q374">
+        <v>0.36</v>
+      </c>
+      <c r="R374">
+        <v>9.9</v>
+      </c>
+      <c r="S374">
+        <v>45</v>
+      </c>
+      <c r="T374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B375" t="s">
+        <v>9</v>
+      </c>
+      <c r="C375" t="s">
+        <v>13</v>
+      </c>
+      <c r="D375">
+        <v>65</v>
+      </c>
+      <c r="E375">
+        <v>84</v>
+      </c>
+      <c r="F375">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>0.1</v>
+      </c>
+      <c r="I375" t="s">
+        <v>21</v>
+      </c>
+      <c r="J375">
+        <v>3</v>
+      </c>
+      <c r="K375" t="s">
+        <v>20</v>
+      </c>
+      <c r="L375">
+        <v>9</v>
+      </c>
+      <c r="M375">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N375">
+        <v>66</v>
+      </c>
+      <c r="O375">
+        <v>29.99</v>
+      </c>
+      <c r="P375">
+        <v>9</v>
+      </c>
+      <c r="Q375">
+        <v>0.36</v>
+      </c>
+      <c r="R375">
+        <v>9.9</v>
+      </c>
+      <c r="S375">
+        <v>45</v>
+      </c>
+      <c r="T375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B376" t="s">
+        <v>9</v>
+      </c>
+      <c r="C376" t="s">
+        <v>12</v>
+      </c>
+      <c r="D376">
+        <v>65</v>
+      </c>
+      <c r="E376">
+        <v>84</v>
+      </c>
+      <c r="F376">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>0.1</v>
+      </c>
+      <c r="I376" t="s">
+        <v>21</v>
+      </c>
+      <c r="J376">
+        <v>3</v>
+      </c>
+      <c r="K376" t="s">
+        <v>20</v>
+      </c>
+      <c r="L376">
+        <v>9</v>
+      </c>
+      <c r="M376">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N376">
+        <v>66</v>
+      </c>
+      <c r="O376">
+        <v>29.99</v>
+      </c>
+      <c r="P376">
+        <v>9</v>
+      </c>
+      <c r="Q376">
+        <v>0.36</v>
+      </c>
+      <c r="R376">
+        <v>9.9</v>
+      </c>
+      <c r="S376">
+        <v>45</v>
+      </c>
+      <c r="T376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B377" t="s">
+        <v>9</v>
+      </c>
+      <c r="C377" t="s">
+        <v>12</v>
+      </c>
+      <c r="D377">
+        <v>65</v>
+      </c>
+      <c r="E377">
+        <v>84</v>
+      </c>
+      <c r="F377">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>0.25</v>
+      </c>
+      <c r="I377" t="s">
+        <v>21</v>
+      </c>
+      <c r="J377">
+        <v>3</v>
+      </c>
+      <c r="K377" t="s">
+        <v>20</v>
+      </c>
+      <c r="L377">
+        <v>9</v>
+      </c>
+      <c r="M377">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N377">
+        <v>66</v>
+      </c>
+      <c r="O377">
+        <v>29.99</v>
+      </c>
+      <c r="P377">
+        <v>9</v>
+      </c>
+      <c r="Q377">
+        <v>0.36</v>
+      </c>
+      <c r="R377">
+        <v>9.9</v>
+      </c>
+      <c r="S377">
+        <v>45</v>
+      </c>
+      <c r="T377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B378" t="s">
+        <v>9</v>
+      </c>
+      <c r="C378" t="s">
+        <v>11</v>
+      </c>
+      <c r="D378">
+        <v>65</v>
+      </c>
+      <c r="E378">
+        <v>84</v>
+      </c>
+      <c r="F378">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>0.2</v>
+      </c>
+      <c r="I378" t="s">
+        <v>21</v>
+      </c>
+      <c r="J378">
+        <v>4</v>
+      </c>
+      <c r="K378" t="s">
+        <v>20</v>
+      </c>
+      <c r="L378">
+        <v>9</v>
+      </c>
+      <c r="M378">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N378">
+        <v>66</v>
+      </c>
+      <c r="O378">
+        <v>29.99</v>
+      </c>
+      <c r="P378">
+        <v>9</v>
+      </c>
+      <c r="Q378">
+        <v>0.36</v>
+      </c>
+      <c r="R378">
+        <v>9.9</v>
+      </c>
+      <c r="S378">
+        <v>45</v>
+      </c>
+      <c r="T378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B379" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379" t="s">
+        <v>12</v>
+      </c>
+      <c r="D379">
+        <v>65</v>
+      </c>
+      <c r="E379">
+        <v>84</v>
+      </c>
+      <c r="F379">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>0.5</v>
+      </c>
+      <c r="I379" t="s">
+        <v>21</v>
+      </c>
+      <c r="J379">
+        <v>1</v>
+      </c>
+      <c r="K379" t="s">
+        <v>19</v>
+      </c>
+      <c r="L379">
+        <v>9</v>
+      </c>
+      <c r="M379">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N379">
+        <v>66</v>
+      </c>
+      <c r="O379">
+        <v>29.99</v>
+      </c>
+      <c r="P379">
+        <v>9</v>
+      </c>
+      <c r="Q379">
+        <v>0.36</v>
+      </c>
+      <c r="R379">
+        <v>9.9</v>
+      </c>
+      <c r="S379">
+        <v>45</v>
+      </c>
+      <c r="T379">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361DD602-BD4F-41AA-A10B-2738613B4A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AADA5B-CE67-499B-88AB-31F95F19945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="1308" yWindow="360" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U379"/>
+  <dimension ref="A1:U386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="Q373" sqref="Q373:Q379"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="N380" sqref="N380:N386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23091,7 +23091,7 @@
         <v>84</v>
       </c>
       <c r="F359">
-        <f t="shared" ref="F359:F379" si="8">ABS(D359-E359)</f>
+        <f t="shared" ref="F359:F386" si="8">ABS(D359-E359)</f>
         <v>12</v>
       </c>
       <c r="G359">
@@ -24394,6 +24394,447 @@
         <v>45</v>
       </c>
       <c r="T379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B380" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" t="s">
+        <v>11</v>
+      </c>
+      <c r="D380">
+        <v>62</v>
+      </c>
+      <c r="E380">
+        <v>85</v>
+      </c>
+      <c r="F380">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380" t="s">
+        <v>21</v>
+      </c>
+      <c r="J380">
+        <v>2</v>
+      </c>
+      <c r="K380" t="s">
+        <v>20</v>
+      </c>
+      <c r="L380">
+        <v>8</v>
+      </c>
+      <c r="M380">
+        <v>0.51</v>
+      </c>
+      <c r="N380">
+        <v>64</v>
+      </c>
+      <c r="O380">
+        <v>29.95</v>
+      </c>
+      <c r="P380">
+        <v>16</v>
+      </c>
+      <c r="Q380">
+        <v>0.27</v>
+      </c>
+      <c r="R380">
+        <v>9.9</v>
+      </c>
+      <c r="S380">
+        <v>54</v>
+      </c>
+      <c r="T380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B381" t="s">
+        <v>9</v>
+      </c>
+      <c r="C381" t="s">
+        <v>12</v>
+      </c>
+      <c r="D381">
+        <v>62</v>
+      </c>
+      <c r="E381">
+        <v>85</v>
+      </c>
+      <c r="F381">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381" t="s">
+        <v>21</v>
+      </c>
+      <c r="J381">
+        <v>3</v>
+      </c>
+      <c r="K381" t="s">
+        <v>20</v>
+      </c>
+      <c r="L381">
+        <v>8</v>
+      </c>
+      <c r="M381">
+        <v>0.51</v>
+      </c>
+      <c r="N381">
+        <v>64</v>
+      </c>
+      <c r="O381">
+        <v>29.95</v>
+      </c>
+      <c r="P381">
+        <v>16</v>
+      </c>
+      <c r="Q381">
+        <v>0.27</v>
+      </c>
+      <c r="R381">
+        <v>9.9</v>
+      </c>
+      <c r="S381">
+        <v>54</v>
+      </c>
+      <c r="T381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B382" t="s">
+        <v>9</v>
+      </c>
+      <c r="C382" t="s">
+        <v>13</v>
+      </c>
+      <c r="D382">
+        <v>62</v>
+      </c>
+      <c r="E382">
+        <v>85</v>
+      </c>
+      <c r="F382">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382" t="s">
+        <v>21</v>
+      </c>
+      <c r="J382">
+        <v>3</v>
+      </c>
+      <c r="K382" t="s">
+        <v>20</v>
+      </c>
+      <c r="L382">
+        <v>8</v>
+      </c>
+      <c r="M382">
+        <v>0.51</v>
+      </c>
+      <c r="N382">
+        <v>64</v>
+      </c>
+      <c r="O382">
+        <v>29.95</v>
+      </c>
+      <c r="P382">
+        <v>16</v>
+      </c>
+      <c r="Q382">
+        <v>0.27</v>
+      </c>
+      <c r="R382">
+        <v>9.9</v>
+      </c>
+      <c r="S382">
+        <v>54</v>
+      </c>
+      <c r="T382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B383" t="s">
+        <v>9</v>
+      </c>
+      <c r="C383" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383">
+        <v>62</v>
+      </c>
+      <c r="E383">
+        <v>85</v>
+      </c>
+      <c r="F383">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>0.1</v>
+      </c>
+      <c r="I383" t="s">
+        <v>21</v>
+      </c>
+      <c r="J383">
+        <v>3</v>
+      </c>
+      <c r="K383" t="s">
+        <v>19</v>
+      </c>
+      <c r="L383">
+        <v>8</v>
+      </c>
+      <c r="M383">
+        <v>0.51</v>
+      </c>
+      <c r="N383">
+        <v>64</v>
+      </c>
+      <c r="O383">
+        <v>29.95</v>
+      </c>
+      <c r="P383">
+        <v>16</v>
+      </c>
+      <c r="Q383">
+        <v>0.27</v>
+      </c>
+      <c r="R383">
+        <v>9.9</v>
+      </c>
+      <c r="S383">
+        <v>54</v>
+      </c>
+      <c r="T383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B384" t="s">
+        <v>9</v>
+      </c>
+      <c r="C384" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384">
+        <v>62</v>
+      </c>
+      <c r="E384">
+        <v>85</v>
+      </c>
+      <c r="F384">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>0.1</v>
+      </c>
+      <c r="I384" t="s">
+        <v>21</v>
+      </c>
+      <c r="J384">
+        <v>3</v>
+      </c>
+      <c r="K384" t="s">
+        <v>19</v>
+      </c>
+      <c r="L384">
+        <v>8</v>
+      </c>
+      <c r="M384">
+        <v>0.51</v>
+      </c>
+      <c r="N384">
+        <v>64</v>
+      </c>
+      <c r="O384">
+        <v>29.95</v>
+      </c>
+      <c r="P384">
+        <v>16</v>
+      </c>
+      <c r="Q384">
+        <v>0.27</v>
+      </c>
+      <c r="R384">
+        <v>9.9</v>
+      </c>
+      <c r="S384">
+        <v>54</v>
+      </c>
+      <c r="T384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B385" t="s">
+        <v>9</v>
+      </c>
+      <c r="C385" t="s">
+        <v>11</v>
+      </c>
+      <c r="D385">
+        <v>62</v>
+      </c>
+      <c r="E385">
+        <v>85</v>
+      </c>
+      <c r="F385">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>0.2</v>
+      </c>
+      <c r="I385" t="s">
+        <v>21</v>
+      </c>
+      <c r="J385">
+        <v>4</v>
+      </c>
+      <c r="K385" t="s">
+        <v>20</v>
+      </c>
+      <c r="L385">
+        <v>8</v>
+      </c>
+      <c r="M385">
+        <v>0.51</v>
+      </c>
+      <c r="N385">
+        <v>64</v>
+      </c>
+      <c r="O385">
+        <v>29.95</v>
+      </c>
+      <c r="P385">
+        <v>16</v>
+      </c>
+      <c r="Q385">
+        <v>0.27</v>
+      </c>
+      <c r="R385">
+        <v>9.9</v>
+      </c>
+      <c r="S385">
+        <v>54</v>
+      </c>
+      <c r="T385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B386" t="s">
+        <v>10</v>
+      </c>
+      <c r="C386" t="s">
+        <v>12</v>
+      </c>
+      <c r="D386">
+        <v>62</v>
+      </c>
+      <c r="E386">
+        <v>85</v>
+      </c>
+      <c r="F386">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>0.3</v>
+      </c>
+      <c r="I386" t="s">
+        <v>21</v>
+      </c>
+      <c r="J386">
+        <v>1</v>
+      </c>
+      <c r="K386" t="s">
+        <v>19</v>
+      </c>
+      <c r="L386">
+        <v>8</v>
+      </c>
+      <c r="M386">
+        <v>0.51</v>
+      </c>
+      <c r="N386">
+        <v>64</v>
+      </c>
+      <c r="O386">
+        <v>29.95</v>
+      </c>
+      <c r="P386">
+        <v>16</v>
+      </c>
+      <c r="Q386">
+        <v>0.27</v>
+      </c>
+      <c r="R386">
+        <v>9.9</v>
+      </c>
+      <c r="S386">
+        <v>54</v>
+      </c>
+      <c r="T386">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AADA5B-CE67-499B-88AB-31F95F19945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F974856B-584C-412A-8BD6-D79F41419121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="360" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="804" yWindow="3360" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U386"/>
+  <dimension ref="A1:U393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="N380" sqref="N380:N386"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="Q387" sqref="Q387:Q393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23091,7 +23091,7 @@
         <v>84</v>
       </c>
       <c r="F359">
-        <f t="shared" ref="F359:F386" si="8">ABS(D359-E359)</f>
+        <f t="shared" ref="F359:F393" si="8">ABS(D359-E359)</f>
         <v>12</v>
       </c>
       <c r="G359">
@@ -24835,6 +24835,447 @@
         <v>54</v>
       </c>
       <c r="T386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B387" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" t="s">
+        <v>11</v>
+      </c>
+      <c r="D387">
+        <v>65</v>
+      </c>
+      <c r="E387">
+        <v>85</v>
+      </c>
+      <c r="F387">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387" t="s">
+        <v>21</v>
+      </c>
+      <c r="J387">
+        <v>2</v>
+      </c>
+      <c r="K387" t="s">
+        <v>20</v>
+      </c>
+      <c r="L387">
+        <v>8</v>
+      </c>
+      <c r="M387">
+        <v>0.48</v>
+      </c>
+      <c r="N387">
+        <v>63</v>
+      </c>
+      <c r="O387">
+        <v>30.13</v>
+      </c>
+      <c r="P387">
+        <v>6</v>
+      </c>
+      <c r="Q387">
+        <v>0.06</v>
+      </c>
+      <c r="R387">
+        <v>9.9</v>
+      </c>
+      <c r="S387">
+        <v>67</v>
+      </c>
+      <c r="T387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B388" t="s">
+        <v>9</v>
+      </c>
+      <c r="C388" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388">
+        <v>65</v>
+      </c>
+      <c r="E388">
+        <v>85</v>
+      </c>
+      <c r="F388">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388" t="s">
+        <v>21</v>
+      </c>
+      <c r="J388">
+        <v>3</v>
+      </c>
+      <c r="K388" t="s">
+        <v>20</v>
+      </c>
+      <c r="L388">
+        <v>8</v>
+      </c>
+      <c r="M388">
+        <v>0.48</v>
+      </c>
+      <c r="N388">
+        <v>63</v>
+      </c>
+      <c r="O388">
+        <v>30.13</v>
+      </c>
+      <c r="P388">
+        <v>6</v>
+      </c>
+      <c r="Q388">
+        <v>0.06</v>
+      </c>
+      <c r="R388">
+        <v>9.9</v>
+      </c>
+      <c r="S388">
+        <v>67</v>
+      </c>
+      <c r="T388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B389" t="s">
+        <v>9</v>
+      </c>
+      <c r="C389" t="s">
+        <v>13</v>
+      </c>
+      <c r="D389">
+        <v>65</v>
+      </c>
+      <c r="E389">
+        <v>85</v>
+      </c>
+      <c r="F389">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+      <c r="I389" t="s">
+        <v>21</v>
+      </c>
+      <c r="J389">
+        <v>3</v>
+      </c>
+      <c r="K389" t="s">
+        <v>20</v>
+      </c>
+      <c r="L389">
+        <v>8</v>
+      </c>
+      <c r="M389">
+        <v>0.48</v>
+      </c>
+      <c r="N389">
+        <v>63</v>
+      </c>
+      <c r="O389">
+        <v>30.13</v>
+      </c>
+      <c r="P389">
+        <v>6</v>
+      </c>
+      <c r="Q389">
+        <v>0.06</v>
+      </c>
+      <c r="R389">
+        <v>9.9</v>
+      </c>
+      <c r="S389">
+        <v>67</v>
+      </c>
+      <c r="T389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B390" t="s">
+        <v>9</v>
+      </c>
+      <c r="C390" t="s">
+        <v>12</v>
+      </c>
+      <c r="D390">
+        <v>65</v>
+      </c>
+      <c r="E390">
+        <v>85</v>
+      </c>
+      <c r="F390">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+      <c r="I390" t="s">
+        <v>21</v>
+      </c>
+      <c r="J390">
+        <v>3</v>
+      </c>
+      <c r="K390" t="s">
+        <v>20</v>
+      </c>
+      <c r="L390">
+        <v>8</v>
+      </c>
+      <c r="M390">
+        <v>0.48</v>
+      </c>
+      <c r="N390">
+        <v>63</v>
+      </c>
+      <c r="O390">
+        <v>30.13</v>
+      </c>
+      <c r="P390">
+        <v>6</v>
+      </c>
+      <c r="Q390">
+        <v>0.06</v>
+      </c>
+      <c r="R390">
+        <v>9.9</v>
+      </c>
+      <c r="S390">
+        <v>67</v>
+      </c>
+      <c r="T390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C391" t="s">
+        <v>12</v>
+      </c>
+      <c r="D391">
+        <v>65</v>
+      </c>
+      <c r="E391">
+        <v>85</v>
+      </c>
+      <c r="F391">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>0.1</v>
+      </c>
+      <c r="I391" t="s">
+        <v>21</v>
+      </c>
+      <c r="J391">
+        <v>3</v>
+      </c>
+      <c r="K391" t="s">
+        <v>20</v>
+      </c>
+      <c r="L391">
+        <v>8</v>
+      </c>
+      <c r="M391">
+        <v>0.48</v>
+      </c>
+      <c r="N391">
+        <v>63</v>
+      </c>
+      <c r="O391">
+        <v>30.13</v>
+      </c>
+      <c r="P391">
+        <v>6</v>
+      </c>
+      <c r="Q391">
+        <v>0.06</v>
+      </c>
+      <c r="R391">
+        <v>9.9</v>
+      </c>
+      <c r="S391">
+        <v>67</v>
+      </c>
+      <c r="T391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B392" t="s">
+        <v>9</v>
+      </c>
+      <c r="C392" t="s">
+        <v>11</v>
+      </c>
+      <c r="D392">
+        <v>65</v>
+      </c>
+      <c r="E392">
+        <v>85</v>
+      </c>
+      <c r="F392">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>0.2</v>
+      </c>
+      <c r="I392" t="s">
+        <v>21</v>
+      </c>
+      <c r="J392">
+        <v>4</v>
+      </c>
+      <c r="K392" t="s">
+        <v>20</v>
+      </c>
+      <c r="L392">
+        <v>8</v>
+      </c>
+      <c r="M392">
+        <v>0.48</v>
+      </c>
+      <c r="N392">
+        <v>63</v>
+      </c>
+      <c r="O392">
+        <v>30.13</v>
+      </c>
+      <c r="P392">
+        <v>6</v>
+      </c>
+      <c r="Q392">
+        <v>0.06</v>
+      </c>
+      <c r="R392">
+        <v>9.9</v>
+      </c>
+      <c r="S392">
+        <v>67</v>
+      </c>
+      <c r="T392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B393" t="s">
+        <v>10</v>
+      </c>
+      <c r="C393" t="s">
+        <v>12</v>
+      </c>
+      <c r="D393">
+        <v>65</v>
+      </c>
+      <c r="E393">
+        <v>85</v>
+      </c>
+      <c r="F393">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>0.2</v>
+      </c>
+      <c r="I393" t="s">
+        <v>21</v>
+      </c>
+      <c r="J393">
+        <v>1</v>
+      </c>
+      <c r="K393" t="s">
+        <v>20</v>
+      </c>
+      <c r="L393">
+        <v>8</v>
+      </c>
+      <c r="M393">
+        <v>0.48</v>
+      </c>
+      <c r="N393">
+        <v>63</v>
+      </c>
+      <c r="O393">
+        <v>30.13</v>
+      </c>
+      <c r="P393">
+        <v>6</v>
+      </c>
+      <c r="Q393">
+        <v>0.06</v>
+      </c>
+      <c r="R393">
+        <v>9.9</v>
+      </c>
+      <c r="S393">
+        <v>67</v>
+      </c>
+      <c r="T393">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F974856B-584C-412A-8BD6-D79F41419121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE427C6-CF67-45D1-934B-3E2F6CF74949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="804" yWindow="3360" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U393"/>
+  <dimension ref="A1:U400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="Q387" sqref="Q387:Q393"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -23091,7 +23091,7 @@
         <v>84</v>
       </c>
       <c r="F359">
-        <f t="shared" ref="F359:F393" si="8">ABS(D359-E359)</f>
+        <f t="shared" ref="F359:F400" si="8">ABS(D359-E359)</f>
         <v>12</v>
       </c>
       <c r="G359">
@@ -25276,6 +25276,447 @@
         <v>67</v>
       </c>
       <c r="T393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B394" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" t="s">
+        <v>11</v>
+      </c>
+      <c r="D394">
+        <v>67</v>
+      </c>
+      <c r="E394">
+        <v>89</v>
+      </c>
+      <c r="F394">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+      <c r="H394">
+        <v>0.1</v>
+      </c>
+      <c r="I394" t="s">
+        <v>15</v>
+      </c>
+      <c r="J394">
+        <v>2</v>
+      </c>
+      <c r="K394" t="s">
+        <v>20</v>
+      </c>
+      <c r="L394">
+        <v>8</v>
+      </c>
+      <c r="M394">
+        <v>0.5</v>
+      </c>
+      <c r="N394">
+        <v>67</v>
+      </c>
+      <c r="O394">
+        <v>30.1</v>
+      </c>
+      <c r="P394">
+        <v>7</v>
+      </c>
+      <c r="Q394">
+        <v>0.26</v>
+      </c>
+      <c r="R394">
+        <v>9.9</v>
+      </c>
+      <c r="S394">
+        <v>86</v>
+      </c>
+      <c r="T394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B395" t="s">
+        <v>9</v>
+      </c>
+      <c r="C395" t="s">
+        <v>12</v>
+      </c>
+      <c r="D395">
+        <v>67</v>
+      </c>
+      <c r="E395">
+        <v>89</v>
+      </c>
+      <c r="F395">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+      <c r="H395">
+        <v>0.1</v>
+      </c>
+      <c r="I395" t="s">
+        <v>15</v>
+      </c>
+      <c r="J395">
+        <v>3</v>
+      </c>
+      <c r="K395" t="s">
+        <v>20</v>
+      </c>
+      <c r="L395">
+        <v>8</v>
+      </c>
+      <c r="M395">
+        <v>0.5</v>
+      </c>
+      <c r="N395">
+        <v>67</v>
+      </c>
+      <c r="O395">
+        <v>30.1</v>
+      </c>
+      <c r="P395">
+        <v>7</v>
+      </c>
+      <c r="Q395">
+        <v>0.26</v>
+      </c>
+      <c r="R395">
+        <v>9.9</v>
+      </c>
+      <c r="S395">
+        <v>86</v>
+      </c>
+      <c r="T395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B396" t="s">
+        <v>9</v>
+      </c>
+      <c r="C396" t="s">
+        <v>13</v>
+      </c>
+      <c r="D396">
+        <v>67</v>
+      </c>
+      <c r="E396">
+        <v>89</v>
+      </c>
+      <c r="F396">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+      <c r="I396" t="s">
+        <v>15</v>
+      </c>
+      <c r="J396">
+        <v>3</v>
+      </c>
+      <c r="K396" t="s">
+        <v>20</v>
+      </c>
+      <c r="L396">
+        <v>8</v>
+      </c>
+      <c r="M396">
+        <v>0.5</v>
+      </c>
+      <c r="N396">
+        <v>67</v>
+      </c>
+      <c r="O396">
+        <v>30.1</v>
+      </c>
+      <c r="P396">
+        <v>7</v>
+      </c>
+      <c r="Q396">
+        <v>0.26</v>
+      </c>
+      <c r="R396">
+        <v>9.9</v>
+      </c>
+      <c r="S396">
+        <v>86</v>
+      </c>
+      <c r="T396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B397" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" t="s">
+        <v>12</v>
+      </c>
+      <c r="D397">
+        <v>67</v>
+      </c>
+      <c r="E397">
+        <v>89</v>
+      </c>
+      <c r="F397">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+      <c r="I397" t="s">
+        <v>15</v>
+      </c>
+      <c r="J397">
+        <v>3</v>
+      </c>
+      <c r="K397" t="s">
+        <v>19</v>
+      </c>
+      <c r="L397">
+        <v>8</v>
+      </c>
+      <c r="M397">
+        <v>0.5</v>
+      </c>
+      <c r="N397">
+        <v>67</v>
+      </c>
+      <c r="O397">
+        <v>30.1</v>
+      </c>
+      <c r="P397">
+        <v>7</v>
+      </c>
+      <c r="Q397">
+        <v>0.26</v>
+      </c>
+      <c r="R397">
+        <v>9.9</v>
+      </c>
+      <c r="S397">
+        <v>86</v>
+      </c>
+      <c r="T397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B398" t="s">
+        <v>9</v>
+      </c>
+      <c r="C398" t="s">
+        <v>12</v>
+      </c>
+      <c r="D398">
+        <v>67</v>
+      </c>
+      <c r="E398">
+        <v>89</v>
+      </c>
+      <c r="F398">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+      <c r="I398" t="s">
+        <v>15</v>
+      </c>
+      <c r="J398">
+        <v>3</v>
+      </c>
+      <c r="K398" t="s">
+        <v>19</v>
+      </c>
+      <c r="L398">
+        <v>8</v>
+      </c>
+      <c r="M398">
+        <v>0.5</v>
+      </c>
+      <c r="N398">
+        <v>67</v>
+      </c>
+      <c r="O398">
+        <v>30.1</v>
+      </c>
+      <c r="P398">
+        <v>7</v>
+      </c>
+      <c r="Q398">
+        <v>0.26</v>
+      </c>
+      <c r="R398">
+        <v>9.9</v>
+      </c>
+      <c r="S398">
+        <v>86</v>
+      </c>
+      <c r="T398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B399" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" t="s">
+        <v>11</v>
+      </c>
+      <c r="D399">
+        <v>67</v>
+      </c>
+      <c r="E399">
+        <v>89</v>
+      </c>
+      <c r="F399">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+      <c r="H399">
+        <v>0.2</v>
+      </c>
+      <c r="I399" t="s">
+        <v>15</v>
+      </c>
+      <c r="J399">
+        <v>4</v>
+      </c>
+      <c r="K399" t="s">
+        <v>19</v>
+      </c>
+      <c r="L399">
+        <v>8</v>
+      </c>
+      <c r="M399">
+        <v>0.5</v>
+      </c>
+      <c r="N399">
+        <v>67</v>
+      </c>
+      <c r="O399">
+        <v>30.1</v>
+      </c>
+      <c r="P399">
+        <v>7</v>
+      </c>
+      <c r="Q399">
+        <v>0.26</v>
+      </c>
+      <c r="R399">
+        <v>9.9</v>
+      </c>
+      <c r="S399">
+        <v>86</v>
+      </c>
+      <c r="T399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B400" t="s">
+        <v>10</v>
+      </c>
+      <c r="C400" t="s">
+        <v>12</v>
+      </c>
+      <c r="D400">
+        <v>67</v>
+      </c>
+      <c r="E400">
+        <v>89</v>
+      </c>
+      <c r="F400">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+      <c r="H400">
+        <v>0.2</v>
+      </c>
+      <c r="I400" t="s">
+        <v>15</v>
+      </c>
+      <c r="J400">
+        <v>1</v>
+      </c>
+      <c r="K400" t="s">
+        <v>20</v>
+      </c>
+      <c r="L400">
+        <v>8</v>
+      </c>
+      <c r="M400">
+        <v>0.5</v>
+      </c>
+      <c r="N400">
+        <v>67</v>
+      </c>
+      <c r="O400">
+        <v>30.1</v>
+      </c>
+      <c r="P400">
+        <v>7</v>
+      </c>
+      <c r="Q400">
+        <v>0.26</v>
+      </c>
+      <c r="R400">
+        <v>9.9</v>
+      </c>
+      <c r="S400">
+        <v>86</v>
+      </c>
+      <c r="T400">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE427C6-CF67-45D1-934B-3E2F6CF74949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7293BF9-9B50-48B9-A53F-79CEE9A3A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="996" yWindow="2472" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U400"/>
+  <dimension ref="A1:U407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="U401" sqref="U401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23091,7 +23091,7 @@
         <v>84</v>
       </c>
       <c r="F359">
-        <f t="shared" ref="F359:F400" si="8">ABS(D359-E359)</f>
+        <f t="shared" ref="F359:F407" si="8">ABS(D359-E359)</f>
         <v>12</v>
       </c>
       <c r="G359">
@@ -25717,6 +25717,447 @@
         <v>86</v>
       </c>
       <c r="T400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>45844</v>
+      </c>
+      <c r="B401" t="s">
+        <v>8</v>
+      </c>
+      <c r="C401" t="s">
+        <v>11</v>
+      </c>
+      <c r="D401">
+        <v>70</v>
+      </c>
+      <c r="E401">
+        <v>91</v>
+      </c>
+      <c r="F401">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>0.1</v>
+      </c>
+      <c r="I401" t="s">
+        <v>21</v>
+      </c>
+      <c r="J401">
+        <v>2</v>
+      </c>
+      <c r="K401" t="s">
+        <v>20</v>
+      </c>
+      <c r="L401">
+        <v>9</v>
+      </c>
+      <c r="M401">
+        <v>0.44</v>
+      </c>
+      <c r="N401">
+        <v>66</v>
+      </c>
+      <c r="O401">
+        <v>29.98</v>
+      </c>
+      <c r="P401">
+        <v>10</v>
+      </c>
+      <c r="Q401">
+        <v>0.1</v>
+      </c>
+      <c r="R401">
+        <v>9.9</v>
+      </c>
+      <c r="S401">
+        <v>62</v>
+      </c>
+      <c r="T401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>45844</v>
+      </c>
+      <c r="B402" t="s">
+        <v>9</v>
+      </c>
+      <c r="C402" t="s">
+        <v>12</v>
+      </c>
+      <c r="D402">
+        <v>70</v>
+      </c>
+      <c r="E402">
+        <v>91</v>
+      </c>
+      <c r="F402">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>0.1</v>
+      </c>
+      <c r="I402" t="s">
+        <v>21</v>
+      </c>
+      <c r="J402">
+        <v>3</v>
+      </c>
+      <c r="K402" t="s">
+        <v>20</v>
+      </c>
+      <c r="L402">
+        <v>9</v>
+      </c>
+      <c r="M402">
+        <v>0.44</v>
+      </c>
+      <c r="N402">
+        <v>66</v>
+      </c>
+      <c r="O402">
+        <v>29.98</v>
+      </c>
+      <c r="P402">
+        <v>10</v>
+      </c>
+      <c r="Q402">
+        <v>0.1</v>
+      </c>
+      <c r="R402">
+        <v>9.9</v>
+      </c>
+      <c r="S402">
+        <v>62</v>
+      </c>
+      <c r="T402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>45844</v>
+      </c>
+      <c r="B403" t="s">
+        <v>9</v>
+      </c>
+      <c r="C403" t="s">
+        <v>13</v>
+      </c>
+      <c r="D403">
+        <v>70</v>
+      </c>
+      <c r="E403">
+        <v>91</v>
+      </c>
+      <c r="F403">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>0.2</v>
+      </c>
+      <c r="I403" t="s">
+        <v>21</v>
+      </c>
+      <c r="J403">
+        <v>3</v>
+      </c>
+      <c r="K403" t="s">
+        <v>19</v>
+      </c>
+      <c r="L403">
+        <v>9</v>
+      </c>
+      <c r="M403">
+        <v>0.44</v>
+      </c>
+      <c r="N403">
+        <v>66</v>
+      </c>
+      <c r="O403">
+        <v>29.98</v>
+      </c>
+      <c r="P403">
+        <v>10</v>
+      </c>
+      <c r="Q403">
+        <v>0.1</v>
+      </c>
+      <c r="R403">
+        <v>9.9</v>
+      </c>
+      <c r="S403">
+        <v>62</v>
+      </c>
+      <c r="T403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>45844</v>
+      </c>
+      <c r="B404" t="s">
+        <v>9</v>
+      </c>
+      <c r="C404" t="s">
+        <v>12</v>
+      </c>
+      <c r="D404">
+        <v>70</v>
+      </c>
+      <c r="E404">
+        <v>91</v>
+      </c>
+      <c r="F404">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404" t="s">
+        <v>21</v>
+      </c>
+      <c r="J404">
+        <v>3</v>
+      </c>
+      <c r="K404" t="s">
+        <v>19</v>
+      </c>
+      <c r="L404">
+        <v>9</v>
+      </c>
+      <c r="M404">
+        <v>0.44</v>
+      </c>
+      <c r="N404">
+        <v>66</v>
+      </c>
+      <c r="O404">
+        <v>29.98</v>
+      </c>
+      <c r="P404">
+        <v>10</v>
+      </c>
+      <c r="Q404">
+        <v>0.1</v>
+      </c>
+      <c r="R404">
+        <v>9.9</v>
+      </c>
+      <c r="S404">
+        <v>62</v>
+      </c>
+      <c r="T404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>45844</v>
+      </c>
+      <c r="B405" t="s">
+        <v>9</v>
+      </c>
+      <c r="C405" t="s">
+        <v>12</v>
+      </c>
+      <c r="D405">
+        <v>70</v>
+      </c>
+      <c r="E405">
+        <v>91</v>
+      </c>
+      <c r="F405">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405" t="s">
+        <v>21</v>
+      </c>
+      <c r="J405">
+        <v>3</v>
+      </c>
+      <c r="K405" t="s">
+        <v>20</v>
+      </c>
+      <c r="L405">
+        <v>9</v>
+      </c>
+      <c r="M405">
+        <v>0.44</v>
+      </c>
+      <c r="N405">
+        <v>66</v>
+      </c>
+      <c r="O405">
+        <v>29.98</v>
+      </c>
+      <c r="P405">
+        <v>10</v>
+      </c>
+      <c r="Q405">
+        <v>0.1</v>
+      </c>
+      <c r="R405">
+        <v>9.9</v>
+      </c>
+      <c r="S405">
+        <v>62</v>
+      </c>
+      <c r="T405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>45844</v>
+      </c>
+      <c r="B406" t="s">
+        <v>9</v>
+      </c>
+      <c r="C406" t="s">
+        <v>11</v>
+      </c>
+      <c r="D406">
+        <v>70</v>
+      </c>
+      <c r="E406">
+        <v>91</v>
+      </c>
+      <c r="F406">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="H406">
+        <v>0.15</v>
+      </c>
+      <c r="I406" t="s">
+        <v>21</v>
+      </c>
+      <c r="J406">
+        <v>4</v>
+      </c>
+      <c r="K406" t="s">
+        <v>19</v>
+      </c>
+      <c r="L406">
+        <v>9</v>
+      </c>
+      <c r="M406">
+        <v>0.44</v>
+      </c>
+      <c r="N406">
+        <v>66</v>
+      </c>
+      <c r="O406">
+        <v>29.98</v>
+      </c>
+      <c r="P406">
+        <v>10</v>
+      </c>
+      <c r="Q406">
+        <v>0.1</v>
+      </c>
+      <c r="R406">
+        <v>9.9</v>
+      </c>
+      <c r="S406">
+        <v>62</v>
+      </c>
+      <c r="T406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>45844</v>
+      </c>
+      <c r="B407" t="s">
+        <v>10</v>
+      </c>
+      <c r="C407" t="s">
+        <v>12</v>
+      </c>
+      <c r="D407">
+        <v>70</v>
+      </c>
+      <c r="E407">
+        <v>91</v>
+      </c>
+      <c r="F407">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+      <c r="I407" t="s">
+        <v>21</v>
+      </c>
+      <c r="J407">
+        <v>1</v>
+      </c>
+      <c r="K407" t="s">
+        <v>20</v>
+      </c>
+      <c r="L407">
+        <v>9</v>
+      </c>
+      <c r="M407">
+        <v>0.44</v>
+      </c>
+      <c r="N407">
+        <v>66</v>
+      </c>
+      <c r="O407">
+        <v>29.98</v>
+      </c>
+      <c r="P407">
+        <v>10</v>
+      </c>
+      <c r="Q407">
+        <v>0.1</v>
+      </c>
+      <c r="R407">
+        <v>9.9</v>
+      </c>
+      <c r="S407">
+        <v>62</v>
+      </c>
+      <c r="T407">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7293BF9-9B50-48B9-A53F-79CEE9A3A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABBBB59-275E-4BA1-A69A-6770547ADFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="2472" windowWidth="21156" windowHeight="6876" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U407"/>
+  <dimension ref="A1:U421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="U401" sqref="U401"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="I422" sqref="I422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23091,7 +23091,7 @@
         <v>84</v>
       </c>
       <c r="F359">
-        <f t="shared" ref="F359:F407" si="8">ABS(D359-E359)</f>
+        <f t="shared" ref="F359:F421" si="8">ABS(D359-E359)</f>
         <v>12</v>
       </c>
       <c r="G359">
@@ -26158,6 +26158,888 @@
         <v>62</v>
       </c>
       <c r="T407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B408" t="s">
+        <v>8</v>
+      </c>
+      <c r="C408" t="s">
+        <v>11</v>
+      </c>
+      <c r="D408">
+        <v>72</v>
+      </c>
+      <c r="E408">
+        <v>92</v>
+      </c>
+      <c r="F408">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G408">
+        <v>2.5</v>
+      </c>
+      <c r="H408">
+        <v>0.3</v>
+      </c>
+      <c r="I408" t="s">
+        <v>21</v>
+      </c>
+      <c r="J408">
+        <v>2</v>
+      </c>
+      <c r="K408" t="s">
+        <v>20</v>
+      </c>
+      <c r="L408">
+        <v>6</v>
+      </c>
+      <c r="M408">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N408">
+        <v>74</v>
+      </c>
+      <c r="O408">
+        <v>30.03</v>
+      </c>
+      <c r="P408">
+        <v>13</v>
+      </c>
+      <c r="Q408">
+        <v>0.85</v>
+      </c>
+      <c r="R408">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S408">
+        <v>57</v>
+      </c>
+      <c r="T408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B409" t="s">
+        <v>9</v>
+      </c>
+      <c r="C409" t="s">
+        <v>12</v>
+      </c>
+      <c r="D409">
+        <v>72</v>
+      </c>
+      <c r="E409">
+        <v>92</v>
+      </c>
+      <c r="F409">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G409">
+        <v>2.5</v>
+      </c>
+      <c r="H409">
+        <v>0.6</v>
+      </c>
+      <c r="I409" t="s">
+        <v>21</v>
+      </c>
+      <c r="J409">
+        <v>3</v>
+      </c>
+      <c r="K409" t="s">
+        <v>19</v>
+      </c>
+      <c r="L409">
+        <v>6</v>
+      </c>
+      <c r="M409">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N409">
+        <v>74</v>
+      </c>
+      <c r="O409">
+        <v>30.03</v>
+      </c>
+      <c r="P409">
+        <v>13</v>
+      </c>
+      <c r="Q409">
+        <v>0.85</v>
+      </c>
+      <c r="R409">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S409">
+        <v>57</v>
+      </c>
+      <c r="T409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B410" t="s">
+        <v>9</v>
+      </c>
+      <c r="C410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D410">
+        <v>72</v>
+      </c>
+      <c r="E410">
+        <v>92</v>
+      </c>
+      <c r="F410">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G410">
+        <v>2.5</v>
+      </c>
+      <c r="H410">
+        <v>0.5</v>
+      </c>
+      <c r="I410" t="s">
+        <v>21</v>
+      </c>
+      <c r="J410">
+        <v>3</v>
+      </c>
+      <c r="K410" t="s">
+        <v>19</v>
+      </c>
+      <c r="L410">
+        <v>6</v>
+      </c>
+      <c r="M410">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N410">
+        <v>74</v>
+      </c>
+      <c r="O410">
+        <v>30.03</v>
+      </c>
+      <c r="P410">
+        <v>13</v>
+      </c>
+      <c r="Q410">
+        <v>0.85</v>
+      </c>
+      <c r="R410">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S410">
+        <v>57</v>
+      </c>
+      <c r="T410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B411" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411" t="s">
+        <v>12</v>
+      </c>
+      <c r="D411">
+        <v>72</v>
+      </c>
+      <c r="E411">
+        <v>92</v>
+      </c>
+      <c r="F411">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G411">
+        <v>2.5</v>
+      </c>
+      <c r="H411">
+        <v>0.75</v>
+      </c>
+      <c r="I411" t="s">
+        <v>21</v>
+      </c>
+      <c r="J411">
+        <v>3</v>
+      </c>
+      <c r="K411" t="s">
+        <v>20</v>
+      </c>
+      <c r="L411">
+        <v>6</v>
+      </c>
+      <c r="M411">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N411">
+        <v>74</v>
+      </c>
+      <c r="O411">
+        <v>30.03</v>
+      </c>
+      <c r="P411">
+        <v>13</v>
+      </c>
+      <c r="Q411">
+        <v>0.85</v>
+      </c>
+      <c r="R411">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S411">
+        <v>57</v>
+      </c>
+      <c r="T411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B412" t="s">
+        <v>9</v>
+      </c>
+      <c r="C412" t="s">
+        <v>12</v>
+      </c>
+      <c r="D412">
+        <v>72</v>
+      </c>
+      <c r="E412">
+        <v>92</v>
+      </c>
+      <c r="F412">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G412">
+        <v>2.5</v>
+      </c>
+      <c r="H412">
+        <v>0.7</v>
+      </c>
+      <c r="I412" t="s">
+        <v>21</v>
+      </c>
+      <c r="J412">
+        <v>3</v>
+      </c>
+      <c r="K412" t="s">
+        <v>19</v>
+      </c>
+      <c r="L412">
+        <v>6</v>
+      </c>
+      <c r="M412">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N412">
+        <v>74</v>
+      </c>
+      <c r="O412">
+        <v>30.03</v>
+      </c>
+      <c r="P412">
+        <v>13</v>
+      </c>
+      <c r="Q412">
+        <v>0.85</v>
+      </c>
+      <c r="R412">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S412">
+        <v>57</v>
+      </c>
+      <c r="T412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B413" t="s">
+        <v>9</v>
+      </c>
+      <c r="C413" t="s">
+        <v>11</v>
+      </c>
+      <c r="D413">
+        <v>72</v>
+      </c>
+      <c r="E413">
+        <v>92</v>
+      </c>
+      <c r="F413">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G413">
+        <v>2.5</v>
+      </c>
+      <c r="H413">
+        <v>2</v>
+      </c>
+      <c r="I413" t="s">
+        <v>21</v>
+      </c>
+      <c r="J413">
+        <v>4</v>
+      </c>
+      <c r="K413" t="s">
+        <v>18</v>
+      </c>
+      <c r="L413">
+        <v>6</v>
+      </c>
+      <c r="M413">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N413">
+        <v>74</v>
+      </c>
+      <c r="O413">
+        <v>30.03</v>
+      </c>
+      <c r="P413">
+        <v>13</v>
+      </c>
+      <c r="Q413">
+        <v>0.85</v>
+      </c>
+      <c r="R413">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S413">
+        <v>57</v>
+      </c>
+      <c r="T413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B414" t="s">
+        <v>10</v>
+      </c>
+      <c r="C414" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414">
+        <v>72</v>
+      </c>
+      <c r="E414">
+        <v>92</v>
+      </c>
+      <c r="F414">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G414">
+        <v>2.5</v>
+      </c>
+      <c r="H414">
+        <v>5</v>
+      </c>
+      <c r="I414" t="s">
+        <v>21</v>
+      </c>
+      <c r="J414">
+        <v>1</v>
+      </c>
+      <c r="K414" t="s">
+        <v>18</v>
+      </c>
+      <c r="L414">
+        <v>6</v>
+      </c>
+      <c r="M414">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N414">
+        <v>74</v>
+      </c>
+      <c r="O414">
+        <v>30.03</v>
+      </c>
+      <c r="P414">
+        <v>13</v>
+      </c>
+      <c r="Q414">
+        <v>0.85</v>
+      </c>
+      <c r="R414">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S414">
+        <v>57</v>
+      </c>
+      <c r="T414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B415" t="s">
+        <v>8</v>
+      </c>
+      <c r="C415" t="s">
+        <v>11</v>
+      </c>
+      <c r="D415">
+        <v>67</v>
+      </c>
+      <c r="E415">
+        <v>81</v>
+      </c>
+      <c r="F415">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G415">
+        <v>0.5</v>
+      </c>
+      <c r="H415">
+        <v>0.2</v>
+      </c>
+      <c r="I415" t="s">
+        <v>21</v>
+      </c>
+      <c r="J415">
+        <v>2</v>
+      </c>
+      <c r="K415" t="s">
+        <v>19</v>
+      </c>
+      <c r="L415">
+        <v>6</v>
+      </c>
+      <c r="M415">
+        <v>0.88</v>
+      </c>
+      <c r="N415">
+        <v>71</v>
+      </c>
+      <c r="O415">
+        <v>30.09</v>
+      </c>
+      <c r="P415">
+        <v>13</v>
+      </c>
+      <c r="Q415">
+        <v>0.89</v>
+      </c>
+      <c r="R415">
+        <v>8.1</v>
+      </c>
+      <c r="S415">
+        <v>48</v>
+      </c>
+      <c r="T415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B416" t="s">
+        <v>9</v>
+      </c>
+      <c r="C416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416">
+        <v>67</v>
+      </c>
+      <c r="E416">
+        <v>81</v>
+      </c>
+      <c r="F416">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G416">
+        <v>0.5</v>
+      </c>
+      <c r="H416">
+        <v>0.2</v>
+      </c>
+      <c r="I416" t="s">
+        <v>21</v>
+      </c>
+      <c r="J416">
+        <v>3</v>
+      </c>
+      <c r="K416" t="s">
+        <v>20</v>
+      </c>
+      <c r="L416">
+        <v>6</v>
+      </c>
+      <c r="M416">
+        <v>0.88</v>
+      </c>
+      <c r="N416">
+        <v>71</v>
+      </c>
+      <c r="O416">
+        <v>30.09</v>
+      </c>
+      <c r="P416">
+        <v>13</v>
+      </c>
+      <c r="Q416">
+        <v>0.89</v>
+      </c>
+      <c r="R416">
+        <v>8.1</v>
+      </c>
+      <c r="S416">
+        <v>48</v>
+      </c>
+      <c r="T416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B417" t="s">
+        <v>9</v>
+      </c>
+      <c r="C417" t="s">
+        <v>13</v>
+      </c>
+      <c r="D417">
+        <v>67</v>
+      </c>
+      <c r="E417">
+        <v>81</v>
+      </c>
+      <c r="F417">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G417">
+        <v>0.5</v>
+      </c>
+      <c r="H417">
+        <v>0.1</v>
+      </c>
+      <c r="I417" t="s">
+        <v>21</v>
+      </c>
+      <c r="J417">
+        <v>3</v>
+      </c>
+      <c r="K417" t="s">
+        <v>20</v>
+      </c>
+      <c r="L417">
+        <v>6</v>
+      </c>
+      <c r="M417">
+        <v>0.88</v>
+      </c>
+      <c r="N417">
+        <v>71</v>
+      </c>
+      <c r="O417">
+        <v>30.09</v>
+      </c>
+      <c r="P417">
+        <v>13</v>
+      </c>
+      <c r="Q417">
+        <v>0.89</v>
+      </c>
+      <c r="R417">
+        <v>8.1</v>
+      </c>
+      <c r="S417">
+        <v>48</v>
+      </c>
+      <c r="T417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B418" t="s">
+        <v>9</v>
+      </c>
+      <c r="C418" t="s">
+        <v>12</v>
+      </c>
+      <c r="D418">
+        <v>67</v>
+      </c>
+      <c r="E418">
+        <v>81</v>
+      </c>
+      <c r="F418">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G418">
+        <v>0.5</v>
+      </c>
+      <c r="H418">
+        <v>0.25</v>
+      </c>
+      <c r="I418" t="s">
+        <v>21</v>
+      </c>
+      <c r="J418">
+        <v>3</v>
+      </c>
+      <c r="K418" t="s">
+        <v>19</v>
+      </c>
+      <c r="L418">
+        <v>6</v>
+      </c>
+      <c r="M418">
+        <v>0.88</v>
+      </c>
+      <c r="N418">
+        <v>71</v>
+      </c>
+      <c r="O418">
+        <v>30.09</v>
+      </c>
+      <c r="P418">
+        <v>13</v>
+      </c>
+      <c r="Q418">
+        <v>0.89</v>
+      </c>
+      <c r="R418">
+        <v>8.1</v>
+      </c>
+      <c r="S418">
+        <v>48</v>
+      </c>
+      <c r="T418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B419" t="s">
+        <v>9</v>
+      </c>
+      <c r="C419" t="s">
+        <v>12</v>
+      </c>
+      <c r="D419">
+        <v>67</v>
+      </c>
+      <c r="E419">
+        <v>81</v>
+      </c>
+      <c r="F419">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G419">
+        <v>0.5</v>
+      </c>
+      <c r="H419">
+        <v>0.3</v>
+      </c>
+      <c r="I419" t="s">
+        <v>21</v>
+      </c>
+      <c r="J419">
+        <v>3</v>
+      </c>
+      <c r="K419" t="s">
+        <v>19</v>
+      </c>
+      <c r="L419">
+        <v>6</v>
+      </c>
+      <c r="M419">
+        <v>0.88</v>
+      </c>
+      <c r="N419">
+        <v>71</v>
+      </c>
+      <c r="O419">
+        <v>30.09</v>
+      </c>
+      <c r="P419">
+        <v>13</v>
+      </c>
+      <c r="Q419">
+        <v>0.89</v>
+      </c>
+      <c r="R419">
+        <v>8.1</v>
+      </c>
+      <c r="S419">
+        <v>48</v>
+      </c>
+      <c r="T419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B420" t="s">
+        <v>9</v>
+      </c>
+      <c r="C420" t="s">
+        <v>11</v>
+      </c>
+      <c r="D420">
+        <v>67</v>
+      </c>
+      <c r="E420">
+        <v>81</v>
+      </c>
+      <c r="F420">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G420">
+        <v>0.5</v>
+      </c>
+      <c r="H420">
+        <v>0.3</v>
+      </c>
+      <c r="I420" t="s">
+        <v>21</v>
+      </c>
+      <c r="J420">
+        <v>4</v>
+      </c>
+      <c r="K420" t="s">
+        <v>18</v>
+      </c>
+      <c r="L420">
+        <v>6</v>
+      </c>
+      <c r="M420">
+        <v>0.88</v>
+      </c>
+      <c r="N420">
+        <v>71</v>
+      </c>
+      <c r="O420">
+        <v>30.09</v>
+      </c>
+      <c r="P420">
+        <v>13</v>
+      </c>
+      <c r="Q420">
+        <v>0.89</v>
+      </c>
+      <c r="R420">
+        <v>8.1</v>
+      </c>
+      <c r="S420">
+        <v>48</v>
+      </c>
+      <c r="T420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B421" t="s">
+        <v>10</v>
+      </c>
+      <c r="C421" t="s">
+        <v>12</v>
+      </c>
+      <c r="D421">
+        <v>67</v>
+      </c>
+      <c r="E421">
+        <v>81</v>
+      </c>
+      <c r="F421">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G421">
+        <v>0.5</v>
+      </c>
+      <c r="H421">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I421" t="s">
+        <v>21</v>
+      </c>
+      <c r="J421">
+        <v>1</v>
+      </c>
+      <c r="K421" t="s">
+        <v>18</v>
+      </c>
+      <c r="L421">
+        <v>6</v>
+      </c>
+      <c r="M421">
+        <v>0.88</v>
+      </c>
+      <c r="N421">
+        <v>71</v>
+      </c>
+      <c r="O421">
+        <v>30.09</v>
+      </c>
+      <c r="P421">
+        <v>13</v>
+      </c>
+      <c r="Q421">
+        <v>0.89</v>
+      </c>
+      <c r="R421">
+        <v>8.1</v>
+      </c>
+      <c r="S421">
+        <v>48</v>
+      </c>
+      <c r="T421">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABBBB59-275E-4BA1-A69A-6770547ADFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E52EC4-253F-49A5-A815-5768E1DF9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U421"/>
+  <dimension ref="A1:U428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="I422" sqref="I422"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="S429" sqref="S429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23091,7 +23091,7 @@
         <v>84</v>
       </c>
       <c r="F359">
-        <f t="shared" ref="F359:F421" si="8">ABS(D359-E359)</f>
+        <f t="shared" ref="F359:F423" si="8">ABS(D359-E359)</f>
         <v>12</v>
       </c>
       <c r="G359">
@@ -27040,6 +27040,447 @@
         <v>48</v>
       </c>
       <c r="T421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" t="s">
+        <v>11</v>
+      </c>
+      <c r="D422">
+        <v>66</v>
+      </c>
+      <c r="E422">
+        <v>77</v>
+      </c>
+      <c r="F422">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="G422">
+        <v>0.25</v>
+      </c>
+      <c r="H422">
+        <v>0.1</v>
+      </c>
+      <c r="I422" t="s">
+        <v>21</v>
+      </c>
+      <c r="J422">
+        <v>2</v>
+      </c>
+      <c r="K422" t="s">
+        <v>18</v>
+      </c>
+      <c r="L422">
+        <v>5</v>
+      </c>
+      <c r="M422">
+        <v>0.84</v>
+      </c>
+      <c r="N422">
+        <v>70</v>
+      </c>
+      <c r="O422">
+        <v>30.01</v>
+      </c>
+      <c r="P422">
+        <v>7</v>
+      </c>
+      <c r="Q422">
+        <v>0.86</v>
+      </c>
+      <c r="R422">
+        <v>5.8</v>
+      </c>
+      <c r="S422">
+        <v>57</v>
+      </c>
+      <c r="T422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B423" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423">
+        <v>66</v>
+      </c>
+      <c r="E423">
+        <v>77</v>
+      </c>
+      <c r="F423">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="G423">
+        <v>0.25</v>
+      </c>
+      <c r="H423">
+        <v>0.05</v>
+      </c>
+      <c r="I423" t="s">
+        <v>21</v>
+      </c>
+      <c r="J423">
+        <v>3</v>
+      </c>
+      <c r="K423" t="s">
+        <v>19</v>
+      </c>
+      <c r="L423">
+        <v>5</v>
+      </c>
+      <c r="M423">
+        <v>0.84</v>
+      </c>
+      <c r="N423">
+        <v>70</v>
+      </c>
+      <c r="O423">
+        <v>30.01</v>
+      </c>
+      <c r="P423">
+        <v>7</v>
+      </c>
+      <c r="Q423">
+        <v>0.86</v>
+      </c>
+      <c r="R423">
+        <v>5.8</v>
+      </c>
+      <c r="S423">
+        <v>57</v>
+      </c>
+      <c r="T423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B424" t="s">
+        <v>9</v>
+      </c>
+      <c r="C424" t="s">
+        <v>13</v>
+      </c>
+      <c r="D424">
+        <v>66</v>
+      </c>
+      <c r="E424">
+        <v>77</v>
+      </c>
+      <c r="F424">
+        <f t="shared" ref="F424:F428" si="9">ABS(D424-E424)</f>
+        <v>11</v>
+      </c>
+      <c r="G424">
+        <v>0.25</v>
+      </c>
+      <c r="H424">
+        <v>0.1</v>
+      </c>
+      <c r="I424" t="s">
+        <v>21</v>
+      </c>
+      <c r="J424">
+        <v>3</v>
+      </c>
+      <c r="K424" t="s">
+        <v>19</v>
+      </c>
+      <c r="L424">
+        <v>5</v>
+      </c>
+      <c r="M424">
+        <v>0.84</v>
+      </c>
+      <c r="N424">
+        <v>70</v>
+      </c>
+      <c r="O424">
+        <v>30.01</v>
+      </c>
+      <c r="P424">
+        <v>7</v>
+      </c>
+      <c r="Q424">
+        <v>0.86</v>
+      </c>
+      <c r="R424">
+        <v>5.8</v>
+      </c>
+      <c r="S424">
+        <v>57</v>
+      </c>
+      <c r="T424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B425" t="s">
+        <v>9</v>
+      </c>
+      <c r="C425" t="s">
+        <v>12</v>
+      </c>
+      <c r="D425">
+        <v>66</v>
+      </c>
+      <c r="E425">
+        <v>77</v>
+      </c>
+      <c r="F425">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G425">
+        <v>0.25</v>
+      </c>
+      <c r="H425">
+        <v>0.2</v>
+      </c>
+      <c r="I425" t="s">
+        <v>21</v>
+      </c>
+      <c r="J425">
+        <v>3</v>
+      </c>
+      <c r="K425" t="s">
+        <v>19</v>
+      </c>
+      <c r="L425">
+        <v>5</v>
+      </c>
+      <c r="M425">
+        <v>0.84</v>
+      </c>
+      <c r="N425">
+        <v>70</v>
+      </c>
+      <c r="O425">
+        <v>30.01</v>
+      </c>
+      <c r="P425">
+        <v>7</v>
+      </c>
+      <c r="Q425">
+        <v>0.86</v>
+      </c>
+      <c r="R425">
+        <v>5.8</v>
+      </c>
+      <c r="S425">
+        <v>57</v>
+      </c>
+      <c r="T425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B426" t="s">
+        <v>9</v>
+      </c>
+      <c r="C426" t="s">
+        <v>12</v>
+      </c>
+      <c r="D426">
+        <v>66</v>
+      </c>
+      <c r="E426">
+        <v>77</v>
+      </c>
+      <c r="F426">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G426">
+        <v>0.25</v>
+      </c>
+      <c r="H426">
+        <v>0.2</v>
+      </c>
+      <c r="I426" t="s">
+        <v>21</v>
+      </c>
+      <c r="J426">
+        <v>3</v>
+      </c>
+      <c r="K426" t="s">
+        <v>18</v>
+      </c>
+      <c r="L426">
+        <v>5</v>
+      </c>
+      <c r="M426">
+        <v>0.84</v>
+      </c>
+      <c r="N426">
+        <v>70</v>
+      </c>
+      <c r="O426">
+        <v>30.01</v>
+      </c>
+      <c r="P426">
+        <v>7</v>
+      </c>
+      <c r="Q426">
+        <v>0.86</v>
+      </c>
+      <c r="R426">
+        <v>5.8</v>
+      </c>
+      <c r="S426">
+        <v>57</v>
+      </c>
+      <c r="T426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B427" t="s">
+        <v>9</v>
+      </c>
+      <c r="C427" t="s">
+        <v>11</v>
+      </c>
+      <c r="D427">
+        <v>66</v>
+      </c>
+      <c r="E427">
+        <v>77</v>
+      </c>
+      <c r="F427">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G427">
+        <v>0.25</v>
+      </c>
+      <c r="H427">
+        <v>0.15</v>
+      </c>
+      <c r="I427" t="s">
+        <v>21</v>
+      </c>
+      <c r="J427">
+        <v>4</v>
+      </c>
+      <c r="K427" t="s">
+        <v>18</v>
+      </c>
+      <c r="L427">
+        <v>5</v>
+      </c>
+      <c r="M427">
+        <v>0.84</v>
+      </c>
+      <c r="N427">
+        <v>70</v>
+      </c>
+      <c r="O427">
+        <v>30.01</v>
+      </c>
+      <c r="P427">
+        <v>7</v>
+      </c>
+      <c r="Q427">
+        <v>0.86</v>
+      </c>
+      <c r="R427">
+        <v>5.8</v>
+      </c>
+      <c r="S427">
+        <v>57</v>
+      </c>
+      <c r="T427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B428" t="s">
+        <v>10</v>
+      </c>
+      <c r="C428" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428">
+        <v>66</v>
+      </c>
+      <c r="E428">
+        <v>77</v>
+      </c>
+      <c r="F428">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G428">
+        <v>0.25</v>
+      </c>
+      <c r="H428">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I428" t="s">
+        <v>21</v>
+      </c>
+      <c r="J428">
+        <v>1</v>
+      </c>
+      <c r="K428" t="s">
+        <v>19</v>
+      </c>
+      <c r="L428">
+        <v>5</v>
+      </c>
+      <c r="M428">
+        <v>0.84</v>
+      </c>
+      <c r="N428">
+        <v>70</v>
+      </c>
+      <c r="O428">
+        <v>30.01</v>
+      </c>
+      <c r="P428">
+        <v>7</v>
+      </c>
+      <c r="Q428">
+        <v>0.86</v>
+      </c>
+      <c r="R428">
+        <v>5.8</v>
+      </c>
+      <c r="S428">
+        <v>57</v>
+      </c>
+      <c r="T428">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E52EC4-253F-49A5-A815-5768E1DF9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBD9332-F94A-40C6-95D4-44B6510212C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U428"/>
+  <dimension ref="A1:U435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="S429" sqref="S429"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="I436" sqref="I436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27186,7 +27186,7 @@
         <v>77</v>
       </c>
       <c r="F424">
-        <f t="shared" ref="F424:F428" si="9">ABS(D424-E424)</f>
+        <f t="shared" ref="F424:F435" si="9">ABS(D424-E424)</f>
         <v>11</v>
       </c>
       <c r="G424">
@@ -27481,6 +27481,447 @@
         <v>57</v>
       </c>
       <c r="T428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B429" t="s">
+        <v>8</v>
+      </c>
+      <c r="C429" t="s">
+        <v>11</v>
+      </c>
+      <c r="D429">
+        <v>69</v>
+      </c>
+      <c r="E429">
+        <v>84</v>
+      </c>
+      <c r="F429">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+      <c r="H429">
+        <v>0.1</v>
+      </c>
+      <c r="I429" t="s">
+        <v>21</v>
+      </c>
+      <c r="J429">
+        <v>2</v>
+      </c>
+      <c r="K429" t="s">
+        <v>19</v>
+      </c>
+      <c r="L429">
+        <v>7</v>
+      </c>
+      <c r="M429">
+        <v>0.63</v>
+      </c>
+      <c r="N429">
+        <v>68</v>
+      </c>
+      <c r="O429">
+        <v>30.03</v>
+      </c>
+      <c r="P429">
+        <v>4</v>
+      </c>
+      <c r="Q429">
+        <v>0.31</v>
+      </c>
+      <c r="R429">
+        <v>9.9</v>
+      </c>
+      <c r="S429">
+        <v>57</v>
+      </c>
+      <c r="T429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B430" t="s">
+        <v>9</v>
+      </c>
+      <c r="C430" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430">
+        <v>69</v>
+      </c>
+      <c r="E430">
+        <v>84</v>
+      </c>
+      <c r="F430">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+      <c r="H430">
+        <v>0.1</v>
+      </c>
+      <c r="I430" t="s">
+        <v>21</v>
+      </c>
+      <c r="J430">
+        <v>3</v>
+      </c>
+      <c r="K430" t="s">
+        <v>20</v>
+      </c>
+      <c r="L430">
+        <v>7</v>
+      </c>
+      <c r="M430">
+        <v>0.63</v>
+      </c>
+      <c r="N430">
+        <v>68</v>
+      </c>
+      <c r="O430">
+        <v>30.03</v>
+      </c>
+      <c r="P430">
+        <v>4</v>
+      </c>
+      <c r="Q430">
+        <v>0.31</v>
+      </c>
+      <c r="R430">
+        <v>9.9</v>
+      </c>
+      <c r="S430">
+        <v>57</v>
+      </c>
+      <c r="T430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B431" t="s">
+        <v>9</v>
+      </c>
+      <c r="C431" t="s">
+        <v>13</v>
+      </c>
+      <c r="D431">
+        <v>69</v>
+      </c>
+      <c r="E431">
+        <v>84</v>
+      </c>
+      <c r="F431">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
+      <c r="I431" t="s">
+        <v>21</v>
+      </c>
+      <c r="J431">
+        <v>3</v>
+      </c>
+      <c r="K431" t="s">
+        <v>20</v>
+      </c>
+      <c r="L431">
+        <v>7</v>
+      </c>
+      <c r="M431">
+        <v>0.63</v>
+      </c>
+      <c r="N431">
+        <v>68</v>
+      </c>
+      <c r="O431">
+        <v>30.03</v>
+      </c>
+      <c r="P431">
+        <v>4</v>
+      </c>
+      <c r="Q431">
+        <v>0.31</v>
+      </c>
+      <c r="R431">
+        <v>9.9</v>
+      </c>
+      <c r="S431">
+        <v>57</v>
+      </c>
+      <c r="T431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B432" t="s">
+        <v>9</v>
+      </c>
+      <c r="C432" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432">
+        <v>69</v>
+      </c>
+      <c r="E432">
+        <v>84</v>
+      </c>
+      <c r="F432">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
+      <c r="I432" t="s">
+        <v>21</v>
+      </c>
+      <c r="J432">
+        <v>3</v>
+      </c>
+      <c r="K432" t="s">
+        <v>19</v>
+      </c>
+      <c r="L432">
+        <v>7</v>
+      </c>
+      <c r="M432">
+        <v>0.63</v>
+      </c>
+      <c r="N432">
+        <v>68</v>
+      </c>
+      <c r="O432">
+        <v>30.03</v>
+      </c>
+      <c r="P432">
+        <v>4</v>
+      </c>
+      <c r="Q432">
+        <v>0.31</v>
+      </c>
+      <c r="R432">
+        <v>9.9</v>
+      </c>
+      <c r="S432">
+        <v>57</v>
+      </c>
+      <c r="T432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B433" t="s">
+        <v>9</v>
+      </c>
+      <c r="C433" t="s">
+        <v>12</v>
+      </c>
+      <c r="D433">
+        <v>69</v>
+      </c>
+      <c r="E433">
+        <v>84</v>
+      </c>
+      <c r="F433">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+      <c r="I433" t="s">
+        <v>21</v>
+      </c>
+      <c r="J433">
+        <v>3</v>
+      </c>
+      <c r="K433" t="s">
+        <v>19</v>
+      </c>
+      <c r="L433">
+        <v>7</v>
+      </c>
+      <c r="M433">
+        <v>0.63</v>
+      </c>
+      <c r="N433">
+        <v>68</v>
+      </c>
+      <c r="O433">
+        <v>30.03</v>
+      </c>
+      <c r="P433">
+        <v>4</v>
+      </c>
+      <c r="Q433">
+        <v>0.31</v>
+      </c>
+      <c r="R433">
+        <v>9.9</v>
+      </c>
+      <c r="S433">
+        <v>57</v>
+      </c>
+      <c r="T433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B434" t="s">
+        <v>9</v>
+      </c>
+      <c r="C434" t="s">
+        <v>11</v>
+      </c>
+      <c r="D434">
+        <v>69</v>
+      </c>
+      <c r="E434">
+        <v>84</v>
+      </c>
+      <c r="F434">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>0.2</v>
+      </c>
+      <c r="I434" t="s">
+        <v>21</v>
+      </c>
+      <c r="J434">
+        <v>4</v>
+      </c>
+      <c r="K434" t="s">
+        <v>18</v>
+      </c>
+      <c r="L434">
+        <v>7</v>
+      </c>
+      <c r="M434">
+        <v>0.63</v>
+      </c>
+      <c r="N434">
+        <v>68</v>
+      </c>
+      <c r="O434">
+        <v>30.03</v>
+      </c>
+      <c r="P434">
+        <v>4</v>
+      </c>
+      <c r="Q434">
+        <v>0.31</v>
+      </c>
+      <c r="R434">
+        <v>9.9</v>
+      </c>
+      <c r="S434">
+        <v>57</v>
+      </c>
+      <c r="T434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B435" t="s">
+        <v>10</v>
+      </c>
+      <c r="C435" t="s">
+        <v>12</v>
+      </c>
+      <c r="D435">
+        <v>69</v>
+      </c>
+      <c r="E435">
+        <v>84</v>
+      </c>
+      <c r="F435">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>0.2</v>
+      </c>
+      <c r="I435" t="s">
+        <v>21</v>
+      </c>
+      <c r="J435">
+        <v>1</v>
+      </c>
+      <c r="K435" t="s">
+        <v>20</v>
+      </c>
+      <c r="L435">
+        <v>7</v>
+      </c>
+      <c r="M435">
+        <v>0.63</v>
+      </c>
+      <c r="N435">
+        <v>68</v>
+      </c>
+      <c r="O435">
+        <v>30.03</v>
+      </c>
+      <c r="P435">
+        <v>4</v>
+      </c>
+      <c r="Q435">
+        <v>0.31</v>
+      </c>
+      <c r="R435">
+        <v>9.9</v>
+      </c>
+      <c r="S435">
+        <v>57</v>
+      </c>
+      <c r="T435">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBD9332-F94A-40C6-95D4-44B6510212C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1E7F4F-71F4-475F-83A6-BDF1BEE408F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U435"/>
+  <dimension ref="A1:U456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="I436" sqref="I436"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="T449" sqref="T449:T456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27186,7 +27186,7 @@
         <v>77</v>
       </c>
       <c r="F424">
-        <f t="shared" ref="F424:F435" si="9">ABS(D424-E424)</f>
+        <f t="shared" ref="F424:F456" si="9">ABS(D424-E424)</f>
         <v>11</v>
       </c>
       <c r="G424">
@@ -27922,6 +27922,1330 @@
         <v>57</v>
       </c>
       <c r="T435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B436" t="s">
+        <v>8</v>
+      </c>
+      <c r="C436" t="s">
+        <v>11</v>
+      </c>
+      <c r="D436">
+        <v>74</v>
+      </c>
+      <c r="E436">
+        <v>91</v>
+      </c>
+      <c r="F436">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>0.1</v>
+      </c>
+      <c r="I436" t="s">
+        <v>21</v>
+      </c>
+      <c r="J436">
+        <v>2</v>
+      </c>
+      <c r="K436" t="s">
+        <v>19</v>
+      </c>
+      <c r="L436">
+        <v>8</v>
+      </c>
+      <c r="M436">
+        <v>0.63</v>
+      </c>
+      <c r="N436">
+        <v>75</v>
+      </c>
+      <c r="O436">
+        <v>30.03</v>
+      </c>
+      <c r="P436">
+        <v>15</v>
+      </c>
+      <c r="Q436">
+        <v>0.31</v>
+      </c>
+      <c r="R436">
+        <v>9.9</v>
+      </c>
+      <c r="S436">
+        <v>57</v>
+      </c>
+      <c r="T436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B437" t="s">
+        <v>9</v>
+      </c>
+      <c r="C437" t="s">
+        <v>12</v>
+      </c>
+      <c r="D437">
+        <v>74</v>
+      </c>
+      <c r="E437">
+        <v>91</v>
+      </c>
+      <c r="F437">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437">
+        <v>0.1</v>
+      </c>
+      <c r="I437" t="s">
+        <v>21</v>
+      </c>
+      <c r="J437">
+        <v>3</v>
+      </c>
+      <c r="K437" t="s">
+        <v>19</v>
+      </c>
+      <c r="L437">
+        <v>8</v>
+      </c>
+      <c r="M437">
+        <v>0.63</v>
+      </c>
+      <c r="N437">
+        <v>75</v>
+      </c>
+      <c r="O437">
+        <v>30.03</v>
+      </c>
+      <c r="P437">
+        <v>15</v>
+      </c>
+      <c r="Q437">
+        <v>0.31</v>
+      </c>
+      <c r="R437">
+        <v>9.9</v>
+      </c>
+      <c r="S437">
+        <v>57</v>
+      </c>
+      <c r="T437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B438" t="s">
+        <v>9</v>
+      </c>
+      <c r="C438" t="s">
+        <v>13</v>
+      </c>
+      <c r="D438">
+        <v>74</v>
+      </c>
+      <c r="E438">
+        <v>91</v>
+      </c>
+      <c r="F438">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438" t="s">
+        <v>21</v>
+      </c>
+      <c r="J438">
+        <v>3</v>
+      </c>
+      <c r="K438" t="s">
+        <v>18</v>
+      </c>
+      <c r="L438">
+        <v>8</v>
+      </c>
+      <c r="M438">
+        <v>0.63</v>
+      </c>
+      <c r="N438">
+        <v>75</v>
+      </c>
+      <c r="O438">
+        <v>30.03</v>
+      </c>
+      <c r="P438">
+        <v>15</v>
+      </c>
+      <c r="Q438">
+        <v>0.31</v>
+      </c>
+      <c r="R438">
+        <v>9.9</v>
+      </c>
+      <c r="S438">
+        <v>57</v>
+      </c>
+      <c r="T438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439">
+        <v>74</v>
+      </c>
+      <c r="E439">
+        <v>91</v>
+      </c>
+      <c r="F439">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439">
+        <v>0</v>
+      </c>
+      <c r="I439" t="s">
+        <v>21</v>
+      </c>
+      <c r="J439">
+        <v>3</v>
+      </c>
+      <c r="K439" t="s">
+        <v>20</v>
+      </c>
+      <c r="L439">
+        <v>8</v>
+      </c>
+      <c r="M439">
+        <v>0.63</v>
+      </c>
+      <c r="N439">
+        <v>75</v>
+      </c>
+      <c r="O439">
+        <v>30.03</v>
+      </c>
+      <c r="P439">
+        <v>15</v>
+      </c>
+      <c r="Q439">
+        <v>0.31</v>
+      </c>
+      <c r="R439">
+        <v>9.9</v>
+      </c>
+      <c r="S439">
+        <v>57</v>
+      </c>
+      <c r="T439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B440" t="s">
+        <v>9</v>
+      </c>
+      <c r="C440" t="s">
+        <v>12</v>
+      </c>
+      <c r="D440">
+        <v>74</v>
+      </c>
+      <c r="E440">
+        <v>91</v>
+      </c>
+      <c r="F440">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440" t="s">
+        <v>21</v>
+      </c>
+      <c r="J440">
+        <v>3</v>
+      </c>
+      <c r="K440" t="s">
+        <v>20</v>
+      </c>
+      <c r="L440">
+        <v>8</v>
+      </c>
+      <c r="M440">
+        <v>0.63</v>
+      </c>
+      <c r="N440">
+        <v>75</v>
+      </c>
+      <c r="O440">
+        <v>30.03</v>
+      </c>
+      <c r="P440">
+        <v>15</v>
+      </c>
+      <c r="Q440">
+        <v>0.31</v>
+      </c>
+      <c r="R440">
+        <v>9.9</v>
+      </c>
+      <c r="S440">
+        <v>57</v>
+      </c>
+      <c r="T440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B441" t="s">
+        <v>9</v>
+      </c>
+      <c r="C441" t="s">
+        <v>11</v>
+      </c>
+      <c r="D441">
+        <v>74</v>
+      </c>
+      <c r="E441">
+        <v>91</v>
+      </c>
+      <c r="F441">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>0.2</v>
+      </c>
+      <c r="I441" t="s">
+        <v>21</v>
+      </c>
+      <c r="J441">
+        <v>4</v>
+      </c>
+      <c r="K441" t="s">
+        <v>20</v>
+      </c>
+      <c r="L441">
+        <v>8</v>
+      </c>
+      <c r="M441">
+        <v>0.63</v>
+      </c>
+      <c r="N441">
+        <v>75</v>
+      </c>
+      <c r="O441">
+        <v>30.03</v>
+      </c>
+      <c r="P441">
+        <v>15</v>
+      </c>
+      <c r="Q441">
+        <v>0.31</v>
+      </c>
+      <c r="R441">
+        <v>9.9</v>
+      </c>
+      <c r="S441">
+        <v>57</v>
+      </c>
+      <c r="T441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B442" t="s">
+        <v>10</v>
+      </c>
+      <c r="C442" t="s">
+        <v>12</v>
+      </c>
+      <c r="D442">
+        <v>74</v>
+      </c>
+      <c r="E442">
+        <v>91</v>
+      </c>
+      <c r="F442">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G442">
+        <v>0</v>
+      </c>
+      <c r="H442">
+        <v>0.2</v>
+      </c>
+      <c r="I442" t="s">
+        <v>21</v>
+      </c>
+      <c r="J442">
+        <v>1</v>
+      </c>
+      <c r="K442" t="s">
+        <v>18</v>
+      </c>
+      <c r="L442">
+        <v>8</v>
+      </c>
+      <c r="M442">
+        <v>0.63</v>
+      </c>
+      <c r="N442">
+        <v>75</v>
+      </c>
+      <c r="O442">
+        <v>30.03</v>
+      </c>
+      <c r="P442">
+        <v>15</v>
+      </c>
+      <c r="Q442">
+        <v>0.31</v>
+      </c>
+      <c r="R442">
+        <v>9.9</v>
+      </c>
+      <c r="S442">
+        <v>57</v>
+      </c>
+      <c r="T442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B443" t="s">
+        <v>8</v>
+      </c>
+      <c r="C443" t="s">
+        <v>11</v>
+      </c>
+      <c r="D443">
+        <v>72</v>
+      </c>
+      <c r="E443">
+        <v>92</v>
+      </c>
+      <c r="F443">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G443">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H443">
+        <v>0.2</v>
+      </c>
+      <c r="I443" t="s">
+        <v>21</v>
+      </c>
+      <c r="J443">
+        <v>2</v>
+      </c>
+      <c r="K443" t="s">
+        <v>19</v>
+      </c>
+      <c r="L443">
+        <v>9</v>
+      </c>
+      <c r="M443">
+        <v>0.48</v>
+      </c>
+      <c r="N443">
+        <v>68</v>
+      </c>
+      <c r="O443">
+        <v>30.03</v>
+      </c>
+      <c r="P443">
+        <v>6</v>
+      </c>
+      <c r="Q443">
+        <v>0.31</v>
+      </c>
+      <c r="R443">
+        <v>9.9</v>
+      </c>
+      <c r="S443">
+        <v>57</v>
+      </c>
+      <c r="T443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B444" t="s">
+        <v>9</v>
+      </c>
+      <c r="C444" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444">
+        <v>72</v>
+      </c>
+      <c r="E444">
+        <v>92</v>
+      </c>
+      <c r="F444">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G444">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H444">
+        <v>0.1</v>
+      </c>
+      <c r="I444" t="s">
+        <v>21</v>
+      </c>
+      <c r="J444">
+        <v>3</v>
+      </c>
+      <c r="K444" t="s">
+        <v>19</v>
+      </c>
+      <c r="L444">
+        <v>9</v>
+      </c>
+      <c r="M444">
+        <v>0.48</v>
+      </c>
+      <c r="N444">
+        <v>68</v>
+      </c>
+      <c r="O444">
+        <v>30.03</v>
+      </c>
+      <c r="P444">
+        <v>6</v>
+      </c>
+      <c r="Q444">
+        <v>0.31</v>
+      </c>
+      <c r="R444">
+        <v>9.9</v>
+      </c>
+      <c r="S444">
+        <v>57</v>
+      </c>
+      <c r="T444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B445" t="s">
+        <v>9</v>
+      </c>
+      <c r="C445" t="s">
+        <v>13</v>
+      </c>
+      <c r="D445">
+        <v>72</v>
+      </c>
+      <c r="E445">
+        <v>92</v>
+      </c>
+      <c r="F445">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G445">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H445">
+        <v>0.2</v>
+      </c>
+      <c r="I445" t="s">
+        <v>21</v>
+      </c>
+      <c r="J445">
+        <v>3</v>
+      </c>
+      <c r="K445" t="s">
+        <v>20</v>
+      </c>
+      <c r="L445">
+        <v>9</v>
+      </c>
+      <c r="M445">
+        <v>0.48</v>
+      </c>
+      <c r="N445">
+        <v>68</v>
+      </c>
+      <c r="O445">
+        <v>30.03</v>
+      </c>
+      <c r="P445">
+        <v>6</v>
+      </c>
+      <c r="Q445">
+        <v>0.31</v>
+      </c>
+      <c r="R445">
+        <v>9.9</v>
+      </c>
+      <c r="S445">
+        <v>57</v>
+      </c>
+      <c r="T445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B446" t="s">
+        <v>9</v>
+      </c>
+      <c r="C446" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446">
+        <v>72</v>
+      </c>
+      <c r="E446">
+        <v>92</v>
+      </c>
+      <c r="F446">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G446">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H446">
+        <v>0.25</v>
+      </c>
+      <c r="I446" t="s">
+        <v>21</v>
+      </c>
+      <c r="J446">
+        <v>3</v>
+      </c>
+      <c r="K446" t="s">
+        <v>18</v>
+      </c>
+      <c r="L446">
+        <v>9</v>
+      </c>
+      <c r="M446">
+        <v>0.48</v>
+      </c>
+      <c r="N446">
+        <v>68</v>
+      </c>
+      <c r="O446">
+        <v>30.03</v>
+      </c>
+      <c r="P446">
+        <v>6</v>
+      </c>
+      <c r="Q446">
+        <v>0.31</v>
+      </c>
+      <c r="R446">
+        <v>9.9</v>
+      </c>
+      <c r="S446">
+        <v>57</v>
+      </c>
+      <c r="T446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447">
+        <v>72</v>
+      </c>
+      <c r="E447">
+        <v>92</v>
+      </c>
+      <c r="F447">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G447">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H447">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I447" t="s">
+        <v>21</v>
+      </c>
+      <c r="J447">
+        <v>3</v>
+      </c>
+      <c r="K447" t="s">
+        <v>20</v>
+      </c>
+      <c r="L447">
+        <v>9</v>
+      </c>
+      <c r="M447">
+        <v>0.48</v>
+      </c>
+      <c r="N447">
+        <v>68</v>
+      </c>
+      <c r="O447">
+        <v>30.03</v>
+      </c>
+      <c r="P447">
+        <v>6</v>
+      </c>
+      <c r="Q447">
+        <v>0.31</v>
+      </c>
+      <c r="R447">
+        <v>9.9</v>
+      </c>
+      <c r="S447">
+        <v>57</v>
+      </c>
+      <c r="T447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B448" t="s">
+        <v>9</v>
+      </c>
+      <c r="C448" t="s">
+        <v>11</v>
+      </c>
+      <c r="D448">
+        <v>72</v>
+      </c>
+      <c r="E448">
+        <v>92</v>
+      </c>
+      <c r="F448">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G448">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+      <c r="I448" t="s">
+        <v>21</v>
+      </c>
+      <c r="J448">
+        <v>4</v>
+      </c>
+      <c r="K448" t="s">
+        <v>20</v>
+      </c>
+      <c r="L448">
+        <v>9</v>
+      </c>
+      <c r="M448">
+        <v>0.48</v>
+      </c>
+      <c r="N448">
+        <v>68</v>
+      </c>
+      <c r="O448">
+        <v>30.03</v>
+      </c>
+      <c r="P448">
+        <v>6</v>
+      </c>
+      <c r="Q448">
+        <v>0.31</v>
+      </c>
+      <c r="R448">
+        <v>9.9</v>
+      </c>
+      <c r="S448">
+        <v>57</v>
+      </c>
+      <c r="T448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B449" t="s">
+        <v>10</v>
+      </c>
+      <c r="C449" t="s">
+        <v>12</v>
+      </c>
+      <c r="D449">
+        <v>72</v>
+      </c>
+      <c r="E449">
+        <v>92</v>
+      </c>
+      <c r="F449">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G449">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H449">
+        <v>0.75</v>
+      </c>
+      <c r="I449" t="s">
+        <v>21</v>
+      </c>
+      <c r="J449">
+        <v>1</v>
+      </c>
+      <c r="K449" t="s">
+        <v>18</v>
+      </c>
+      <c r="L449">
+        <v>9</v>
+      </c>
+      <c r="M449">
+        <v>0.48</v>
+      </c>
+      <c r="N449">
+        <v>68</v>
+      </c>
+      <c r="O449">
+        <v>30.03</v>
+      </c>
+      <c r="P449">
+        <v>6</v>
+      </c>
+      <c r="Q449">
+        <v>0.31</v>
+      </c>
+      <c r="R449">
+        <v>9.9</v>
+      </c>
+      <c r="S449">
+        <v>57</v>
+      </c>
+      <c r="T449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>45851</v>
+      </c>
+      <c r="B450" t="s">
+        <v>8</v>
+      </c>
+      <c r="C450" t="s">
+        <v>11</v>
+      </c>
+      <c r="D450">
+        <v>71</v>
+      </c>
+      <c r="E450">
+        <v>88</v>
+      </c>
+      <c r="F450">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G450">
+        <v>0.18</v>
+      </c>
+      <c r="H450">
+        <v>0.2</v>
+      </c>
+      <c r="I450" t="s">
+        <v>21</v>
+      </c>
+      <c r="J450">
+        <v>2</v>
+      </c>
+      <c r="K450" t="s">
+        <v>18</v>
+      </c>
+      <c r="L450">
+        <v>7</v>
+      </c>
+      <c r="M450">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N450">
+        <v>71</v>
+      </c>
+      <c r="O450">
+        <v>30.03</v>
+      </c>
+      <c r="P450">
+        <v>13</v>
+      </c>
+      <c r="Q450">
+        <v>0.52</v>
+      </c>
+      <c r="R450">
+        <v>9.9</v>
+      </c>
+      <c r="S450">
+        <v>54</v>
+      </c>
+      <c r="T450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>45851</v>
+      </c>
+      <c r="B451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C451" t="s">
+        <v>12</v>
+      </c>
+      <c r="D451">
+        <v>71</v>
+      </c>
+      <c r="E451">
+        <v>88</v>
+      </c>
+      <c r="F451">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G451">
+        <v>0.18</v>
+      </c>
+      <c r="H451">
+        <v>0.2</v>
+      </c>
+      <c r="I451" t="s">
+        <v>21</v>
+      </c>
+      <c r="J451">
+        <v>3</v>
+      </c>
+      <c r="K451" t="s">
+        <v>19</v>
+      </c>
+      <c r="L451">
+        <v>7</v>
+      </c>
+      <c r="M451">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N451">
+        <v>71</v>
+      </c>
+      <c r="O451">
+        <v>30.03</v>
+      </c>
+      <c r="P451">
+        <v>13</v>
+      </c>
+      <c r="Q451">
+        <v>0.52</v>
+      </c>
+      <c r="R451">
+        <v>9.9</v>
+      </c>
+      <c r="S451">
+        <v>54</v>
+      </c>
+      <c r="T451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>45851</v>
+      </c>
+      <c r="B452" t="s">
+        <v>9</v>
+      </c>
+      <c r="C452" t="s">
+        <v>13</v>
+      </c>
+      <c r="D452">
+        <v>71</v>
+      </c>
+      <c r="E452">
+        <v>88</v>
+      </c>
+      <c r="F452">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G452">
+        <v>0.18</v>
+      </c>
+      <c r="H452">
+        <v>0.15</v>
+      </c>
+      <c r="I452" t="s">
+        <v>21</v>
+      </c>
+      <c r="J452">
+        <v>3</v>
+      </c>
+      <c r="K452" t="s">
+        <v>19</v>
+      </c>
+      <c r="L452">
+        <v>7</v>
+      </c>
+      <c r="M452">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N452">
+        <v>71</v>
+      </c>
+      <c r="O452">
+        <v>30.03</v>
+      </c>
+      <c r="P452">
+        <v>13</v>
+      </c>
+      <c r="Q452">
+        <v>0.52</v>
+      </c>
+      <c r="R452">
+        <v>9.9</v>
+      </c>
+      <c r="S452">
+        <v>54</v>
+      </c>
+      <c r="T452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>45851</v>
+      </c>
+      <c r="B453" t="s">
+        <v>9</v>
+      </c>
+      <c r="C453" t="s">
+        <v>12</v>
+      </c>
+      <c r="D453">
+        <v>71</v>
+      </c>
+      <c r="E453">
+        <v>88</v>
+      </c>
+      <c r="F453">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G453">
+        <v>0.18</v>
+      </c>
+      <c r="H453">
+        <v>0.2</v>
+      </c>
+      <c r="I453" t="s">
+        <v>21</v>
+      </c>
+      <c r="J453">
+        <v>3</v>
+      </c>
+      <c r="K453" t="s">
+        <v>20</v>
+      </c>
+      <c r="L453">
+        <v>7</v>
+      </c>
+      <c r="M453">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N453">
+        <v>71</v>
+      </c>
+      <c r="O453">
+        <v>30.03</v>
+      </c>
+      <c r="P453">
+        <v>13</v>
+      </c>
+      <c r="Q453">
+        <v>0.52</v>
+      </c>
+      <c r="R453">
+        <v>9.9</v>
+      </c>
+      <c r="S453">
+        <v>54</v>
+      </c>
+      <c r="T453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>45851</v>
+      </c>
+      <c r="B454" t="s">
+        <v>9</v>
+      </c>
+      <c r="C454" t="s">
+        <v>12</v>
+      </c>
+      <c r="D454">
+        <v>71</v>
+      </c>
+      <c r="E454">
+        <v>88</v>
+      </c>
+      <c r="F454">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G454">
+        <v>0.18</v>
+      </c>
+      <c r="H454">
+        <v>0.1</v>
+      </c>
+      <c r="I454" t="s">
+        <v>21</v>
+      </c>
+      <c r="J454">
+        <v>3</v>
+      </c>
+      <c r="K454" t="s">
+        <v>20</v>
+      </c>
+      <c r="L454">
+        <v>7</v>
+      </c>
+      <c r="M454">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N454">
+        <v>71</v>
+      </c>
+      <c r="O454">
+        <v>30.03</v>
+      </c>
+      <c r="P454">
+        <v>13</v>
+      </c>
+      <c r="Q454">
+        <v>0.52</v>
+      </c>
+      <c r="R454">
+        <v>9.9</v>
+      </c>
+      <c r="S454">
+        <v>54</v>
+      </c>
+      <c r="T454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>45851</v>
+      </c>
+      <c r="B455" t="s">
+        <v>9</v>
+      </c>
+      <c r="C455" t="s">
+        <v>11</v>
+      </c>
+      <c r="D455">
+        <v>71</v>
+      </c>
+      <c r="E455">
+        <v>88</v>
+      </c>
+      <c r="F455">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G455">
+        <v>0.18</v>
+      </c>
+      <c r="H455">
+        <v>0.4</v>
+      </c>
+      <c r="I455" t="s">
+        <v>21</v>
+      </c>
+      <c r="J455">
+        <v>4</v>
+      </c>
+      <c r="K455" t="s">
+        <v>18</v>
+      </c>
+      <c r="L455">
+        <v>7</v>
+      </c>
+      <c r="M455">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N455">
+        <v>71</v>
+      </c>
+      <c r="O455">
+        <v>30.03</v>
+      </c>
+      <c r="P455">
+        <v>13</v>
+      </c>
+      <c r="Q455">
+        <v>0.52</v>
+      </c>
+      <c r="R455">
+        <v>9.9</v>
+      </c>
+      <c r="S455">
+        <v>54</v>
+      </c>
+      <c r="T455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>45851</v>
+      </c>
+      <c r="B456" t="s">
+        <v>10</v>
+      </c>
+      <c r="C456" t="s">
+        <v>12</v>
+      </c>
+      <c r="D456">
+        <v>71</v>
+      </c>
+      <c r="E456">
+        <v>88</v>
+      </c>
+      <c r="F456">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G456">
+        <v>0.18</v>
+      </c>
+      <c r="H456">
+        <v>0.95</v>
+      </c>
+      <c r="I456" t="s">
+        <v>21</v>
+      </c>
+      <c r="J456">
+        <v>1</v>
+      </c>
+      <c r="K456" t="s">
+        <v>20</v>
+      </c>
+      <c r="L456">
+        <v>7</v>
+      </c>
+      <c r="M456">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N456">
+        <v>71</v>
+      </c>
+      <c r="O456">
+        <v>30.03</v>
+      </c>
+      <c r="P456">
+        <v>13</v>
+      </c>
+      <c r="Q456">
+        <v>0.52</v>
+      </c>
+      <c r="R456">
+        <v>9.9</v>
+      </c>
+      <c r="S456">
+        <v>54</v>
+      </c>
+      <c r="T456">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1E7F4F-71F4-475F-83A6-BDF1BEE408F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85823CC-FCBD-4CD4-A8C5-EB2F30C981A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U456"/>
+  <dimension ref="A1:U463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="T449" sqref="T449:T456"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="I464" sqref="I464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27186,7 +27186,7 @@
         <v>77</v>
       </c>
       <c r="F424">
-        <f t="shared" ref="F424:F456" si="9">ABS(D424-E424)</f>
+        <f t="shared" ref="F424:F463" si="9">ABS(D424-E424)</f>
         <v>11</v>
       </c>
       <c r="G424">
@@ -29246,6 +29246,447 @@
         <v>54</v>
       </c>
       <c r="T456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B457" t="s">
+        <v>8</v>
+      </c>
+      <c r="C457" t="s">
+        <v>11</v>
+      </c>
+      <c r="D457">
+        <v>69</v>
+      </c>
+      <c r="E457">
+        <v>82</v>
+      </c>
+      <c r="F457">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="G457">
+        <v>0</v>
+      </c>
+      <c r="H457">
+        <v>0.1</v>
+      </c>
+      <c r="I457" t="s">
+        <v>21</v>
+      </c>
+      <c r="J457">
+        <v>2</v>
+      </c>
+      <c r="K457" t="s">
+        <v>20</v>
+      </c>
+      <c r="L457">
+        <v>8</v>
+      </c>
+      <c r="M457">
+        <v>0.69</v>
+      </c>
+      <c r="N457">
+        <v>71</v>
+      </c>
+      <c r="O457">
+        <v>30.04</v>
+      </c>
+      <c r="P457">
+        <v>5</v>
+      </c>
+      <c r="Q457">
+        <v>0.64</v>
+      </c>
+      <c r="R457">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S457">
+        <v>41</v>
+      </c>
+      <c r="T457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B458" t="s">
+        <v>9</v>
+      </c>
+      <c r="C458" t="s">
+        <v>12</v>
+      </c>
+      <c r="D458">
+        <v>69</v>
+      </c>
+      <c r="E458">
+        <v>82</v>
+      </c>
+      <c r="F458">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="G458">
+        <v>0</v>
+      </c>
+      <c r="H458">
+        <v>0.1</v>
+      </c>
+      <c r="I458" t="s">
+        <v>21</v>
+      </c>
+      <c r="J458">
+        <v>3</v>
+      </c>
+      <c r="K458" t="s">
+        <v>20</v>
+      </c>
+      <c r="L458">
+        <v>8</v>
+      </c>
+      <c r="M458">
+        <v>0.69</v>
+      </c>
+      <c r="N458">
+        <v>71</v>
+      </c>
+      <c r="O458">
+        <v>30.04</v>
+      </c>
+      <c r="P458">
+        <v>5</v>
+      </c>
+      <c r="Q458">
+        <v>0.64</v>
+      </c>
+      <c r="R458">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S458">
+        <v>41</v>
+      </c>
+      <c r="T458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B459" t="s">
+        <v>9</v>
+      </c>
+      <c r="C459" t="s">
+        <v>13</v>
+      </c>
+      <c r="D459">
+        <v>69</v>
+      </c>
+      <c r="E459">
+        <v>82</v>
+      </c>
+      <c r="F459">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+      <c r="H459">
+        <v>0.2</v>
+      </c>
+      <c r="I459" t="s">
+        <v>21</v>
+      </c>
+      <c r="J459">
+        <v>3</v>
+      </c>
+      <c r="K459" t="s">
+        <v>20</v>
+      </c>
+      <c r="L459">
+        <v>8</v>
+      </c>
+      <c r="M459">
+        <v>0.69</v>
+      </c>
+      <c r="N459">
+        <v>71</v>
+      </c>
+      <c r="O459">
+        <v>30.04</v>
+      </c>
+      <c r="P459">
+        <v>5</v>
+      </c>
+      <c r="Q459">
+        <v>0.64</v>
+      </c>
+      <c r="R459">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S459">
+        <v>41</v>
+      </c>
+      <c r="T459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B460" t="s">
+        <v>9</v>
+      </c>
+      <c r="C460" t="s">
+        <v>12</v>
+      </c>
+      <c r="D460">
+        <v>69</v>
+      </c>
+      <c r="E460">
+        <v>82</v>
+      </c>
+      <c r="F460">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+      <c r="H460">
+        <v>0</v>
+      </c>
+      <c r="I460" t="s">
+        <v>21</v>
+      </c>
+      <c r="J460">
+        <v>3</v>
+      </c>
+      <c r="K460" t="s">
+        <v>19</v>
+      </c>
+      <c r="L460">
+        <v>8</v>
+      </c>
+      <c r="M460">
+        <v>0.69</v>
+      </c>
+      <c r="N460">
+        <v>71</v>
+      </c>
+      <c r="O460">
+        <v>30.04</v>
+      </c>
+      <c r="P460">
+        <v>5</v>
+      </c>
+      <c r="Q460">
+        <v>0.64</v>
+      </c>
+      <c r="R460">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S460">
+        <v>41</v>
+      </c>
+      <c r="T460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B461" t="s">
+        <v>9</v>
+      </c>
+      <c r="C461" t="s">
+        <v>12</v>
+      </c>
+      <c r="D461">
+        <v>69</v>
+      </c>
+      <c r="E461">
+        <v>82</v>
+      </c>
+      <c r="F461">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+      <c r="I461" t="s">
+        <v>21</v>
+      </c>
+      <c r="J461">
+        <v>3</v>
+      </c>
+      <c r="K461" t="s">
+        <v>19</v>
+      </c>
+      <c r="L461">
+        <v>8</v>
+      </c>
+      <c r="M461">
+        <v>0.69</v>
+      </c>
+      <c r="N461">
+        <v>71</v>
+      </c>
+      <c r="O461">
+        <v>30.04</v>
+      </c>
+      <c r="P461">
+        <v>5</v>
+      </c>
+      <c r="Q461">
+        <v>0.64</v>
+      </c>
+      <c r="R461">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S461">
+        <v>41</v>
+      </c>
+      <c r="T461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B462" t="s">
+        <v>9</v>
+      </c>
+      <c r="C462" t="s">
+        <v>11</v>
+      </c>
+      <c r="D462">
+        <v>69</v>
+      </c>
+      <c r="E462">
+        <v>82</v>
+      </c>
+      <c r="F462">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+      <c r="H462">
+        <v>0.3</v>
+      </c>
+      <c r="I462" t="s">
+        <v>21</v>
+      </c>
+      <c r="J462">
+        <v>4</v>
+      </c>
+      <c r="K462" t="s">
+        <v>20</v>
+      </c>
+      <c r="L462">
+        <v>8</v>
+      </c>
+      <c r="M462">
+        <v>0.69</v>
+      </c>
+      <c r="N462">
+        <v>71</v>
+      </c>
+      <c r="O462">
+        <v>30.04</v>
+      </c>
+      <c r="P462">
+        <v>5</v>
+      </c>
+      <c r="Q462">
+        <v>0.64</v>
+      </c>
+      <c r="R462">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S462">
+        <v>41</v>
+      </c>
+      <c r="T462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B463" t="s">
+        <v>10</v>
+      </c>
+      <c r="C463" t="s">
+        <v>12</v>
+      </c>
+      <c r="D463">
+        <v>69</v>
+      </c>
+      <c r="E463">
+        <v>82</v>
+      </c>
+      <c r="F463">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="G463">
+        <v>0</v>
+      </c>
+      <c r="H463">
+        <v>0.5</v>
+      </c>
+      <c r="I463" t="s">
+        <v>21</v>
+      </c>
+      <c r="J463">
+        <v>1</v>
+      </c>
+      <c r="K463" t="s">
+        <v>19</v>
+      </c>
+      <c r="L463">
+        <v>8</v>
+      </c>
+      <c r="M463">
+        <v>0.69</v>
+      </c>
+      <c r="N463">
+        <v>71</v>
+      </c>
+      <c r="O463">
+        <v>30.04</v>
+      </c>
+      <c r="P463">
+        <v>5</v>
+      </c>
+      <c r="Q463">
+        <v>0.64</v>
+      </c>
+      <c r="R463">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S463">
+        <v>41</v>
+      </c>
+      <c r="T463">
         <v>0</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85823CC-FCBD-4CD4-A8C5-EB2F30C981A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC06CE42-52B9-47EF-8E82-E7084FFB96A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U463"/>
+  <dimension ref="A1:U526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="I464" sqref="I464"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="Q520" sqref="Q520:Q526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27186,7 +27186,7 @@
         <v>77</v>
       </c>
       <c r="F424">
-        <f t="shared" ref="F424:F463" si="9">ABS(D424-E424)</f>
+        <f t="shared" ref="F424:F464" si="9">ABS(D424-E424)</f>
         <v>11</v>
       </c>
       <c r="G424">
@@ -29688,6 +29688,3976 @@
       </c>
       <c r="T463">
         <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B464" t="s">
+        <v>8</v>
+      </c>
+      <c r="C464" t="s">
+        <v>11</v>
+      </c>
+      <c r="D464">
+        <v>69</v>
+      </c>
+      <c r="E464">
+        <v>84</v>
+      </c>
+      <c r="F464">
+        <f t="shared" ref="F464:F470" si="10">ABS(D464-E464)</f>
+        <v>15</v>
+      </c>
+      <c r="G464">
+        <v>0</v>
+      </c>
+      <c r="H464">
+        <v>0.1</v>
+      </c>
+      <c r="I464" t="s">
+        <v>21</v>
+      </c>
+      <c r="J464">
+        <v>2</v>
+      </c>
+      <c r="K464" t="s">
+        <v>19</v>
+      </c>
+      <c r="L464">
+        <v>7</v>
+      </c>
+      <c r="M464">
+        <v>0.63</v>
+      </c>
+      <c r="N464">
+        <v>68</v>
+      </c>
+      <c r="O464">
+        <v>30.03</v>
+      </c>
+      <c r="P464">
+        <v>4</v>
+      </c>
+      <c r="Q464">
+        <v>0.31</v>
+      </c>
+      <c r="R464">
+        <v>9.9</v>
+      </c>
+      <c r="S464">
+        <v>57</v>
+      </c>
+      <c r="T464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B465" t="s">
+        <v>9</v>
+      </c>
+      <c r="C465" t="s">
+        <v>12</v>
+      </c>
+      <c r="D465">
+        <v>69</v>
+      </c>
+      <c r="E465">
+        <v>84</v>
+      </c>
+      <c r="F465">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G465">
+        <v>0</v>
+      </c>
+      <c r="H465">
+        <v>0.1</v>
+      </c>
+      <c r="I465" t="s">
+        <v>21</v>
+      </c>
+      <c r="J465">
+        <v>3</v>
+      </c>
+      <c r="K465" t="s">
+        <v>20</v>
+      </c>
+      <c r="L465">
+        <v>7</v>
+      </c>
+      <c r="M465">
+        <v>0.63</v>
+      </c>
+      <c r="N465">
+        <v>68</v>
+      </c>
+      <c r="O465">
+        <v>30.03</v>
+      </c>
+      <c r="P465">
+        <v>4</v>
+      </c>
+      <c r="Q465">
+        <v>0.31</v>
+      </c>
+      <c r="R465">
+        <v>9.9</v>
+      </c>
+      <c r="S465">
+        <v>57</v>
+      </c>
+      <c r="T465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B466" t="s">
+        <v>9</v>
+      </c>
+      <c r="C466" t="s">
+        <v>13</v>
+      </c>
+      <c r="D466">
+        <v>69</v>
+      </c>
+      <c r="E466">
+        <v>84</v>
+      </c>
+      <c r="F466">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+      <c r="H466">
+        <v>0</v>
+      </c>
+      <c r="I466" t="s">
+        <v>21</v>
+      </c>
+      <c r="J466">
+        <v>3</v>
+      </c>
+      <c r="K466" t="s">
+        <v>20</v>
+      </c>
+      <c r="L466">
+        <v>7</v>
+      </c>
+      <c r="M466">
+        <v>0.63</v>
+      </c>
+      <c r="N466">
+        <v>68</v>
+      </c>
+      <c r="O466">
+        <v>30.03</v>
+      </c>
+      <c r="P466">
+        <v>4</v>
+      </c>
+      <c r="Q466">
+        <v>0.31</v>
+      </c>
+      <c r="R466">
+        <v>9.9</v>
+      </c>
+      <c r="S466">
+        <v>57</v>
+      </c>
+      <c r="T466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B467" t="s">
+        <v>9</v>
+      </c>
+      <c r="C467" t="s">
+        <v>12</v>
+      </c>
+      <c r="D467">
+        <v>69</v>
+      </c>
+      <c r="E467">
+        <v>84</v>
+      </c>
+      <c r="F467">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+      <c r="H467">
+        <v>0</v>
+      </c>
+      <c r="I467" t="s">
+        <v>21</v>
+      </c>
+      <c r="J467">
+        <v>3</v>
+      </c>
+      <c r="K467" t="s">
+        <v>19</v>
+      </c>
+      <c r="L467">
+        <v>7</v>
+      </c>
+      <c r="M467">
+        <v>0.63</v>
+      </c>
+      <c r="N467">
+        <v>68</v>
+      </c>
+      <c r="O467">
+        <v>30.03</v>
+      </c>
+      <c r="P467">
+        <v>4</v>
+      </c>
+      <c r="Q467">
+        <v>0.31</v>
+      </c>
+      <c r="R467">
+        <v>9.9</v>
+      </c>
+      <c r="S467">
+        <v>57</v>
+      </c>
+      <c r="T467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B468" t="s">
+        <v>9</v>
+      </c>
+      <c r="C468" t="s">
+        <v>12</v>
+      </c>
+      <c r="D468">
+        <v>69</v>
+      </c>
+      <c r="E468">
+        <v>84</v>
+      </c>
+      <c r="F468">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468">
+        <v>0</v>
+      </c>
+      <c r="I468" t="s">
+        <v>21</v>
+      </c>
+      <c r="J468">
+        <v>3</v>
+      </c>
+      <c r="K468" t="s">
+        <v>19</v>
+      </c>
+      <c r="L468">
+        <v>7</v>
+      </c>
+      <c r="M468">
+        <v>0.63</v>
+      </c>
+      <c r="N468">
+        <v>68</v>
+      </c>
+      <c r="O468">
+        <v>30.03</v>
+      </c>
+      <c r="P468">
+        <v>4</v>
+      </c>
+      <c r="Q468">
+        <v>0.31</v>
+      </c>
+      <c r="R468">
+        <v>9.9</v>
+      </c>
+      <c r="S468">
+        <v>57</v>
+      </c>
+      <c r="T468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B469" t="s">
+        <v>9</v>
+      </c>
+      <c r="C469" t="s">
+        <v>11</v>
+      </c>
+      <c r="D469">
+        <v>69</v>
+      </c>
+      <c r="E469">
+        <v>84</v>
+      </c>
+      <c r="F469">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G469">
+        <v>0</v>
+      </c>
+      <c r="H469">
+        <v>0.2</v>
+      </c>
+      <c r="I469" t="s">
+        <v>21</v>
+      </c>
+      <c r="J469">
+        <v>4</v>
+      </c>
+      <c r="K469" t="s">
+        <v>18</v>
+      </c>
+      <c r="L469">
+        <v>7</v>
+      </c>
+      <c r="M469">
+        <v>0.63</v>
+      </c>
+      <c r="N469">
+        <v>68</v>
+      </c>
+      <c r="O469">
+        <v>30.03</v>
+      </c>
+      <c r="P469">
+        <v>4</v>
+      </c>
+      <c r="Q469">
+        <v>0.31</v>
+      </c>
+      <c r="R469">
+        <v>9.9</v>
+      </c>
+      <c r="S469">
+        <v>57</v>
+      </c>
+      <c r="T469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B470" t="s">
+        <v>10</v>
+      </c>
+      <c r="C470" t="s">
+        <v>12</v>
+      </c>
+      <c r="D470">
+        <v>69</v>
+      </c>
+      <c r="E470">
+        <v>84</v>
+      </c>
+      <c r="F470">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>0.2</v>
+      </c>
+      <c r="I470" t="s">
+        <v>21</v>
+      </c>
+      <c r="J470">
+        <v>1</v>
+      </c>
+      <c r="K470" t="s">
+        <v>20</v>
+      </c>
+      <c r="L470">
+        <v>7</v>
+      </c>
+      <c r="M470">
+        <v>0.63</v>
+      </c>
+      <c r="N470">
+        <v>68</v>
+      </c>
+      <c r="O470">
+        <v>30.03</v>
+      </c>
+      <c r="P470">
+        <v>4</v>
+      </c>
+      <c r="Q470">
+        <v>0.31</v>
+      </c>
+      <c r="R470">
+        <v>9.9</v>
+      </c>
+      <c r="S470">
+        <v>57</v>
+      </c>
+      <c r="T470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B471" t="s">
+        <v>8</v>
+      </c>
+      <c r="C471" t="s">
+        <v>12</v>
+      </c>
+      <c r="D471">
+        <v>66</v>
+      </c>
+      <c r="E471">
+        <v>77</v>
+      </c>
+      <c r="F471">
+        <f>ABS(D471-E471)</f>
+        <v>11</v>
+      </c>
+      <c r="G471">
+        <v>0.25</v>
+      </c>
+      <c r="H471">
+        <v>0.1</v>
+      </c>
+      <c r="I471" t="s">
+        <v>15</v>
+      </c>
+      <c r="J471">
+        <v>3</v>
+      </c>
+      <c r="K471" t="s">
+        <v>19</v>
+      </c>
+      <c r="L471">
+        <v>5</v>
+      </c>
+      <c r="M471">
+        <v>0.84</v>
+      </c>
+      <c r="N471">
+        <v>70</v>
+      </c>
+      <c r="O471">
+        <v>30.01</v>
+      </c>
+      <c r="P471">
+        <v>7</v>
+      </c>
+      <c r="Q471">
+        <v>0.86</v>
+      </c>
+      <c r="R471">
+        <v>5.8</v>
+      </c>
+      <c r="S471">
+        <v>57</v>
+      </c>
+      <c r="T471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B472" t="s">
+        <v>9</v>
+      </c>
+      <c r="C472" t="s">
+        <v>12</v>
+      </c>
+      <c r="D472">
+        <v>66</v>
+      </c>
+      <c r="E472">
+        <v>77</v>
+      </c>
+      <c r="F472">
+        <f>ABS(D472-E472)</f>
+        <v>11</v>
+      </c>
+      <c r="G472">
+        <v>0.25</v>
+      </c>
+      <c r="H472">
+        <v>0.05</v>
+      </c>
+      <c r="I472" t="s">
+        <v>15</v>
+      </c>
+      <c r="J472">
+        <v>3</v>
+      </c>
+      <c r="K472" t="s">
+        <v>19</v>
+      </c>
+      <c r="L472">
+        <v>5</v>
+      </c>
+      <c r="M472">
+        <v>0.84</v>
+      </c>
+      <c r="N472">
+        <v>70</v>
+      </c>
+      <c r="O472">
+        <v>30.01</v>
+      </c>
+      <c r="P472">
+        <v>7</v>
+      </c>
+      <c r="Q472">
+        <v>0.86</v>
+      </c>
+      <c r="R472">
+        <v>5.8</v>
+      </c>
+      <c r="S472">
+        <v>57</v>
+      </c>
+      <c r="T472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B473" t="s">
+        <v>9</v>
+      </c>
+      <c r="C473" t="s">
+        <v>13</v>
+      </c>
+      <c r="D473">
+        <v>66</v>
+      </c>
+      <c r="E473">
+        <v>77</v>
+      </c>
+      <c r="F473">
+        <f>ABS(D473-E473)</f>
+        <v>11</v>
+      </c>
+      <c r="G473">
+        <v>0.25</v>
+      </c>
+      <c r="H473">
+        <v>0.1</v>
+      </c>
+      <c r="I473" t="s">
+        <v>15</v>
+      </c>
+      <c r="J473">
+        <v>3</v>
+      </c>
+      <c r="K473" t="s">
+        <v>19</v>
+      </c>
+      <c r="L473">
+        <v>5</v>
+      </c>
+      <c r="M473">
+        <v>0.84</v>
+      </c>
+      <c r="N473">
+        <v>70</v>
+      </c>
+      <c r="O473">
+        <v>30.01</v>
+      </c>
+      <c r="P473">
+        <v>7</v>
+      </c>
+      <c r="Q473">
+        <v>0.86</v>
+      </c>
+      <c r="R473">
+        <v>5.8</v>
+      </c>
+      <c r="S473">
+        <v>57</v>
+      </c>
+      <c r="T473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B474" t="s">
+        <v>9</v>
+      </c>
+      <c r="C474" t="s">
+        <v>12</v>
+      </c>
+      <c r="D474">
+        <v>66</v>
+      </c>
+      <c r="E474">
+        <v>77</v>
+      </c>
+      <c r="F474">
+        <f>ABS(D474-E474)</f>
+        <v>11</v>
+      </c>
+      <c r="G474">
+        <v>0.25</v>
+      </c>
+      <c r="H474">
+        <v>0.2</v>
+      </c>
+      <c r="I474" t="s">
+        <v>15</v>
+      </c>
+      <c r="J474">
+        <v>3</v>
+      </c>
+      <c r="K474" t="s">
+        <v>19</v>
+      </c>
+      <c r="L474">
+        <v>5</v>
+      </c>
+      <c r="M474">
+        <v>0.84</v>
+      </c>
+      <c r="N474">
+        <v>70</v>
+      </c>
+      <c r="O474">
+        <v>30.01</v>
+      </c>
+      <c r="P474">
+        <v>7</v>
+      </c>
+      <c r="Q474">
+        <v>0.86</v>
+      </c>
+      <c r="R474">
+        <v>5.8</v>
+      </c>
+      <c r="S474">
+        <v>57</v>
+      </c>
+      <c r="T474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B475" t="s">
+        <v>9</v>
+      </c>
+      <c r="C475" t="s">
+        <v>12</v>
+      </c>
+      <c r="D475">
+        <v>66</v>
+      </c>
+      <c r="E475">
+        <v>77</v>
+      </c>
+      <c r="F475">
+        <f>ABS(D475-E475)</f>
+        <v>11</v>
+      </c>
+      <c r="G475">
+        <v>0.25</v>
+      </c>
+      <c r="H475">
+        <v>0.2</v>
+      </c>
+      <c r="I475" t="s">
+        <v>15</v>
+      </c>
+      <c r="J475">
+        <v>3</v>
+      </c>
+      <c r="K475" t="s">
+        <v>18</v>
+      </c>
+      <c r="L475">
+        <v>5</v>
+      </c>
+      <c r="M475">
+        <v>0.84</v>
+      </c>
+      <c r="N475">
+        <v>70</v>
+      </c>
+      <c r="O475">
+        <v>30.01</v>
+      </c>
+      <c r="P475">
+        <v>7</v>
+      </c>
+      <c r="Q475">
+        <v>0.86</v>
+      </c>
+      <c r="R475">
+        <v>5.8</v>
+      </c>
+      <c r="S475">
+        <v>57</v>
+      </c>
+      <c r="T475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B476" t="s">
+        <v>9</v>
+      </c>
+      <c r="C476" t="s">
+        <v>11</v>
+      </c>
+      <c r="D476">
+        <v>66</v>
+      </c>
+      <c r="E476">
+        <v>77</v>
+      </c>
+      <c r="F476">
+        <f>ABS(D476-E476)</f>
+        <v>11</v>
+      </c>
+      <c r="G476">
+        <v>0.25</v>
+      </c>
+      <c r="H476">
+        <v>0.15</v>
+      </c>
+      <c r="I476" t="s">
+        <v>15</v>
+      </c>
+      <c r="J476">
+        <v>4</v>
+      </c>
+      <c r="K476" t="s">
+        <v>18</v>
+      </c>
+      <c r="L476">
+        <v>5</v>
+      </c>
+      <c r="M476">
+        <v>0.84</v>
+      </c>
+      <c r="N476">
+        <v>70</v>
+      </c>
+      <c r="O476">
+        <v>30.01</v>
+      </c>
+      <c r="P476">
+        <v>7</v>
+      </c>
+      <c r="Q476">
+        <v>0.86</v>
+      </c>
+      <c r="R476">
+        <v>5.8</v>
+      </c>
+      <c r="S476">
+        <v>57</v>
+      </c>
+      <c r="T476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B477" t="s">
+        <v>10</v>
+      </c>
+      <c r="C477" t="s">
+        <v>12</v>
+      </c>
+      <c r="D477">
+        <v>66</v>
+      </c>
+      <c r="E477">
+        <v>77</v>
+      </c>
+      <c r="F477">
+        <f>ABS(D477-E477)</f>
+        <v>11</v>
+      </c>
+      <c r="G477">
+        <v>0.25</v>
+      </c>
+      <c r="H477">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I477" t="s">
+        <v>15</v>
+      </c>
+      <c r="J477">
+        <v>1</v>
+      </c>
+      <c r="K477" t="s">
+        <v>19</v>
+      </c>
+      <c r="L477">
+        <v>5</v>
+      </c>
+      <c r="M477">
+        <v>0.84</v>
+      </c>
+      <c r="N477">
+        <v>70</v>
+      </c>
+      <c r="O477">
+        <v>30.01</v>
+      </c>
+      <c r="P477">
+        <v>7</v>
+      </c>
+      <c r="Q477">
+        <v>0.86</v>
+      </c>
+      <c r="R477">
+        <v>5.8</v>
+      </c>
+      <c r="S477">
+        <v>57</v>
+      </c>
+      <c r="T477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B478" t="s">
+        <v>8</v>
+      </c>
+      <c r="C478" t="s">
+        <v>11</v>
+      </c>
+      <c r="D478">
+        <v>72</v>
+      </c>
+      <c r="E478">
+        <v>92</v>
+      </c>
+      <c r="F478">
+        <f t="shared" ref="F478:F526" si="11">ABS(D478-E478)</f>
+        <v>20</v>
+      </c>
+      <c r="G478">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H478">
+        <v>0.2</v>
+      </c>
+      <c r="I478" t="s">
+        <v>21</v>
+      </c>
+      <c r="J478">
+        <v>2</v>
+      </c>
+      <c r="K478" t="s">
+        <v>19</v>
+      </c>
+      <c r="L478">
+        <v>9</v>
+      </c>
+      <c r="M478">
+        <v>0.48</v>
+      </c>
+      <c r="N478">
+        <v>68</v>
+      </c>
+      <c r="O478">
+        <v>30.03</v>
+      </c>
+      <c r="P478">
+        <v>6</v>
+      </c>
+      <c r="Q478">
+        <v>0.31</v>
+      </c>
+      <c r="R478">
+        <v>9.9</v>
+      </c>
+      <c r="S478">
+        <v>57</v>
+      </c>
+      <c r="T478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B479" t="s">
+        <v>9</v>
+      </c>
+      <c r="C479" t="s">
+        <v>12</v>
+      </c>
+      <c r="D479">
+        <v>72</v>
+      </c>
+      <c r="E479">
+        <v>92</v>
+      </c>
+      <c r="F479">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G479">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H479">
+        <v>0.1</v>
+      </c>
+      <c r="I479" t="s">
+        <v>21</v>
+      </c>
+      <c r="J479">
+        <v>3</v>
+      </c>
+      <c r="K479" t="s">
+        <v>19</v>
+      </c>
+      <c r="L479">
+        <v>9</v>
+      </c>
+      <c r="M479">
+        <v>0.48</v>
+      </c>
+      <c r="N479">
+        <v>68</v>
+      </c>
+      <c r="O479">
+        <v>30.03</v>
+      </c>
+      <c r="P479">
+        <v>6</v>
+      </c>
+      <c r="Q479">
+        <v>0.31</v>
+      </c>
+      <c r="R479">
+        <v>9.9</v>
+      </c>
+      <c r="S479">
+        <v>57</v>
+      </c>
+      <c r="T479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B480" t="s">
+        <v>9</v>
+      </c>
+      <c r="C480" t="s">
+        <v>13</v>
+      </c>
+      <c r="D480">
+        <v>72</v>
+      </c>
+      <c r="E480">
+        <v>92</v>
+      </c>
+      <c r="F480">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G480">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H480">
+        <v>0.2</v>
+      </c>
+      <c r="I480" t="s">
+        <v>21</v>
+      </c>
+      <c r="J480">
+        <v>3</v>
+      </c>
+      <c r="K480" t="s">
+        <v>20</v>
+      </c>
+      <c r="L480">
+        <v>9</v>
+      </c>
+      <c r="M480">
+        <v>0.48</v>
+      </c>
+      <c r="N480">
+        <v>68</v>
+      </c>
+      <c r="O480">
+        <v>30.03</v>
+      </c>
+      <c r="P480">
+        <v>6</v>
+      </c>
+      <c r="Q480">
+        <v>0.31</v>
+      </c>
+      <c r="R480">
+        <v>9.9</v>
+      </c>
+      <c r="S480">
+        <v>57</v>
+      </c>
+      <c r="T480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B481" t="s">
+        <v>9</v>
+      </c>
+      <c r="C481" t="s">
+        <v>12</v>
+      </c>
+      <c r="D481">
+        <v>72</v>
+      </c>
+      <c r="E481">
+        <v>92</v>
+      </c>
+      <c r="F481">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G481">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H481">
+        <v>0.25</v>
+      </c>
+      <c r="I481" t="s">
+        <v>21</v>
+      </c>
+      <c r="J481">
+        <v>3</v>
+      </c>
+      <c r="K481" t="s">
+        <v>18</v>
+      </c>
+      <c r="L481">
+        <v>9</v>
+      </c>
+      <c r="M481">
+        <v>0.48</v>
+      </c>
+      <c r="N481">
+        <v>68</v>
+      </c>
+      <c r="O481">
+        <v>30.03</v>
+      </c>
+      <c r="P481">
+        <v>6</v>
+      </c>
+      <c r="Q481">
+        <v>0.31</v>
+      </c>
+      <c r="R481">
+        <v>9.9</v>
+      </c>
+      <c r="S481">
+        <v>57</v>
+      </c>
+      <c r="T481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B482" t="s">
+        <v>9</v>
+      </c>
+      <c r="C482" t="s">
+        <v>12</v>
+      </c>
+      <c r="D482">
+        <v>72</v>
+      </c>
+      <c r="E482">
+        <v>92</v>
+      </c>
+      <c r="F482">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G482">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H482">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I482" t="s">
+        <v>21</v>
+      </c>
+      <c r="J482">
+        <v>3</v>
+      </c>
+      <c r="K482" t="s">
+        <v>20</v>
+      </c>
+      <c r="L482">
+        <v>9</v>
+      </c>
+      <c r="M482">
+        <v>0.48</v>
+      </c>
+      <c r="N482">
+        <v>68</v>
+      </c>
+      <c r="O482">
+        <v>30.03</v>
+      </c>
+      <c r="P482">
+        <v>6</v>
+      </c>
+      <c r="Q482">
+        <v>0.31</v>
+      </c>
+      <c r="R482">
+        <v>9.9</v>
+      </c>
+      <c r="S482">
+        <v>57</v>
+      </c>
+      <c r="T482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B483" t="s">
+        <v>9</v>
+      </c>
+      <c r="C483" t="s">
+        <v>11</v>
+      </c>
+      <c r="D483">
+        <v>72</v>
+      </c>
+      <c r="E483">
+        <v>92</v>
+      </c>
+      <c r="F483">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G483">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483" t="s">
+        <v>21</v>
+      </c>
+      <c r="J483">
+        <v>4</v>
+      </c>
+      <c r="K483" t="s">
+        <v>20</v>
+      </c>
+      <c r="L483">
+        <v>9</v>
+      </c>
+      <c r="M483">
+        <v>0.48</v>
+      </c>
+      <c r="N483">
+        <v>68</v>
+      </c>
+      <c r="O483">
+        <v>30.03</v>
+      </c>
+      <c r="P483">
+        <v>6</v>
+      </c>
+      <c r="Q483">
+        <v>0.31</v>
+      </c>
+      <c r="R483">
+        <v>9.9</v>
+      </c>
+      <c r="S483">
+        <v>57</v>
+      </c>
+      <c r="T483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B484" t="s">
+        <v>10</v>
+      </c>
+      <c r="C484" t="s">
+        <v>12</v>
+      </c>
+      <c r="D484">
+        <v>72</v>
+      </c>
+      <c r="E484">
+        <v>92</v>
+      </c>
+      <c r="F484">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G484">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H484">
+        <v>0.75</v>
+      </c>
+      <c r="I484" t="s">
+        <v>21</v>
+      </c>
+      <c r="J484">
+        <v>1</v>
+      </c>
+      <c r="K484" t="s">
+        <v>18</v>
+      </c>
+      <c r="L484">
+        <v>9</v>
+      </c>
+      <c r="M484">
+        <v>0.48</v>
+      </c>
+      <c r="N484">
+        <v>68</v>
+      </c>
+      <c r="O484">
+        <v>30.03</v>
+      </c>
+      <c r="P484">
+        <v>6</v>
+      </c>
+      <c r="Q484">
+        <v>0.31</v>
+      </c>
+      <c r="R484">
+        <v>9.9</v>
+      </c>
+      <c r="S484">
+        <v>57</v>
+      </c>
+      <c r="T484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B485" t="s">
+        <v>8</v>
+      </c>
+      <c r="C485" t="s">
+        <v>11</v>
+      </c>
+      <c r="D485">
+        <v>71</v>
+      </c>
+      <c r="E485">
+        <v>88</v>
+      </c>
+      <c r="F485">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G485">
+        <v>0.18</v>
+      </c>
+      <c r="H485">
+        <v>0.2</v>
+      </c>
+      <c r="I485" t="s">
+        <v>21</v>
+      </c>
+      <c r="J485">
+        <v>2</v>
+      </c>
+      <c r="K485" t="s">
+        <v>18</v>
+      </c>
+      <c r="L485">
+        <v>7</v>
+      </c>
+      <c r="M485">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N485">
+        <v>71</v>
+      </c>
+      <c r="O485">
+        <v>30.03</v>
+      </c>
+      <c r="P485">
+        <v>13</v>
+      </c>
+      <c r="Q485">
+        <v>0.52</v>
+      </c>
+      <c r="R485">
+        <v>9.9</v>
+      </c>
+      <c r="S485">
+        <v>54</v>
+      </c>
+      <c r="T485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B486" t="s">
+        <v>9</v>
+      </c>
+      <c r="C486" t="s">
+        <v>12</v>
+      </c>
+      <c r="D486">
+        <v>71</v>
+      </c>
+      <c r="E486">
+        <v>88</v>
+      </c>
+      <c r="F486">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G486">
+        <v>0.18</v>
+      </c>
+      <c r="H486">
+        <v>0.2</v>
+      </c>
+      <c r="I486" t="s">
+        <v>21</v>
+      </c>
+      <c r="J486">
+        <v>3</v>
+      </c>
+      <c r="K486" t="s">
+        <v>19</v>
+      </c>
+      <c r="L486">
+        <v>7</v>
+      </c>
+      <c r="M486">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N486">
+        <v>71</v>
+      </c>
+      <c r="O486">
+        <v>30.03</v>
+      </c>
+      <c r="P486">
+        <v>13</v>
+      </c>
+      <c r="Q486">
+        <v>0.52</v>
+      </c>
+      <c r="R486">
+        <v>9.9</v>
+      </c>
+      <c r="S486">
+        <v>54</v>
+      </c>
+      <c r="T486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B487" t="s">
+        <v>9</v>
+      </c>
+      <c r="C487" t="s">
+        <v>13</v>
+      </c>
+      <c r="D487">
+        <v>71</v>
+      </c>
+      <c r="E487">
+        <v>88</v>
+      </c>
+      <c r="F487">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G487">
+        <v>0.18</v>
+      </c>
+      <c r="H487">
+        <v>0.15</v>
+      </c>
+      <c r="I487" t="s">
+        <v>21</v>
+      </c>
+      <c r="J487">
+        <v>3</v>
+      </c>
+      <c r="K487" t="s">
+        <v>19</v>
+      </c>
+      <c r="L487">
+        <v>7</v>
+      </c>
+      <c r="M487">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N487">
+        <v>71</v>
+      </c>
+      <c r="O487">
+        <v>30.03</v>
+      </c>
+      <c r="P487">
+        <v>13</v>
+      </c>
+      <c r="Q487">
+        <v>0.52</v>
+      </c>
+      <c r="R487">
+        <v>9.9</v>
+      </c>
+      <c r="S487">
+        <v>54</v>
+      </c>
+      <c r="T487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B488" t="s">
+        <v>9</v>
+      </c>
+      <c r="C488" t="s">
+        <v>12</v>
+      </c>
+      <c r="D488">
+        <v>71</v>
+      </c>
+      <c r="E488">
+        <v>88</v>
+      </c>
+      <c r="F488">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G488">
+        <v>0.18</v>
+      </c>
+      <c r="H488">
+        <v>0.2</v>
+      </c>
+      <c r="I488" t="s">
+        <v>21</v>
+      </c>
+      <c r="J488">
+        <v>3</v>
+      </c>
+      <c r="K488" t="s">
+        <v>20</v>
+      </c>
+      <c r="L488">
+        <v>7</v>
+      </c>
+      <c r="M488">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N488">
+        <v>71</v>
+      </c>
+      <c r="O488">
+        <v>30.03</v>
+      </c>
+      <c r="P488">
+        <v>13</v>
+      </c>
+      <c r="Q488">
+        <v>0.52</v>
+      </c>
+      <c r="R488">
+        <v>9.9</v>
+      </c>
+      <c r="S488">
+        <v>54</v>
+      </c>
+      <c r="T488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B489" t="s">
+        <v>9</v>
+      </c>
+      <c r="C489" t="s">
+        <v>12</v>
+      </c>
+      <c r="D489">
+        <v>71</v>
+      </c>
+      <c r="E489">
+        <v>88</v>
+      </c>
+      <c r="F489">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G489">
+        <v>0.18</v>
+      </c>
+      <c r="H489">
+        <v>0.1</v>
+      </c>
+      <c r="I489" t="s">
+        <v>21</v>
+      </c>
+      <c r="J489">
+        <v>3</v>
+      </c>
+      <c r="K489" t="s">
+        <v>20</v>
+      </c>
+      <c r="L489">
+        <v>7</v>
+      </c>
+      <c r="M489">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N489">
+        <v>71</v>
+      </c>
+      <c r="O489">
+        <v>30.03</v>
+      </c>
+      <c r="P489">
+        <v>13</v>
+      </c>
+      <c r="Q489">
+        <v>0.52</v>
+      </c>
+      <c r="R489">
+        <v>9.9</v>
+      </c>
+      <c r="S489">
+        <v>54</v>
+      </c>
+      <c r="T489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B490" t="s">
+        <v>9</v>
+      </c>
+      <c r="C490" t="s">
+        <v>11</v>
+      </c>
+      <c r="D490">
+        <v>71</v>
+      </c>
+      <c r="E490">
+        <v>88</v>
+      </c>
+      <c r="F490">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G490">
+        <v>0.18</v>
+      </c>
+      <c r="H490">
+        <v>0.4</v>
+      </c>
+      <c r="I490" t="s">
+        <v>21</v>
+      </c>
+      <c r="J490">
+        <v>4</v>
+      </c>
+      <c r="K490" t="s">
+        <v>18</v>
+      </c>
+      <c r="L490">
+        <v>7</v>
+      </c>
+      <c r="M490">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N490">
+        <v>71</v>
+      </c>
+      <c r="O490">
+        <v>30.03</v>
+      </c>
+      <c r="P490">
+        <v>13</v>
+      </c>
+      <c r="Q490">
+        <v>0.52</v>
+      </c>
+      <c r="R490">
+        <v>9.9</v>
+      </c>
+      <c r="S490">
+        <v>54</v>
+      </c>
+      <c r="T490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B491" t="s">
+        <v>10</v>
+      </c>
+      <c r="C491" t="s">
+        <v>12</v>
+      </c>
+      <c r="D491">
+        <v>71</v>
+      </c>
+      <c r="E491">
+        <v>88</v>
+      </c>
+      <c r="F491">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G491">
+        <v>0.18</v>
+      </c>
+      <c r="H491">
+        <v>0.95</v>
+      </c>
+      <c r="I491" t="s">
+        <v>21</v>
+      </c>
+      <c r="J491">
+        <v>1</v>
+      </c>
+      <c r="K491" t="s">
+        <v>20</v>
+      </c>
+      <c r="L491">
+        <v>7</v>
+      </c>
+      <c r="M491">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N491">
+        <v>71</v>
+      </c>
+      <c r="O491">
+        <v>30.03</v>
+      </c>
+      <c r="P491">
+        <v>13</v>
+      </c>
+      <c r="Q491">
+        <v>0.52</v>
+      </c>
+      <c r="R491">
+        <v>9.9</v>
+      </c>
+      <c r="S491">
+        <v>54</v>
+      </c>
+      <c r="T491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B492" t="s">
+        <v>8</v>
+      </c>
+      <c r="C492" t="s">
+        <v>11</v>
+      </c>
+      <c r="D492">
+        <v>69</v>
+      </c>
+      <c r="E492">
+        <v>82</v>
+      </c>
+      <c r="F492">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="G492">
+        <v>5.57</v>
+      </c>
+      <c r="H492">
+        <v>0.6</v>
+      </c>
+      <c r="I492" t="s">
+        <v>21</v>
+      </c>
+      <c r="J492">
+        <v>2</v>
+      </c>
+      <c r="K492" t="s">
+        <v>18</v>
+      </c>
+      <c r="L492">
+        <v>8</v>
+      </c>
+      <c r="M492">
+        <v>0.94</v>
+      </c>
+      <c r="N492">
+        <v>71</v>
+      </c>
+      <c r="O492">
+        <v>30.03</v>
+      </c>
+      <c r="P492">
+        <v>6</v>
+      </c>
+      <c r="Q492">
+        <v>0.78</v>
+      </c>
+      <c r="R492">
+        <v>5.3</v>
+      </c>
+      <c r="S492">
+        <v>47</v>
+      </c>
+      <c r="T492">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B493" t="s">
+        <v>9</v>
+      </c>
+      <c r="C493" t="s">
+        <v>12</v>
+      </c>
+      <c r="D493">
+        <v>69</v>
+      </c>
+      <c r="E493">
+        <v>82</v>
+      </c>
+      <c r="F493">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="G493">
+        <v>5.57</v>
+      </c>
+      <c r="H493">
+        <v>1.2</v>
+      </c>
+      <c r="I493" t="s">
+        <v>21</v>
+      </c>
+      <c r="J493">
+        <v>3</v>
+      </c>
+      <c r="K493" t="s">
+        <v>18</v>
+      </c>
+      <c r="L493">
+        <v>8</v>
+      </c>
+      <c r="M493">
+        <v>0.94</v>
+      </c>
+      <c r="N493">
+        <v>71</v>
+      </c>
+      <c r="O493">
+        <v>30.03</v>
+      </c>
+      <c r="P493">
+        <v>6</v>
+      </c>
+      <c r="Q493">
+        <v>0.78</v>
+      </c>
+      <c r="R493">
+        <v>5.3</v>
+      </c>
+      <c r="S493">
+        <v>47</v>
+      </c>
+      <c r="T493">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B494" t="s">
+        <v>9</v>
+      </c>
+      <c r="C494" t="s">
+        <v>13</v>
+      </c>
+      <c r="D494">
+        <v>69</v>
+      </c>
+      <c r="E494">
+        <v>82</v>
+      </c>
+      <c r="F494">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="G494">
+        <v>5.57</v>
+      </c>
+      <c r="H494">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I494" t="s">
+        <v>21</v>
+      </c>
+      <c r="J494">
+        <v>3</v>
+      </c>
+      <c r="K494" t="s">
+        <v>18</v>
+      </c>
+      <c r="L494">
+        <v>8</v>
+      </c>
+      <c r="M494">
+        <v>0.94</v>
+      </c>
+      <c r="N494">
+        <v>71</v>
+      </c>
+      <c r="O494">
+        <v>30.03</v>
+      </c>
+      <c r="P494">
+        <v>6</v>
+      </c>
+      <c r="Q494">
+        <v>0.78</v>
+      </c>
+      <c r="R494">
+        <v>5.3</v>
+      </c>
+      <c r="S494">
+        <v>47</v>
+      </c>
+      <c r="T494">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B495" t="s">
+        <v>9</v>
+      </c>
+      <c r="C495" t="s">
+        <v>12</v>
+      </c>
+      <c r="D495">
+        <v>69</v>
+      </c>
+      <c r="E495">
+        <v>82</v>
+      </c>
+      <c r="F495">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="G495">
+        <v>5.57</v>
+      </c>
+      <c r="H495">
+        <v>1.6</v>
+      </c>
+      <c r="I495" t="s">
+        <v>21</v>
+      </c>
+      <c r="J495">
+        <v>3</v>
+      </c>
+      <c r="K495" t="s">
+        <v>18</v>
+      </c>
+      <c r="L495">
+        <v>8</v>
+      </c>
+      <c r="M495">
+        <v>0.94</v>
+      </c>
+      <c r="N495">
+        <v>71</v>
+      </c>
+      <c r="O495">
+        <v>30.03</v>
+      </c>
+      <c r="P495">
+        <v>6</v>
+      </c>
+      <c r="Q495">
+        <v>0.78</v>
+      </c>
+      <c r="R495">
+        <v>5.3</v>
+      </c>
+      <c r="S495">
+        <v>47</v>
+      </c>
+      <c r="T495">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B496" t="s">
+        <v>9</v>
+      </c>
+      <c r="C496" t="s">
+        <v>12</v>
+      </c>
+      <c r="D496">
+        <v>69</v>
+      </c>
+      <c r="E496">
+        <v>82</v>
+      </c>
+      <c r="F496">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="G496">
+        <v>5.57</v>
+      </c>
+      <c r="H496">
+        <v>1.5</v>
+      </c>
+      <c r="I496" t="s">
+        <v>21</v>
+      </c>
+      <c r="J496">
+        <v>3</v>
+      </c>
+      <c r="K496" t="s">
+        <v>18</v>
+      </c>
+      <c r="L496">
+        <v>8</v>
+      </c>
+      <c r="M496">
+        <v>0.94</v>
+      </c>
+      <c r="N496">
+        <v>71</v>
+      </c>
+      <c r="O496">
+        <v>30.03</v>
+      </c>
+      <c r="P496">
+        <v>6</v>
+      </c>
+      <c r="Q496">
+        <v>0.78</v>
+      </c>
+      <c r="R496">
+        <v>5.3</v>
+      </c>
+      <c r="S496">
+        <v>47</v>
+      </c>
+      <c r="T496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B497" t="s">
+        <v>9</v>
+      </c>
+      <c r="C497" t="s">
+        <v>11</v>
+      </c>
+      <c r="D497">
+        <v>69</v>
+      </c>
+      <c r="E497">
+        <v>82</v>
+      </c>
+      <c r="F497">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="G497">
+        <v>5.57</v>
+      </c>
+      <c r="H497">
+        <v>4</v>
+      </c>
+      <c r="I497" t="s">
+        <v>21</v>
+      </c>
+      <c r="J497">
+        <v>4</v>
+      </c>
+      <c r="K497" t="s">
+        <v>18</v>
+      </c>
+      <c r="L497">
+        <v>8</v>
+      </c>
+      <c r="M497">
+        <v>0.94</v>
+      </c>
+      <c r="N497">
+        <v>71</v>
+      </c>
+      <c r="O497">
+        <v>30.03</v>
+      </c>
+      <c r="P497">
+        <v>6</v>
+      </c>
+      <c r="Q497">
+        <v>0.78</v>
+      </c>
+      <c r="R497">
+        <v>5.3</v>
+      </c>
+      <c r="S497">
+        <v>47</v>
+      </c>
+      <c r="T497">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B498" t="s">
+        <v>10</v>
+      </c>
+      <c r="C498" t="s">
+        <v>12</v>
+      </c>
+      <c r="D498">
+        <v>69</v>
+      </c>
+      <c r="E498">
+        <v>82</v>
+      </c>
+      <c r="F498">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="G498">
+        <v>5.57</v>
+      </c>
+      <c r="H498">
+        <v>10</v>
+      </c>
+      <c r="I498" t="s">
+        <v>21</v>
+      </c>
+      <c r="J498">
+        <v>1</v>
+      </c>
+      <c r="K498" t="s">
+        <v>18</v>
+      </c>
+      <c r="L498">
+        <v>8</v>
+      </c>
+      <c r="M498">
+        <v>0.94</v>
+      </c>
+      <c r="N498">
+        <v>71</v>
+      </c>
+      <c r="O498">
+        <v>30.03</v>
+      </c>
+      <c r="P498">
+        <v>6</v>
+      </c>
+      <c r="Q498">
+        <v>0.78</v>
+      </c>
+      <c r="R498">
+        <v>5.3</v>
+      </c>
+      <c r="S498">
+        <v>47</v>
+      </c>
+      <c r="T498">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B499" t="s">
+        <v>8</v>
+      </c>
+      <c r="C499" t="s">
+        <v>11</v>
+      </c>
+      <c r="D499">
+        <v>72</v>
+      </c>
+      <c r="E499">
+        <v>92</v>
+      </c>
+      <c r="F499">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G499">
+        <v>2.5</v>
+      </c>
+      <c r="H499">
+        <v>0.3</v>
+      </c>
+      <c r="I499" t="s">
+        <v>21</v>
+      </c>
+      <c r="J499">
+        <v>2</v>
+      </c>
+      <c r="K499" t="s">
+        <v>20</v>
+      </c>
+      <c r="L499">
+        <v>6</v>
+      </c>
+      <c r="M499">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N499">
+        <v>74</v>
+      </c>
+      <c r="O499">
+        <v>27.89</v>
+      </c>
+      <c r="P499">
+        <v>13</v>
+      </c>
+      <c r="Q499">
+        <v>0.85</v>
+      </c>
+      <c r="R499">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S499">
+        <v>57</v>
+      </c>
+      <c r="T499">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B500" t="s">
+        <v>9</v>
+      </c>
+      <c r="C500" t="s">
+        <v>12</v>
+      </c>
+      <c r="D500">
+        <v>72</v>
+      </c>
+      <c r="E500">
+        <v>92</v>
+      </c>
+      <c r="F500">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G500">
+        <v>2.5</v>
+      </c>
+      <c r="H500">
+        <v>0.6</v>
+      </c>
+      <c r="I500" t="s">
+        <v>21</v>
+      </c>
+      <c r="J500">
+        <v>3</v>
+      </c>
+      <c r="K500" t="s">
+        <v>19</v>
+      </c>
+      <c r="L500">
+        <v>6</v>
+      </c>
+      <c r="M500">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N500">
+        <v>74</v>
+      </c>
+      <c r="O500">
+        <v>27.89</v>
+      </c>
+      <c r="P500">
+        <v>13</v>
+      </c>
+      <c r="Q500">
+        <v>0.85</v>
+      </c>
+      <c r="R500">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S500">
+        <v>57</v>
+      </c>
+      <c r="T500">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B501" t="s">
+        <v>9</v>
+      </c>
+      <c r="C501" t="s">
+        <v>13</v>
+      </c>
+      <c r="D501">
+        <v>72</v>
+      </c>
+      <c r="E501">
+        <v>92</v>
+      </c>
+      <c r="F501">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G501">
+        <v>2.5</v>
+      </c>
+      <c r="H501">
+        <v>0.5</v>
+      </c>
+      <c r="I501" t="s">
+        <v>21</v>
+      </c>
+      <c r="J501">
+        <v>3</v>
+      </c>
+      <c r="K501" t="s">
+        <v>19</v>
+      </c>
+      <c r="L501">
+        <v>6</v>
+      </c>
+      <c r="M501">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N501">
+        <v>74</v>
+      </c>
+      <c r="O501">
+        <v>27.89</v>
+      </c>
+      <c r="P501">
+        <v>13</v>
+      </c>
+      <c r="Q501">
+        <v>0.85</v>
+      </c>
+      <c r="R501">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S501">
+        <v>57</v>
+      </c>
+      <c r="T501">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B502" t="s">
+        <v>9</v>
+      </c>
+      <c r="C502" t="s">
+        <v>12</v>
+      </c>
+      <c r="D502">
+        <v>72</v>
+      </c>
+      <c r="E502">
+        <v>92</v>
+      </c>
+      <c r="F502">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G502">
+        <v>2.5</v>
+      </c>
+      <c r="H502">
+        <v>0.75</v>
+      </c>
+      <c r="I502" t="s">
+        <v>21</v>
+      </c>
+      <c r="J502">
+        <v>3</v>
+      </c>
+      <c r="K502" t="s">
+        <v>20</v>
+      </c>
+      <c r="L502">
+        <v>6</v>
+      </c>
+      <c r="M502">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N502">
+        <v>74</v>
+      </c>
+      <c r="O502">
+        <v>27.89</v>
+      </c>
+      <c r="P502">
+        <v>13</v>
+      </c>
+      <c r="Q502">
+        <v>0.85</v>
+      </c>
+      <c r="R502">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S502">
+        <v>57</v>
+      </c>
+      <c r="T502">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B503" t="s">
+        <v>9</v>
+      </c>
+      <c r="C503" t="s">
+        <v>12</v>
+      </c>
+      <c r="D503">
+        <v>72</v>
+      </c>
+      <c r="E503">
+        <v>92</v>
+      </c>
+      <c r="F503">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G503">
+        <v>2.5</v>
+      </c>
+      <c r="H503">
+        <v>0.7</v>
+      </c>
+      <c r="I503" t="s">
+        <v>21</v>
+      </c>
+      <c r="J503">
+        <v>3</v>
+      </c>
+      <c r="K503" t="s">
+        <v>19</v>
+      </c>
+      <c r="L503">
+        <v>6</v>
+      </c>
+      <c r="M503">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N503">
+        <v>74</v>
+      </c>
+      <c r="O503">
+        <v>27.89</v>
+      </c>
+      <c r="P503">
+        <v>13</v>
+      </c>
+      <c r="Q503">
+        <v>0.85</v>
+      </c>
+      <c r="R503">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S503">
+        <v>57</v>
+      </c>
+      <c r="T503">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B504" t="s">
+        <v>9</v>
+      </c>
+      <c r="C504" t="s">
+        <v>11</v>
+      </c>
+      <c r="D504">
+        <v>72</v>
+      </c>
+      <c r="E504">
+        <v>92</v>
+      </c>
+      <c r="F504">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G504">
+        <v>2.5</v>
+      </c>
+      <c r="H504">
+        <v>2</v>
+      </c>
+      <c r="I504" t="s">
+        <v>21</v>
+      </c>
+      <c r="J504">
+        <v>4</v>
+      </c>
+      <c r="K504" t="s">
+        <v>18</v>
+      </c>
+      <c r="L504">
+        <v>6</v>
+      </c>
+      <c r="M504">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N504">
+        <v>74</v>
+      </c>
+      <c r="O504">
+        <v>27.89</v>
+      </c>
+      <c r="P504">
+        <v>13</v>
+      </c>
+      <c r="Q504">
+        <v>0.85</v>
+      </c>
+      <c r="R504">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S504">
+        <v>57</v>
+      </c>
+      <c r="T504">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B505" t="s">
+        <v>10</v>
+      </c>
+      <c r="C505" t="s">
+        <v>12</v>
+      </c>
+      <c r="D505">
+        <v>72</v>
+      </c>
+      <c r="E505">
+        <v>92</v>
+      </c>
+      <c r="F505">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G505">
+        <v>2.5</v>
+      </c>
+      <c r="H505">
+        <v>5</v>
+      </c>
+      <c r="I505" t="s">
+        <v>21</v>
+      </c>
+      <c r="J505">
+        <v>1</v>
+      </c>
+      <c r="K505" t="s">
+        <v>18</v>
+      </c>
+      <c r="L505">
+        <v>6</v>
+      </c>
+      <c r="M505">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N505">
+        <v>74</v>
+      </c>
+      <c r="O505">
+        <v>27.89</v>
+      </c>
+      <c r="P505">
+        <v>13</v>
+      </c>
+      <c r="Q505">
+        <v>0.85</v>
+      </c>
+      <c r="R505">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S505">
+        <v>57</v>
+      </c>
+      <c r="T505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B506" t="s">
+        <v>8</v>
+      </c>
+      <c r="C506" t="s">
+        <v>11</v>
+      </c>
+      <c r="D506">
+        <v>69</v>
+      </c>
+      <c r="E506">
+        <v>84</v>
+      </c>
+      <c r="F506">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="G506">
+        <v>0</v>
+      </c>
+      <c r="H506">
+        <v>0.1</v>
+      </c>
+      <c r="I506" t="s">
+        <v>15</v>
+      </c>
+      <c r="J506">
+        <v>2</v>
+      </c>
+      <c r="K506" t="s">
+        <v>19</v>
+      </c>
+      <c r="L506">
+        <v>7</v>
+      </c>
+      <c r="M506">
+        <v>0.63</v>
+      </c>
+      <c r="N506">
+        <v>68</v>
+      </c>
+      <c r="O506">
+        <v>30.03</v>
+      </c>
+      <c r="P506">
+        <v>4</v>
+      </c>
+      <c r="Q506">
+        <v>0.31</v>
+      </c>
+      <c r="R506">
+        <v>9.9</v>
+      </c>
+      <c r="S506">
+        <v>57</v>
+      </c>
+      <c r="T506">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B507" t="s">
+        <v>9</v>
+      </c>
+      <c r="C507" t="s">
+        <v>12</v>
+      </c>
+      <c r="D507">
+        <v>69</v>
+      </c>
+      <c r="E507">
+        <v>84</v>
+      </c>
+      <c r="F507">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="G507">
+        <v>0</v>
+      </c>
+      <c r="H507">
+        <v>0.1</v>
+      </c>
+      <c r="I507" t="s">
+        <v>15</v>
+      </c>
+      <c r="J507">
+        <v>3</v>
+      </c>
+      <c r="K507" t="s">
+        <v>20</v>
+      </c>
+      <c r="L507">
+        <v>7</v>
+      </c>
+      <c r="M507">
+        <v>0.63</v>
+      </c>
+      <c r="N507">
+        <v>68</v>
+      </c>
+      <c r="O507">
+        <v>30.03</v>
+      </c>
+      <c r="P507">
+        <v>4</v>
+      </c>
+      <c r="Q507">
+        <v>0.31</v>
+      </c>
+      <c r="R507">
+        <v>9.9</v>
+      </c>
+      <c r="S507">
+        <v>57</v>
+      </c>
+      <c r="T507">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B508" t="s">
+        <v>9</v>
+      </c>
+      <c r="C508" t="s">
+        <v>13</v>
+      </c>
+      <c r="D508">
+        <v>69</v>
+      </c>
+      <c r="E508">
+        <v>84</v>
+      </c>
+      <c r="F508">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="G508">
+        <v>0</v>
+      </c>
+      <c r="H508">
+        <v>0</v>
+      </c>
+      <c r="I508" t="s">
+        <v>15</v>
+      </c>
+      <c r="J508">
+        <v>3</v>
+      </c>
+      <c r="K508" t="s">
+        <v>20</v>
+      </c>
+      <c r="L508">
+        <v>7</v>
+      </c>
+      <c r="M508">
+        <v>0.63</v>
+      </c>
+      <c r="N508">
+        <v>68</v>
+      </c>
+      <c r="O508">
+        <v>30.03</v>
+      </c>
+      <c r="P508">
+        <v>4</v>
+      </c>
+      <c r="Q508">
+        <v>0.31</v>
+      </c>
+      <c r="R508">
+        <v>9.9</v>
+      </c>
+      <c r="S508">
+        <v>57</v>
+      </c>
+      <c r="T508">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B509" t="s">
+        <v>9</v>
+      </c>
+      <c r="C509" t="s">
+        <v>12</v>
+      </c>
+      <c r="D509">
+        <v>69</v>
+      </c>
+      <c r="E509">
+        <v>84</v>
+      </c>
+      <c r="F509">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="G509">
+        <v>0</v>
+      </c>
+      <c r="H509">
+        <v>0</v>
+      </c>
+      <c r="I509" t="s">
+        <v>15</v>
+      </c>
+      <c r="J509">
+        <v>3</v>
+      </c>
+      <c r="K509" t="s">
+        <v>19</v>
+      </c>
+      <c r="L509">
+        <v>7</v>
+      </c>
+      <c r="M509">
+        <v>0.63</v>
+      </c>
+      <c r="N509">
+        <v>68</v>
+      </c>
+      <c r="O509">
+        <v>30.03</v>
+      </c>
+      <c r="P509">
+        <v>4</v>
+      </c>
+      <c r="Q509">
+        <v>0.31</v>
+      </c>
+      <c r="R509">
+        <v>9.9</v>
+      </c>
+      <c r="S509">
+        <v>57</v>
+      </c>
+      <c r="T509">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="510" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B510" t="s">
+        <v>9</v>
+      </c>
+      <c r="C510" t="s">
+        <v>12</v>
+      </c>
+      <c r="D510">
+        <v>69</v>
+      </c>
+      <c r="E510">
+        <v>84</v>
+      </c>
+      <c r="F510">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="G510">
+        <v>0</v>
+      </c>
+      <c r="H510">
+        <v>0</v>
+      </c>
+      <c r="I510" t="s">
+        <v>15</v>
+      </c>
+      <c r="J510">
+        <v>3</v>
+      </c>
+      <c r="K510" t="s">
+        <v>19</v>
+      </c>
+      <c r="L510">
+        <v>7</v>
+      </c>
+      <c r="M510">
+        <v>0.63</v>
+      </c>
+      <c r="N510">
+        <v>68</v>
+      </c>
+      <c r="O510">
+        <v>30.03</v>
+      </c>
+      <c r="P510">
+        <v>4</v>
+      </c>
+      <c r="Q510">
+        <v>0.31</v>
+      </c>
+      <c r="R510">
+        <v>9.9</v>
+      </c>
+      <c r="S510">
+        <v>57</v>
+      </c>
+      <c r="T510">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B511" t="s">
+        <v>9</v>
+      </c>
+      <c r="C511" t="s">
+        <v>11</v>
+      </c>
+      <c r="D511">
+        <v>69</v>
+      </c>
+      <c r="E511">
+        <v>84</v>
+      </c>
+      <c r="F511">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="G511">
+        <v>0</v>
+      </c>
+      <c r="H511">
+        <v>0.2</v>
+      </c>
+      <c r="I511" t="s">
+        <v>15</v>
+      </c>
+      <c r="J511">
+        <v>4</v>
+      </c>
+      <c r="K511" t="s">
+        <v>18</v>
+      </c>
+      <c r="L511">
+        <v>7</v>
+      </c>
+      <c r="M511">
+        <v>0.63</v>
+      </c>
+      <c r="N511">
+        <v>68</v>
+      </c>
+      <c r="O511">
+        <v>30.03</v>
+      </c>
+      <c r="P511">
+        <v>4</v>
+      </c>
+      <c r="Q511">
+        <v>0.31</v>
+      </c>
+      <c r="R511">
+        <v>9.9</v>
+      </c>
+      <c r="S511">
+        <v>57</v>
+      </c>
+      <c r="T511">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B512" t="s">
+        <v>10</v>
+      </c>
+      <c r="C512" t="s">
+        <v>12</v>
+      </c>
+      <c r="D512">
+        <v>69</v>
+      </c>
+      <c r="E512">
+        <v>84</v>
+      </c>
+      <c r="F512">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="G512">
+        <v>0</v>
+      </c>
+      <c r="H512">
+        <v>0.2</v>
+      </c>
+      <c r="I512" t="s">
+        <v>15</v>
+      </c>
+      <c r="J512">
+        <v>1</v>
+      </c>
+      <c r="K512" t="s">
+        <v>20</v>
+      </c>
+      <c r="L512">
+        <v>7</v>
+      </c>
+      <c r="M512">
+        <v>0.63</v>
+      </c>
+      <c r="N512">
+        <v>68</v>
+      </c>
+      <c r="O512">
+        <v>30.03</v>
+      </c>
+      <c r="P512">
+        <v>4</v>
+      </c>
+      <c r="Q512">
+        <v>0.31</v>
+      </c>
+      <c r="R512">
+        <v>9.9</v>
+      </c>
+      <c r="S512">
+        <v>57</v>
+      </c>
+      <c r="T512">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="513" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B513" t="s">
+        <v>8</v>
+      </c>
+      <c r="C513" t="s">
+        <v>11</v>
+      </c>
+      <c r="D513">
+        <v>62</v>
+      </c>
+      <c r="E513">
+        <v>82</v>
+      </c>
+      <c r="F513">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G513">
+        <v>0</v>
+      </c>
+      <c r="H513">
+        <v>0.1</v>
+      </c>
+      <c r="I513" t="s">
+        <v>21</v>
+      </c>
+      <c r="J513">
+        <v>2</v>
+      </c>
+      <c r="K513" t="s">
+        <v>19</v>
+      </c>
+      <c r="L513">
+        <v>8</v>
+      </c>
+      <c r="M513">
+        <v>0.48</v>
+      </c>
+      <c r="N513">
+        <v>61</v>
+      </c>
+      <c r="O513">
+        <v>29.98</v>
+      </c>
+      <c r="P513">
+        <v>15</v>
+      </c>
+      <c r="Q513">
+        <v>0.31</v>
+      </c>
+      <c r="R513">
+        <v>9.9</v>
+      </c>
+      <c r="S513">
+        <v>57</v>
+      </c>
+      <c r="T513">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="514" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B514" t="s">
+        <v>9</v>
+      </c>
+      <c r="C514" t="s">
+        <v>12</v>
+      </c>
+      <c r="D514">
+        <v>62</v>
+      </c>
+      <c r="E514">
+        <v>82</v>
+      </c>
+      <c r="F514">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G514">
+        <v>0</v>
+      </c>
+      <c r="H514">
+        <v>0.1</v>
+      </c>
+      <c r="I514" t="s">
+        <v>21</v>
+      </c>
+      <c r="J514">
+        <v>3</v>
+      </c>
+      <c r="K514" t="s">
+        <v>19</v>
+      </c>
+      <c r="L514">
+        <v>8</v>
+      </c>
+      <c r="M514">
+        <v>0.48</v>
+      </c>
+      <c r="N514">
+        <v>61</v>
+      </c>
+      <c r="O514">
+        <v>29.98</v>
+      </c>
+      <c r="P514">
+        <v>15</v>
+      </c>
+      <c r="Q514">
+        <v>0.31</v>
+      </c>
+      <c r="R514">
+        <v>9.9</v>
+      </c>
+      <c r="S514">
+        <v>57</v>
+      </c>
+      <c r="T514">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="515" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B515" t="s">
+        <v>9</v>
+      </c>
+      <c r="C515" t="s">
+        <v>13</v>
+      </c>
+      <c r="D515">
+        <v>62</v>
+      </c>
+      <c r="E515">
+        <v>82</v>
+      </c>
+      <c r="F515">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G515">
+        <v>0</v>
+      </c>
+      <c r="H515">
+        <v>0</v>
+      </c>
+      <c r="I515" t="s">
+        <v>21</v>
+      </c>
+      <c r="J515">
+        <v>3</v>
+      </c>
+      <c r="K515" t="s">
+        <v>18</v>
+      </c>
+      <c r="L515">
+        <v>8</v>
+      </c>
+      <c r="M515">
+        <v>0.48</v>
+      </c>
+      <c r="N515">
+        <v>61</v>
+      </c>
+      <c r="O515">
+        <v>29.98</v>
+      </c>
+      <c r="P515">
+        <v>15</v>
+      </c>
+      <c r="Q515">
+        <v>0.31</v>
+      </c>
+      <c r="R515">
+        <v>9.9</v>
+      </c>
+      <c r="S515">
+        <v>57</v>
+      </c>
+      <c r="T515">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B516" t="s">
+        <v>9</v>
+      </c>
+      <c r="C516" t="s">
+        <v>12</v>
+      </c>
+      <c r="D516">
+        <v>62</v>
+      </c>
+      <c r="E516">
+        <v>82</v>
+      </c>
+      <c r="F516">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G516">
+        <v>0</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516" t="s">
+        <v>21</v>
+      </c>
+      <c r="J516">
+        <v>3</v>
+      </c>
+      <c r="K516" t="s">
+        <v>20</v>
+      </c>
+      <c r="L516">
+        <v>8</v>
+      </c>
+      <c r="M516">
+        <v>0.48</v>
+      </c>
+      <c r="N516">
+        <v>61</v>
+      </c>
+      <c r="O516">
+        <v>29.98</v>
+      </c>
+      <c r="P516">
+        <v>15</v>
+      </c>
+      <c r="Q516">
+        <v>0.31</v>
+      </c>
+      <c r="R516">
+        <v>9.9</v>
+      </c>
+      <c r="S516">
+        <v>57</v>
+      </c>
+      <c r="T516">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="517" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B517" t="s">
+        <v>9</v>
+      </c>
+      <c r="C517" t="s">
+        <v>12</v>
+      </c>
+      <c r="D517">
+        <v>62</v>
+      </c>
+      <c r="E517">
+        <v>82</v>
+      </c>
+      <c r="F517">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G517">
+        <v>0</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+      <c r="I517" t="s">
+        <v>21</v>
+      </c>
+      <c r="J517">
+        <v>3</v>
+      </c>
+      <c r="K517" t="s">
+        <v>20</v>
+      </c>
+      <c r="L517">
+        <v>8</v>
+      </c>
+      <c r="M517">
+        <v>0.48</v>
+      </c>
+      <c r="N517">
+        <v>61</v>
+      </c>
+      <c r="O517">
+        <v>29.98</v>
+      </c>
+      <c r="P517">
+        <v>15</v>
+      </c>
+      <c r="Q517">
+        <v>0.31</v>
+      </c>
+      <c r="R517">
+        <v>9.9</v>
+      </c>
+      <c r="S517">
+        <v>57</v>
+      </c>
+      <c r="T517">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B518" t="s">
+        <v>9</v>
+      </c>
+      <c r="C518" t="s">
+        <v>11</v>
+      </c>
+      <c r="D518">
+        <v>62</v>
+      </c>
+      <c r="E518">
+        <v>82</v>
+      </c>
+      <c r="F518">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G518">
+        <v>0</v>
+      </c>
+      <c r="H518">
+        <v>0.2</v>
+      </c>
+      <c r="I518" t="s">
+        <v>21</v>
+      </c>
+      <c r="J518">
+        <v>4</v>
+      </c>
+      <c r="K518" t="s">
+        <v>20</v>
+      </c>
+      <c r="L518">
+        <v>8</v>
+      </c>
+      <c r="M518">
+        <v>0.48</v>
+      </c>
+      <c r="N518">
+        <v>61</v>
+      </c>
+      <c r="O518">
+        <v>29.98</v>
+      </c>
+      <c r="P518">
+        <v>15</v>
+      </c>
+      <c r="Q518">
+        <v>0.31</v>
+      </c>
+      <c r="R518">
+        <v>9.9</v>
+      </c>
+      <c r="S518">
+        <v>57</v>
+      </c>
+      <c r="T518">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B519" t="s">
+        <v>10</v>
+      </c>
+      <c r="C519" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519">
+        <v>62</v>
+      </c>
+      <c r="E519">
+        <v>82</v>
+      </c>
+      <c r="F519">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G519">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <v>0.2</v>
+      </c>
+      <c r="I519" t="s">
+        <v>21</v>
+      </c>
+      <c r="J519">
+        <v>1</v>
+      </c>
+      <c r="K519" t="s">
+        <v>18</v>
+      </c>
+      <c r="L519">
+        <v>8</v>
+      </c>
+      <c r="M519">
+        <v>0.48</v>
+      </c>
+      <c r="N519">
+        <v>61</v>
+      </c>
+      <c r="O519">
+        <v>29.98</v>
+      </c>
+      <c r="P519">
+        <v>15</v>
+      </c>
+      <c r="Q519">
+        <v>0.31</v>
+      </c>
+      <c r="R519">
+        <v>9.9</v>
+      </c>
+      <c r="S519">
+        <v>57</v>
+      </c>
+      <c r="T519">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="520" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B520" t="s">
+        <v>8</v>
+      </c>
+      <c r="C520" t="s">
+        <v>11</v>
+      </c>
+      <c r="D520">
+        <v>70</v>
+      </c>
+      <c r="E520">
+        <v>88</v>
+      </c>
+      <c r="F520">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G520">
+        <v>0</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520" t="s">
+        <v>21</v>
+      </c>
+      <c r="J520">
+        <v>2</v>
+      </c>
+      <c r="K520" t="s">
+        <v>20</v>
+      </c>
+      <c r="L520">
+        <v>8</v>
+      </c>
+      <c r="M520">
+        <v>0.5</v>
+      </c>
+      <c r="N520">
+        <v>65</v>
+      </c>
+      <c r="O520">
+        <v>30.19</v>
+      </c>
+      <c r="P520">
+        <v>8</v>
+      </c>
+      <c r="Q520">
+        <v>0.19</v>
+      </c>
+      <c r="R520">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S520">
+        <v>53</v>
+      </c>
+      <c r="T520">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B521" t="s">
+        <v>9</v>
+      </c>
+      <c r="C521" t="s">
+        <v>12</v>
+      </c>
+      <c r="D521">
+        <v>70</v>
+      </c>
+      <c r="E521">
+        <v>88</v>
+      </c>
+      <c r="F521">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G521">
+        <v>0</v>
+      </c>
+      <c r="H521">
+        <v>0.05</v>
+      </c>
+      <c r="I521" t="s">
+        <v>21</v>
+      </c>
+      <c r="J521">
+        <v>3</v>
+      </c>
+      <c r="K521" t="s">
+        <v>20</v>
+      </c>
+      <c r="L521">
+        <v>8</v>
+      </c>
+      <c r="M521">
+        <v>0.5</v>
+      </c>
+      <c r="N521">
+        <v>65</v>
+      </c>
+      <c r="O521">
+        <v>30.19</v>
+      </c>
+      <c r="P521">
+        <v>8</v>
+      </c>
+      <c r="Q521">
+        <v>0.19</v>
+      </c>
+      <c r="R521">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S521">
+        <v>53</v>
+      </c>
+      <c r="T521">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="522" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B522" t="s">
+        <v>9</v>
+      </c>
+      <c r="C522" t="s">
+        <v>13</v>
+      </c>
+      <c r="D522">
+        <v>70</v>
+      </c>
+      <c r="E522">
+        <v>88</v>
+      </c>
+      <c r="F522">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G522">
+        <v>0</v>
+      </c>
+      <c r="H522">
+        <v>0.05</v>
+      </c>
+      <c r="I522" t="s">
+        <v>21</v>
+      </c>
+      <c r="J522">
+        <v>3</v>
+      </c>
+      <c r="K522" t="s">
+        <v>19</v>
+      </c>
+      <c r="L522">
+        <v>8</v>
+      </c>
+      <c r="M522">
+        <v>0.5</v>
+      </c>
+      <c r="N522">
+        <v>65</v>
+      </c>
+      <c r="O522">
+        <v>30.19</v>
+      </c>
+      <c r="P522">
+        <v>8</v>
+      </c>
+      <c r="Q522">
+        <v>0.19</v>
+      </c>
+      <c r="R522">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S522">
+        <v>53</v>
+      </c>
+      <c r="T522">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="523" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B523" t="s">
+        <v>9</v>
+      </c>
+      <c r="C523" t="s">
+        <v>12</v>
+      </c>
+      <c r="D523">
+        <v>70</v>
+      </c>
+      <c r="E523">
+        <v>88</v>
+      </c>
+      <c r="F523">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G523">
+        <v>0</v>
+      </c>
+      <c r="H523">
+        <v>0.1</v>
+      </c>
+      <c r="I523" t="s">
+        <v>21</v>
+      </c>
+      <c r="J523">
+        <v>3</v>
+      </c>
+      <c r="K523" t="s">
+        <v>20</v>
+      </c>
+      <c r="L523">
+        <v>8</v>
+      </c>
+      <c r="M523">
+        <v>0.5</v>
+      </c>
+      <c r="N523">
+        <v>65</v>
+      </c>
+      <c r="O523">
+        <v>30.19</v>
+      </c>
+      <c r="P523">
+        <v>8</v>
+      </c>
+      <c r="Q523">
+        <v>0.19</v>
+      </c>
+      <c r="R523">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S523">
+        <v>53</v>
+      </c>
+      <c r="T523">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="524" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B524" t="s">
+        <v>9</v>
+      </c>
+      <c r="C524" t="s">
+        <v>12</v>
+      </c>
+      <c r="D524">
+        <v>70</v>
+      </c>
+      <c r="E524">
+        <v>88</v>
+      </c>
+      <c r="F524">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>0.25</v>
+      </c>
+      <c r="I524" t="s">
+        <v>21</v>
+      </c>
+      <c r="J524">
+        <v>3</v>
+      </c>
+      <c r="K524" t="s">
+        <v>19</v>
+      </c>
+      <c r="L524">
+        <v>8</v>
+      </c>
+      <c r="M524">
+        <v>0.5</v>
+      </c>
+      <c r="N524">
+        <v>65</v>
+      </c>
+      <c r="O524">
+        <v>30.19</v>
+      </c>
+      <c r="P524">
+        <v>8</v>
+      </c>
+      <c r="Q524">
+        <v>0.19</v>
+      </c>
+      <c r="R524">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S524">
+        <v>53</v>
+      </c>
+      <c r="T524">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="525" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B525" t="s">
+        <v>9</v>
+      </c>
+      <c r="C525" t="s">
+        <v>11</v>
+      </c>
+      <c r="D525">
+        <v>70</v>
+      </c>
+      <c r="E525">
+        <v>88</v>
+      </c>
+      <c r="F525">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G525">
+        <v>0</v>
+      </c>
+      <c r="H525">
+        <v>0</v>
+      </c>
+      <c r="I525" t="s">
+        <v>21</v>
+      </c>
+      <c r="J525">
+        <v>4</v>
+      </c>
+      <c r="K525" t="s">
+        <v>20</v>
+      </c>
+      <c r="L525">
+        <v>8</v>
+      </c>
+      <c r="M525">
+        <v>0.5</v>
+      </c>
+      <c r="N525">
+        <v>65</v>
+      </c>
+      <c r="O525">
+        <v>30.19</v>
+      </c>
+      <c r="P525">
+        <v>8</v>
+      </c>
+      <c r="Q525">
+        <v>0.19</v>
+      </c>
+      <c r="R525">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S525">
+        <v>53</v>
+      </c>
+      <c r="T525">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B526" t="s">
+        <v>10</v>
+      </c>
+      <c r="C526" t="s">
+        <v>12</v>
+      </c>
+      <c r="D526">
+        <v>70</v>
+      </c>
+      <c r="E526">
+        <v>88</v>
+      </c>
+      <c r="F526">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>0.3</v>
+      </c>
+      <c r="I526" t="s">
+        <v>21</v>
+      </c>
+      <c r="J526">
+        <v>1</v>
+      </c>
+      <c r="K526" t="s">
+        <v>19</v>
+      </c>
+      <c r="L526">
+        <v>8</v>
+      </c>
+      <c r="M526">
+        <v>0.5</v>
+      </c>
+      <c r="N526">
+        <v>65</v>
+      </c>
+      <c r="O526">
+        <v>30.19</v>
+      </c>
+      <c r="P526">
+        <v>8</v>
+      </c>
+      <c r="Q526">
+        <v>0.19</v>
+      </c>
+      <c r="R526">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S526">
+        <v>53</v>
+      </c>
+      <c r="T526">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC06CE42-52B9-47EF-8E82-E7084FFB96A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A928697-A5D9-4D72-AF90-1BD9AC11F34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U526"/>
+  <dimension ref="A1:U533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="Q520" sqref="Q520:Q526"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="Q527" sqref="Q527:Q533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27186,7 +27186,7 @@
         <v>77</v>
       </c>
       <c r="F424">
-        <f t="shared" ref="F424:F464" si="9">ABS(D424-E424)</f>
+        <f t="shared" ref="F424:F463" si="9">ABS(D424-E424)</f>
         <v>11</v>
       </c>
       <c r="G424">
@@ -30148,7 +30148,7 @@
         <v>77</v>
       </c>
       <c r="F471">
-        <f>ABS(D471-E471)</f>
+        <f t="shared" ref="F471:F477" si="11">ABS(D471-E471)</f>
         <v>11</v>
       </c>
       <c r="G471">
@@ -30211,7 +30211,7 @@
         <v>77</v>
       </c>
       <c r="F472">
-        <f>ABS(D472-E472)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="G472">
@@ -30274,7 +30274,7 @@
         <v>77</v>
       </c>
       <c r="F473">
-        <f>ABS(D473-E473)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="G473">
@@ -30337,7 +30337,7 @@
         <v>77</v>
       </c>
       <c r="F474">
-        <f>ABS(D474-E474)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="G474">
@@ -30400,7 +30400,7 @@
         <v>77</v>
       </c>
       <c r="F475">
-        <f>ABS(D475-E475)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="G475">
@@ -30463,7 +30463,7 @@
         <v>77</v>
       </c>
       <c r="F476">
-        <f>ABS(D476-E476)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="G476">
@@ -30526,7 +30526,7 @@
         <v>77</v>
       </c>
       <c r="F477">
-        <f>ABS(D477-E477)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="G477">
@@ -30589,7 +30589,7 @@
         <v>92</v>
       </c>
       <c r="F478">
-        <f t="shared" ref="F478:F526" si="11">ABS(D478-E478)</f>
+        <f t="shared" ref="F478:F533" si="12">ABS(D478-E478)</f>
         <v>20</v>
       </c>
       <c r="G478">
@@ -30652,7 +30652,7 @@
         <v>92</v>
       </c>
       <c r="F479">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G479">
@@ -30715,7 +30715,7 @@
         <v>92</v>
       </c>
       <c r="F480">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G480">
@@ -30778,7 +30778,7 @@
         <v>92</v>
       </c>
       <c r="F481">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G481">
@@ -30841,7 +30841,7 @@
         <v>92</v>
       </c>
       <c r="F482">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G482">
@@ -30905,7 +30905,7 @@
         <v>92</v>
       </c>
       <c r="F483">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G483">
@@ -30968,7 +30968,7 @@
         <v>92</v>
       </c>
       <c r="F484">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G484">
@@ -31031,7 +31031,7 @@
         <v>88</v>
       </c>
       <c r="F485">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="G485">
@@ -31094,7 +31094,7 @@
         <v>88</v>
       </c>
       <c r="F486">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="G486">
@@ -31157,7 +31157,7 @@
         <v>88</v>
       </c>
       <c r="F487">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="G487">
@@ -31220,7 +31220,7 @@
         <v>88</v>
       </c>
       <c r="F488">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="G488">
@@ -31283,7 +31283,7 @@
         <v>88</v>
       </c>
       <c r="F489">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="G489">
@@ -31346,7 +31346,7 @@
         <v>88</v>
       </c>
       <c r="F490">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="G490">
@@ -31409,7 +31409,7 @@
         <v>88</v>
       </c>
       <c r="F491">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="G491">
@@ -31472,7 +31472,7 @@
         <v>82</v>
       </c>
       <c r="F492">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="G492">
@@ -31535,7 +31535,7 @@
         <v>82</v>
       </c>
       <c r="F493">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="G493">
@@ -31598,7 +31598,7 @@
         <v>82</v>
       </c>
       <c r="F494">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="G494">
@@ -31661,7 +31661,7 @@
         <v>82</v>
       </c>
       <c r="F495">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="G495">
@@ -31724,7 +31724,7 @@
         <v>82</v>
       </c>
       <c r="F496">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="G496">
@@ -31787,7 +31787,7 @@
         <v>82</v>
       </c>
       <c r="F497">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="G497">
@@ -31850,7 +31850,7 @@
         <v>82</v>
       </c>
       <c r="F498">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="G498">
@@ -31913,7 +31913,7 @@
         <v>92</v>
       </c>
       <c r="F499">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G499">
@@ -31976,7 +31976,7 @@
         <v>92</v>
       </c>
       <c r="F500">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G500">
@@ -32039,7 +32039,7 @@
         <v>92</v>
       </c>
       <c r="F501">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G501">
@@ -32102,7 +32102,7 @@
         <v>92</v>
       </c>
       <c r="F502">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G502">
@@ -32165,7 +32165,7 @@
         <v>92</v>
       </c>
       <c r="F503">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G503">
@@ -32228,7 +32228,7 @@
         <v>92</v>
       </c>
       <c r="F504">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G504">
@@ -32291,7 +32291,7 @@
         <v>92</v>
       </c>
       <c r="F505">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G505">
@@ -32354,7 +32354,7 @@
         <v>84</v>
       </c>
       <c r="F506">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="G506">
@@ -32417,7 +32417,7 @@
         <v>84</v>
       </c>
       <c r="F507">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="G507">
@@ -32480,7 +32480,7 @@
         <v>84</v>
       </c>
       <c r="F508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="G508">
@@ -32543,7 +32543,7 @@
         <v>84</v>
       </c>
       <c r="F509">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="G509">
@@ -32606,7 +32606,7 @@
         <v>84</v>
       </c>
       <c r="F510">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="G510">
@@ -32669,7 +32669,7 @@
         <v>84</v>
       </c>
       <c r="F511">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="G511">
@@ -32732,7 +32732,7 @@
         <v>84</v>
       </c>
       <c r="F512">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="G512">
@@ -32795,7 +32795,7 @@
         <v>82</v>
       </c>
       <c r="F513">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G513">
@@ -32858,7 +32858,7 @@
         <v>82</v>
       </c>
       <c r="F514">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G514">
@@ -32921,7 +32921,7 @@
         <v>82</v>
       </c>
       <c r="F515">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G515">
@@ -32984,7 +32984,7 @@
         <v>82</v>
       </c>
       <c r="F516">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G516">
@@ -33047,7 +33047,7 @@
         <v>82</v>
       </c>
       <c r="F517">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G517">
@@ -33110,7 +33110,7 @@
         <v>82</v>
       </c>
       <c r="F518">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G518">
@@ -33173,7 +33173,7 @@
         <v>82</v>
       </c>
       <c r="F519">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G519">
@@ -33236,7 +33236,7 @@
         <v>88</v>
       </c>
       <c r="F520">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="G520">
@@ -33284,7 +33284,7 @@
     </row>
     <row r="521" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B521" t="s">
         <v>9</v>
@@ -33299,7 +33299,7 @@
         <v>88</v>
       </c>
       <c r="F521">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="G521">
@@ -33347,7 +33347,7 @@
     </row>
     <row r="522" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B522" t="s">
         <v>9</v>
@@ -33362,7 +33362,7 @@
         <v>88</v>
       </c>
       <c r="F522">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="G522">
@@ -33410,7 +33410,7 @@
     </row>
     <row r="523" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B523" t="s">
         <v>9</v>
@@ -33425,7 +33425,7 @@
         <v>88</v>
       </c>
       <c r="F523">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="G523">
@@ -33473,7 +33473,7 @@
     </row>
     <row r="524" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B524" t="s">
         <v>9</v>
@@ -33488,7 +33488,7 @@
         <v>88</v>
       </c>
       <c r="F524">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="G524">
@@ -33536,7 +33536,7 @@
     </row>
     <row r="525" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B525" t="s">
         <v>9</v>
@@ -33551,7 +33551,7 @@
         <v>88</v>
       </c>
       <c r="F525">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="G525">
@@ -33599,7 +33599,7 @@
     </row>
     <row r="526" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B526" t="s">
         <v>10</v>
@@ -33614,7 +33614,7 @@
         <v>88</v>
       </c>
       <c r="F526">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="G526">
@@ -33658,6 +33658,447 @@
       </c>
       <c r="T526">
         <v>14</v>
+      </c>
+    </row>
+    <row r="527" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B527" t="s">
+        <v>8</v>
+      </c>
+      <c r="C527" t="s">
+        <v>11</v>
+      </c>
+      <c r="D527">
+        <v>75</v>
+      </c>
+      <c r="E527">
+        <v>91</v>
+      </c>
+      <c r="F527">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G527">
+        <v>0.16</v>
+      </c>
+      <c r="H527">
+        <v>0.15</v>
+      </c>
+      <c r="I527" t="s">
+        <v>21</v>
+      </c>
+      <c r="J527">
+        <v>2</v>
+      </c>
+      <c r="K527" t="s">
+        <v>20</v>
+      </c>
+      <c r="L527">
+        <v>8</v>
+      </c>
+      <c r="M527">
+        <v>0.72</v>
+      </c>
+      <c r="N527">
+        <v>72</v>
+      </c>
+      <c r="O527">
+        <v>30.06</v>
+      </c>
+      <c r="P527">
+        <v>8</v>
+      </c>
+      <c r="Q527">
+        <v>0.05</v>
+      </c>
+      <c r="R527">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S527">
+        <v>57</v>
+      </c>
+      <c r="T527">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="528" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B528" t="s">
+        <v>9</v>
+      </c>
+      <c r="C528" t="s">
+        <v>12</v>
+      </c>
+      <c r="D528">
+        <v>75</v>
+      </c>
+      <c r="E528">
+        <v>91</v>
+      </c>
+      <c r="F528">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G528">
+        <v>0.16</v>
+      </c>
+      <c r="H528">
+        <v>0.15</v>
+      </c>
+      <c r="I528" t="s">
+        <v>21</v>
+      </c>
+      <c r="J528">
+        <v>3</v>
+      </c>
+      <c r="K528" t="s">
+        <v>20</v>
+      </c>
+      <c r="L528">
+        <v>8</v>
+      </c>
+      <c r="M528">
+        <v>0.72</v>
+      </c>
+      <c r="N528">
+        <v>72</v>
+      </c>
+      <c r="O528">
+        <v>30.06</v>
+      </c>
+      <c r="P528">
+        <v>8</v>
+      </c>
+      <c r="Q528">
+        <v>0.05</v>
+      </c>
+      <c r="R528">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S528">
+        <v>57</v>
+      </c>
+      <c r="T528">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="529" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B529" t="s">
+        <v>9</v>
+      </c>
+      <c r="C529" t="s">
+        <v>13</v>
+      </c>
+      <c r="D529">
+        <v>75</v>
+      </c>
+      <c r="E529">
+        <v>91</v>
+      </c>
+      <c r="F529">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G529">
+        <v>0.16</v>
+      </c>
+      <c r="H529">
+        <v>0.2</v>
+      </c>
+      <c r="I529" t="s">
+        <v>21</v>
+      </c>
+      <c r="J529">
+        <v>3</v>
+      </c>
+      <c r="K529" t="s">
+        <v>20</v>
+      </c>
+      <c r="L529">
+        <v>8</v>
+      </c>
+      <c r="M529">
+        <v>0.72</v>
+      </c>
+      <c r="N529">
+        <v>72</v>
+      </c>
+      <c r="O529">
+        <v>30.06</v>
+      </c>
+      <c r="P529">
+        <v>8</v>
+      </c>
+      <c r="Q529">
+        <v>0.05</v>
+      </c>
+      <c r="R529">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S529">
+        <v>57</v>
+      </c>
+      <c r="T529">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="530" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B530" t="s">
+        <v>9</v>
+      </c>
+      <c r="C530" t="s">
+        <v>12</v>
+      </c>
+      <c r="D530">
+        <v>75</v>
+      </c>
+      <c r="E530">
+        <v>91</v>
+      </c>
+      <c r="F530">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G530">
+        <v>0.16</v>
+      </c>
+      <c r="H530">
+        <v>0.2</v>
+      </c>
+      <c r="I530" t="s">
+        <v>21</v>
+      </c>
+      <c r="J530">
+        <v>3</v>
+      </c>
+      <c r="K530" t="s">
+        <v>20</v>
+      </c>
+      <c r="L530">
+        <v>8</v>
+      </c>
+      <c r="M530">
+        <v>0.72</v>
+      </c>
+      <c r="N530">
+        <v>72</v>
+      </c>
+      <c r="O530">
+        <v>30.06</v>
+      </c>
+      <c r="P530">
+        <v>8</v>
+      </c>
+      <c r="Q530">
+        <v>0.05</v>
+      </c>
+      <c r="R530">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S530">
+        <v>57</v>
+      </c>
+      <c r="T530">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="531" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B531" t="s">
+        <v>9</v>
+      </c>
+      <c r="C531" t="s">
+        <v>12</v>
+      </c>
+      <c r="D531">
+        <v>75</v>
+      </c>
+      <c r="E531">
+        <v>91</v>
+      </c>
+      <c r="F531">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G531">
+        <v>0.16</v>
+      </c>
+      <c r="H531">
+        <v>0.1</v>
+      </c>
+      <c r="I531" t="s">
+        <v>21</v>
+      </c>
+      <c r="J531">
+        <v>3</v>
+      </c>
+      <c r="K531" t="s">
+        <v>20</v>
+      </c>
+      <c r="L531">
+        <v>8</v>
+      </c>
+      <c r="M531">
+        <v>0.72</v>
+      </c>
+      <c r="N531">
+        <v>72</v>
+      </c>
+      <c r="O531">
+        <v>30.06</v>
+      </c>
+      <c r="P531">
+        <v>8</v>
+      </c>
+      <c r="Q531">
+        <v>0.05</v>
+      </c>
+      <c r="R531">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S531">
+        <v>57</v>
+      </c>
+      <c r="T531">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="532" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B532" t="s">
+        <v>9</v>
+      </c>
+      <c r="C532" t="s">
+        <v>11</v>
+      </c>
+      <c r="D532">
+        <v>75</v>
+      </c>
+      <c r="E532">
+        <v>91</v>
+      </c>
+      <c r="F532">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G532">
+        <v>0.16</v>
+      </c>
+      <c r="H532">
+        <v>0.3</v>
+      </c>
+      <c r="I532" t="s">
+        <v>21</v>
+      </c>
+      <c r="J532">
+        <v>4</v>
+      </c>
+      <c r="K532" t="s">
+        <v>20</v>
+      </c>
+      <c r="L532">
+        <v>8</v>
+      </c>
+      <c r="M532">
+        <v>0.72</v>
+      </c>
+      <c r="N532">
+        <v>72</v>
+      </c>
+      <c r="O532">
+        <v>30.06</v>
+      </c>
+      <c r="P532">
+        <v>8</v>
+      </c>
+      <c r="Q532">
+        <v>0.05</v>
+      </c>
+      <c r="R532">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S532">
+        <v>57</v>
+      </c>
+      <c r="T532">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="533" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B533" t="s">
+        <v>10</v>
+      </c>
+      <c r="C533" t="s">
+        <v>12</v>
+      </c>
+      <c r="D533">
+        <v>75</v>
+      </c>
+      <c r="E533">
+        <v>91</v>
+      </c>
+      <c r="F533">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G533">
+        <v>0.16</v>
+      </c>
+      <c r="H533">
+        <v>0.9</v>
+      </c>
+      <c r="I533" t="s">
+        <v>21</v>
+      </c>
+      <c r="J533">
+        <v>1</v>
+      </c>
+      <c r="K533" t="s">
+        <v>20</v>
+      </c>
+      <c r="L533">
+        <v>8</v>
+      </c>
+      <c r="M533">
+        <v>0.72</v>
+      </c>
+      <c r="N533">
+        <v>72</v>
+      </c>
+      <c r="O533">
+        <v>30.06</v>
+      </c>
+      <c r="P533">
+        <v>8</v>
+      </c>
+      <c r="Q533">
+        <v>0.05</v>
+      </c>
+      <c r="R533">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S533">
+        <v>57</v>
+      </c>
+      <c r="T533">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A928697-A5D9-4D72-AF90-1BD9AC11F34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A11CD14-05AA-4B8D-B8A2-A0BE7250448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U533"/>
+  <dimension ref="A1:U540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="Q527" sqref="Q527:Q533"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="I541" sqref="I541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30589,7 +30589,7 @@
         <v>92</v>
       </c>
       <c r="F478">
-        <f t="shared" ref="F478:F533" si="12">ABS(D478-E478)</f>
+        <f t="shared" ref="F478:F540" si="12">ABS(D478-E478)</f>
         <v>20</v>
       </c>
       <c r="G478">
@@ -34099,6 +34099,447 @@
       </c>
       <c r="T533">
         <v>23</v>
+      </c>
+    </row>
+    <row r="534" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B534" t="s">
+        <v>8</v>
+      </c>
+      <c r="C534" t="s">
+        <v>11</v>
+      </c>
+      <c r="D534">
+        <v>73</v>
+      </c>
+      <c r="E534">
+        <v>89</v>
+      </c>
+      <c r="F534">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G534">
+        <v>0.18</v>
+      </c>
+      <c r="H534">
+        <v>0.2</v>
+      </c>
+      <c r="I534" t="s">
+        <v>15</v>
+      </c>
+      <c r="J534">
+        <v>2</v>
+      </c>
+      <c r="K534" t="s">
+        <v>20</v>
+      </c>
+      <c r="L534">
+        <v>6</v>
+      </c>
+      <c r="M534">
+        <v>0.82</v>
+      </c>
+      <c r="N534">
+        <v>75</v>
+      </c>
+      <c r="O534">
+        <v>30.07</v>
+      </c>
+      <c r="P534">
+        <v>16</v>
+      </c>
+      <c r="Q534">
+        <v>0.79</v>
+      </c>
+      <c r="R534">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S534">
+        <v>57</v>
+      </c>
+      <c r="T534">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="535" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B535" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535" t="s">
+        <v>12</v>
+      </c>
+      <c r="D535">
+        <v>73</v>
+      </c>
+      <c r="E535">
+        <v>89</v>
+      </c>
+      <c r="F535">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G535">
+        <v>0.18</v>
+      </c>
+      <c r="H535">
+        <v>0.2</v>
+      </c>
+      <c r="I535" t="s">
+        <v>15</v>
+      </c>
+      <c r="J535">
+        <v>3</v>
+      </c>
+      <c r="K535" t="s">
+        <v>20</v>
+      </c>
+      <c r="L535">
+        <v>6</v>
+      </c>
+      <c r="M535">
+        <v>0.82</v>
+      </c>
+      <c r="N535">
+        <v>75</v>
+      </c>
+      <c r="O535">
+        <v>30.07</v>
+      </c>
+      <c r="P535">
+        <v>16</v>
+      </c>
+      <c r="Q535">
+        <v>0.79</v>
+      </c>
+      <c r="R535">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S535">
+        <v>57</v>
+      </c>
+      <c r="T535">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="536" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B536" t="s">
+        <v>9</v>
+      </c>
+      <c r="C536" t="s">
+        <v>13</v>
+      </c>
+      <c r="D536">
+        <v>73</v>
+      </c>
+      <c r="E536">
+        <v>89</v>
+      </c>
+      <c r="F536">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G536">
+        <v>0.18</v>
+      </c>
+      <c r="H536">
+        <v>0.15</v>
+      </c>
+      <c r="I536" t="s">
+        <v>15</v>
+      </c>
+      <c r="J536">
+        <v>3</v>
+      </c>
+      <c r="K536" t="s">
+        <v>19</v>
+      </c>
+      <c r="L536">
+        <v>6</v>
+      </c>
+      <c r="M536">
+        <v>0.82</v>
+      </c>
+      <c r="N536">
+        <v>75</v>
+      </c>
+      <c r="O536">
+        <v>30.07</v>
+      </c>
+      <c r="P536">
+        <v>16</v>
+      </c>
+      <c r="Q536">
+        <v>0.79</v>
+      </c>
+      <c r="R536">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S536">
+        <v>57</v>
+      </c>
+      <c r="T536">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="537" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B537" t="s">
+        <v>9</v>
+      </c>
+      <c r="C537" t="s">
+        <v>12</v>
+      </c>
+      <c r="D537">
+        <v>73</v>
+      </c>
+      <c r="E537">
+        <v>89</v>
+      </c>
+      <c r="F537">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G537">
+        <v>0.18</v>
+      </c>
+      <c r="H537">
+        <v>0.1</v>
+      </c>
+      <c r="I537" t="s">
+        <v>15</v>
+      </c>
+      <c r="J537">
+        <v>3</v>
+      </c>
+      <c r="K537" t="s">
+        <v>19</v>
+      </c>
+      <c r="L537">
+        <v>6</v>
+      </c>
+      <c r="M537">
+        <v>0.82</v>
+      </c>
+      <c r="N537">
+        <v>75</v>
+      </c>
+      <c r="O537">
+        <v>30.07</v>
+      </c>
+      <c r="P537">
+        <v>16</v>
+      </c>
+      <c r="Q537">
+        <v>0.79</v>
+      </c>
+      <c r="R537">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S537">
+        <v>57</v>
+      </c>
+      <c r="T537">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="538" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B538" t="s">
+        <v>9</v>
+      </c>
+      <c r="C538" t="s">
+        <v>12</v>
+      </c>
+      <c r="D538">
+        <v>73</v>
+      </c>
+      <c r="E538">
+        <v>89</v>
+      </c>
+      <c r="F538">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G538">
+        <v>0.18</v>
+      </c>
+      <c r="H538">
+        <v>0.2</v>
+      </c>
+      <c r="I538" t="s">
+        <v>15</v>
+      </c>
+      <c r="J538">
+        <v>3</v>
+      </c>
+      <c r="K538" t="s">
+        <v>20</v>
+      </c>
+      <c r="L538">
+        <v>6</v>
+      </c>
+      <c r="M538">
+        <v>0.82</v>
+      </c>
+      <c r="N538">
+        <v>75</v>
+      </c>
+      <c r="O538">
+        <v>30.07</v>
+      </c>
+      <c r="P538">
+        <v>16</v>
+      </c>
+      <c r="Q538">
+        <v>0.79</v>
+      </c>
+      <c r="R538">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S538">
+        <v>57</v>
+      </c>
+      <c r="T538">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="539" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C539" t="s">
+        <v>11</v>
+      </c>
+      <c r="D539">
+        <v>73</v>
+      </c>
+      <c r="E539">
+        <v>89</v>
+      </c>
+      <c r="F539">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G539">
+        <v>0.18</v>
+      </c>
+      <c r="H539">
+        <v>0.4</v>
+      </c>
+      <c r="I539" t="s">
+        <v>15</v>
+      </c>
+      <c r="J539">
+        <v>4</v>
+      </c>
+      <c r="K539" t="s">
+        <v>20</v>
+      </c>
+      <c r="L539">
+        <v>6</v>
+      </c>
+      <c r="M539">
+        <v>0.82</v>
+      </c>
+      <c r="N539">
+        <v>75</v>
+      </c>
+      <c r="O539">
+        <v>30.07</v>
+      </c>
+      <c r="P539">
+        <v>16</v>
+      </c>
+      <c r="Q539">
+        <v>0.79</v>
+      </c>
+      <c r="R539">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S539">
+        <v>57</v>
+      </c>
+      <c r="T539">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="540" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B540" t="s">
+        <v>10</v>
+      </c>
+      <c r="C540" t="s">
+        <v>12</v>
+      </c>
+      <c r="D540">
+        <v>73</v>
+      </c>
+      <c r="E540">
+        <v>89</v>
+      </c>
+      <c r="F540">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G540">
+        <v>0.18</v>
+      </c>
+      <c r="H540">
+        <v>0.95</v>
+      </c>
+      <c r="I540" t="s">
+        <v>15</v>
+      </c>
+      <c r="J540">
+        <v>1</v>
+      </c>
+      <c r="K540" t="s">
+        <v>19</v>
+      </c>
+      <c r="L540">
+        <v>6</v>
+      </c>
+      <c r="M540">
+        <v>0.82</v>
+      </c>
+      <c r="N540">
+        <v>75</v>
+      </c>
+      <c r="O540">
+        <v>30.07</v>
+      </c>
+      <c r="P540">
+        <v>16</v>
+      </c>
+      <c r="Q540">
+        <v>0.79</v>
+      </c>
+      <c r="R540">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S540">
+        <v>57</v>
+      </c>
+      <c r="T540">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A11CD14-05AA-4B8D-B8A2-A0BE7250448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B960C5F4-3423-43DD-AA0C-249B62B5C0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U540"/>
+  <dimension ref="A1:U547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="I541" sqref="I541"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="T541" sqref="T541:T547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30589,7 +30589,7 @@
         <v>92</v>
       </c>
       <c r="F478">
-        <f t="shared" ref="F478:F540" si="12">ABS(D478-E478)</f>
+        <f t="shared" ref="F478:F542" si="12">ABS(D478-E478)</f>
         <v>20</v>
       </c>
       <c r="G478">
@@ -34112,14 +34112,14 @@
         <v>11</v>
       </c>
       <c r="D534">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E534">
         <v>89</v>
       </c>
       <c r="F534">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G534">
         <v>0.18</v>
@@ -34175,14 +34175,14 @@
         <v>12</v>
       </c>
       <c r="D535">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E535">
         <v>89</v>
       </c>
       <c r="F535">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G535">
         <v>0.18</v>
@@ -34238,14 +34238,14 @@
         <v>13</v>
       </c>
       <c r="D536">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E536">
         <v>89</v>
       </c>
       <c r="F536">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G536">
         <v>0.18</v>
@@ -34301,14 +34301,14 @@
         <v>12</v>
       </c>
       <c r="D537">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E537">
         <v>89</v>
       </c>
       <c r="F537">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G537">
         <v>0.18</v>
@@ -34364,14 +34364,14 @@
         <v>12</v>
       </c>
       <c r="D538">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E538">
         <v>89</v>
       </c>
       <c r="F538">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G538">
         <v>0.18</v>
@@ -34427,14 +34427,14 @@
         <v>11</v>
       </c>
       <c r="D539">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E539">
         <v>89</v>
       </c>
       <c r="F539">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G539">
         <v>0.18</v>
@@ -34490,14 +34490,14 @@
         <v>12</v>
       </c>
       <c r="D540">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E540">
         <v>89</v>
       </c>
       <c r="F540">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G540">
         <v>0.18</v>
@@ -34540,6 +34540,447 @@
       </c>
       <c r="T540">
         <v>28</v>
+      </c>
+    </row>
+    <row r="541" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>45864</v>
+      </c>
+      <c r="B541" t="s">
+        <v>8</v>
+      </c>
+      <c r="C541" t="s">
+        <v>11</v>
+      </c>
+      <c r="D541">
+        <v>73</v>
+      </c>
+      <c r="E541">
+        <v>89</v>
+      </c>
+      <c r="F541">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G541">
+        <v>0.31</v>
+      </c>
+      <c r="H541">
+        <v>0.3</v>
+      </c>
+      <c r="I541" t="s">
+        <v>21</v>
+      </c>
+      <c r="J541">
+        <v>2</v>
+      </c>
+      <c r="K541" t="s">
+        <v>20</v>
+      </c>
+      <c r="L541">
+        <v>5</v>
+      </c>
+      <c r="M541">
+        <v>0.79</v>
+      </c>
+      <c r="N541">
+        <v>74</v>
+      </c>
+      <c r="O541">
+        <v>30.11</v>
+      </c>
+      <c r="P541">
+        <v>10</v>
+      </c>
+      <c r="Q541">
+        <v>0.37</v>
+      </c>
+      <c r="R541">
+        <v>8.1</v>
+      </c>
+      <c r="S541">
+        <v>51</v>
+      </c>
+      <c r="T541">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="542" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>45864</v>
+      </c>
+      <c r="B542" t="s">
+        <v>9</v>
+      </c>
+      <c r="C542" t="s">
+        <v>12</v>
+      </c>
+      <c r="D542">
+        <v>73</v>
+      </c>
+      <c r="E542">
+        <v>89</v>
+      </c>
+      <c r="F542">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="G542">
+        <v>0.31</v>
+      </c>
+      <c r="H542">
+        <v>0.3</v>
+      </c>
+      <c r="I542" t="s">
+        <v>21</v>
+      </c>
+      <c r="J542">
+        <v>3</v>
+      </c>
+      <c r="K542" t="s">
+        <v>19</v>
+      </c>
+      <c r="L542">
+        <v>5</v>
+      </c>
+      <c r="M542">
+        <v>0.79</v>
+      </c>
+      <c r="N542">
+        <v>74</v>
+      </c>
+      <c r="O542">
+        <v>30.11</v>
+      </c>
+      <c r="P542">
+        <v>10</v>
+      </c>
+      <c r="Q542">
+        <v>0.37</v>
+      </c>
+      <c r="R542">
+        <v>8.1</v>
+      </c>
+      <c r="S542">
+        <v>51</v>
+      </c>
+      <c r="T542">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="543" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>45864</v>
+      </c>
+      <c r="B543" t="s">
+        <v>9</v>
+      </c>
+      <c r="C543" t="s">
+        <v>13</v>
+      </c>
+      <c r="D543">
+        <v>73</v>
+      </c>
+      <c r="E543">
+        <v>89</v>
+      </c>
+      <c r="F543">
+        <f t="shared" ref="F543:F547" si="13">ABS(D543-E543)</f>
+        <v>16</v>
+      </c>
+      <c r="G543">
+        <v>0.31</v>
+      </c>
+      <c r="H543">
+        <v>0.35</v>
+      </c>
+      <c r="I543" t="s">
+        <v>21</v>
+      </c>
+      <c r="J543">
+        <v>3</v>
+      </c>
+      <c r="K543" t="s">
+        <v>19</v>
+      </c>
+      <c r="L543">
+        <v>5</v>
+      </c>
+      <c r="M543">
+        <v>0.79</v>
+      </c>
+      <c r="N543">
+        <v>74</v>
+      </c>
+      <c r="O543">
+        <v>30.11</v>
+      </c>
+      <c r="P543">
+        <v>10</v>
+      </c>
+      <c r="Q543">
+        <v>0.37</v>
+      </c>
+      <c r="R543">
+        <v>8.1</v>
+      </c>
+      <c r="S543">
+        <v>51</v>
+      </c>
+      <c r="T543">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="544" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>45864</v>
+      </c>
+      <c r="B544" t="s">
+        <v>9</v>
+      </c>
+      <c r="C544" t="s">
+        <v>12</v>
+      </c>
+      <c r="D544">
+        <v>73</v>
+      </c>
+      <c r="E544">
+        <v>89</v>
+      </c>
+      <c r="F544">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="G544">
+        <v>0.31</v>
+      </c>
+      <c r="H544">
+        <v>0.4</v>
+      </c>
+      <c r="I544" t="s">
+        <v>21</v>
+      </c>
+      <c r="J544">
+        <v>3</v>
+      </c>
+      <c r="K544" t="s">
+        <v>20</v>
+      </c>
+      <c r="L544">
+        <v>5</v>
+      </c>
+      <c r="M544">
+        <v>0.79</v>
+      </c>
+      <c r="N544">
+        <v>74</v>
+      </c>
+      <c r="O544">
+        <v>30.11</v>
+      </c>
+      <c r="P544">
+        <v>10</v>
+      </c>
+      <c r="Q544">
+        <v>0.37</v>
+      </c>
+      <c r="R544">
+        <v>8.1</v>
+      </c>
+      <c r="S544">
+        <v>51</v>
+      </c>
+      <c r="T544">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="545" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>45864</v>
+      </c>
+      <c r="B545" t="s">
+        <v>9</v>
+      </c>
+      <c r="C545" t="s">
+        <v>12</v>
+      </c>
+      <c r="D545">
+        <v>73</v>
+      </c>
+      <c r="E545">
+        <v>89</v>
+      </c>
+      <c r="F545">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="G545">
+        <v>0.31</v>
+      </c>
+      <c r="H545">
+        <v>0.2</v>
+      </c>
+      <c r="I545" t="s">
+        <v>21</v>
+      </c>
+      <c r="J545">
+        <v>3</v>
+      </c>
+      <c r="K545" t="s">
+        <v>20</v>
+      </c>
+      <c r="L545">
+        <v>5</v>
+      </c>
+      <c r="M545">
+        <v>0.79</v>
+      </c>
+      <c r="N545">
+        <v>74</v>
+      </c>
+      <c r="O545">
+        <v>30.11</v>
+      </c>
+      <c r="P545">
+        <v>10</v>
+      </c>
+      <c r="Q545">
+        <v>0.37</v>
+      </c>
+      <c r="R545">
+        <v>8.1</v>
+      </c>
+      <c r="S545">
+        <v>51</v>
+      </c>
+      <c r="T545">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="546" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>45864</v>
+      </c>
+      <c r="B546" t="s">
+        <v>9</v>
+      </c>
+      <c r="C546" t="s">
+        <v>11</v>
+      </c>
+      <c r="D546">
+        <v>73</v>
+      </c>
+      <c r="E546">
+        <v>89</v>
+      </c>
+      <c r="F546">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="G546">
+        <v>0.31</v>
+      </c>
+      <c r="H546">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I546" t="s">
+        <v>21</v>
+      </c>
+      <c r="J546">
+        <v>4</v>
+      </c>
+      <c r="K546" t="s">
+        <v>19</v>
+      </c>
+      <c r="L546">
+        <v>5</v>
+      </c>
+      <c r="M546">
+        <v>0.79</v>
+      </c>
+      <c r="N546">
+        <v>74</v>
+      </c>
+      <c r="O546">
+        <v>30.11</v>
+      </c>
+      <c r="P546">
+        <v>10</v>
+      </c>
+      <c r="Q546">
+        <v>0.37</v>
+      </c>
+      <c r="R546">
+        <v>8.1</v>
+      </c>
+      <c r="S546">
+        <v>51</v>
+      </c>
+      <c r="T546">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="547" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>45864</v>
+      </c>
+      <c r="B547" t="s">
+        <v>10</v>
+      </c>
+      <c r="C547" t="s">
+        <v>12</v>
+      </c>
+      <c r="D547">
+        <v>73</v>
+      </c>
+      <c r="E547">
+        <v>89</v>
+      </c>
+      <c r="F547">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="G547">
+        <v>0.31</v>
+      </c>
+      <c r="H547">
+        <v>1.7</v>
+      </c>
+      <c r="I547" t="s">
+        <v>21</v>
+      </c>
+      <c r="J547">
+        <v>1</v>
+      </c>
+      <c r="K547" t="s">
+        <v>19</v>
+      </c>
+      <c r="L547">
+        <v>5</v>
+      </c>
+      <c r="M547">
+        <v>0.79</v>
+      </c>
+      <c r="N547">
+        <v>74</v>
+      </c>
+      <c r="O547">
+        <v>30.11</v>
+      </c>
+      <c r="P547">
+        <v>10</v>
+      </c>
+      <c r="Q547">
+        <v>0.37</v>
+      </c>
+      <c r="R547">
+        <v>8.1</v>
+      </c>
+      <c r="S547">
+        <v>51</v>
+      </c>
+      <c r="T547">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B960C5F4-3423-43DD-AA0C-249B62B5C0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226E2E6E-EF38-4A19-AB0B-14D1A459E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U547"/>
+  <dimension ref="A1:U554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="T541" sqref="T541:T547"/>
+    <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
+      <selection activeCell="I555" sqref="I555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34685,7 +34685,7 @@
         <v>89</v>
       </c>
       <c r="F543">
-        <f t="shared" ref="F543:F547" si="13">ABS(D543-E543)</f>
+        <f t="shared" ref="F543:F554" si="13">ABS(D543-E543)</f>
         <v>16</v>
       </c>
       <c r="G543">
@@ -34980,6 +34980,447 @@
         <v>51</v>
       </c>
       <c r="T547">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="548" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>45865</v>
+      </c>
+      <c r="B548" t="s">
+        <v>8</v>
+      </c>
+      <c r="C548" t="s">
+        <v>11</v>
+      </c>
+      <c r="D548">
+        <v>70</v>
+      </c>
+      <c r="E548">
+        <v>82</v>
+      </c>
+      <c r="F548">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="G548">
+        <v>0.25</v>
+      </c>
+      <c r="H548">
+        <v>0.1</v>
+      </c>
+      <c r="I548" t="s">
+        <v>21</v>
+      </c>
+      <c r="J548">
+        <v>2</v>
+      </c>
+      <c r="K548" t="s">
+        <v>20</v>
+      </c>
+      <c r="L548">
+        <v>4</v>
+      </c>
+      <c r="M548">
+        <v>0.82</v>
+      </c>
+      <c r="N548">
+        <v>75</v>
+      </c>
+      <c r="O548">
+        <v>30.06</v>
+      </c>
+      <c r="P548">
+        <v>15</v>
+      </c>
+      <c r="Q548">
+        <v>0.74</v>
+      </c>
+      <c r="R548">
+        <v>6.2</v>
+      </c>
+      <c r="S548">
+        <v>44</v>
+      </c>
+      <c r="T548">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="549" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>45865</v>
+      </c>
+      <c r="B549" t="s">
+        <v>9</v>
+      </c>
+      <c r="C549" t="s">
+        <v>12</v>
+      </c>
+      <c r="D549">
+        <v>70</v>
+      </c>
+      <c r="E549">
+        <v>82</v>
+      </c>
+      <c r="F549">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="G549">
+        <v>0.25</v>
+      </c>
+      <c r="H549">
+        <v>0.05</v>
+      </c>
+      <c r="I549" t="s">
+        <v>21</v>
+      </c>
+      <c r="J549">
+        <v>3</v>
+      </c>
+      <c r="K549" t="s">
+        <v>20</v>
+      </c>
+      <c r="L549">
+        <v>4</v>
+      </c>
+      <c r="M549">
+        <v>0.82</v>
+      </c>
+      <c r="N549">
+        <v>75</v>
+      </c>
+      <c r="O549">
+        <v>30.06</v>
+      </c>
+      <c r="P549">
+        <v>15</v>
+      </c>
+      <c r="Q549">
+        <v>0.74</v>
+      </c>
+      <c r="R549">
+        <v>6.2</v>
+      </c>
+      <c r="S549">
+        <v>44</v>
+      </c>
+      <c r="T549">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="550" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>45865</v>
+      </c>
+      <c r="B550" t="s">
+        <v>9</v>
+      </c>
+      <c r="C550" t="s">
+        <v>13</v>
+      </c>
+      <c r="D550">
+        <v>70</v>
+      </c>
+      <c r="E550">
+        <v>82</v>
+      </c>
+      <c r="F550">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="G550">
+        <v>0.25</v>
+      </c>
+      <c r="H550">
+        <v>0.1</v>
+      </c>
+      <c r="I550" t="s">
+        <v>21</v>
+      </c>
+      <c r="J550">
+        <v>3</v>
+      </c>
+      <c r="K550" t="s">
+        <v>19</v>
+      </c>
+      <c r="L550">
+        <v>4</v>
+      </c>
+      <c r="M550">
+        <v>0.82</v>
+      </c>
+      <c r="N550">
+        <v>75</v>
+      </c>
+      <c r="O550">
+        <v>30.06</v>
+      </c>
+      <c r="P550">
+        <v>15</v>
+      </c>
+      <c r="Q550">
+        <v>0.74</v>
+      </c>
+      <c r="R550">
+        <v>6.2</v>
+      </c>
+      <c r="S550">
+        <v>44</v>
+      </c>
+      <c r="T550">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="551" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>45865</v>
+      </c>
+      <c r="B551" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551" t="s">
+        <v>12</v>
+      </c>
+      <c r="D551">
+        <v>70</v>
+      </c>
+      <c r="E551">
+        <v>82</v>
+      </c>
+      <c r="F551">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="G551">
+        <v>0.25</v>
+      </c>
+      <c r="H551">
+        <v>0.2</v>
+      </c>
+      <c r="I551" t="s">
+        <v>21</v>
+      </c>
+      <c r="J551">
+        <v>3</v>
+      </c>
+      <c r="K551" t="s">
+        <v>19</v>
+      </c>
+      <c r="L551">
+        <v>4</v>
+      </c>
+      <c r="M551">
+        <v>0.82</v>
+      </c>
+      <c r="N551">
+        <v>75</v>
+      </c>
+      <c r="O551">
+        <v>30.06</v>
+      </c>
+      <c r="P551">
+        <v>15</v>
+      </c>
+      <c r="Q551">
+        <v>0.74</v>
+      </c>
+      <c r="R551">
+        <v>6.2</v>
+      </c>
+      <c r="S551">
+        <v>44</v>
+      </c>
+      <c r="T551">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="552" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>45865</v>
+      </c>
+      <c r="B552" t="s">
+        <v>9</v>
+      </c>
+      <c r="C552" t="s">
+        <v>12</v>
+      </c>
+      <c r="D552">
+        <v>70</v>
+      </c>
+      <c r="E552">
+        <v>82</v>
+      </c>
+      <c r="F552">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="G552">
+        <v>0.25</v>
+      </c>
+      <c r="H552">
+        <v>0.2</v>
+      </c>
+      <c r="I552" t="s">
+        <v>21</v>
+      </c>
+      <c r="J552">
+        <v>3</v>
+      </c>
+      <c r="K552" t="s">
+        <v>19</v>
+      </c>
+      <c r="L552">
+        <v>4</v>
+      </c>
+      <c r="M552">
+        <v>0.82</v>
+      </c>
+      <c r="N552">
+        <v>75</v>
+      </c>
+      <c r="O552">
+        <v>30.06</v>
+      </c>
+      <c r="P552">
+        <v>15</v>
+      </c>
+      <c r="Q552">
+        <v>0.74</v>
+      </c>
+      <c r="R552">
+        <v>6.2</v>
+      </c>
+      <c r="S552">
+        <v>44</v>
+      </c>
+      <c r="T552">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="553" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>45865</v>
+      </c>
+      <c r="B553" t="s">
+        <v>9</v>
+      </c>
+      <c r="C553" t="s">
+        <v>11</v>
+      </c>
+      <c r="D553">
+        <v>70</v>
+      </c>
+      <c r="E553">
+        <v>82</v>
+      </c>
+      <c r="F553">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="G553">
+        <v>0.25</v>
+      </c>
+      <c r="H553">
+        <v>0.15</v>
+      </c>
+      <c r="I553" t="s">
+        <v>21</v>
+      </c>
+      <c r="J553">
+        <v>4</v>
+      </c>
+      <c r="K553" t="s">
+        <v>20</v>
+      </c>
+      <c r="L553">
+        <v>4</v>
+      </c>
+      <c r="M553">
+        <v>0.82</v>
+      </c>
+      <c r="N553">
+        <v>75</v>
+      </c>
+      <c r="O553">
+        <v>30.06</v>
+      </c>
+      <c r="P553">
+        <v>15</v>
+      </c>
+      <c r="Q553">
+        <v>0.74</v>
+      </c>
+      <c r="R553">
+        <v>6.2</v>
+      </c>
+      <c r="S553">
+        <v>44</v>
+      </c>
+      <c r="T553">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="554" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>45865</v>
+      </c>
+      <c r="B554" t="s">
+        <v>10</v>
+      </c>
+      <c r="C554" t="s">
+        <v>12</v>
+      </c>
+      <c r="D554">
+        <v>70</v>
+      </c>
+      <c r="E554">
+        <v>82</v>
+      </c>
+      <c r="F554">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="G554">
+        <v>0.25</v>
+      </c>
+      <c r="H554">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I554" t="s">
+        <v>21</v>
+      </c>
+      <c r="J554">
+        <v>1</v>
+      </c>
+      <c r="K554" t="s">
+        <v>20</v>
+      </c>
+      <c r="L554">
+        <v>4</v>
+      </c>
+      <c r="M554">
+        <v>0.82</v>
+      </c>
+      <c r="N554">
+        <v>75</v>
+      </c>
+      <c r="O554">
+        <v>30.06</v>
+      </c>
+      <c r="P554">
+        <v>15</v>
+      </c>
+      <c r="Q554">
+        <v>0.74</v>
+      </c>
+      <c r="R554">
+        <v>6.2</v>
+      </c>
+      <c r="S554">
+        <v>44</v>
+      </c>
+      <c r="T554">
         <v>26</v>
       </c>
     </row>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226E2E6E-EF38-4A19-AB0B-14D1A459E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56666E6-14E2-4780-98FC-AB5581C4707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U554"/>
+  <dimension ref="A1:U561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
-      <selection activeCell="I555" sqref="I555"/>
+    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
+      <selection activeCell="I562" sqref="I562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34685,7 +34685,7 @@
         <v>89</v>
       </c>
       <c r="F543">
-        <f t="shared" ref="F543:F554" si="13">ABS(D543-E543)</f>
+        <f t="shared" ref="F543:F561" si="13">ABS(D543-E543)</f>
         <v>16</v>
       </c>
       <c r="G543">
@@ -35422,6 +35422,447 @@
       </c>
       <c r="T554">
         <v>26</v>
+      </c>
+    </row>
+    <row r="555" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B555" t="s">
+        <v>8</v>
+      </c>
+      <c r="C555" t="s">
+        <v>11</v>
+      </c>
+      <c r="D555">
+        <v>72</v>
+      </c>
+      <c r="E555">
+        <v>89</v>
+      </c>
+      <c r="F555">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="G555">
+        <v>0</v>
+      </c>
+      <c r="H555">
+        <v>0.1</v>
+      </c>
+      <c r="I555" t="s">
+        <v>15</v>
+      </c>
+      <c r="J555">
+        <v>2</v>
+      </c>
+      <c r="K555" t="s">
+        <v>19</v>
+      </c>
+      <c r="L555">
+        <v>9</v>
+      </c>
+      <c r="M555">
+        <v>0.85</v>
+      </c>
+      <c r="N555">
+        <v>73</v>
+      </c>
+      <c r="O555">
+        <v>30.14</v>
+      </c>
+      <c r="P555">
+        <v>6</v>
+      </c>
+      <c r="Q555">
+        <v>0.35</v>
+      </c>
+      <c r="R555">
+        <v>4.7</v>
+      </c>
+      <c r="S555">
+        <v>33</v>
+      </c>
+      <c r="T555">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="556" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B556" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556" t="s">
+        <v>12</v>
+      </c>
+      <c r="D556">
+        <v>72</v>
+      </c>
+      <c r="E556">
+        <v>89</v>
+      </c>
+      <c r="F556">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="G556">
+        <v>0</v>
+      </c>
+      <c r="H556">
+        <v>0</v>
+      </c>
+      <c r="I556" t="s">
+        <v>15</v>
+      </c>
+      <c r="J556">
+        <v>3</v>
+      </c>
+      <c r="K556" t="s">
+        <v>20</v>
+      </c>
+      <c r="L556">
+        <v>9</v>
+      </c>
+      <c r="M556">
+        <v>0.85</v>
+      </c>
+      <c r="N556">
+        <v>73</v>
+      </c>
+      <c r="O556">
+        <v>30.14</v>
+      </c>
+      <c r="P556">
+        <v>6</v>
+      </c>
+      <c r="Q556">
+        <v>0.35</v>
+      </c>
+      <c r="R556">
+        <v>4.7</v>
+      </c>
+      <c r="S556">
+        <v>33</v>
+      </c>
+      <c r="T556">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="557" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B557" t="s">
+        <v>9</v>
+      </c>
+      <c r="C557" t="s">
+        <v>13</v>
+      </c>
+      <c r="D557">
+        <v>72</v>
+      </c>
+      <c r="E557">
+        <v>89</v>
+      </c>
+      <c r="F557">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+      <c r="H557">
+        <v>0</v>
+      </c>
+      <c r="I557" t="s">
+        <v>15</v>
+      </c>
+      <c r="J557">
+        <v>3</v>
+      </c>
+      <c r="K557" t="s">
+        <v>20</v>
+      </c>
+      <c r="L557">
+        <v>9</v>
+      </c>
+      <c r="M557">
+        <v>0.85</v>
+      </c>
+      <c r="N557">
+        <v>73</v>
+      </c>
+      <c r="O557">
+        <v>30.14</v>
+      </c>
+      <c r="P557">
+        <v>6</v>
+      </c>
+      <c r="Q557">
+        <v>0.35</v>
+      </c>
+      <c r="R557">
+        <v>4.7</v>
+      </c>
+      <c r="S557">
+        <v>33</v>
+      </c>
+      <c r="T557">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="558" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B558" t="s">
+        <v>9</v>
+      </c>
+      <c r="C558" t="s">
+        <v>12</v>
+      </c>
+      <c r="D558">
+        <v>72</v>
+      </c>
+      <c r="E558">
+        <v>89</v>
+      </c>
+      <c r="F558">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="G558">
+        <v>0</v>
+      </c>
+      <c r="H558">
+        <v>0.1</v>
+      </c>
+      <c r="I558" t="s">
+        <v>15</v>
+      </c>
+      <c r="J558">
+        <v>3</v>
+      </c>
+      <c r="K558" t="s">
+        <v>19</v>
+      </c>
+      <c r="L558">
+        <v>9</v>
+      </c>
+      <c r="M558">
+        <v>0.85</v>
+      </c>
+      <c r="N558">
+        <v>73</v>
+      </c>
+      <c r="O558">
+        <v>30.14</v>
+      </c>
+      <c r="P558">
+        <v>6</v>
+      </c>
+      <c r="Q558">
+        <v>0.35</v>
+      </c>
+      <c r="R558">
+        <v>4.7</v>
+      </c>
+      <c r="S558">
+        <v>33</v>
+      </c>
+      <c r="T558">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="559" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B559" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559" t="s">
+        <v>12</v>
+      </c>
+      <c r="D559">
+        <v>72</v>
+      </c>
+      <c r="E559">
+        <v>89</v>
+      </c>
+      <c r="F559">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="G559">
+        <v>0</v>
+      </c>
+      <c r="H559">
+        <v>0</v>
+      </c>
+      <c r="I559" t="s">
+        <v>15</v>
+      </c>
+      <c r="J559">
+        <v>3</v>
+      </c>
+      <c r="K559" t="s">
+        <v>19</v>
+      </c>
+      <c r="L559">
+        <v>9</v>
+      </c>
+      <c r="M559">
+        <v>0.85</v>
+      </c>
+      <c r="N559">
+        <v>73</v>
+      </c>
+      <c r="O559">
+        <v>30.14</v>
+      </c>
+      <c r="P559">
+        <v>6</v>
+      </c>
+      <c r="Q559">
+        <v>0.35</v>
+      </c>
+      <c r="R559">
+        <v>4.7</v>
+      </c>
+      <c r="S559">
+        <v>33</v>
+      </c>
+      <c r="T559">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="560" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B560" t="s">
+        <v>9</v>
+      </c>
+      <c r="C560" t="s">
+        <v>11</v>
+      </c>
+      <c r="D560">
+        <v>72</v>
+      </c>
+      <c r="E560">
+        <v>89</v>
+      </c>
+      <c r="F560">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+      <c r="H560">
+        <v>0.2</v>
+      </c>
+      <c r="I560" t="s">
+        <v>15</v>
+      </c>
+      <c r="J560">
+        <v>4</v>
+      </c>
+      <c r="K560" t="s">
+        <v>20</v>
+      </c>
+      <c r="L560">
+        <v>9</v>
+      </c>
+      <c r="M560">
+        <v>0.85</v>
+      </c>
+      <c r="N560">
+        <v>73</v>
+      </c>
+      <c r="O560">
+        <v>30.14</v>
+      </c>
+      <c r="P560">
+        <v>6</v>
+      </c>
+      <c r="Q560">
+        <v>0.35</v>
+      </c>
+      <c r="R560">
+        <v>4.7</v>
+      </c>
+      <c r="S560">
+        <v>33</v>
+      </c>
+      <c r="T560">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="561" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B561" t="s">
+        <v>10</v>
+      </c>
+      <c r="C561" t="s">
+        <v>12</v>
+      </c>
+      <c r="D561">
+        <v>72</v>
+      </c>
+      <c r="E561">
+        <v>89</v>
+      </c>
+      <c r="F561">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="G561">
+        <v>0</v>
+      </c>
+      <c r="H561">
+        <v>0.2</v>
+      </c>
+      <c r="I561" t="s">
+        <v>15</v>
+      </c>
+      <c r="J561">
+        <v>1</v>
+      </c>
+      <c r="K561" t="s">
+        <v>19</v>
+      </c>
+      <c r="L561">
+        <v>9</v>
+      </c>
+      <c r="M561">
+        <v>0.85</v>
+      </c>
+      <c r="N561">
+        <v>73</v>
+      </c>
+      <c r="O561">
+        <v>30.14</v>
+      </c>
+      <c r="P561">
+        <v>6</v>
+      </c>
+      <c r="Q561">
+        <v>0.35</v>
+      </c>
+      <c r="R561">
+        <v>4.7</v>
+      </c>
+      <c r="S561">
+        <v>33</v>
+      </c>
+      <c r="T561">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56666E6-14E2-4780-98FC-AB5581C4707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDA82B8-4514-40DF-BD0B-945CED3D450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U561"/>
+  <dimension ref="A1:U568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="I562" sqref="I562"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="Q562" sqref="Q562:Q568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12505,7 +12505,7 @@
         <v>5.57</v>
       </c>
       <c r="H191">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I191" t="s">
         <v>15</v>
@@ -12568,7 +12568,7 @@
         <v>5.57</v>
       </c>
       <c r="H192">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I192" t="s">
         <v>15</v>
@@ -12631,7 +12631,7 @@
         <v>5.57</v>
       </c>
       <c r="H193">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="I193" t="s">
         <v>15</v>
@@ -12694,7 +12694,7 @@
         <v>5.57</v>
       </c>
       <c r="H194">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="I194" t="s">
         <v>15</v>
@@ -12757,7 +12757,7 @@
         <v>5.57</v>
       </c>
       <c r="H195">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I195" t="s">
         <v>15</v>
@@ -12820,7 +12820,7 @@
         <v>5.57</v>
       </c>
       <c r="H196">
-        <v>0.1</v>
+        <v>9.5</v>
       </c>
       <c r="I196" t="s">
         <v>15</v>
@@ -34685,7 +34685,7 @@
         <v>89</v>
       </c>
       <c r="F543">
-        <f t="shared" ref="F543:F561" si="13">ABS(D543-E543)</f>
+        <f t="shared" ref="F543:F568" si="13">ABS(D543-E543)</f>
         <v>16</v>
       </c>
       <c r="G543">
@@ -35863,6 +35863,447 @@
       </c>
       <c r="T561">
         <v>20</v>
+      </c>
+    </row>
+    <row r="562" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B562" t="s">
+        <v>8</v>
+      </c>
+      <c r="C562" t="s">
+        <v>11</v>
+      </c>
+      <c r="D562">
+        <v>73</v>
+      </c>
+      <c r="E562">
+        <v>88</v>
+      </c>
+      <c r="F562">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="G562">
+        <v>5.57</v>
+      </c>
+      <c r="H562">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I562" t="s">
+        <v>21</v>
+      </c>
+      <c r="J562">
+        <v>2</v>
+      </c>
+      <c r="K562" t="s">
+        <v>19</v>
+      </c>
+      <c r="L562">
+        <v>6</v>
+      </c>
+      <c r="M562">
+        <v>0.66</v>
+      </c>
+      <c r="N562">
+        <v>75</v>
+      </c>
+      <c r="O562">
+        <v>30.05</v>
+      </c>
+      <c r="P562">
+        <v>4</v>
+      </c>
+      <c r="Q562">
+        <v>0.59</v>
+      </c>
+      <c r="R562">
+        <v>9.9</v>
+      </c>
+      <c r="S562">
+        <v>52</v>
+      </c>
+      <c r="T562">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="563" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B563" t="s">
+        <v>9</v>
+      </c>
+      <c r="C563" t="s">
+        <v>12</v>
+      </c>
+      <c r="D563">
+        <v>73</v>
+      </c>
+      <c r="E563">
+        <v>88</v>
+      </c>
+      <c r="F563">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="G563">
+        <v>5.57</v>
+      </c>
+      <c r="H563">
+        <v>1.2</v>
+      </c>
+      <c r="I563" t="s">
+        <v>21</v>
+      </c>
+      <c r="J563">
+        <v>3</v>
+      </c>
+      <c r="K563" t="s">
+        <v>19</v>
+      </c>
+      <c r="L563">
+        <v>6</v>
+      </c>
+      <c r="M563">
+        <v>0.66</v>
+      </c>
+      <c r="N563">
+        <v>75</v>
+      </c>
+      <c r="O563">
+        <v>30.05</v>
+      </c>
+      <c r="P563">
+        <v>4</v>
+      </c>
+      <c r="Q563">
+        <v>0.59</v>
+      </c>
+      <c r="R563">
+        <v>9.9</v>
+      </c>
+      <c r="S563">
+        <v>52</v>
+      </c>
+      <c r="T563">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B564" t="s">
+        <v>9</v>
+      </c>
+      <c r="C564" t="s">
+        <v>13</v>
+      </c>
+      <c r="D564">
+        <v>73</v>
+      </c>
+      <c r="E564">
+        <v>88</v>
+      </c>
+      <c r="F564">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="G564">
+        <v>5.57</v>
+      </c>
+      <c r="H564">
+        <v>1.2</v>
+      </c>
+      <c r="I564" t="s">
+        <v>21</v>
+      </c>
+      <c r="J564">
+        <v>3</v>
+      </c>
+      <c r="K564" t="s">
+        <v>18</v>
+      </c>
+      <c r="L564">
+        <v>6</v>
+      </c>
+      <c r="M564">
+        <v>0.66</v>
+      </c>
+      <c r="N564">
+        <v>75</v>
+      </c>
+      <c r="O564">
+        <v>30.05</v>
+      </c>
+      <c r="P564">
+        <v>4</v>
+      </c>
+      <c r="Q564">
+        <v>0.59</v>
+      </c>
+      <c r="R564">
+        <v>9.9</v>
+      </c>
+      <c r="S564">
+        <v>52</v>
+      </c>
+      <c r="T564">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="565" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B565" t="s">
+        <v>9</v>
+      </c>
+      <c r="C565" t="s">
+        <v>12</v>
+      </c>
+      <c r="D565">
+        <v>73</v>
+      </c>
+      <c r="E565">
+        <v>88</v>
+      </c>
+      <c r="F565">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="G565">
+        <v>5.57</v>
+      </c>
+      <c r="H565">
+        <v>1.5</v>
+      </c>
+      <c r="I565" t="s">
+        <v>21</v>
+      </c>
+      <c r="J565">
+        <v>3</v>
+      </c>
+      <c r="K565" t="s">
+        <v>18</v>
+      </c>
+      <c r="L565">
+        <v>6</v>
+      </c>
+      <c r="M565">
+        <v>0.66</v>
+      </c>
+      <c r="N565">
+        <v>75</v>
+      </c>
+      <c r="O565">
+        <v>30.05</v>
+      </c>
+      <c r="P565">
+        <v>4</v>
+      </c>
+      <c r="Q565">
+        <v>0.59</v>
+      </c>
+      <c r="R565">
+        <v>9.9</v>
+      </c>
+      <c r="S565">
+        <v>52</v>
+      </c>
+      <c r="T565">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="566" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B566" t="s">
+        <v>9</v>
+      </c>
+      <c r="C566" t="s">
+        <v>12</v>
+      </c>
+      <c r="D566">
+        <v>73</v>
+      </c>
+      <c r="E566">
+        <v>88</v>
+      </c>
+      <c r="F566">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="G566">
+        <v>5.57</v>
+      </c>
+      <c r="H566">
+        <v>1.6</v>
+      </c>
+      <c r="I566" t="s">
+        <v>21</v>
+      </c>
+      <c r="J566">
+        <v>3</v>
+      </c>
+      <c r="K566" t="s">
+        <v>19</v>
+      </c>
+      <c r="L566">
+        <v>6</v>
+      </c>
+      <c r="M566">
+        <v>0.66</v>
+      </c>
+      <c r="N566">
+        <v>75</v>
+      </c>
+      <c r="O566">
+        <v>30.05</v>
+      </c>
+      <c r="P566">
+        <v>4</v>
+      </c>
+      <c r="Q566">
+        <v>0.59</v>
+      </c>
+      <c r="R566">
+        <v>9.9</v>
+      </c>
+      <c r="S566">
+        <v>52</v>
+      </c>
+      <c r="T566">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="567" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B567" t="s">
+        <v>9</v>
+      </c>
+      <c r="C567" t="s">
+        <v>11</v>
+      </c>
+      <c r="D567">
+        <v>73</v>
+      </c>
+      <c r="E567">
+        <v>88</v>
+      </c>
+      <c r="F567">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="G567">
+        <v>5.57</v>
+      </c>
+      <c r="H567">
+        <v>4.5</v>
+      </c>
+      <c r="I567" t="s">
+        <v>21</v>
+      </c>
+      <c r="J567">
+        <v>4</v>
+      </c>
+      <c r="K567" t="s">
+        <v>18</v>
+      </c>
+      <c r="L567">
+        <v>6</v>
+      </c>
+      <c r="M567">
+        <v>0.66</v>
+      </c>
+      <c r="N567">
+        <v>75</v>
+      </c>
+      <c r="O567">
+        <v>30.05</v>
+      </c>
+      <c r="P567">
+        <v>4</v>
+      </c>
+      <c r="Q567">
+        <v>0.59</v>
+      </c>
+      <c r="R567">
+        <v>9.9</v>
+      </c>
+      <c r="S567">
+        <v>52</v>
+      </c>
+      <c r="T567">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="568" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B568" t="s">
+        <v>10</v>
+      </c>
+      <c r="C568" t="s">
+        <v>12</v>
+      </c>
+      <c r="D568">
+        <v>73</v>
+      </c>
+      <c r="E568">
+        <v>88</v>
+      </c>
+      <c r="F568">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="G568">
+        <v>5.57</v>
+      </c>
+      <c r="H568">
+        <v>11</v>
+      </c>
+      <c r="I568" t="s">
+        <v>21</v>
+      </c>
+      <c r="J568">
+        <v>1</v>
+      </c>
+      <c r="K568" t="s">
+        <v>20</v>
+      </c>
+      <c r="L568">
+        <v>6</v>
+      </c>
+      <c r="M568">
+        <v>0.66</v>
+      </c>
+      <c r="N568">
+        <v>75</v>
+      </c>
+      <c r="O568">
+        <v>30.05</v>
+      </c>
+      <c r="P568">
+        <v>4</v>
+      </c>
+      <c r="Q568">
+        <v>0.59</v>
+      </c>
+      <c r="R568">
+        <v>9.9</v>
+      </c>
+      <c r="S568">
+        <v>52</v>
+      </c>
+      <c r="T568">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDA82B8-4514-40DF-BD0B-945CED3D450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B225DFEB-93FE-4807-810A-201661AF9E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U568"/>
+  <dimension ref="A1:U582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="Q562" sqref="Q562:Q568"/>
+    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
+      <selection activeCell="Q569" sqref="Q569:Q575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34685,7 +34685,7 @@
         <v>89</v>
       </c>
       <c r="F543">
-        <f t="shared" ref="F543:F568" si="13">ABS(D543-E543)</f>
+        <f t="shared" ref="F543:F582" si="13">ABS(D543-E543)</f>
         <v>16</v>
       </c>
       <c r="G543">
@@ -36304,6 +36304,888 @@
       </c>
       <c r="T568">
         <v>22</v>
+      </c>
+    </row>
+    <row r="569" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B569" t="s">
+        <v>8</v>
+      </c>
+      <c r="C569" t="s">
+        <v>11</v>
+      </c>
+      <c r="D569">
+        <v>70</v>
+      </c>
+      <c r="E569">
+        <v>91</v>
+      </c>
+      <c r="F569">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="G569">
+        <v>0</v>
+      </c>
+      <c r="H569">
+        <v>0.1</v>
+      </c>
+      <c r="I569" t="s">
+        <v>21</v>
+      </c>
+      <c r="J569">
+        <v>2</v>
+      </c>
+      <c r="K569" t="s">
+        <v>20</v>
+      </c>
+      <c r="L569">
+        <v>7</v>
+      </c>
+      <c r="M569">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N569">
+        <v>72</v>
+      </c>
+      <c r="O569">
+        <v>30.03</v>
+      </c>
+      <c r="P569">
+        <v>8</v>
+      </c>
+      <c r="Q569">
+        <v>0.65</v>
+      </c>
+      <c r="R569">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S569">
+        <v>67</v>
+      </c>
+      <c r="T569">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="570" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B570" t="s">
+        <v>9</v>
+      </c>
+      <c r="C570" t="s">
+        <v>12</v>
+      </c>
+      <c r="D570">
+        <v>70</v>
+      </c>
+      <c r="E570">
+        <v>91</v>
+      </c>
+      <c r="F570">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+      <c r="H570">
+        <v>0</v>
+      </c>
+      <c r="I570" t="s">
+        <v>21</v>
+      </c>
+      <c r="J570">
+        <v>3</v>
+      </c>
+      <c r="K570" t="s">
+        <v>20</v>
+      </c>
+      <c r="L570">
+        <v>7</v>
+      </c>
+      <c r="M570">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N570">
+        <v>72</v>
+      </c>
+      <c r="O570">
+        <v>30.03</v>
+      </c>
+      <c r="P570">
+        <v>8</v>
+      </c>
+      <c r="Q570">
+        <v>0.65</v>
+      </c>
+      <c r="R570">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S570">
+        <v>67</v>
+      </c>
+      <c r="T570">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="571" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B571" t="s">
+        <v>9</v>
+      </c>
+      <c r="C571" t="s">
+        <v>13</v>
+      </c>
+      <c r="D571">
+        <v>70</v>
+      </c>
+      <c r="E571">
+        <v>91</v>
+      </c>
+      <c r="F571">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+      <c r="H571">
+        <v>0.2</v>
+      </c>
+      <c r="I571" t="s">
+        <v>21</v>
+      </c>
+      <c r="J571">
+        <v>3</v>
+      </c>
+      <c r="K571" t="s">
+        <v>19</v>
+      </c>
+      <c r="L571">
+        <v>7</v>
+      </c>
+      <c r="M571">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N571">
+        <v>72</v>
+      </c>
+      <c r="O571">
+        <v>30.03</v>
+      </c>
+      <c r="P571">
+        <v>8</v>
+      </c>
+      <c r="Q571">
+        <v>0.65</v>
+      </c>
+      <c r="R571">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S571">
+        <v>67</v>
+      </c>
+      <c r="T571">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="572" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B572" t="s">
+        <v>9</v>
+      </c>
+      <c r="C572" t="s">
+        <v>12</v>
+      </c>
+      <c r="D572">
+        <v>70</v>
+      </c>
+      <c r="E572">
+        <v>91</v>
+      </c>
+      <c r="F572">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+      <c r="H572">
+        <v>0.3</v>
+      </c>
+      <c r="I572" t="s">
+        <v>21</v>
+      </c>
+      <c r="J572">
+        <v>3</v>
+      </c>
+      <c r="K572" t="s">
+        <v>19</v>
+      </c>
+      <c r="L572">
+        <v>7</v>
+      </c>
+      <c r="M572">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N572">
+        <v>72</v>
+      </c>
+      <c r="O572">
+        <v>30.03</v>
+      </c>
+      <c r="P572">
+        <v>8</v>
+      </c>
+      <c r="Q572">
+        <v>0.65</v>
+      </c>
+      <c r="R572">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S572">
+        <v>67</v>
+      </c>
+      <c r="T572">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="573" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B573" t="s">
+        <v>9</v>
+      </c>
+      <c r="C573" t="s">
+        <v>12</v>
+      </c>
+      <c r="D573">
+        <v>70</v>
+      </c>
+      <c r="E573">
+        <v>91</v>
+      </c>
+      <c r="F573">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="G573">
+        <v>0</v>
+      </c>
+      <c r="H573">
+        <v>0.5</v>
+      </c>
+      <c r="I573" t="s">
+        <v>21</v>
+      </c>
+      <c r="J573">
+        <v>3</v>
+      </c>
+      <c r="K573" t="s">
+        <v>20</v>
+      </c>
+      <c r="L573">
+        <v>7</v>
+      </c>
+      <c r="M573">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N573">
+        <v>72</v>
+      </c>
+      <c r="O573">
+        <v>30.03</v>
+      </c>
+      <c r="P573">
+        <v>8</v>
+      </c>
+      <c r="Q573">
+        <v>0.65</v>
+      </c>
+      <c r="R573">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S573">
+        <v>67</v>
+      </c>
+      <c r="T573">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="574" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B574" t="s">
+        <v>9</v>
+      </c>
+      <c r="C574" t="s">
+        <v>11</v>
+      </c>
+      <c r="D574">
+        <v>70</v>
+      </c>
+      <c r="E574">
+        <v>91</v>
+      </c>
+      <c r="F574">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="G574">
+        <v>0</v>
+      </c>
+      <c r="H574">
+        <v>0</v>
+      </c>
+      <c r="I574" t="s">
+        <v>21</v>
+      </c>
+      <c r="J574">
+        <v>4</v>
+      </c>
+      <c r="K574" t="s">
+        <v>19</v>
+      </c>
+      <c r="L574">
+        <v>7</v>
+      </c>
+      <c r="M574">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N574">
+        <v>72</v>
+      </c>
+      <c r="O574">
+        <v>30.03</v>
+      </c>
+      <c r="P574">
+        <v>8</v>
+      </c>
+      <c r="Q574">
+        <v>0.65</v>
+      </c>
+      <c r="R574">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S574">
+        <v>67</v>
+      </c>
+      <c r="T574">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="575" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B575" t="s">
+        <v>10</v>
+      </c>
+      <c r="C575" t="s">
+        <v>12</v>
+      </c>
+      <c r="D575">
+        <v>70</v>
+      </c>
+      <c r="E575">
+        <v>91</v>
+      </c>
+      <c r="F575">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="G575">
+        <v>0</v>
+      </c>
+      <c r="H575">
+        <v>1</v>
+      </c>
+      <c r="I575" t="s">
+        <v>21</v>
+      </c>
+      <c r="J575">
+        <v>1</v>
+      </c>
+      <c r="K575" t="s">
+        <v>20</v>
+      </c>
+      <c r="L575">
+        <v>7</v>
+      </c>
+      <c r="M575">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N575">
+        <v>72</v>
+      </c>
+      <c r="O575">
+        <v>30.03</v>
+      </c>
+      <c r="P575">
+        <v>8</v>
+      </c>
+      <c r="Q575">
+        <v>0.65</v>
+      </c>
+      <c r="R575">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S575">
+        <v>67</v>
+      </c>
+      <c r="T575">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="576" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B576" t="s">
+        <v>8</v>
+      </c>
+      <c r="C576" t="s">
+        <v>11</v>
+      </c>
+      <c r="D576">
+        <v>62</v>
+      </c>
+      <c r="E576">
+        <v>80</v>
+      </c>
+      <c r="F576">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G576">
+        <v>0</v>
+      </c>
+      <c r="H576">
+        <v>0</v>
+      </c>
+      <c r="I576" t="s">
+        <v>21</v>
+      </c>
+      <c r="J576">
+        <v>2</v>
+      </c>
+      <c r="K576" t="s">
+        <v>19</v>
+      </c>
+      <c r="L576">
+        <v>3</v>
+      </c>
+      <c r="M576">
+        <v>0.82</v>
+      </c>
+      <c r="N576">
+        <v>66</v>
+      </c>
+      <c r="O576">
+        <v>30.01</v>
+      </c>
+      <c r="P576">
+        <v>16</v>
+      </c>
+      <c r="Q576">
+        <v>0.89</v>
+      </c>
+      <c r="R576">
+        <v>8.1</v>
+      </c>
+      <c r="S576">
+        <v>54</v>
+      </c>
+      <c r="T576">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B577" t="s">
+        <v>9</v>
+      </c>
+      <c r="C577" t="s">
+        <v>12</v>
+      </c>
+      <c r="D577">
+        <v>62</v>
+      </c>
+      <c r="E577">
+        <v>80</v>
+      </c>
+      <c r="F577">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G577">
+        <v>0</v>
+      </c>
+      <c r="H577">
+        <v>0.2</v>
+      </c>
+      <c r="I577" t="s">
+        <v>21</v>
+      </c>
+      <c r="J577">
+        <v>3</v>
+      </c>
+      <c r="K577" t="s">
+        <v>18</v>
+      </c>
+      <c r="L577">
+        <v>3</v>
+      </c>
+      <c r="M577">
+        <v>0.82</v>
+      </c>
+      <c r="N577">
+        <v>66</v>
+      </c>
+      <c r="O577">
+        <v>30.01</v>
+      </c>
+      <c r="P577">
+        <v>16</v>
+      </c>
+      <c r="Q577">
+        <v>0.89</v>
+      </c>
+      <c r="R577">
+        <v>8.1</v>
+      </c>
+      <c r="S577">
+        <v>54</v>
+      </c>
+      <c r="T577">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="578" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B578" t="s">
+        <v>9</v>
+      </c>
+      <c r="C578" t="s">
+        <v>13</v>
+      </c>
+      <c r="D578">
+        <v>62</v>
+      </c>
+      <c r="E578">
+        <v>80</v>
+      </c>
+      <c r="F578">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578">
+        <v>0.4</v>
+      </c>
+      <c r="I578" t="s">
+        <v>21</v>
+      </c>
+      <c r="J578">
+        <v>3</v>
+      </c>
+      <c r="K578" t="s">
+        <v>18</v>
+      </c>
+      <c r="L578">
+        <v>3</v>
+      </c>
+      <c r="M578">
+        <v>0.82</v>
+      </c>
+      <c r="N578">
+        <v>66</v>
+      </c>
+      <c r="O578">
+        <v>30.01</v>
+      </c>
+      <c r="P578">
+        <v>16</v>
+      </c>
+      <c r="Q578">
+        <v>0.89</v>
+      </c>
+      <c r="R578">
+        <v>8.1</v>
+      </c>
+      <c r="S578">
+        <v>54</v>
+      </c>
+      <c r="T578">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B579" t="s">
+        <v>9</v>
+      </c>
+      <c r="C579" t="s">
+        <v>12</v>
+      </c>
+      <c r="D579">
+        <v>62</v>
+      </c>
+      <c r="E579">
+        <v>80</v>
+      </c>
+      <c r="F579">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G579">
+        <v>0</v>
+      </c>
+      <c r="H579">
+        <v>0.1</v>
+      </c>
+      <c r="I579" t="s">
+        <v>21</v>
+      </c>
+      <c r="J579">
+        <v>3</v>
+      </c>
+      <c r="K579" t="s">
+        <v>20</v>
+      </c>
+      <c r="L579">
+        <v>3</v>
+      </c>
+      <c r="M579">
+        <v>0.82</v>
+      </c>
+      <c r="N579">
+        <v>66</v>
+      </c>
+      <c r="O579">
+        <v>30.01</v>
+      </c>
+      <c r="P579">
+        <v>16</v>
+      </c>
+      <c r="Q579">
+        <v>0.89</v>
+      </c>
+      <c r="R579">
+        <v>8.1</v>
+      </c>
+      <c r="S579">
+        <v>54</v>
+      </c>
+      <c r="T579">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B580" t="s">
+        <v>9</v>
+      </c>
+      <c r="C580" t="s">
+        <v>12</v>
+      </c>
+      <c r="D580">
+        <v>62</v>
+      </c>
+      <c r="E580">
+        <v>80</v>
+      </c>
+      <c r="F580">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G580">
+        <v>0</v>
+      </c>
+      <c r="H580">
+        <v>0.5</v>
+      </c>
+      <c r="I580" t="s">
+        <v>21</v>
+      </c>
+      <c r="J580">
+        <v>3</v>
+      </c>
+      <c r="K580" t="s">
+        <v>19</v>
+      </c>
+      <c r="L580">
+        <v>3</v>
+      </c>
+      <c r="M580">
+        <v>0.82</v>
+      </c>
+      <c r="N580">
+        <v>66</v>
+      </c>
+      <c r="O580">
+        <v>30.01</v>
+      </c>
+      <c r="P580">
+        <v>16</v>
+      </c>
+      <c r="Q580">
+        <v>0.89</v>
+      </c>
+      <c r="R580">
+        <v>8.1</v>
+      </c>
+      <c r="S580">
+        <v>54</v>
+      </c>
+      <c r="T580">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B581" t="s">
+        <v>9</v>
+      </c>
+      <c r="C581" t="s">
+        <v>11</v>
+      </c>
+      <c r="D581">
+        <v>62</v>
+      </c>
+      <c r="E581">
+        <v>80</v>
+      </c>
+      <c r="F581">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G581">
+        <v>0</v>
+      </c>
+      <c r="H581">
+        <v>0</v>
+      </c>
+      <c r="I581" t="s">
+        <v>21</v>
+      </c>
+      <c r="J581">
+        <v>4</v>
+      </c>
+      <c r="K581" t="s">
+        <v>19</v>
+      </c>
+      <c r="L581">
+        <v>3</v>
+      </c>
+      <c r="M581">
+        <v>0.82</v>
+      </c>
+      <c r="N581">
+        <v>66</v>
+      </c>
+      <c r="O581">
+        <v>30.01</v>
+      </c>
+      <c r="P581">
+        <v>16</v>
+      </c>
+      <c r="Q581">
+        <v>0.89</v>
+      </c>
+      <c r="R581">
+        <v>8.1</v>
+      </c>
+      <c r="S581">
+        <v>54</v>
+      </c>
+      <c r="T581">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B582" t="s">
+        <v>10</v>
+      </c>
+      <c r="C582" t="s">
+        <v>12</v>
+      </c>
+      <c r="D582">
+        <v>62</v>
+      </c>
+      <c r="E582">
+        <v>80</v>
+      </c>
+      <c r="F582">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G582">
+        <v>0</v>
+      </c>
+      <c r="H582">
+        <v>0.5</v>
+      </c>
+      <c r="I582" t="s">
+        <v>21</v>
+      </c>
+      <c r="J582">
+        <v>1</v>
+      </c>
+      <c r="K582" t="s">
+        <v>18</v>
+      </c>
+      <c r="L582">
+        <v>3</v>
+      </c>
+      <c r="M582">
+        <v>0.82</v>
+      </c>
+      <c r="N582">
+        <v>66</v>
+      </c>
+      <c r="O582">
+        <v>30.01</v>
+      </c>
+      <c r="P582">
+        <v>16</v>
+      </c>
+      <c r="Q582">
+        <v>0.89</v>
+      </c>
+      <c r="R582">
+        <v>8.1</v>
+      </c>
+      <c r="S582">
+        <v>54</v>
+      </c>
+      <c r="T582">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B225DFEB-93FE-4807-810A-201661AF9E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E133E-EA89-4938-918A-0BDC8D8A5488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U582"/>
+  <dimension ref="A1:U589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
-      <selection activeCell="Q569" sqref="Q569:Q575"/>
+    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
+      <selection activeCell="R583" sqref="R583:R589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34685,7 +34685,7 @@
         <v>89</v>
       </c>
       <c r="F543">
-        <f t="shared" ref="F543:F582" si="13">ABS(D543-E543)</f>
+        <f t="shared" ref="F543:F589" si="13">ABS(D543-E543)</f>
         <v>16</v>
       </c>
       <c r="G543">
@@ -37186,6 +37186,447 @@
       </c>
       <c r="T582">
         <v>7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B583" t="s">
+        <v>8</v>
+      </c>
+      <c r="C583" t="s">
+        <v>11</v>
+      </c>
+      <c r="D583">
+        <v>58</v>
+      </c>
+      <c r="E583">
+        <v>78</v>
+      </c>
+      <c r="F583">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G583">
+        <v>0</v>
+      </c>
+      <c r="H583">
+        <v>0</v>
+      </c>
+      <c r="I583" t="s">
+        <v>21</v>
+      </c>
+      <c r="J583">
+        <v>2</v>
+      </c>
+      <c r="K583" t="s">
+        <v>20</v>
+      </c>
+      <c r="L583">
+        <v>7</v>
+      </c>
+      <c r="M583">
+        <v>0.61</v>
+      </c>
+      <c r="N583">
+        <v>57</v>
+      </c>
+      <c r="O583">
+        <v>30.22</v>
+      </c>
+      <c r="P583">
+        <v>12</v>
+      </c>
+      <c r="Q583">
+        <v>0.26</v>
+      </c>
+      <c r="R583">
+        <v>9.9</v>
+      </c>
+      <c r="S583">
+        <v>69</v>
+      </c>
+      <c r="T583">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B584" t="s">
+        <v>9</v>
+      </c>
+      <c r="C584" t="s">
+        <v>12</v>
+      </c>
+      <c r="D584">
+        <v>58</v>
+      </c>
+      <c r="E584">
+        <v>78</v>
+      </c>
+      <c r="F584">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G584">
+        <v>0</v>
+      </c>
+      <c r="H584">
+        <v>0</v>
+      </c>
+      <c r="I584" t="s">
+        <v>21</v>
+      </c>
+      <c r="J584">
+        <v>3</v>
+      </c>
+      <c r="K584" t="s">
+        <v>20</v>
+      </c>
+      <c r="L584">
+        <v>7</v>
+      </c>
+      <c r="M584">
+        <v>0.61</v>
+      </c>
+      <c r="N584">
+        <v>57</v>
+      </c>
+      <c r="O584">
+        <v>30.22</v>
+      </c>
+      <c r="P584">
+        <v>12</v>
+      </c>
+      <c r="Q584">
+        <v>0.26</v>
+      </c>
+      <c r="R584">
+        <v>9.9</v>
+      </c>
+      <c r="S584">
+        <v>69</v>
+      </c>
+      <c r="T584">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B585" t="s">
+        <v>9</v>
+      </c>
+      <c r="C585" t="s">
+        <v>13</v>
+      </c>
+      <c r="D585">
+        <v>58</v>
+      </c>
+      <c r="E585">
+        <v>78</v>
+      </c>
+      <c r="F585">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G585">
+        <v>0</v>
+      </c>
+      <c r="H585">
+        <v>0.1</v>
+      </c>
+      <c r="I585" t="s">
+        <v>21</v>
+      </c>
+      <c r="J585">
+        <v>3</v>
+      </c>
+      <c r="K585" t="s">
+        <v>19</v>
+      </c>
+      <c r="L585">
+        <v>7</v>
+      </c>
+      <c r="M585">
+        <v>0.61</v>
+      </c>
+      <c r="N585">
+        <v>57</v>
+      </c>
+      <c r="O585">
+        <v>30.22</v>
+      </c>
+      <c r="P585">
+        <v>12</v>
+      </c>
+      <c r="Q585">
+        <v>0.26</v>
+      </c>
+      <c r="R585">
+        <v>9.9</v>
+      </c>
+      <c r="S585">
+        <v>69</v>
+      </c>
+      <c r="T585">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B586" t="s">
+        <v>9</v>
+      </c>
+      <c r="C586" t="s">
+        <v>12</v>
+      </c>
+      <c r="D586">
+        <v>58</v>
+      </c>
+      <c r="E586">
+        <v>78</v>
+      </c>
+      <c r="F586">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G586">
+        <v>0</v>
+      </c>
+      <c r="H586">
+        <v>0.25</v>
+      </c>
+      <c r="I586" t="s">
+        <v>21</v>
+      </c>
+      <c r="J586">
+        <v>3</v>
+      </c>
+      <c r="K586" t="s">
+        <v>19</v>
+      </c>
+      <c r="L586">
+        <v>7</v>
+      </c>
+      <c r="M586">
+        <v>0.61</v>
+      </c>
+      <c r="N586">
+        <v>57</v>
+      </c>
+      <c r="O586">
+        <v>30.22</v>
+      </c>
+      <c r="P586">
+        <v>12</v>
+      </c>
+      <c r="Q586">
+        <v>0.26</v>
+      </c>
+      <c r="R586">
+        <v>9.9</v>
+      </c>
+      <c r="S586">
+        <v>69</v>
+      </c>
+      <c r="T586">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B587" t="s">
+        <v>9</v>
+      </c>
+      <c r="C587" t="s">
+        <v>12</v>
+      </c>
+      <c r="D587">
+        <v>58</v>
+      </c>
+      <c r="E587">
+        <v>78</v>
+      </c>
+      <c r="F587">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G587">
+        <v>0</v>
+      </c>
+      <c r="H587">
+        <v>0.3</v>
+      </c>
+      <c r="I587" t="s">
+        <v>21</v>
+      </c>
+      <c r="J587">
+        <v>3</v>
+      </c>
+      <c r="K587" t="s">
+        <v>20</v>
+      </c>
+      <c r="L587">
+        <v>7</v>
+      </c>
+      <c r="M587">
+        <v>0.61</v>
+      </c>
+      <c r="N587">
+        <v>57</v>
+      </c>
+      <c r="O587">
+        <v>30.22</v>
+      </c>
+      <c r="P587">
+        <v>12</v>
+      </c>
+      <c r="Q587">
+        <v>0.26</v>
+      </c>
+      <c r="R587">
+        <v>9.9</v>
+      </c>
+      <c r="S587">
+        <v>69</v>
+      </c>
+      <c r="T587">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A588" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B588" t="s">
+        <v>9</v>
+      </c>
+      <c r="C588" t="s">
+        <v>11</v>
+      </c>
+      <c r="D588">
+        <v>58</v>
+      </c>
+      <c r="E588">
+        <v>78</v>
+      </c>
+      <c r="F588">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G588">
+        <v>0</v>
+      </c>
+      <c r="H588">
+        <v>0.5</v>
+      </c>
+      <c r="I588" t="s">
+        <v>21</v>
+      </c>
+      <c r="J588">
+        <v>4</v>
+      </c>
+      <c r="K588" t="s">
+        <v>19</v>
+      </c>
+      <c r="L588">
+        <v>7</v>
+      </c>
+      <c r="M588">
+        <v>0.61</v>
+      </c>
+      <c r="N588">
+        <v>57</v>
+      </c>
+      <c r="O588">
+        <v>30.22</v>
+      </c>
+      <c r="P588">
+        <v>12</v>
+      </c>
+      <c r="Q588">
+        <v>0.26</v>
+      </c>
+      <c r="R588">
+        <v>9.9</v>
+      </c>
+      <c r="S588">
+        <v>69</v>
+      </c>
+      <c r="T588">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A589" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B589" t="s">
+        <v>10</v>
+      </c>
+      <c r="C589" t="s">
+        <v>12</v>
+      </c>
+      <c r="D589">
+        <v>58</v>
+      </c>
+      <c r="E589">
+        <v>78</v>
+      </c>
+      <c r="F589">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
+      </c>
+      <c r="H589">
+        <v>1.5</v>
+      </c>
+      <c r="I589" t="s">
+        <v>21</v>
+      </c>
+      <c r="J589">
+        <v>1</v>
+      </c>
+      <c r="K589" t="s">
+        <v>19</v>
+      </c>
+      <c r="L589">
+        <v>7</v>
+      </c>
+      <c r="M589">
+        <v>0.61</v>
+      </c>
+      <c r="N589">
+        <v>57</v>
+      </c>
+      <c r="O589">
+        <v>30.22</v>
+      </c>
+      <c r="P589">
+        <v>12</v>
+      </c>
+      <c r="Q589">
+        <v>0.26</v>
+      </c>
+      <c r="R589">
+        <v>9.9</v>
+      </c>
+      <c r="S589">
+        <v>69</v>
+      </c>
+      <c r="T589">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E133E-EA89-4938-918A-0BDC8D8A5488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C64B07-7967-4B4E-92A5-78A1475D6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U589"/>
+  <dimension ref="A1:U596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="R583" sqref="R583:R589"/>
+    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
+      <selection activeCell="T590" sqref="T590:T596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34685,7 +34685,7 @@
         <v>89</v>
       </c>
       <c r="F543">
-        <f t="shared" ref="F543:F589" si="13">ABS(D543-E543)</f>
+        <f t="shared" ref="F543:F596" si="13">ABS(D543-E543)</f>
         <v>16</v>
       </c>
       <c r="G543">
@@ -37627,6 +37627,447 @@
       </c>
       <c r="T589">
         <v>5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A590" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B590" t="s">
+        <v>8</v>
+      </c>
+      <c r="C590" t="s">
+        <v>11</v>
+      </c>
+      <c r="D590">
+        <v>56</v>
+      </c>
+      <c r="E590">
+        <v>78</v>
+      </c>
+      <c r="F590">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
+      </c>
+      <c r="H590">
+        <v>0</v>
+      </c>
+      <c r="I590" t="s">
+        <v>21</v>
+      </c>
+      <c r="J590">
+        <v>2</v>
+      </c>
+      <c r="K590" t="s">
+        <v>20</v>
+      </c>
+      <c r="L590">
+        <v>8</v>
+      </c>
+      <c r="M590">
+        <v>0.42</v>
+      </c>
+      <c r="N590">
+        <v>51</v>
+      </c>
+      <c r="O590">
+        <v>30.29</v>
+      </c>
+      <c r="P590">
+        <v>9</v>
+      </c>
+      <c r="Q590">
+        <v>0.35</v>
+      </c>
+      <c r="R590">
+        <v>9.9</v>
+      </c>
+      <c r="S590">
+        <v>46</v>
+      </c>
+      <c r="T590">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A591" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B591" t="s">
+        <v>9</v>
+      </c>
+      <c r="C591" t="s">
+        <v>12</v>
+      </c>
+      <c r="D591">
+        <v>56</v>
+      </c>
+      <c r="E591">
+        <v>78</v>
+      </c>
+      <c r="F591">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="G591">
+        <v>0</v>
+      </c>
+      <c r="H591">
+        <v>0</v>
+      </c>
+      <c r="I591" t="s">
+        <v>21</v>
+      </c>
+      <c r="J591">
+        <v>3</v>
+      </c>
+      <c r="K591" t="s">
+        <v>20</v>
+      </c>
+      <c r="L591">
+        <v>8</v>
+      </c>
+      <c r="M591">
+        <v>0.42</v>
+      </c>
+      <c r="N591">
+        <v>51</v>
+      </c>
+      <c r="O591">
+        <v>30.29</v>
+      </c>
+      <c r="P591">
+        <v>9</v>
+      </c>
+      <c r="Q591">
+        <v>0.35</v>
+      </c>
+      <c r="R591">
+        <v>9.9</v>
+      </c>
+      <c r="S591">
+        <v>46</v>
+      </c>
+      <c r="T591">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="592" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B592" t="s">
+        <v>9</v>
+      </c>
+      <c r="C592" t="s">
+        <v>13</v>
+      </c>
+      <c r="D592">
+        <v>56</v>
+      </c>
+      <c r="E592">
+        <v>78</v>
+      </c>
+      <c r="F592">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="G592">
+        <v>0</v>
+      </c>
+      <c r="H592">
+        <v>0.1</v>
+      </c>
+      <c r="I592" t="s">
+        <v>21</v>
+      </c>
+      <c r="J592">
+        <v>3</v>
+      </c>
+      <c r="K592" t="s">
+        <v>19</v>
+      </c>
+      <c r="L592">
+        <v>8</v>
+      </c>
+      <c r="M592">
+        <v>0.42</v>
+      </c>
+      <c r="N592">
+        <v>51</v>
+      </c>
+      <c r="O592">
+        <v>30.29</v>
+      </c>
+      <c r="P592">
+        <v>9</v>
+      </c>
+      <c r="Q592">
+        <v>0.35</v>
+      </c>
+      <c r="R592">
+        <v>9.9</v>
+      </c>
+      <c r="S592">
+        <v>46</v>
+      </c>
+      <c r="T592">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="593" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B593" t="s">
+        <v>9</v>
+      </c>
+      <c r="C593" t="s">
+        <v>12</v>
+      </c>
+      <c r="D593">
+        <v>56</v>
+      </c>
+      <c r="E593">
+        <v>78</v>
+      </c>
+      <c r="F593">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="G593">
+        <v>0</v>
+      </c>
+      <c r="H593">
+        <v>0.15</v>
+      </c>
+      <c r="I593" t="s">
+        <v>21</v>
+      </c>
+      <c r="J593">
+        <v>3</v>
+      </c>
+      <c r="K593" t="s">
+        <v>19</v>
+      </c>
+      <c r="L593">
+        <v>8</v>
+      </c>
+      <c r="M593">
+        <v>0.42</v>
+      </c>
+      <c r="N593">
+        <v>51</v>
+      </c>
+      <c r="O593">
+        <v>30.29</v>
+      </c>
+      <c r="P593">
+        <v>9</v>
+      </c>
+      <c r="Q593">
+        <v>0.35</v>
+      </c>
+      <c r="R593">
+        <v>9.9</v>
+      </c>
+      <c r="S593">
+        <v>46</v>
+      </c>
+      <c r="T593">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="594" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B594" t="s">
+        <v>9</v>
+      </c>
+      <c r="C594" t="s">
+        <v>12</v>
+      </c>
+      <c r="D594">
+        <v>56</v>
+      </c>
+      <c r="E594">
+        <v>78</v>
+      </c>
+      <c r="F594">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="G594">
+        <v>0</v>
+      </c>
+      <c r="H594">
+        <v>0.1</v>
+      </c>
+      <c r="I594" t="s">
+        <v>21</v>
+      </c>
+      <c r="J594">
+        <v>3</v>
+      </c>
+      <c r="K594" t="s">
+        <v>20</v>
+      </c>
+      <c r="L594">
+        <v>8</v>
+      </c>
+      <c r="M594">
+        <v>0.42</v>
+      </c>
+      <c r="N594">
+        <v>51</v>
+      </c>
+      <c r="O594">
+        <v>30.29</v>
+      </c>
+      <c r="P594">
+        <v>9</v>
+      </c>
+      <c r="Q594">
+        <v>0.35</v>
+      </c>
+      <c r="R594">
+        <v>9.9</v>
+      </c>
+      <c r="S594">
+        <v>46</v>
+      </c>
+      <c r="T594">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="595" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B595" t="s">
+        <v>9</v>
+      </c>
+      <c r="C595" t="s">
+        <v>11</v>
+      </c>
+      <c r="D595">
+        <v>56</v>
+      </c>
+      <c r="E595">
+        <v>78</v>
+      </c>
+      <c r="F595">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="G595">
+        <v>0</v>
+      </c>
+      <c r="H595">
+        <v>0.25</v>
+      </c>
+      <c r="I595" t="s">
+        <v>21</v>
+      </c>
+      <c r="J595">
+        <v>4</v>
+      </c>
+      <c r="K595" t="s">
+        <v>19</v>
+      </c>
+      <c r="L595">
+        <v>8</v>
+      </c>
+      <c r="M595">
+        <v>0.42</v>
+      </c>
+      <c r="N595">
+        <v>51</v>
+      </c>
+      <c r="O595">
+        <v>30.29</v>
+      </c>
+      <c r="P595">
+        <v>9</v>
+      </c>
+      <c r="Q595">
+        <v>0.35</v>
+      </c>
+      <c r="R595">
+        <v>9.9</v>
+      </c>
+      <c r="S595">
+        <v>46</v>
+      </c>
+      <c r="T595">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B596" t="s">
+        <v>10</v>
+      </c>
+      <c r="C596" t="s">
+        <v>12</v>
+      </c>
+      <c r="D596">
+        <v>56</v>
+      </c>
+      <c r="E596">
+        <v>78</v>
+      </c>
+      <c r="F596">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="G596">
+        <v>0</v>
+      </c>
+      <c r="H596">
+        <v>0.5</v>
+      </c>
+      <c r="I596" t="s">
+        <v>21</v>
+      </c>
+      <c r="J596">
+        <v>1</v>
+      </c>
+      <c r="K596" t="s">
+        <v>19</v>
+      </c>
+      <c r="L596">
+        <v>8</v>
+      </c>
+      <c r="M596">
+        <v>0.42</v>
+      </c>
+      <c r="N596">
+        <v>51</v>
+      </c>
+      <c r="O596">
+        <v>30.29</v>
+      </c>
+      <c r="P596">
+        <v>9</v>
+      </c>
+      <c r="Q596">
+        <v>0.35</v>
+      </c>
+      <c r="R596">
+        <v>9.9</v>
+      </c>
+      <c r="S596">
+        <v>46</v>
+      </c>
+      <c r="T596">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C64B07-7967-4B4E-92A5-78A1475D6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B42697-B653-46F4-978B-A2273DB18B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U596"/>
+  <dimension ref="A1:U610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="T590" sqref="T590:T596"/>
+    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
+      <selection activeCell="P604" sqref="P604:P610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34685,7 +34685,7 @@
         <v>89</v>
       </c>
       <c r="F543">
-        <f t="shared" ref="F543:F596" si="13">ABS(D543-E543)</f>
+        <f t="shared" ref="F543:F606" si="13">ABS(D543-E543)</f>
         <v>16</v>
       </c>
       <c r="G543">
@@ -38068,6 +38068,888 @@
       </c>
       <c r="T596">
         <v>7</v>
+      </c>
+    </row>
+    <row r="597" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B597" t="s">
+        <v>8</v>
+      </c>
+      <c r="C597" t="s">
+        <v>11</v>
+      </c>
+      <c r="D597">
+        <v>78</v>
+      </c>
+      <c r="E597">
+        <v>91</v>
+      </c>
+      <c r="F597">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="G597">
+        <v>0</v>
+      </c>
+      <c r="H597">
+        <v>0</v>
+      </c>
+      <c r="I597" t="s">
+        <v>21</v>
+      </c>
+      <c r="J597">
+        <v>2</v>
+      </c>
+      <c r="K597" t="s">
+        <v>20</v>
+      </c>
+      <c r="L597">
+        <v>9</v>
+      </c>
+      <c r="M597">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N597">
+        <v>79</v>
+      </c>
+      <c r="O597">
+        <v>30.05</v>
+      </c>
+      <c r="P597">
+        <v>12</v>
+      </c>
+      <c r="Q597">
+        <v>0.47</v>
+      </c>
+      <c r="R597">
+        <v>8.1</v>
+      </c>
+      <c r="S597">
+        <v>45</v>
+      </c>
+      <c r="T597">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B598" t="s">
+        <v>9</v>
+      </c>
+      <c r="C598" t="s">
+        <v>12</v>
+      </c>
+      <c r="D598">
+        <v>78</v>
+      </c>
+      <c r="E598">
+        <v>91</v>
+      </c>
+      <c r="F598">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="G598">
+        <v>0</v>
+      </c>
+      <c r="H598">
+        <v>0</v>
+      </c>
+      <c r="I598" t="s">
+        <v>21</v>
+      </c>
+      <c r="J598">
+        <v>3</v>
+      </c>
+      <c r="K598" t="s">
+        <v>20</v>
+      </c>
+      <c r="L598">
+        <v>9</v>
+      </c>
+      <c r="M598">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N598">
+        <v>79</v>
+      </c>
+      <c r="O598">
+        <v>30.05</v>
+      </c>
+      <c r="P598">
+        <v>12</v>
+      </c>
+      <c r="Q598">
+        <v>0.47</v>
+      </c>
+      <c r="R598">
+        <v>8.1</v>
+      </c>
+      <c r="S598">
+        <v>45</v>
+      </c>
+      <c r="T598">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B599" t="s">
+        <v>9</v>
+      </c>
+      <c r="C599" t="s">
+        <v>13</v>
+      </c>
+      <c r="D599">
+        <v>78</v>
+      </c>
+      <c r="E599">
+        <v>91</v>
+      </c>
+      <c r="F599">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="G599">
+        <v>0</v>
+      </c>
+      <c r="H599">
+        <v>0</v>
+      </c>
+      <c r="I599" t="s">
+        <v>21</v>
+      </c>
+      <c r="J599">
+        <v>3</v>
+      </c>
+      <c r="K599" t="s">
+        <v>19</v>
+      </c>
+      <c r="L599">
+        <v>9</v>
+      </c>
+      <c r="M599">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N599">
+        <v>79</v>
+      </c>
+      <c r="O599">
+        <v>30.05</v>
+      </c>
+      <c r="P599">
+        <v>12</v>
+      </c>
+      <c r="Q599">
+        <v>0.47</v>
+      </c>
+      <c r="R599">
+        <v>8.1</v>
+      </c>
+      <c r="S599">
+        <v>45</v>
+      </c>
+      <c r="T599">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="600" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B600" t="s">
+        <v>9</v>
+      </c>
+      <c r="C600" t="s">
+        <v>12</v>
+      </c>
+      <c r="D600">
+        <v>78</v>
+      </c>
+      <c r="E600">
+        <v>91</v>
+      </c>
+      <c r="F600">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="G600">
+        <v>0</v>
+      </c>
+      <c r="H600">
+        <v>0</v>
+      </c>
+      <c r="I600" t="s">
+        <v>21</v>
+      </c>
+      <c r="J600">
+        <v>3</v>
+      </c>
+      <c r="K600" t="s">
+        <v>19</v>
+      </c>
+      <c r="L600">
+        <v>9</v>
+      </c>
+      <c r="M600">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N600">
+        <v>79</v>
+      </c>
+      <c r="O600">
+        <v>30.05</v>
+      </c>
+      <c r="P600">
+        <v>12</v>
+      </c>
+      <c r="Q600">
+        <v>0.47</v>
+      </c>
+      <c r="R600">
+        <v>8.1</v>
+      </c>
+      <c r="S600">
+        <v>45</v>
+      </c>
+      <c r="T600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B601" t="s">
+        <v>9</v>
+      </c>
+      <c r="C601" t="s">
+        <v>12</v>
+      </c>
+      <c r="D601">
+        <v>78</v>
+      </c>
+      <c r="E601">
+        <v>91</v>
+      </c>
+      <c r="F601">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601">
+        <v>0</v>
+      </c>
+      <c r="I601" t="s">
+        <v>21</v>
+      </c>
+      <c r="J601">
+        <v>3</v>
+      </c>
+      <c r="K601" t="s">
+        <v>18</v>
+      </c>
+      <c r="L601">
+        <v>9</v>
+      </c>
+      <c r="M601">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N601">
+        <v>79</v>
+      </c>
+      <c r="O601">
+        <v>30.05</v>
+      </c>
+      <c r="P601">
+        <v>12</v>
+      </c>
+      <c r="Q601">
+        <v>0.47</v>
+      </c>
+      <c r="R601">
+        <v>8.1</v>
+      </c>
+      <c r="S601">
+        <v>45</v>
+      </c>
+      <c r="T601">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A602" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B602" t="s">
+        <v>9</v>
+      </c>
+      <c r="C602" t="s">
+        <v>11</v>
+      </c>
+      <c r="D602">
+        <v>78</v>
+      </c>
+      <c r="E602">
+        <v>91</v>
+      </c>
+      <c r="F602">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="G602">
+        <v>0</v>
+      </c>
+      <c r="H602">
+        <v>0</v>
+      </c>
+      <c r="I602" t="s">
+        <v>21</v>
+      </c>
+      <c r="J602">
+        <v>4</v>
+      </c>
+      <c r="K602" t="s">
+        <v>20</v>
+      </c>
+      <c r="L602">
+        <v>9</v>
+      </c>
+      <c r="M602">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N602">
+        <v>79</v>
+      </c>
+      <c r="O602">
+        <v>30.05</v>
+      </c>
+      <c r="P602">
+        <v>12</v>
+      </c>
+      <c r="Q602">
+        <v>0.47</v>
+      </c>
+      <c r="R602">
+        <v>8.1</v>
+      </c>
+      <c r="S602">
+        <v>45</v>
+      </c>
+      <c r="T602">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A603" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B603" t="s">
+        <v>10</v>
+      </c>
+      <c r="C603" t="s">
+        <v>12</v>
+      </c>
+      <c r="D603">
+        <v>78</v>
+      </c>
+      <c r="E603">
+        <v>91</v>
+      </c>
+      <c r="F603">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="G603">
+        <v>0</v>
+      </c>
+      <c r="H603">
+        <v>0</v>
+      </c>
+      <c r="I603" t="s">
+        <v>21</v>
+      </c>
+      <c r="J603">
+        <v>1</v>
+      </c>
+      <c r="K603" t="s">
+        <v>20</v>
+      </c>
+      <c r="L603">
+        <v>9</v>
+      </c>
+      <c r="M603">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N603">
+        <v>79</v>
+      </c>
+      <c r="O603">
+        <v>30.05</v>
+      </c>
+      <c r="P603">
+        <v>12</v>
+      </c>
+      <c r="Q603">
+        <v>0.47</v>
+      </c>
+      <c r="R603">
+        <v>8.1</v>
+      </c>
+      <c r="S603">
+        <v>45</v>
+      </c>
+      <c r="T603">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A604" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B604" t="s">
+        <v>8</v>
+      </c>
+      <c r="C604" t="s">
+        <v>11</v>
+      </c>
+      <c r="D604">
+        <v>79</v>
+      </c>
+      <c r="E604">
+        <v>90</v>
+      </c>
+      <c r="F604">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604">
+        <v>0</v>
+      </c>
+      <c r="I604" t="s">
+        <v>21</v>
+      </c>
+      <c r="J604">
+        <v>2</v>
+      </c>
+      <c r="K604" t="s">
+        <v>19</v>
+      </c>
+      <c r="L604">
+        <v>10</v>
+      </c>
+      <c r="M604">
+        <v>0.72</v>
+      </c>
+      <c r="N604">
+        <v>79</v>
+      </c>
+      <c r="O604">
+        <v>30</v>
+      </c>
+      <c r="P604">
+        <v>15</v>
+      </c>
+      <c r="Q604">
+        <v>0.17</v>
+      </c>
+      <c r="R604">
+        <v>8.1</v>
+      </c>
+      <c r="S604">
+        <v>42</v>
+      </c>
+      <c r="T604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A605" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B605" t="s">
+        <v>9</v>
+      </c>
+      <c r="C605" t="s">
+        <v>12</v>
+      </c>
+      <c r="D605">
+        <v>79</v>
+      </c>
+      <c r="E605">
+        <v>90</v>
+      </c>
+      <c r="F605">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+      <c r="I605" t="s">
+        <v>21</v>
+      </c>
+      <c r="J605">
+        <v>3</v>
+      </c>
+      <c r="K605" t="s">
+        <v>19</v>
+      </c>
+      <c r="L605">
+        <v>10</v>
+      </c>
+      <c r="M605">
+        <v>0.72</v>
+      </c>
+      <c r="N605">
+        <v>79</v>
+      </c>
+      <c r="O605">
+        <v>30</v>
+      </c>
+      <c r="P605">
+        <v>15</v>
+      </c>
+      <c r="Q605">
+        <v>0.17</v>
+      </c>
+      <c r="R605">
+        <v>8.1</v>
+      </c>
+      <c r="S605">
+        <v>42</v>
+      </c>
+      <c r="T605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A606" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B606" t="s">
+        <v>9</v>
+      </c>
+      <c r="C606" t="s">
+        <v>13</v>
+      </c>
+      <c r="D606">
+        <v>79</v>
+      </c>
+      <c r="E606">
+        <v>90</v>
+      </c>
+      <c r="F606">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="G606">
+        <v>0</v>
+      </c>
+      <c r="H606">
+        <v>0</v>
+      </c>
+      <c r="I606" t="s">
+        <v>21</v>
+      </c>
+      <c r="J606">
+        <v>3</v>
+      </c>
+      <c r="K606" t="s">
+        <v>20</v>
+      </c>
+      <c r="L606">
+        <v>10</v>
+      </c>
+      <c r="M606">
+        <v>0.72</v>
+      </c>
+      <c r="N606">
+        <v>79</v>
+      </c>
+      <c r="O606">
+        <v>30</v>
+      </c>
+      <c r="P606">
+        <v>15</v>
+      </c>
+      <c r="Q606">
+        <v>0.17</v>
+      </c>
+      <c r="R606">
+        <v>8.1</v>
+      </c>
+      <c r="S606">
+        <v>42</v>
+      </c>
+      <c r="T606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A607" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B607" t="s">
+        <v>9</v>
+      </c>
+      <c r="C607" t="s">
+        <v>12</v>
+      </c>
+      <c r="D607">
+        <v>79</v>
+      </c>
+      <c r="E607">
+        <v>90</v>
+      </c>
+      <c r="F607">
+        <f t="shared" ref="F607:F610" si="14">ABS(D607-E607)</f>
+        <v>11</v>
+      </c>
+      <c r="G607">
+        <v>0</v>
+      </c>
+      <c r="H607">
+        <v>0</v>
+      </c>
+      <c r="I607" t="s">
+        <v>21</v>
+      </c>
+      <c r="J607">
+        <v>3</v>
+      </c>
+      <c r="K607" t="s">
+        <v>19</v>
+      </c>
+      <c r="L607">
+        <v>10</v>
+      </c>
+      <c r="M607">
+        <v>0.72</v>
+      </c>
+      <c r="N607">
+        <v>79</v>
+      </c>
+      <c r="O607">
+        <v>30</v>
+      </c>
+      <c r="P607">
+        <v>15</v>
+      </c>
+      <c r="Q607">
+        <v>0.17</v>
+      </c>
+      <c r="R607">
+        <v>8.1</v>
+      </c>
+      <c r="S607">
+        <v>42</v>
+      </c>
+      <c r="T607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A608" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B608" t="s">
+        <v>9</v>
+      </c>
+      <c r="C608" t="s">
+        <v>12</v>
+      </c>
+      <c r="D608">
+        <v>79</v>
+      </c>
+      <c r="E608">
+        <v>90</v>
+      </c>
+      <c r="F608">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="G608">
+        <v>0</v>
+      </c>
+      <c r="H608">
+        <v>0</v>
+      </c>
+      <c r="I608" t="s">
+        <v>21</v>
+      </c>
+      <c r="J608">
+        <v>3</v>
+      </c>
+      <c r="K608" t="s">
+        <v>20</v>
+      </c>
+      <c r="L608">
+        <v>10</v>
+      </c>
+      <c r="M608">
+        <v>0.72</v>
+      </c>
+      <c r="N608">
+        <v>79</v>
+      </c>
+      <c r="O608">
+        <v>30</v>
+      </c>
+      <c r="P608">
+        <v>15</v>
+      </c>
+      <c r="Q608">
+        <v>0.17</v>
+      </c>
+      <c r="R608">
+        <v>8.1</v>
+      </c>
+      <c r="S608">
+        <v>42</v>
+      </c>
+      <c r="T608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A609" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B609" t="s">
+        <v>9</v>
+      </c>
+      <c r="C609" t="s">
+        <v>11</v>
+      </c>
+      <c r="D609">
+        <v>79</v>
+      </c>
+      <c r="E609">
+        <v>90</v>
+      </c>
+      <c r="F609">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="G609">
+        <v>0</v>
+      </c>
+      <c r="H609">
+        <v>0</v>
+      </c>
+      <c r="I609" t="s">
+        <v>21</v>
+      </c>
+      <c r="J609">
+        <v>4</v>
+      </c>
+      <c r="K609" t="s">
+        <v>18</v>
+      </c>
+      <c r="L609">
+        <v>10</v>
+      </c>
+      <c r="M609">
+        <v>0.72</v>
+      </c>
+      <c r="N609">
+        <v>79</v>
+      </c>
+      <c r="O609">
+        <v>30</v>
+      </c>
+      <c r="P609">
+        <v>15</v>
+      </c>
+      <c r="Q609">
+        <v>0.17</v>
+      </c>
+      <c r="R609">
+        <v>8.1</v>
+      </c>
+      <c r="S609">
+        <v>42</v>
+      </c>
+      <c r="T609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A610" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B610" t="s">
+        <v>10</v>
+      </c>
+      <c r="C610" t="s">
+        <v>12</v>
+      </c>
+      <c r="D610">
+        <v>79</v>
+      </c>
+      <c r="E610">
+        <v>90</v>
+      </c>
+      <c r="F610">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="G610">
+        <v>0</v>
+      </c>
+      <c r="H610">
+        <v>0</v>
+      </c>
+      <c r="I610" t="s">
+        <v>21</v>
+      </c>
+      <c r="J610">
+        <v>1</v>
+      </c>
+      <c r="K610" t="s">
+        <v>20</v>
+      </c>
+      <c r="L610">
+        <v>10</v>
+      </c>
+      <c r="M610">
+        <v>0.72</v>
+      </c>
+      <c r="N610">
+        <v>79</v>
+      </c>
+      <c r="O610">
+        <v>30</v>
+      </c>
+      <c r="P610">
+        <v>15</v>
+      </c>
+      <c r="Q610">
+        <v>0.17</v>
+      </c>
+      <c r="R610">
+        <v>8.1</v>
+      </c>
+      <c r="S610">
+        <v>42</v>
+      </c>
+      <c r="T610">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B42697-B653-46F4-978B-A2273DB18B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EA6B6B-5AAB-4C89-BD5E-7D46D6D2F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U610"/>
+  <dimension ref="A1:U617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
-      <selection activeCell="P604" sqref="P604:P610"/>
+    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
+      <selection activeCell="I618" sqref="I618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3163,7 +3163,7 @@
         <v>0.15</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -3667,7 +3667,7 @@
         <v>2.35</v>
       </c>
       <c r="H51">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I51" t="s">
         <v>15</v>
@@ -3730,7 +3730,7 @@
         <v>2.35</v>
       </c>
       <c r="H52">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="I52" t="s">
         <v>15</v>
@@ -3793,8 +3793,7 @@
         <v>2.35</v>
       </c>
       <c r="H53">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I53" t="s">
         <v>15</v>
@@ -3857,8 +3856,7 @@
         <v>2.35</v>
       </c>
       <c r="H54">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="I54" t="s">
         <v>15</v>
@@ -3921,7 +3919,7 @@
         <v>2.35</v>
       </c>
       <c r="H55">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
@@ -3984,7 +3982,7 @@
         <v>2.35</v>
       </c>
       <c r="H56">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -4047,7 +4045,7 @@
         <v>2.35</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
@@ -7770,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
         <v>21</v>
@@ -10675,8 +10673,7 @@
         <v>0.01</v>
       </c>
       <c r="H162">
-        <f>8/3</f>
-        <v>2.6666666666666665</v>
+        <v>0.5</v>
       </c>
       <c r="I162" t="s">
         <v>15</v>
@@ -11684,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="s">
         <v>21</v>
@@ -17364,7 +17361,7 @@
         <v>2.52</v>
       </c>
       <c r="H268">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I268" t="s">
         <v>21</v>
@@ -17553,7 +17550,7 @@
         <v>2.52</v>
       </c>
       <c r="H271">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I271" t="s">
         <v>21</v>
@@ -17616,7 +17613,7 @@
         <v>2.52</v>
       </c>
       <c r="H272">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I272" t="s">
         <v>21</v>
@@ -17679,7 +17676,7 @@
         <v>2.52</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I273" t="s">
         <v>21</v>
@@ -17742,7 +17739,7 @@
         <v>2.52</v>
       </c>
       <c r="H274">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I274" t="s">
         <v>21</v>
@@ -17805,7 +17802,7 @@
         <v>3.75</v>
       </c>
       <c r="H275">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="I275" t="s">
         <v>21</v>
@@ -18184,7 +18181,7 @@
         <v>3.75</v>
       </c>
       <c r="H281">
-        <v>5.6</v>
+        <v>7.75</v>
       </c>
       <c r="I281" t="s">
         <v>21</v>
@@ -38717,7 +38714,7 @@
         <v>90</v>
       </c>
       <c r="F607">
-        <f t="shared" ref="F607:F610" si="14">ABS(D607-E607)</f>
+        <f t="shared" ref="F607:F617" si="14">ABS(D607-E607)</f>
         <v>11</v>
       </c>
       <c r="G607">
@@ -38950,6 +38947,447 @@
       </c>
       <c r="T610">
         <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A611" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B611" t="s">
+        <v>8</v>
+      </c>
+      <c r="C611" t="s">
+        <v>11</v>
+      </c>
+      <c r="D611">
+        <v>63</v>
+      </c>
+      <c r="E611">
+        <v>85</v>
+      </c>
+      <c r="F611">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="G611">
+        <v>0</v>
+      </c>
+      <c r="H611">
+        <v>0.1</v>
+      </c>
+      <c r="I611" t="s">
+        <v>21</v>
+      </c>
+      <c r="J611">
+        <v>2</v>
+      </c>
+      <c r="K611" t="s">
+        <v>20</v>
+      </c>
+      <c r="L611">
+        <v>8</v>
+      </c>
+      <c r="M611">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N611">
+        <v>61</v>
+      </c>
+      <c r="O611">
+        <v>30.27</v>
+      </c>
+      <c r="P611">
+        <v>9</v>
+      </c>
+      <c r="Q611">
+        <v>0.35</v>
+      </c>
+      <c r="R611">
+        <v>9.9</v>
+      </c>
+      <c r="S611">
+        <v>53</v>
+      </c>
+      <c r="T611">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="612" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A612" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B612" t="s">
+        <v>9</v>
+      </c>
+      <c r="C612" t="s">
+        <v>12</v>
+      </c>
+      <c r="D612">
+        <v>63</v>
+      </c>
+      <c r="E612">
+        <v>85</v>
+      </c>
+      <c r="F612">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="G612">
+        <v>0</v>
+      </c>
+      <c r="H612">
+        <v>0</v>
+      </c>
+      <c r="I612" t="s">
+        <v>21</v>
+      </c>
+      <c r="J612">
+        <v>3</v>
+      </c>
+      <c r="K612" t="s">
+        <v>20</v>
+      </c>
+      <c r="L612">
+        <v>8</v>
+      </c>
+      <c r="M612">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N612">
+        <v>61</v>
+      </c>
+      <c r="O612">
+        <v>30.27</v>
+      </c>
+      <c r="P612">
+        <v>9</v>
+      </c>
+      <c r="Q612">
+        <v>0.35</v>
+      </c>
+      <c r="R612">
+        <v>9.9</v>
+      </c>
+      <c r="S612">
+        <v>53</v>
+      </c>
+      <c r="T612">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="613" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A613" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B613" t="s">
+        <v>9</v>
+      </c>
+      <c r="C613" t="s">
+        <v>13</v>
+      </c>
+      <c r="D613">
+        <v>63</v>
+      </c>
+      <c r="E613">
+        <v>85</v>
+      </c>
+      <c r="F613">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="G613">
+        <v>0</v>
+      </c>
+      <c r="H613">
+        <v>0</v>
+      </c>
+      <c r="I613" t="s">
+        <v>21</v>
+      </c>
+      <c r="J613">
+        <v>3</v>
+      </c>
+      <c r="K613" t="s">
+        <v>19</v>
+      </c>
+      <c r="L613">
+        <v>8</v>
+      </c>
+      <c r="M613">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N613">
+        <v>61</v>
+      </c>
+      <c r="O613">
+        <v>30.27</v>
+      </c>
+      <c r="P613">
+        <v>9</v>
+      </c>
+      <c r="Q613">
+        <v>0.35</v>
+      </c>
+      <c r="R613">
+        <v>9.9</v>
+      </c>
+      <c r="S613">
+        <v>53</v>
+      </c>
+      <c r="T613">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A614" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B614" t="s">
+        <v>9</v>
+      </c>
+      <c r="C614" t="s">
+        <v>12</v>
+      </c>
+      <c r="D614">
+        <v>63</v>
+      </c>
+      <c r="E614">
+        <v>85</v>
+      </c>
+      <c r="F614">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="G614">
+        <v>0</v>
+      </c>
+      <c r="H614">
+        <v>0</v>
+      </c>
+      <c r="I614" t="s">
+        <v>21</v>
+      </c>
+      <c r="J614">
+        <v>3</v>
+      </c>
+      <c r="K614" t="s">
+        <v>18</v>
+      </c>
+      <c r="L614">
+        <v>8</v>
+      </c>
+      <c r="M614">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N614">
+        <v>61</v>
+      </c>
+      <c r="O614">
+        <v>30.27</v>
+      </c>
+      <c r="P614">
+        <v>9</v>
+      </c>
+      <c r="Q614">
+        <v>0.35</v>
+      </c>
+      <c r="R614">
+        <v>9.9</v>
+      </c>
+      <c r="S614">
+        <v>53</v>
+      </c>
+      <c r="T614">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A615" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B615" t="s">
+        <v>9</v>
+      </c>
+      <c r="C615" t="s">
+        <v>12</v>
+      </c>
+      <c r="D615">
+        <v>63</v>
+      </c>
+      <c r="E615">
+        <v>85</v>
+      </c>
+      <c r="F615">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="G615">
+        <v>0</v>
+      </c>
+      <c r="H615">
+        <v>0.2</v>
+      </c>
+      <c r="I615" t="s">
+        <v>21</v>
+      </c>
+      <c r="J615">
+        <v>3</v>
+      </c>
+      <c r="K615" t="s">
+        <v>19</v>
+      </c>
+      <c r="L615">
+        <v>8</v>
+      </c>
+      <c r="M615">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N615">
+        <v>61</v>
+      </c>
+      <c r="O615">
+        <v>30.27</v>
+      </c>
+      <c r="P615">
+        <v>9</v>
+      </c>
+      <c r="Q615">
+        <v>0.35</v>
+      </c>
+      <c r="R615">
+        <v>9.9</v>
+      </c>
+      <c r="S615">
+        <v>53</v>
+      </c>
+      <c r="T615">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="616" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A616" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B616" t="s">
+        <v>9</v>
+      </c>
+      <c r="C616" t="s">
+        <v>11</v>
+      </c>
+      <c r="D616">
+        <v>63</v>
+      </c>
+      <c r="E616">
+        <v>85</v>
+      </c>
+      <c r="F616">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="G616">
+        <v>0</v>
+      </c>
+      <c r="H616">
+        <v>0.5</v>
+      </c>
+      <c r="I616" t="s">
+        <v>21</v>
+      </c>
+      <c r="J616">
+        <v>4</v>
+      </c>
+      <c r="K616" t="s">
+        <v>18</v>
+      </c>
+      <c r="L616">
+        <v>8</v>
+      </c>
+      <c r="M616">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N616">
+        <v>61</v>
+      </c>
+      <c r="O616">
+        <v>30.27</v>
+      </c>
+      <c r="P616">
+        <v>9</v>
+      </c>
+      <c r="Q616">
+        <v>0.35</v>
+      </c>
+      <c r="R616">
+        <v>9.9</v>
+      </c>
+      <c r="S616">
+        <v>53</v>
+      </c>
+      <c r="T616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A617" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B617" t="s">
+        <v>10</v>
+      </c>
+      <c r="C617" t="s">
+        <v>12</v>
+      </c>
+      <c r="D617">
+        <v>63</v>
+      </c>
+      <c r="E617">
+        <v>85</v>
+      </c>
+      <c r="F617">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="G617">
+        <v>0</v>
+      </c>
+      <c r="H617">
+        <v>0.75</v>
+      </c>
+      <c r="I617" t="s">
+        <v>21</v>
+      </c>
+      <c r="J617">
+        <v>1</v>
+      </c>
+      <c r="K617" t="s">
+        <v>20</v>
+      </c>
+      <c r="L617">
+        <v>8</v>
+      </c>
+      <c r="M617">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N617">
+        <v>61</v>
+      </c>
+      <c r="O617">
+        <v>30.27</v>
+      </c>
+      <c r="P617">
+        <v>9</v>
+      </c>
+      <c r="Q617">
+        <v>0.35</v>
+      </c>
+      <c r="R617">
+        <v>9.9</v>
+      </c>
+      <c r="S617">
+        <v>53</v>
+      </c>
+      <c r="T617">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EA6B6B-5AAB-4C89-BD5E-7D46D6D2F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148DDDA0-6C2C-468D-8200-DA49D75B6D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U617"/>
+  <dimension ref="A1:U624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="I618" sqref="I618"/>
+    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
+      <selection activeCell="I625" sqref="I625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1709,7 +1709,8 @@
         <v>0.33</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -1898,7 +1899,7 @@
         <v>2.37</v>
       </c>
       <c r="H23">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
@@ -1961,7 +1962,7 @@
         <v>2.37</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -2024,7 +2025,7 @@
         <v>2.37</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -2087,8 +2088,7 @@
         <v>2.37</v>
       </c>
       <c r="H26">
-        <f>2/6</f>
-        <v>0.33333333333333331</v>
+        <v>1.5</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
@@ -2151,7 +2151,8 @@
         <v>2.37</v>
       </c>
       <c r="H27">
-        <v>0.25</v>
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
@@ -2214,8 +2215,7 @@
         <v>2.37</v>
       </c>
       <c r="H28">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
@@ -2278,8 +2278,7 @@
         <v>2.37</v>
       </c>
       <c r="H29">
-        <f>7/3</f>
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
@@ -8399,7 +8398,8 @@
         <v>0.59</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I126" t="s">
         <v>21</v>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>1.35</v>
+        <v>0.35</v>
       </c>
       <c r="I168" t="s">
         <v>21</v>
@@ -11114,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="I169" t="s">
         <v>21</v>
@@ -14085,7 +14085,7 @@
         <v>1.52</v>
       </c>
       <c r="H216">
-        <v>2.5299999999999998</v>
+        <v>1.53</v>
       </c>
       <c r="I216" t="s">
         <v>21</v>
@@ -38714,7 +38714,7 @@
         <v>90</v>
       </c>
       <c r="F607">
-        <f t="shared" ref="F607:F617" si="14">ABS(D607-E607)</f>
+        <f t="shared" ref="F607:F624" si="14">ABS(D607-E607)</f>
         <v>11</v>
       </c>
       <c r="G607">
@@ -39388,6 +39388,447 @@
       </c>
       <c r="T617">
         <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A618" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B618" t="s">
+        <v>8</v>
+      </c>
+      <c r="C618" t="s">
+        <v>11</v>
+      </c>
+      <c r="D618">
+        <v>65</v>
+      </c>
+      <c r="E618">
+        <v>83</v>
+      </c>
+      <c r="F618">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G618">
+        <v>0</v>
+      </c>
+      <c r="H618">
+        <v>0</v>
+      </c>
+      <c r="I618" t="s">
+        <v>21</v>
+      </c>
+      <c r="J618">
+        <v>2</v>
+      </c>
+      <c r="K618" t="s">
+        <v>20</v>
+      </c>
+      <c r="L618">
+        <v>7</v>
+      </c>
+      <c r="M618">
+        <v>0.46</v>
+      </c>
+      <c r="N618">
+        <v>60</v>
+      </c>
+      <c r="O618">
+        <v>30.3</v>
+      </c>
+      <c r="P618">
+        <v>16</v>
+      </c>
+      <c r="Q618">
+        <v>0.13</v>
+      </c>
+      <c r="R618">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S618">
+        <v>75</v>
+      </c>
+      <c r="T618">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="619" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A619" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B619" t="s">
+        <v>9</v>
+      </c>
+      <c r="C619" t="s">
+        <v>12</v>
+      </c>
+      <c r="D619">
+        <v>65</v>
+      </c>
+      <c r="E619">
+        <v>83</v>
+      </c>
+      <c r="F619">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G619">
+        <v>0</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+      <c r="I619" t="s">
+        <v>21</v>
+      </c>
+      <c r="J619">
+        <v>3</v>
+      </c>
+      <c r="K619" t="s">
+        <v>20</v>
+      </c>
+      <c r="L619">
+        <v>7</v>
+      </c>
+      <c r="M619">
+        <v>0.46</v>
+      </c>
+      <c r="N619">
+        <v>60</v>
+      </c>
+      <c r="O619">
+        <v>30.3</v>
+      </c>
+      <c r="P619">
+        <v>16</v>
+      </c>
+      <c r="Q619">
+        <v>0.13</v>
+      </c>
+      <c r="R619">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S619">
+        <v>75</v>
+      </c>
+      <c r="T619">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A620" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B620" t="s">
+        <v>9</v>
+      </c>
+      <c r="C620" t="s">
+        <v>13</v>
+      </c>
+      <c r="D620">
+        <v>65</v>
+      </c>
+      <c r="E620">
+        <v>83</v>
+      </c>
+      <c r="F620">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G620">
+        <v>0</v>
+      </c>
+      <c r="H620">
+        <v>0</v>
+      </c>
+      <c r="I620" t="s">
+        <v>21</v>
+      </c>
+      <c r="J620">
+        <v>3</v>
+      </c>
+      <c r="K620" t="s">
+        <v>20</v>
+      </c>
+      <c r="L620">
+        <v>7</v>
+      </c>
+      <c r="M620">
+        <v>0.46</v>
+      </c>
+      <c r="N620">
+        <v>60</v>
+      </c>
+      <c r="O620">
+        <v>30.3</v>
+      </c>
+      <c r="P620">
+        <v>16</v>
+      </c>
+      <c r="Q620">
+        <v>0.13</v>
+      </c>
+      <c r="R620">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S620">
+        <v>75</v>
+      </c>
+      <c r="T620">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A621" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B621" t="s">
+        <v>9</v>
+      </c>
+      <c r="C621" t="s">
+        <v>12</v>
+      </c>
+      <c r="D621">
+        <v>65</v>
+      </c>
+      <c r="E621">
+        <v>83</v>
+      </c>
+      <c r="F621">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G621">
+        <v>0</v>
+      </c>
+      <c r="H621">
+        <v>0</v>
+      </c>
+      <c r="I621" t="s">
+        <v>21</v>
+      </c>
+      <c r="J621">
+        <v>3</v>
+      </c>
+      <c r="K621" t="s">
+        <v>19</v>
+      </c>
+      <c r="L621">
+        <v>7</v>
+      </c>
+      <c r="M621">
+        <v>0.46</v>
+      </c>
+      <c r="N621">
+        <v>60</v>
+      </c>
+      <c r="O621">
+        <v>30.3</v>
+      </c>
+      <c r="P621">
+        <v>16</v>
+      </c>
+      <c r="Q621">
+        <v>0.13</v>
+      </c>
+      <c r="R621">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S621">
+        <v>75</v>
+      </c>
+      <c r="T621">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A622" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B622" t="s">
+        <v>9</v>
+      </c>
+      <c r="C622" t="s">
+        <v>12</v>
+      </c>
+      <c r="D622">
+        <v>65</v>
+      </c>
+      <c r="E622">
+        <v>83</v>
+      </c>
+      <c r="F622">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G622">
+        <v>0</v>
+      </c>
+      <c r="H622">
+        <v>0.1</v>
+      </c>
+      <c r="I622" t="s">
+        <v>21</v>
+      </c>
+      <c r="J622">
+        <v>3</v>
+      </c>
+      <c r="K622" t="s">
+        <v>19</v>
+      </c>
+      <c r="L622">
+        <v>7</v>
+      </c>
+      <c r="M622">
+        <v>0.46</v>
+      </c>
+      <c r="N622">
+        <v>60</v>
+      </c>
+      <c r="O622">
+        <v>30.3</v>
+      </c>
+      <c r="P622">
+        <v>16</v>
+      </c>
+      <c r="Q622">
+        <v>0.13</v>
+      </c>
+      <c r="R622">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S622">
+        <v>75</v>
+      </c>
+      <c r="T622">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A623" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B623" t="s">
+        <v>9</v>
+      </c>
+      <c r="C623" t="s">
+        <v>11</v>
+      </c>
+      <c r="D623">
+        <v>65</v>
+      </c>
+      <c r="E623">
+        <v>83</v>
+      </c>
+      <c r="F623">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G623">
+        <v>0</v>
+      </c>
+      <c r="H623">
+        <v>0.1</v>
+      </c>
+      <c r="I623" t="s">
+        <v>21</v>
+      </c>
+      <c r="J623">
+        <v>4</v>
+      </c>
+      <c r="K623" t="s">
+        <v>19</v>
+      </c>
+      <c r="L623">
+        <v>7</v>
+      </c>
+      <c r="M623">
+        <v>0.46</v>
+      </c>
+      <c r="N623">
+        <v>60</v>
+      </c>
+      <c r="O623">
+        <v>30.3</v>
+      </c>
+      <c r="P623">
+        <v>16</v>
+      </c>
+      <c r="Q623">
+        <v>0.13</v>
+      </c>
+      <c r="R623">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S623">
+        <v>75</v>
+      </c>
+      <c r="T623">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A624" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B624" t="s">
+        <v>10</v>
+      </c>
+      <c r="C624" t="s">
+        <v>12</v>
+      </c>
+      <c r="D624">
+        <v>65</v>
+      </c>
+      <c r="E624">
+        <v>83</v>
+      </c>
+      <c r="F624">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G624">
+        <v>0</v>
+      </c>
+      <c r="H624">
+        <v>0.5</v>
+      </c>
+      <c r="I624" t="s">
+        <v>21</v>
+      </c>
+      <c r="J624">
+        <v>1</v>
+      </c>
+      <c r="K624" t="s">
+        <v>19</v>
+      </c>
+      <c r="L624">
+        <v>7</v>
+      </c>
+      <c r="M624">
+        <v>0.46</v>
+      </c>
+      <c r="N624">
+        <v>60</v>
+      </c>
+      <c r="O624">
+        <v>30.3</v>
+      </c>
+      <c r="P624">
+        <v>16</v>
+      </c>
+      <c r="Q624">
+        <v>0.13</v>
+      </c>
+      <c r="R624">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S624">
+        <v>75</v>
+      </c>
+      <c r="T624">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Landscaping Data.xlsx
+++ b/Landscaping Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfull\Documents\Summer Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148DDDA0-6C2C-468D-8200-DA49D75B6D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33510C0-33EF-40E6-BC81-BE2A6CC110BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7535AB48-A718-4C40-9CDC-4EBDD4033B5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F904C-3F29-4455-A438-AF49F6F42F06}">
-  <dimension ref="A1:U624"/>
+  <dimension ref="A1:U638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="I625" sqref="I625"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="I639" sqref="I639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -2151,8 +2151,8 @@
         <v>2.37</v>
       </c>
       <c r="H27">
-        <f>4/3</f>
-        <v>1.3333333333333333</v>
+        <f>8/3</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
@@ -2341,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I30" t="s">
         <v>21</v>
@@ -2404,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
@@ -2467,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
@@ -2530,7 +2530,8 @@
         <v>3</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I33" t="s">
         <v>21</v>
@@ -2593,7 +2594,7 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
@@ -2656,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="H35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
@@ -2719,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="H36">
-        <v>0.25</v>
+        <v>3.125</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
@@ -2782,7 +2783,7 @@
         <v>0.15</v>
       </c>
       <c r="H37">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
@@ -2845,7 +2846,7 @@
         <v>0.15</v>
       </c>
       <c r="H38">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -2908,7 +2909,7 @@
         <v>0.15</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
@@ -3098,8 +3099,8 @@
         <v>0.15</v>
       </c>
       <c r="H42">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
@@ -3225,7 +3226,7 @@
         <v>0.17</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -3288,7 +3289,7 @@
         <v>0.17</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -3351,7 +3352,7 @@
         <v>0.17</v>
       </c>
       <c r="H46">
-        <v>1.5</v>
+        <v>0.12</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -3414,7 +3415,7 @@
         <v>0.17</v>
       </c>
       <c r="H47">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -3477,7 +3478,7 @@
         <v>0.17</v>
       </c>
       <c r="H48">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
@@ -3540,7 +3541,7 @@
         <v>0.17</v>
       </c>
       <c r="H49">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
@@ -3729,7 +3730,7 @@
         <v>2.35</v>
       </c>
       <c r="H52">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I52" t="s">
         <v>15</v>
@@ -3792,7 +3793,7 @@
         <v>2.35</v>
       </c>
       <c r="H53">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="I53" t="s">
         <v>15</v>
@@ -3855,7 +3856,7 @@
         <v>2.35</v>
       </c>
       <c r="H54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
         <v>15</v>
@@ -3918,7 +3919,7 @@
         <v>2.35</v>
       </c>
       <c r="H55">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
@@ -3981,7 +3982,8 @@
         <v>2.35</v>
       </c>
       <c r="H56">
-        <v>1.1000000000000001</v>
+        <f>8/3</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -4044,7 +4046,7 @@
         <v>2.35</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
@@ -4107,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58" t="s">
         <v>21</v>
@@ -4359,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="s">
         <v>21</v>
@@ -4422,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
         <v>21</v>
@@ -4485,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="I64" t="s">
         <v>21</v>
@@ -4991,7 +4993,8 @@
         <v>1.06</v>
       </c>
       <c r="H72">
-        <v>0.5</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I72" t="s">
         <v>15</v>
@@ -5054,7 +5057,7 @@
         <v>1.06</v>
       </c>
       <c r="H73">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="I73" t="s">
         <v>15</v>
@@ -5117,7 +5120,7 @@
         <v>1.06</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="I74" t="s">
         <v>15</v>
@@ -5180,7 +5183,7 @@
         <v>1.06</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="I75" t="s">
         <v>15</v>
@@ -5243,7 +5246,8 @@
         <v>1.06</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I76" t="s">
         <v>15</v>
@@ -5306,7 +5310,7 @@
         <v>1.06</v>
       </c>
       <c r="H77">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="I77" t="s">
         <v>15</v>
@@ -5369,8 +5373,7 @@
         <v>1.06</v>
       </c>
       <c r="H78">
-        <f>25/3</f>
-        <v>8.3333333333333339</v>
+        <v>1.25</v>
       </c>
       <c r="I78" t="s">
         <v>15</v>
@@ -5559,7 +5562,7 @@
         <v>3.84</v>
       </c>
       <c r="H81">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I81" t="s">
         <v>21</v>
@@ -5622,7 +5625,7 @@
         <v>3.84</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I82" t="s">
         <v>21</v>
@@ -5685,7 +5688,8 @@
         <v>3.84</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <f>19/3</f>
+        <v>6.333333333333333</v>
       </c>
       <c r="I83" t="s">
         <v>21</v>
@@ -5748,7 +5752,7 @@
         <v>3.84</v>
       </c>
       <c r="H84">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I84" t="s">
         <v>21</v>
@@ -5811,7 +5815,7 @@
         <v>3.84</v>
       </c>
       <c r="H85">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="I85" t="s">
         <v>21</v>
@@ -6001,7 +6005,7 @@
         <v>1.35</v>
       </c>
       <c r="H88">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I88" t="s">
         <v>21</v>
@@ -6064,7 +6068,7 @@
         <v>1.35</v>
       </c>
       <c r="H89">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I89" t="s">
         <v>21</v>
@@ -6127,7 +6131,7 @@
         <v>1.35</v>
       </c>
       <c r="H90">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="I90" t="s">
         <v>21</v>
@@ -6190,7 +6194,7 @@
         <v>1.35</v>
       </c>
       <c r="H91">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="I91" t="s">
         <v>21</v>
@@ -6253,7 +6257,7 @@
         <v>1.35</v>
       </c>
       <c r="H92">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="I92" t="s">
         <v>21</v>
@@ -6316,7 +6320,8 @@
         <v>1.06</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
@@ -6379,7 +6384,7 @@
         <v>1.06</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="I94" t="s">
         <v>15</v>
@@ -6442,7 +6447,7 @@
         <v>1.06</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>0.45</v>
       </c>
       <c r="I95" t="s">
         <v>15</v>
@@ -6505,7 +6510,7 @@
         <v>1.06</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="I96" t="s">
         <v>15</v>
@@ -6568,7 +6573,8 @@
         <v>1.06</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I97" t="s">
         <v>15</v>
@@ -6631,7 +6637,7 @@
         <v>1.06</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="I98" t="s">
         <v>15</v>
@@ -6694,7 +6700,7 @@
         <v>1.06</v>
       </c>
       <c r="H99">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="I99" t="s">
         <v>15</v>
@@ -7452,7 +7458,7 @@
         <v>0.01</v>
       </c>
       <c r="H111">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I111" t="s">
         <v>21</v>
@@ -7578,7 +7584,8 @@
         <v>0.01</v>
       </c>
       <c r="H113">
-        <v>1.35</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I113" t="s">
         <v>21</v>
@@ -7830,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I117" t="s">
         <v>21</v>
@@ -8019,7 +8026,8 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1.2</v>
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I120" t="s">
         <v>21</v>
@@ -8082,7 +8090,8 @@
         <v>0.59</v>
       </c>
       <c r="H121">
-        <v>0.2</v>
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I121" t="s">
         <v>21</v>
@@ -8145,7 +8154,7 @@
         <v>0.59</v>
       </c>
       <c r="H122">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I122" t="s">
         <v>21</v>
@@ -8271,7 +8280,7 @@
         <v>0.59</v>
       </c>
       <c r="H124">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I124" t="s">
         <v>21</v>
@@ -8334,8 +8343,8 @@
         <v>0.59</v>
       </c>
       <c r="H125">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I125" t="s">
         <v>21</v>
@@ -8398,8 +8407,7 @@
         <v>0.59</v>
       </c>
       <c r="H126">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
+        <v>0.45</v>
       </c>
       <c r="I126" t="s">
         <v>21</v>
@@ -8525,7 +8533,8 @@
         <v>1.05</v>
       </c>
       <c r="H128">
-        <v>0.1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I128" t="s">
         <v>21</v>
@@ -8588,7 +8597,7 @@
         <v>1.05</v>
       </c>
       <c r="H129">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I129" t="s">
         <v>21</v>
@@ -8651,7 +8660,7 @@
         <v>1.05</v>
       </c>
       <c r="H130">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I130" t="s">
         <v>21</v>
@@ -8714,7 +8723,7 @@
         <v>1.05</v>
       </c>
       <c r="H131">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I131" t="s">
         <v>21</v>
@@ -8777,7 +8786,8 @@
         <v>1.05</v>
       </c>
       <c r="H132">
-        <v>0.5</v>
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I132" t="s">
         <v>21</v>
@@ -8840,7 +8850,7 @@
         <v>1.05</v>
       </c>
       <c r="H133">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="I133" t="s">
         <v>21</v>
@@ -8903,7 +8913,7 @@
         <v>1.05</v>
       </c>
       <c r="H134">
-        <v>0.15</v>
+        <v>1.25</v>
       </c>
       <c r="I134" t="s">
         <v>21</v>
@@ -9852,7 +9862,8 @@
         <v>1.02</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I149" t="s">
         <v>21</v>
@@ -9915,7 +9926,7 @@
         <v>1.02</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>0.45</v>
       </c>
       <c r="I150" t="s">
         <v>21</v>
@@ -9978,7 +9989,7 @@
         <v>1.02</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I151" t="s">
         <v>21</v>
@@ -10041,7 +10052,7 @@
         <v>1.02</v>
       </c>
       <c r="H152">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="I152" t="s">
         <v>21</v>
@@ -10104,7 +10115,8 @@
         <v>1.02</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I153" t="s">
         <v>21</v>
@@ -10167,7 +10179,7 @@
         <v>1.02</v>
       </c>
       <c r="H154">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="I154" t="s">
         <v>21</v>
@@ -10230,7 +10242,7 @@
         <v>1.02</v>
       </c>
       <c r="H155">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="I155" t="s">
         <v>21</v>
@@ -10545,8 +10557,7 @@
         <v>0.01</v>
       </c>
       <c r="H160">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
         <v>15</v>
@@ -10799,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="s">
         <v>21</v>
@@ -10862,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
         <v>21</v>
@@ -11366,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="s">
         <v>21</v>
@@ -11555,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I176" t="s">
         <v>21</v>
@@ -12059,7 +12070,8 @@
         <v>0.91</v>
       </c>
       <c r="H184">
-        <v>0.1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I184" t="s">
         <v>21</v>
@@ -12122,7 +12134,7 @@
         <v>0.91</v>
       </c>
       <c r="H185">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="I185" t="s">
         <v>21</v>
@@ -12185,7 +12197,7 @@
         <v>0.91</v>
       </c>
       <c r="H186">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I186" t="s">
         <v>21</v>
@@ -12248,7 +12260,7 @@
         <v>0.91</v>
       </c>
       <c r="H187">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="I187" t="s">
         <v>21</v>
@@ -12311,8 +12323,8 @@
         <v>0.91</v>
       </c>
       <c r="H188">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I188" t="s">
         <v>21</v>
@@ -12375,8 +12387,7 @@
         <v>0.91</v>
       </c>
       <c r="H189">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1.25</v>
       </c>
       <c r="I189" t="s">
         <v>21</v>
@@ -12439,7 +12450,7 @@
         <v>0.91</v>
       </c>
       <c r="H190">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="I190" t="s">
         <v>21</v>
@@ -12502,7 +12513,7 @@
         <v>5.57</v>
       </c>
       <c r="H191">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I191" t="s">
         <v>15</v>
@@ -12565,7 +12576,7 @@
         <v>5.57</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="s">
         <v>15</v>
@@ -12628,7 +12639,7 @@
         <v>5.57</v>
       </c>
       <c r="H193">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="I193" t="s">
         <v>15</v>
@@ -12691,7 +12702,7 @@
         <v>5.57</v>
       </c>
       <c r="H194">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="I194" t="s">
         <v>15</v>
@@ -12754,7 +12765,7 @@
         <v>5.57</v>
       </c>
       <c r="H195">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="I195" t="s">
         <v>15</v>
@@ -12880,7 +12891,7 @@
         <v>5.57</v>
       </c>
       <c r="H197">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="I197" t="s">
         <v>15</v>
@@ -12944,7 +12955,7 @@
         <v>1.9900000000000002</v>
       </c>
       <c r="H198">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I198" t="s">
         <v>15</v>
@@ -13008,7 +13019,7 @@
         <v>1.9900000000000002</v>
       </c>
       <c r="H199">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I199" t="s">
         <v>15</v>
@@ -13072,7 +13083,7 @@
         <v>1.9900000000000002</v>
       </c>
       <c r="H200">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I200" t="s">
         <v>15</v>
@@ -13136,7 +13147,7 @@
         <v>1.9900000000000002</v>
       </c>
       <c r="H201">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="I201" t="s">
         <v>15</v>
@@ -13200,7 +13211,8 @@
         <v>1.9900000000000002</v>
       </c>
       <c r="H202">
-        <v>0.5</v>
+        <f>8/3</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I202" t="s">
         <v>15</v>
@@ -13264,7 +13276,7 @@
         <v>1.9900000000000002</v>
       </c>
       <c r="H203">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="I203" t="s">
         <v>15</v>
@@ -13328,8 +13340,7 @@
         <v>1.9900000000000002</v>
       </c>
       <c r="H204">
-        <f>4/3</f>
-        <v>1.3333333333333333</v>
+        <v>3</v>
       </c>
       <c r="I204" t="s">
         <v>15</v>
@@ -15093,7 +15104,7 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>1.25</v>
+        <v>0.35</v>
       </c>
       <c r="I232" t="s">
         <v>21</v>
@@ -17865,7 +17876,7 @@
         <v>3.75</v>
       </c>
       <c r="H276">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="I276" t="s">
         <v>21</v>
@@ -22213,7 +22224,7 @@
         <v>5.57</v>
       </c>
       <c r="H345">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="I345" t="s">
         <v>21</v>
@@ -22276,7 +22287,7 @@
         <v>5.57</v>
       </c>
       <c r="H346">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I346" t="s">
         <v>21</v>
@@ -22339,7 +22350,7 @@
         <v>5.57</v>
       </c>
       <c r="H347">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="I347" t="s">
         <v>21</v>
@@ -22402,7 +22413,7 @@
         <v>5.57</v>
       </c>
       <c r="H348">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="I348" t="s">
         <v>21</v>
@@ -22465,7 +22476,7 @@
         <v>5.57</v>
       </c>
       <c r="H349">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="I349" t="s">
         <v>21</v>
@@ -22528,7 +22539,7 @@
         <v>5.57</v>
       </c>
       <c r="H350">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I350" t="s">
         <v>21</v>
@@ -22654,7 +22665,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H352">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I352" t="s">
         <v>15</v>
@@ -26182,7 +26193,7 @@
         <v>2.5</v>
       </c>
       <c r="H408">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I408" t="s">
         <v>21</v>
@@ -26245,7 +26256,7 @@
         <v>2.5</v>
       </c>
       <c r="H409">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I409" t="s">
         <v>21</v>
@@ -26308,7 +26319,7 @@
         <v>2.5</v>
       </c>
       <c r="H410">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I410" t="s">
         <v>21</v>
@@ -26371,7 +26382,7 @@
         <v>2.5</v>
       </c>
       <c r="H411">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="I411" t="s">
         <v>21</v>
@@ -26434,7 +26445,7 @@
         <v>2.5</v>
       </c>
       <c r="H412">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="I412" t="s">
         <v>21</v>
@@ -26497,7 +26508,8 @@
         <v>2.5</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <f>8/3</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I413" t="s">
         <v>21</v>
@@ -26560,7 +26572,7 @@
         <v>2.5</v>
       </c>
       <c r="H414">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="I414" t="s">
         <v>21</v>
@@ -27505,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="s">
         <v>21</v>
@@ -27568,7 +27580,7 @@
         <v>0</v>
       </c>
       <c r="H430">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="s">
         <v>21</v>
@@ -31476,7 +31488,7 @@
         <v>5.57</v>
       </c>
       <c r="H492">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="I492" t="s">
         <v>21</v>
@@ -31539,7 +31551,7 @@
         <v>5.57</v>
       </c>
       <c r="H493">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="I493" t="s">
         <v>21</v>
@@ -31602,7 +31614,8 @@
         <v>5.57</v>
       </c>
       <c r="H494">
-        <v>1.1000000000000001</v>
+        <f>13/3</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="I494" t="s">
         <v>21</v>
@@ -31665,7 +31678,7 @@
         <v>5.57</v>
       </c>
       <c r="H495">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="I495" t="s">
         <v>21</v>
@@ -31728,7 +31741,7 @@
         <v>5.57</v>
       </c>
       <c r="H496">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="I496" t="s">
         <v>21</v>
@@ -31791,7 +31804,7 @@
         <v>5.57</v>
       </c>
       <c r="H497">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I497" t="s">
         <v>21</v>
@@ -31854,7 +31867,7 @@
         <v>5.57</v>
       </c>
       <c r="H498">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I498" t="s">
         <v>21</v>
@@ -31917,7 +31930,7 @@
         <v>2.5</v>
       </c>
       <c r="H499">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="I499" t="s">
         <v>21</v>
@@ -31980,7 +31993,7 @@
         <v>2.5</v>
       </c>
       <c r="H500">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="I500" t="s">
         <v>21</v>
@@ -32043,7 +32056,8 @@
         <v>2.5</v>
       </c>
       <c r="H501">
-        <v>0.5</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I501" t="s">
         <v>21</v>
@@ -32169,7 +32183,7 @@
         <v>2.5</v>
       </c>
       <c r="H503">
-        <v>0.7</v>
+        <v>1.35</v>
       </c>
       <c r="I503" t="s">
         <v>21</v>
@@ -32232,7 +32246,7 @@
         <v>2.5</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="I504" t="s">
         <v>21</v>
@@ -32295,7 +32309,7 @@
         <v>2.5</v>
       </c>
       <c r="H505">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I505" t="s">
         <v>21</v>
@@ -32358,7 +32372,7 @@
         <v>0</v>
       </c>
       <c r="H506">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="s">
         <v>15</v>
@@ -34059,7 +34073,7 @@
         <v>0.16</v>
       </c>
       <c r="H533">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I533" t="s">
         <v>21</v>
@@ -35886,7 +35900,7 @@
         <v>5.57</v>
       </c>
       <c r="H562">
-        <v>1.1000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="I562" t="s">
         <v>21</v>
@@ -35949,7 +35963,7 @@
         <v>5.57</v>
       </c>
       <c r="H563">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="I563" t="s">
         <v>21</v>
@@ -36012,7 +36026,8 @@
         <v>5.57</v>
       </c>
       <c r="H564">
-        <v>1.2</v>
+        <f>13/3</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="I564" t="s">
         <v>21</v>
@@ -36075,7 +36090,7 @@
         <v>5.57</v>
       </c>
       <c r="H565">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="I565" t="s">
         <v>21</v>
@@ -36138,7 +36153,7 @@
         <v>5.57</v>
       </c>
       <c r="H566">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="I566" t="s">
         <v>21</v>
@@ -36201,7 +36216,7 @@
         <v>5.57</v>
       </c>
       <c r="H567">
-        <v>4.5</v>
+        <v>8.75</v>
       </c>
       <c r="I567" t="s">
         <v>21</v>
@@ -36264,7 +36279,7 @@
         <v>5.57</v>
       </c>
       <c r="H568">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I568" t="s">
         <v>21</v>
@@ -38714,7 +38729,7 @@
         <v>90</v>
       </c>
       <c r="F607">
-        <f t="shared" ref="F607:F624" si="14">ABS(D607-E607)</f>
+        <f t="shared" ref="F607:F638" si="14">ABS(D607-E607)</f>
         <v>11</v>
       </c>
       <c r="G607">
@@ -39392,7 +39407,7 @@
     </row>
     <row r="618" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B618" t="s">
         <v>8</v>
@@ -39455,7 +39470,7 @@
     </row>
     <row r="619" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B619" t="s">
         <v>9</v>
@@ -39518,7 +39533,7 @@
     </row>
     <row r="620" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B620" t="s">
         <v>9</v>
@@ -39581,7 +39596,7 @@
     </row>
     <row r="621" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B621" t="s">
         <v>9</v>
@@ -39644,7 +39659,7 @@
     </row>
     <row r="622" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B622" t="s">
         <v>9</v>
@@ -39707,7 +39722,7 @@
     </row>
     <row r="623" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B623" t="s">
         <v>9</v>
@@ -39770,7 +39785,7 @@
     </row>
     <row r="624" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B624" t="s">
         <v>10</v>
@@ -39829,6 +39844,889 @@
       </c>
       <c r="T624">
         <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A625" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B625" t="s">
+        <v>8</v>
+      </c>
+      <c r="C625" t="s">
+        <v>11</v>
+      </c>
+      <c r="D625">
+        <v>64</v>
+      </c>
+      <c r="E625">
+        <v>81</v>
+      </c>
+      <c r="F625">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G625">
+        <v>0</v>
+      </c>
+      <c r="H625">
+        <v>0</v>
+      </c>
+      <c r="I625" t="s">
+        <v>15</v>
+      </c>
+      <c r="J625">
+        <v>2</v>
+      </c>
+      <c r="K625" t="s">
+        <v>20</v>
+      </c>
+      <c r="L625">
+        <v>7</v>
+      </c>
+      <c r="M625">
+        <v>0.5</v>
+      </c>
+      <c r="N625">
+        <v>65</v>
+      </c>
+      <c r="O625">
+        <v>30.28</v>
+      </c>
+      <c r="P625">
+        <v>8</v>
+      </c>
+      <c r="Q625">
+        <v>0.51</v>
+      </c>
+      <c r="R625">
+        <v>9.9</v>
+      </c>
+      <c r="S625">
+        <v>68</v>
+      </c>
+      <c r="T625">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="626" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A626" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B626" t="s">
+        <v>9</v>
+      </c>
+      <c r="C626" t="s">
+        <v>12</v>
+      </c>
+      <c r="D626">
+        <v>64</v>
+      </c>
+      <c r="E626">
+        <v>81</v>
+      </c>
+      <c r="F626">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G626">
+        <v>0</v>
+      </c>
+      <c r="H626">
+        <v>0</v>
+      </c>
+      <c r="I626" t="s">
+        <v>15</v>
+      </c>
+      <c r="J626">
+        <v>3</v>
+      </c>
+      <c r="K626" t="s">
+        <v>19</v>
+      </c>
+      <c r="L626">
+        <v>7</v>
+      </c>
+      <c r="M626">
+        <v>0.5</v>
+      </c>
+      <c r="N626">
+        <v>65</v>
+      </c>
+      <c r="O626">
+        <v>30.28</v>
+      </c>
+      <c r="P626">
+        <v>8</v>
+      </c>
+      <c r="Q626">
+        <v>0.51</v>
+      </c>
+      <c r="R626">
+        <v>9.9</v>
+      </c>
+      <c r="S626">
+        <v>68</v>
+      </c>
+      <c r="T626">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="627" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A627" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B627" t="s">
+        <v>9</v>
+      </c>
+      <c r="C627" t="s">
+        <v>13</v>
+      </c>
+      <c r="D627">
+        <v>64</v>
+      </c>
+      <c r="E627">
+        <v>81</v>
+      </c>
+      <c r="F627">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G627">
+        <v>0</v>
+      </c>
+      <c r="H627">
+        <v>0</v>
+      </c>
+      <c r="I627" t="s">
+        <v>15</v>
+      </c>
+      <c r="J627">
+        <v>3</v>
+      </c>
+      <c r="K627" t="s">
+        <v>19</v>
+      </c>
+      <c r="L627">
+        <v>7</v>
+      </c>
+      <c r="M627">
+        <v>0.5</v>
+      </c>
+      <c r="N627">
+        <v>65</v>
+      </c>
+      <c r="O627">
+        <v>30.28</v>
+      </c>
+      <c r="P627">
+        <v>8</v>
+      </c>
+      <c r="Q627">
+        <v>0.51</v>
+      </c>
+      <c r="R627">
+        <v>9.9</v>
+      </c>
+      <c r="S627">
+        <v>68</v>
+      </c>
+      <c r="T627">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="628" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A628" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B628" t="s">
+        <v>9</v>
+      </c>
+      <c r="C628" t="s">
+        <v>12</v>
+      </c>
+      <c r="D628">
+        <v>64</v>
+      </c>
+      <c r="E628">
+        <v>81</v>
+      </c>
+      <c r="F628">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G628">
+        <v>0</v>
+      </c>
+      <c r="H628">
+        <v>0</v>
+      </c>
+      <c r="I628" t="s">
+        <v>15</v>
+      </c>
+      <c r="J628">
+        <v>3</v>
+      </c>
+      <c r="K628" t="s">
+        <v>20</v>
+      </c>
+      <c r="L628">
+        <v>7</v>
+      </c>
+      <c r="M628">
+        <v>0.5</v>
+      </c>
+      <c r="N628">
+        <v>65</v>
+      </c>
+      <c r="O628">
+        <v>30.28</v>
+      </c>
+      <c r="P628">
+        <v>8</v>
+      </c>
+      <c r="Q628">
+        <v>0.51</v>
+      </c>
+      <c r="R628">
+        <v>9.9</v>
+      </c>
+      <c r="S628">
+        <v>68</v>
+      </c>
+      <c r="T628">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="629" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A629" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B629" t="s">
+        <v>9</v>
+      </c>
+      <c r="C629" t="s">
+        <v>12</v>
+      </c>
+      <c r="D629">
+        <v>64</v>
+      </c>
+      <c r="E629">
+        <v>81</v>
+      </c>
+      <c r="F629">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G629">
+        <v>0</v>
+      </c>
+      <c r="H629">
+        <v>0</v>
+      </c>
+      <c r="I629" t="s">
+        <v>15</v>
+      </c>
+      <c r="J629">
+        <v>3</v>
+      </c>
+      <c r="K629" t="s">
+        <v>20</v>
+      </c>
+      <c r="L629">
+        <v>7</v>
+      </c>
+      <c r="M629">
+        <v>0.5</v>
+      </c>
+      <c r="N629">
+        <v>65</v>
+      </c>
+      <c r="O629">
+        <v>30.28</v>
+      </c>
+      <c r="P629">
+        <v>8</v>
+      </c>
+      <c r="Q629">
+        <v>0.51</v>
+      </c>
+      <c r="R629">
+        <v>9.9</v>
+      </c>
+      <c r="S629">
+        <v>68</v>
+      </c>
+      <c r="T629">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="630" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A630" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B630" t="s">
+        <v>9</v>
+      </c>
+      <c r="C630" t="s">
+        <v>11</v>
+      </c>
+      <c r="D630">
+        <v>64</v>
+      </c>
+      <c r="E630">
+        <v>81</v>
+      </c>
+      <c r="F630">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G630">
+        <v>0</v>
+      </c>
+      <c r="H630">
+        <v>0</v>
+      </c>
+      <c r="I630" t="s">
+        <v>15</v>
+      </c>
+      <c r="J630">
+        <v>4</v>
+      </c>
+      <c r="K630" t="s">
+        <v>19</v>
+      </c>
+      <c r="L630">
+        <v>7</v>
+      </c>
+      <c r="M630">
+        <v>0.5</v>
+      </c>
+      <c r="N630">
+        <v>65</v>
+      </c>
+      <c r="O630">
+        <v>30.28</v>
+      </c>
+      <c r="P630">
+        <v>8</v>
+      </c>
+      <c r="Q630">
+        <v>0.51</v>
+      </c>
+      <c r="R630">
+        <v>9.9</v>
+      </c>
+      <c r="S630">
+        <v>68</v>
+      </c>
+      <c r="T630">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="631" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A631" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B631" t="s">
+        <v>10</v>
+      </c>
+      <c r="C631" t="s">
+        <v>12</v>
+      </c>
+      <c r="D631">
+        <v>64</v>
+      </c>
+      <c r="E631">
+        <v>81</v>
+      </c>
+      <c r="F631">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G631">
+        <v>0</v>
+      </c>
+      <c r="H631">
+        <v>0.25</v>
+      </c>
+      <c r="I631" t="s">
+        <v>15</v>
+      </c>
+      <c r="J631">
+        <v>1</v>
+      </c>
+      <c r="K631" t="s">
+        <v>18</v>
+      </c>
+      <c r="L631">
+        <v>7</v>
+      </c>
+      <c r="M631">
+        <v>0.5</v>
+      </c>
+      <c r="N631">
+        <v>65</v>
+      </c>
+      <c r="O631">
+        <v>30.28</v>
+      </c>
+      <c r="P631">
+        <v>8</v>
+      </c>
+      <c r="Q631">
+        <v>0.51</v>
+      </c>
+      <c r="R631">
+        <v>9.9</v>
+      </c>
+      <c r="S631">
+        <v>68</v>
+      </c>
+      <c r="T631">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="632" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A632" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B632" t="s">
+        <v>8</v>
+      </c>
+      <c r="C632" t="s">
+        <v>11</v>
+      </c>
+      <c r="D632">
+        <v>63</v>
+      </c>
+      <c r="E632">
+        <v>84</v>
+      </c>
+      <c r="F632">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="G632">
+        <v>1.27</v>
+      </c>
+      <c r="H632">
+        <v>0.35</v>
+      </c>
+      <c r="I632" t="s">
+        <v>21</v>
+      </c>
+      <c r="J632">
+        <v>2</v>
+      </c>
+      <c r="K632" t="s">
+        <v>19</v>
+      </c>
+      <c r="L632">
+        <v>6</v>
+      </c>
+      <c r="M632">
+        <v>0.71</v>
+      </c>
+      <c r="N632">
+        <v>63</v>
+      </c>
+      <c r="O632">
+        <v>30.23</v>
+      </c>
+      <c r="P632">
+        <v>9</v>
+      </c>
+      <c r="Q632">
+        <v>1</v>
+      </c>
+      <c r="R632">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S632">
+        <v>82</v>
+      </c>
+      <c r="T632">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="633" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A633" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B633" t="s">
+        <v>9</v>
+      </c>
+      <c r="C633" t="s">
+        <v>12</v>
+      </c>
+      <c r="D633">
+        <v>63</v>
+      </c>
+      <c r="E633">
+        <v>84</v>
+      </c>
+      <c r="F633">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="G633">
+        <v>1.27</v>
+      </c>
+      <c r="H633">
+        <v>0.5</v>
+      </c>
+      <c r="I633" t="s">
+        <v>21</v>
+      </c>
+      <c r="J633">
+        <v>3</v>
+      </c>
+      <c r="K633" t="s">
+        <v>19</v>
+      </c>
+      <c r="L633">
+        <v>6</v>
+      </c>
+      <c r="M633">
+        <v>0.71</v>
+      </c>
+      <c r="N633">
+        <v>63</v>
+      </c>
+      <c r="O633">
+        <v>30.23</v>
+      </c>
+      <c r="P633">
+        <v>9</v>
+      </c>
+      <c r="Q633">
+        <v>1</v>
+      </c>
+      <c r="R633">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S633">
+        <v>82</v>
+      </c>
+      <c r="T633">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="634" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A634" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B634" t="s">
+        <v>9</v>
+      </c>
+      <c r="C634" t="s">
+        <v>13</v>
+      </c>
+      <c r="D634">
+        <v>63</v>
+      </c>
+      <c r="E634">
+        <v>84</v>
+      </c>
+      <c r="F634">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="G634">
+        <v>1.27</v>
+      </c>
+      <c r="H634">
+        <v>0.9</v>
+      </c>
+      <c r="I634" t="s">
+        <v>21</v>
+      </c>
+      <c r="J634">
+        <v>3</v>
+      </c>
+      <c r="K634" t="s">
+        <v>20</v>
+      </c>
+      <c r="L634">
+        <v>6</v>
+      </c>
+      <c r="M634">
+        <v>0.71</v>
+      </c>
+      <c r="N634">
+        <v>63</v>
+      </c>
+      <c r="O634">
+        <v>30.23</v>
+      </c>
+      <c r="P634">
+        <v>9</v>
+      </c>
+      <c r="Q634">
+        <v>1</v>
+      </c>
+      <c r="R634">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S634">
+        <v>82</v>
+      </c>
+      <c r="T634">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A635" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B635" t="s">
+        <v>9</v>
+      </c>
+      <c r="C635" t="s">
+        <v>12</v>
+      </c>
+      <c r="D635">
+        <v>63</v>
+      </c>
+      <c r="E635">
+        <v>84</v>
+      </c>
+      <c r="F635">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="G635">
+        <v>1.27</v>
+      </c>
+      <c r="H635">
+        <v>2</v>
+      </c>
+      <c r="I635" t="s">
+        <v>21</v>
+      </c>
+      <c r="J635">
+        <v>3</v>
+      </c>
+      <c r="K635" t="s">
+        <v>20</v>
+      </c>
+      <c r="L635">
+        <v>6</v>
+      </c>
+      <c r="M635">
+        <v>0.71</v>
+      </c>
+      <c r="N635">
+        <v>63</v>
+      </c>
+      <c r="O635">
+        <v>30.23</v>
+      </c>
+      <c r="P635">
+        <v>9</v>
+      </c>
+      <c r="Q635">
+        <v>1</v>
+      </c>
+      <c r="R635">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S635">
+        <v>82</v>
+      </c>
+      <c r="T635">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="636" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A636" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B636" t="s">
+        <v>9</v>
+      </c>
+      <c r="C636" t="s">
+        <v>12</v>
+      </c>
+      <c r="D636">
+        <v>63</v>
+      </c>
+      <c r="E636">
+        <v>84</v>
+      </c>
+      <c r="F636">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="G636">
+        <v>1.27</v>
+      </c>
+      <c r="H636">
+        <v>1.35</v>
+      </c>
+      <c r="I636" t="s">
+        <v>21</v>
+      </c>
+      <c r="J636">
+        <v>3</v>
+      </c>
+      <c r="K636" t="s">
+        <v>19</v>
+      </c>
+      <c r="L636">
+        <v>6</v>
+      </c>
+      <c r="M636">
+        <v>0.71</v>
+      </c>
+      <c r="N636">
+        <v>63</v>
+      </c>
+      <c r="O636">
+        <v>30.23</v>
+      </c>
+      <c r="P636">
+        <v>9</v>
+      </c>
+      <c r="Q636">
+        <v>1</v>
+      </c>
+      <c r="R636">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S636">
+        <v>82</v>
+      </c>
+      <c r="T636">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A637" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B637" t="s">
+        <v>9</v>
+      </c>
+      <c r="C637" t="s">
+        <v>11</v>
+      </c>
+      <c r="D637">
+        <v>63</v>
+      </c>
+      <c r="E637">
+        <v>84</v>
+      </c>
+      <c r="F637">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="G637">
+        <v>1.27</v>
+      </c>
+      <c r="H637">
+        <v>0.75</v>
+      </c>
+      <c r="I637" t="s">
+        <v>21</v>
+      </c>
+      <c r="J637">
+        <v>4</v>
+      </c>
+      <c r="K637" t="s">
+        <v>18</v>
+      </c>
+      <c r="L637">
+        <v>6</v>
+      </c>
+      <c r="M637">
+        <v>0.71</v>
+      </c>
+      <c r="N637">
+        <v>63</v>
+      </c>
+      <c r="O637">
+        <v>30.23</v>
+      </c>
+      <c r="P637">
+        <v>9</v>
+      </c>
+      <c r="Q637">
+        <v>1</v>
+      </c>
+      <c r="R637">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S637">
+        <v>82</v>
+      </c>
+      <c r="T637">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="638" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A638" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B638" t="s">
+        <v>10</v>
+      </c>
+      <c r="C638" t="s">
+        <v>12</v>
+      </c>
+      <c r="D638">
+        <v>63</v>
+      </c>
+      <c r="E638">
+        <v>84</v>
+      </c>
+      <c r="F638">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="G638">
+        <v>1.27</v>
+      </c>
+      <c r="H638">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I638" t="s">
+        <v>21</v>
+      </c>
+      <c r="J638">
+        <v>1</v>
+      </c>
+      <c r="K638" t="s">
+        <v>18</v>
+      </c>
+      <c r="L638">
+        <v>6</v>
+      </c>
+      <c r="M638">
+        <v>0.71</v>
+      </c>
+      <c r="N638">
+        <v>63</v>
+      </c>
+      <c r="O638">
+        <v>30.23</v>
+      </c>
+      <c r="P638">
+        <v>9</v>
+      </c>
+      <c r="Q638">
+        <v>1</v>
+      </c>
+      <c r="R638">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S638">
+        <v>82</v>
+      </c>
+      <c r="T638">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
